--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\IAD activities\6. MAS_Series\NAP\NAP detailed series as of April 2021\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -321,7 +321,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$V$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$W$272</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -466,7 +466,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="67">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -657,13 +657,16 @@
     <t>2019 - 2020</t>
   </si>
   <si>
-    <t>Annual 2000 to 2020</t>
+    <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Annual 2001 to 2020</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of April 2021</t>
+    <t>Annual 2000 to 2021</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2021</t>
   </si>
 </sst>
 </file>
@@ -23617,17 +23620,17 @@
   </sheetPr>
   <dimension ref="A1:CR272"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A200" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="T242" activeCellId="6" sqref="T9 T48 T87 T126 T164 T203 A1:XFD1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="43.6328125" style="3" customWidth="1"/>
-    <col min="2" max="22" width="10.1796875" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="7.81640625" style="3"/>
+    <col min="2" max="23" width="10.1796875" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="7.81640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.25">
@@ -23642,7 +23645,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23652,7 +23655,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23685,6 +23688,7 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -23752,6 +23756,9 @@
       </c>
       <c r="V10" s="7">
         <v>2020</v>
+      </c>
+      <c r="W10" s="7">
+        <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -23824,7 +23831,9 @@
       <c r="V12" s="9">
         <v>1640577.4232026543</v>
       </c>
-      <c r="W12" s="10"/>
+      <c r="W12" s="9">
+        <v>1724258.3922225814</v>
+      </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23966,7 +23975,9 @@
       <c r="V13" s="9">
         <v>147814.18420757225</v>
       </c>
-      <c r="W13" s="10"/>
+      <c r="W13" s="9">
+        <v>161155.4294950809</v>
+      </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24108,7 +24119,9 @@
       <c r="V14" s="9">
         <v>17850.962541837536</v>
       </c>
-      <c r="W14" s="10"/>
+      <c r="W14" s="9">
+        <v>15876.509400786053</v>
+      </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -24250,7 +24263,9 @@
       <c r="V15" s="9">
         <v>31310.765700984015</v>
       </c>
-      <c r="W15" s="10"/>
+      <c r="W15" s="9">
+        <v>41039.890214248779</v>
+      </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24392,7 +24407,9 @@
       <c r="V16" s="9">
         <v>51320.28375186395</v>
       </c>
-      <c r="W16" s="10"/>
+      <c r="W16" s="9">
+        <v>52471.080521075666</v>
+      </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -24534,7 +24551,9 @@
       <c r="V17" s="9">
         <v>10561.093204647921</v>
       </c>
-      <c r="W17" s="10"/>
+      <c r="W17" s="9">
+        <v>10541.10949611893</v>
+      </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -24676,7 +24695,9 @@
       <c r="V18" s="9">
         <v>26671.573719802989</v>
       </c>
-      <c r="W18" s="10"/>
+      <c r="W18" s="9">
+        <v>29432.775398603302</v>
+      </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -24818,7 +24839,9 @@
       <c r="V19" s="9">
         <v>21583.131714174349</v>
       </c>
-      <c r="W19" s="10"/>
+      <c r="W19" s="9">
+        <v>24619.245930665715</v>
+      </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -24960,7 +24983,9 @@
       <c r="V20" s="9">
         <v>28845.945265560655</v>
       </c>
-      <c r="W20" s="10"/>
+      <c r="W20" s="9">
+        <v>33494.193090363246</v>
+      </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -25102,7 +25127,9 @@
       <c r="V21" s="9">
         <v>73382.09980776615</v>
       </c>
-      <c r="W21" s="10"/>
+      <c r="W21" s="9">
+        <v>93166.537392307975</v>
+      </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -25244,7 +25271,9 @@
       <c r="V22" s="9">
         <v>360451.78541009605</v>
       </c>
-      <c r="W22" s="10"/>
+      <c r="W22" s="9">
+        <v>389185.67392141401</v>
+      </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
@@ -25386,7 +25415,9 @@
       <c r="V23" s="9">
         <v>34813.603901394228</v>
       </c>
-      <c r="W23" s="10"/>
+      <c r="W23" s="9">
+        <v>39220.787871212917</v>
+      </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -25528,7 +25559,9 @@
       <c r="V24" s="9">
         <v>35212.93868667019</v>
       </c>
-      <c r="W24" s="10"/>
+      <c r="W24" s="9">
+        <v>42233.294211893241</v>
+      </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
@@ -25670,7 +25703,9 @@
       <c r="V25" s="9">
         <v>71007.966932725161</v>
       </c>
-      <c r="W25" s="10"/>
+      <c r="W25" s="9">
+        <v>93180.1514142862</v>
+      </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -25812,7 +25847,9 @@
       <c r="V26" s="9">
         <v>60838.161880895888</v>
       </c>
-      <c r="W26" s="10"/>
+      <c r="W26" s="9">
+        <v>70326.721649347048</v>
+      </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
@@ -25954,7 +25991,9 @@
       <c r="V27" s="9">
         <v>26712.704711005572</v>
       </c>
-      <c r="W27" s="10"/>
+      <c r="W27" s="9">
+        <v>28242.533792381946</v>
+      </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -26096,7 +26135,9 @@
       <c r="V28" s="9">
         <v>328099.71052380971</v>
       </c>
-      <c r="W28" s="10"/>
+      <c r="W28" s="9">
+        <v>354426.79278668365</v>
+      </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
@@ -26238,7 +26279,9 @@
       <c r="V29" s="9">
         <v>40623.037461585736</v>
       </c>
-      <c r="W29" s="10"/>
+      <c r="W29" s="9">
+        <v>53395.017295597587</v>
+      </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
@@ -26380,7 +26423,9 @@
       <c r="V30" s="9">
         <v>37058.280204194431</v>
       </c>
-      <c r="W30" s="10"/>
+      <c r="W30" s="9">
+        <v>38030.343984161023</v>
+      </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
@@ -26522,7 +26567,9 @@
       <c r="V31" s="9">
         <v>48980.065360642373</v>
       </c>
-      <c r="W31" s="10"/>
+      <c r="W31" s="9">
+        <v>44936.560255864977</v>
+      </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -26664,7 +26711,9 @@
       <c r="V32" s="9">
         <v>18431.171554103625</v>
       </c>
-      <c r="W32" s="10"/>
+      <c r="W32" s="9">
+        <v>19626.257038835982</v>
+      </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -26806,7 +26855,9 @@
       <c r="V33" s="9">
         <v>57969.683543001833</v>
       </c>
-      <c r="W33" s="10"/>
+      <c r="W33" s="9">
+        <v>66836.385273426684</v>
+      </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -27046,7 +27097,9 @@
       <c r="V35" s="13">
         <v>3170116.5732869892</v>
       </c>
-      <c r="W35" s="10"/>
+      <c r="W35" s="13">
+        <v>3425695.6826569373</v>
+      </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -27144,6 +27197,7 @@
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
     </row>
     <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
@@ -27358,7 +27412,7 @@
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.25">
@@ -27368,7 +27422,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.25">
@@ -27401,6 +27455,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
     </row>
     <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -27468,6 +27523,9 @@
       </c>
       <c r="V49" s="16">
         <v>2020</v>
+      </c>
+      <c r="W49" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="50" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -27540,7 +27598,9 @@
       <c r="V51" s="9">
         <v>1621900.0060080742</v>
       </c>
-      <c r="W51" s="10"/>
+      <c r="W51" s="9">
+        <v>1689332.6275123076</v>
+      </c>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -27682,7 +27742,9 @@
       <c r="V52" s="9">
         <v>143491.00654922801</v>
       </c>
-      <c r="W52" s="10"/>
+      <c r="W52" s="9">
+        <v>147090.7626552344</v>
+      </c>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
@@ -27824,7 +27886,9 @@
       <c r="V53" s="9">
         <v>19213.248244913593</v>
       </c>
-      <c r="W53" s="10"/>
+      <c r="W53" s="9">
+        <v>16784.10629415017</v>
+      </c>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
@@ -27966,7 +28030,9 @@
       <c r="V54" s="9">
         <v>32937.354394653295</v>
       </c>
-      <c r="W54" s="10"/>
+      <c r="W54" s="9">
+        <v>39924.650004922238</v>
+      </c>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
@@ -28108,7 +28174,9 @@
       <c r="V55" s="9">
         <v>59860.568701057811</v>
       </c>
-      <c r="W55" s="10"/>
+      <c r="W55" s="9">
+        <v>65150.003254585921</v>
+      </c>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
@@ -28250,7 +28318,9 @@
       <c r="V56" s="9">
         <v>11792.771390914779</v>
       </c>
-      <c r="W56" s="10"/>
+      <c r="W56" s="9">
+        <v>11806.215863931184</v>
+      </c>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
@@ -28392,7 +28462,9 @@
       <c r="V57" s="9">
         <v>29907.667419174672</v>
       </c>
-      <c r="W57" s="10"/>
+      <c r="W57" s="9">
+        <v>38448.258550980958</v>
+      </c>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -28534,7 +28606,9 @@
       <c r="V58" s="9">
         <v>23804.393465331636</v>
       </c>
-      <c r="W58" s="10"/>
+      <c r="W58" s="9">
+        <v>27912.849257854654</v>
+      </c>
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
@@ -28676,7 +28750,9 @@
       <c r="V59" s="9">
         <v>26296.525189624364</v>
       </c>
-      <c r="W59" s="10"/>
+      <c r="W59" s="9">
+        <v>30502.093910150747</v>
+      </c>
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
@@ -28818,7 +28894,9 @@
       <c r="V60" s="9">
         <v>90107.71154436488</v>
       </c>
-      <c r="W60" s="10"/>
+      <c r="W60" s="9">
+        <v>104974.64566577216</v>
+      </c>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
@@ -28960,7 +29038,9 @@
       <c r="V61" s="9">
         <v>399292.72004445503</v>
       </c>
-      <c r="W61" s="10"/>
+      <c r="W61" s="9">
+        <v>410232.83895056573</v>
+      </c>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
@@ -29102,7 +29182,9 @@
       <c r="V62" s="9">
         <v>47082.260013579609</v>
       </c>
-      <c r="W62" s="10"/>
+      <c r="W62" s="9">
+        <v>53036.269891676893</v>
+      </c>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
@@ -29244,7 +29326,9 @@
       <c r="V63" s="9">
         <v>32481.379507134629</v>
       </c>
-      <c r="W63" s="10"/>
+      <c r="W63" s="9">
+        <v>36666.032233392601</v>
+      </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -29386,7 +29470,9 @@
       <c r="V64" s="9">
         <v>67406.417476533912</v>
       </c>
-      <c r="W64" s="10"/>
+      <c r="W64" s="9">
+        <v>94683.668099403993</v>
+      </c>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
@@ -29528,7 +29614,9 @@
       <c r="V65" s="9">
         <v>84245.934901416695</v>
       </c>
-      <c r="W65" s="10"/>
+      <c r="W65" s="9">
+        <v>101574.0431937134</v>
+      </c>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
@@ -29670,7 +29758,9 @@
       <c r="V66" s="9">
         <v>24657.249873138979</v>
       </c>
-      <c r="W66" s="10"/>
+      <c r="W66" s="9">
+        <v>28583.801136264927</v>
+      </c>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
@@ -29812,7 +29902,9 @@
       <c r="V67" s="9">
         <v>337339.149528098</v>
       </c>
-      <c r="W67" s="10"/>
+      <c r="W67" s="9">
+        <v>410735.67110954016</v>
+      </c>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -29954,7 +30046,9 @@
       <c r="V68" s="9">
         <v>43069.54671911928</v>
       </c>
-      <c r="W68" s="10"/>
+      <c r="W68" s="9">
+        <v>54013.685656098613</v>
+      </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
@@ -30096,7 +30190,9 @@
       <c r="V69" s="9">
         <v>37636.816659452954</v>
       </c>
-      <c r="W69" s="10"/>
+      <c r="W69" s="9">
+        <v>41132.566738771216</v>
+      </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -30238,7 +30334,9 @@
       <c r="V70" s="9">
         <v>57622.191009072027</v>
       </c>
-      <c r="W70" s="10"/>
+      <c r="W70" s="9">
+        <v>54257.336538402509</v>
+      </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
@@ -30380,7 +30478,9 @@
       <c r="V71" s="9">
         <v>19376.983913419441</v>
       </c>
-      <c r="W71" s="10"/>
+      <c r="W71" s="9">
+        <v>21840.385121000567</v>
+      </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
@@ -30522,7 +30622,9 @@
       <c r="V72" s="9">
         <v>57125.674596530516</v>
       </c>
-      <c r="W72" s="10"/>
+      <c r="W72" s="9">
+        <v>67944.71581721105</v>
+      </c>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
@@ -30762,7 +30864,9 @@
       <c r="V74" s="13">
         <v>3266647.5771492878</v>
       </c>
-      <c r="W74" s="10"/>
+      <c r="W74" s="13">
+        <v>3546627.2274559322</v>
+      </c>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
@@ -30860,6 +30964,7 @@
       <c r="T75" s="14"/>
       <c r="U75" s="14"/>
       <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
     </row>
     <row r="76" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
@@ -31074,7 +31179,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.25">
@@ -31084,7 +31189,7 @@
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
@@ -31116,6 +31221,8 @@
       <c r="S87" s="2"/>
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
@@ -31181,6 +31288,10 @@
       <c r="U88" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="V88" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="W88" s="17"/>
     </row>
     <row r="89" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -31249,7 +31360,10 @@
       <c r="U90" s="18">
         <v>-3.0396286100026941</v>
       </c>
-      <c r="W90" s="10"/>
+      <c r="V90" s="18">
+        <v>5.1007022184036401</v>
+      </c>
+      <c r="W90" s="18"/>
       <c r="X90" s="10"/>
       <c r="Y90" s="10"/>
       <c r="Z90" s="10"/>
@@ -31383,7 +31497,10 @@
       <c r="U91" s="18">
         <v>-11.031784545224937</v>
       </c>
-      <c r="W91" s="10"/>
+      <c r="V91" s="18">
+        <v>9.0256867830585321</v>
+      </c>
+      <c r="W91" s="18"/>
       <c r="X91" s="10"/>
       <c r="Y91" s="10"/>
       <c r="Z91" s="10"/>
@@ -31517,7 +31634,10 @@
       <c r="U92" s="18">
         <v>-26.536815839125921</v>
       </c>
-      <c r="W92" s="10"/>
+      <c r="V92" s="18">
+        <v>-11.060765694981043</v>
+      </c>
+      <c r="W92" s="18"/>
       <c r="X92" s="10"/>
       <c r="Y92" s="10"/>
       <c r="Z92" s="10"/>
@@ -31651,7 +31771,10 @@
       <c r="U93" s="18">
         <v>-36.315752329604514</v>
       </c>
-      <c r="W93" s="10"/>
+      <c r="V93" s="18">
+        <v>31.07277735133448</v>
+      </c>
+      <c r="W93" s="18"/>
       <c r="X93" s="10"/>
       <c r="Y93" s="10"/>
       <c r="Z93" s="10"/>
@@ -31785,7 +31908,10 @@
       <c r="U94" s="18">
         <v>-29.44709208262573</v>
       </c>
-      <c r="W94" s="10"/>
+      <c r="V94" s="18">
+        <v>2.2423819298737158</v>
+      </c>
+      <c r="W94" s="18"/>
       <c r="X94" s="10"/>
       <c r="Y94" s="10"/>
       <c r="Z94" s="10"/>
@@ -31919,7 +32045,10 @@
       <c r="U95" s="18">
         <v>-27.352189322225968</v>
       </c>
-      <c r="W95" s="10"/>
+      <c r="V95" s="18">
+        <v>-0.18922007543874031</v>
+      </c>
+      <c r="W95" s="18"/>
       <c r="X95" s="10"/>
       <c r="Y95" s="10"/>
       <c r="Z95" s="10"/>
@@ -32053,7 +32182,10 @@
       <c r="U96" s="18">
         <v>-15.489851771614923</v>
       </c>
-      <c r="W96" s="10"/>
+      <c r="V96" s="18">
+        <v>10.35260126683184</v>
+      </c>
+      <c r="W96" s="18"/>
       <c r="X96" s="10"/>
       <c r="Y96" s="10"/>
       <c r="Z96" s="10"/>
@@ -32187,7 +32319,10 @@
       <c r="U97" s="18">
         <v>-20.510553577362998</v>
       </c>
-      <c r="W97" s="10"/>
+      <c r="V97" s="18">
+        <v>14.067069861309562</v>
+      </c>
+      <c r="W97" s="18"/>
       <c r="X97" s="10"/>
       <c r="Y97" s="10"/>
       <c r="Z97" s="10"/>
@@ -32321,7 +32456,10 @@
       <c r="U98" s="18">
         <v>-6.8274468059528459</v>
       </c>
-      <c r="W98" s="10"/>
+      <c r="V98" s="18">
+        <v>16.114042309967786</v>
+      </c>
+      <c r="W98" s="18"/>
       <c r="X98" s="10"/>
       <c r="Y98" s="10"/>
       <c r="Z98" s="10"/>
@@ -32455,7 +32593,10 @@
       <c r="U99" s="18">
         <v>-58.135242939222657</v>
       </c>
-      <c r="W99" s="10"/>
+      <c r="V99" s="18">
+        <v>26.960849630045615</v>
+      </c>
+      <c r="W99" s="18"/>
       <c r="X99" s="10"/>
       <c r="Y99" s="10"/>
       <c r="Z99" s="10"/>
@@ -32589,7 +32730,10 @@
       <c r="U100" s="18">
         <v>-7.0457394485340075</v>
       </c>
-      <c r="W100" s="10"/>
+      <c r="V100" s="18">
+        <v>7.97163162297187</v>
+      </c>
+      <c r="W100" s="18"/>
       <c r="X100" s="10"/>
       <c r="Y100" s="10"/>
       <c r="Z100" s="10"/>
@@ -32723,7 +32867,10 @@
       <c r="U101" s="18">
         <v>-0.33516026891877004</v>
       </c>
-      <c r="W101" s="10"/>
+      <c r="V101" s="18">
+        <v>12.659372991953262</v>
+      </c>
+      <c r="W101" s="18"/>
       <c r="X101" s="10"/>
       <c r="Y101" s="10"/>
       <c r="Z101" s="10"/>
@@ -32857,7 +33004,10 @@
       <c r="U102" s="18">
         <v>-15.756855293656216</v>
       </c>
-      <c r="W102" s="10"/>
+      <c r="V102" s="18">
+        <v>19.936863513980427</v>
+      </c>
+      <c r="W102" s="18"/>
       <c r="X102" s="10"/>
       <c r="Y102" s="10"/>
       <c r="Z102" s="10"/>
@@ -32991,7 +33141,10 @@
       <c r="U103" s="18">
         <v>-22.291780454622483</v>
       </c>
-      <c r="W103" s="10"/>
+      <c r="V103" s="18">
+        <v>31.224925088430638</v>
+      </c>
+      <c r="W103" s="18"/>
       <c r="X103" s="10"/>
       <c r="Y103" s="10"/>
       <c r="Z103" s="10"/>
@@ -33125,7 +33278,10 @@
       <c r="U104" s="18">
         <v>-16.045959721470737</v>
       </c>
-      <c r="W104" s="10"/>
+      <c r="V104" s="18">
+        <v>15.59639455746067</v>
+      </c>
+      <c r="W104" s="18"/>
       <c r="X104" s="10"/>
       <c r="Y104" s="10"/>
       <c r="Z104" s="10"/>
@@ -33259,7 +33415,10 @@
       <c r="U105" s="18">
         <v>-18.206999695796327</v>
       </c>
-      <c r="W105" s="10"/>
+      <c r="V105" s="18">
+        <v>5.7269718582487315</v>
+      </c>
+      <c r="W105" s="18"/>
       <c r="X105" s="10"/>
       <c r="Y105" s="10"/>
       <c r="Z105" s="10"/>
@@ -33393,7 +33552,10 @@
       <c r="U106" s="18">
         <v>-18.418020942233071</v>
       </c>
-      <c r="W106" s="10"/>
+      <c r="V106" s="18">
+        <v>8.0241101770077279</v>
+      </c>
+      <c r="W106" s="18"/>
       <c r="X106" s="10"/>
       <c r="Y106" s="10"/>
       <c r="Z106" s="10"/>
@@ -33527,7 +33689,10 @@
       <c r="U107" s="18">
         <v>-29.540050120767759</v>
       </c>
-      <c r="W107" s="10"/>
+      <c r="V107" s="18">
+        <v>31.440238426507108</v>
+      </c>
+      <c r="W107" s="18"/>
       <c r="X107" s="10"/>
       <c r="Y107" s="10"/>
       <c r="Z107" s="10"/>
@@ -33661,7 +33826,10 @@
       <c r="U108" s="18">
         <v>-23.682352362050679</v>
       </c>
-      <c r="W108" s="10"/>
+      <c r="V108" s="18">
+        <v>2.6230677047354334</v>
+      </c>
+      <c r="W108" s="18"/>
       <c r="X108" s="10"/>
       <c r="Y108" s="10"/>
       <c r="Z108" s="10"/>
@@ -33795,7 +33963,10 @@
       <c r="U109" s="18">
         <v>-30.465582328604555</v>
       </c>
-      <c r="W109" s="10"/>
+      <c r="V109" s="18">
+        <v>-8.2554097774367818</v>
+      </c>
+      <c r="W109" s="18"/>
       <c r="X109" s="10"/>
       <c r="Y109" s="10"/>
       <c r="Z109" s="10"/>
@@ -33929,7 +34100,10 @@
       <c r="U110" s="18">
         <v>-15.125103263048516</v>
       </c>
-      <c r="W110" s="10"/>
+      <c r="V110" s="18">
+        <v>6.4840451472346814</v>
+      </c>
+      <c r="W110" s="18"/>
       <c r="X110" s="10"/>
       <c r="Y110" s="10"/>
       <c r="Z110" s="10"/>
@@ -34063,7 +34237,10 @@
       <c r="U111" s="18">
         <v>-15.523039125360498</v>
       </c>
-      <c r="W111" s="10"/>
+      <c r="V111" s="18">
+        <v>15.295411650552722</v>
+      </c>
+      <c r="W111" s="18"/>
       <c r="X111" s="10"/>
       <c r="Y111" s="10"/>
       <c r="Z111" s="10"/>
@@ -34155,6 +34332,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
       <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
       <c r="W112" s="10"/>
       <c r="X112" s="10"/>
       <c r="Y112" s="10"/>
@@ -34289,7 +34467,10 @@
       <c r="U113" s="18">
         <v>-12.282724593972787</v>
       </c>
-      <c r="W113" s="10"/>
+      <c r="V113" s="18">
+        <v>8.0621359959941969</v>
+      </c>
+      <c r="W113" s="18"/>
       <c r="X113" s="10"/>
       <c r="Y113" s="10"/>
       <c r="Z113" s="10"/>
@@ -34381,6 +34562,8 @@
       <c r="S114" s="14"/>
       <c r="T114" s="14"/>
       <c r="U114" s="14"/>
+      <c r="V114" s="14"/>
+      <c r="W114" s="14"/>
     </row>
     <row r="115" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
@@ -34409,6 +34592,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
       <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
       <c r="W116" s="10"/>
       <c r="X116" s="10"/>
       <c r="Y116" s="10"/>
@@ -34501,6 +34685,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
       <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
       <c r="W117" s="10"/>
       <c r="X117" s="10"/>
       <c r="Y117" s="10"/>
@@ -34584,7 +34769,7 @@
     </row>
     <row r="120" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122" spans="1:92" x14ac:dyDescent="0.25">
@@ -34594,7 +34779,7 @@
     </row>
     <row r="123" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:92" x14ac:dyDescent="0.25">
@@ -34626,6 +34811,8 @@
       <c r="S126" s="2"/>
       <c r="T126" s="2"/>
       <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
     </row>
     <row r="127" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
@@ -34691,6 +34878,10 @@
       <c r="U127" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="V127" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="W127" s="7"/>
     </row>
     <row r="128" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
@@ -34759,7 +34950,10 @@
       <c r="U129" s="18">
         <v>-2.6756524756085298</v>
       </c>
-      <c r="W129" s="10"/>
+      <c r="V129" s="18">
+        <v>4.1576312506590938</v>
+      </c>
+      <c r="W129" s="18"/>
       <c r="X129" s="10"/>
       <c r="Y129" s="10"/>
       <c r="Z129" s="10"/>
@@ -34893,7 +35087,10 @@
       <c r="U130" s="18">
         <v>-16.049716907838658</v>
       </c>
-      <c r="W130" s="10"/>
+      <c r="V130" s="18">
+        <v>2.5086980658759188</v>
+      </c>
+      <c r="W130" s="18"/>
       <c r="X130" s="10"/>
       <c r="Y130" s="10"/>
       <c r="Z130" s="10"/>
@@ -35027,7 +35224,10 @@
       <c r="U131" s="18">
         <v>-14.647434731790668</v>
       </c>
-      <c r="W131" s="10"/>
+      <c r="V131" s="18">
+        <v>-12.643057122870943</v>
+      </c>
+      <c r="W131" s="18"/>
       <c r="X131" s="10"/>
       <c r="Y131" s="10"/>
       <c r="Z131" s="10"/>
@@ -35161,7 +35361,10 @@
       <c r="U132" s="18">
         <v>-35.763869108862096</v>
       </c>
-      <c r="W132" s="10"/>
+      <c r="V132" s="18">
+        <v>21.213894493612344</v>
+      </c>
+      <c r="W132" s="18"/>
       <c r="X132" s="10"/>
       <c r="Y132" s="10"/>
       <c r="Z132" s="10"/>
@@ -35295,7 +35498,10 @@
       <c r="U133" s="18">
         <v>-25.067919614241447</v>
       </c>
-      <c r="W133" s="10"/>
+      <c r="V133" s="18">
+        <v>8.8362584390793302</v>
+      </c>
+      <c r="W133" s="18"/>
       <c r="X133" s="10"/>
       <c r="Y133" s="10"/>
       <c r="Z133" s="10"/>
@@ -35429,7 +35635,10 @@
       <c r="U134" s="18">
         <v>-25.462441052513483</v>
       </c>
-      <c r="W134" s="10"/>
+      <c r="V134" s="18">
+        <v>0.11400605142539177</v>
+      </c>
+      <c r="W134" s="18"/>
       <c r="X134" s="10"/>
       <c r="Y134" s="10"/>
       <c r="Z134" s="10"/>
@@ -35563,7 +35772,10 @@
       <c r="U135" s="18">
         <v>-12.086590190365285</v>
       </c>
-      <c r="W135" s="10"/>
+      <c r="V135" s="18">
+        <v>28.556527034036293</v>
+      </c>
+      <c r="W135" s="18"/>
       <c r="X135" s="10"/>
       <c r="Y135" s="10"/>
       <c r="Z135" s="10"/>
@@ -35697,7 +35909,10 @@
       <c r="U136" s="18">
         <v>-10.014036359843359</v>
       </c>
-      <c r="W136" s="10"/>
+      <c r="V136" s="18">
+        <v>17.259233252493971</v>
+      </c>
+      <c r="W136" s="18"/>
       <c r="X136" s="10"/>
       <c r="Y136" s="10"/>
       <c r="Z136" s="10"/>
@@ -35831,7 +36046,10 @@
       <c r="U137" s="18">
         <v>-18.132118122684616</v>
       </c>
-      <c r="W137" s="10"/>
+      <c r="V137" s="18">
+        <v>15.992868602220284</v>
+      </c>
+      <c r="W137" s="18"/>
       <c r="X137" s="10"/>
       <c r="Y137" s="10"/>
       <c r="Z137" s="10"/>
@@ -35965,7 +36183,10 @@
       <c r="U138" s="18">
         <v>-48.120035377219516</v>
       </c>
-      <c r="W138" s="10"/>
+      <c r="V138" s="18">
+        <v>16.499069687379063</v>
+      </c>
+      <c r="W138" s="18"/>
       <c r="X138" s="10"/>
       <c r="Y138" s="10"/>
       <c r="Z138" s="10"/>
@@ -36099,7 +36320,10 @@
       <c r="U139" s="18">
         <v>-1.7863294162665397</v>
       </c>
-      <c r="W139" s="10"/>
+      <c r="V139" s="18">
+        <v>2.7398743720878969</v>
+      </c>
+      <c r="W139" s="18"/>
       <c r="X139" s="10"/>
       <c r="Y139" s="10"/>
       <c r="Z139" s="10"/>
@@ -36233,7 +36457,10 @@
       <c r="U140" s="18">
         <v>5.807859246775223</v>
       </c>
-      <c r="W140" s="10"/>
+      <c r="V140" s="18">
+        <v>12.645972976615852</v>
+      </c>
+      <c r="W140" s="18"/>
       <c r="X140" s="10"/>
       <c r="Y140" s="10"/>
       <c r="Z140" s="10"/>
@@ -36367,7 +36594,10 @@
       <c r="U141" s="18">
         <v>-20.665001044557968</v>
       </c>
-      <c r="W141" s="10"/>
+      <c r="V141" s="18">
+        <v>12.883235840826288</v>
+      </c>
+      <c r="W141" s="18"/>
       <c r="X141" s="10"/>
       <c r="Y141" s="10"/>
       <c r="Z141" s="10"/>
@@ -36501,7 +36731,10 @@
       <c r="U142" s="18">
         <v>-24.097187560422995</v>
       </c>
-      <c r="W142" s="10"/>
+      <c r="V142" s="18">
+        <v>40.466845211535031</v>
+      </c>
+      <c r="W142" s="18"/>
       <c r="X142" s="10"/>
       <c r="Y142" s="10"/>
       <c r="Z142" s="10"/>
@@ -36635,7 +36868,10 @@
       <c r="U143" s="18">
         <v>-0.45732974597460441</v>
       </c>
-      <c r="W143" s="10"/>
+      <c r="V143" s="18">
+        <v>20.568480025266254</v>
+      </c>
+      <c r="W143" s="18"/>
       <c r="X143" s="10"/>
       <c r="Y143" s="10"/>
       <c r="Z143" s="10"/>
@@ -36769,7 +37005,10 @@
       <c r="U144" s="18">
         <v>-22.252381549373297</v>
       </c>
-      <c r="W144" s="10"/>
+      <c r="V144" s="18">
+        <v>15.924530445722723</v>
+      </c>
+      <c r="W144" s="18"/>
       <c r="X144" s="10"/>
       <c r="Y144" s="10"/>
       <c r="Z144" s="10"/>
@@ -36903,7 +37142,10 @@
       <c r="U145" s="18">
         <v>-12.163281805622546</v>
       </c>
-      <c r="W145" s="10"/>
+      <c r="V145" s="18">
+        <v>21.757486993168797</v>
+      </c>
+      <c r="W145" s="18"/>
       <c r="X145" s="10"/>
       <c r="Y145" s="10"/>
       <c r="Z145" s="10"/>
@@ -37037,7 +37279,10 @@
       <c r="U146" s="18">
         <v>-22.995018873014445</v>
       </c>
-      <c r="W146" s="10"/>
+      <c r="V146" s="18">
+        <v>25.410388013489467</v>
+      </c>
+      <c r="W146" s="18"/>
       <c r="X146" s="10"/>
       <c r="Y146" s="10"/>
       <c r="Z146" s="10"/>
@@ -37171,7 +37416,10 @@
       <c r="U147" s="18">
         <v>-21.369577880943552</v>
       </c>
-      <c r="W147" s="10"/>
+      <c r="V147" s="18">
+        <v>9.2881130488496382</v>
+      </c>
+      <c r="W147" s="18"/>
       <c r="X147" s="10"/>
       <c r="Y147" s="10"/>
       <c r="Z147" s="10"/>
@@ -37305,7 +37553,10 @@
       <c r="U148" s="18">
         <v>-22.502022800109529</v>
       </c>
-      <c r="W148" s="10"/>
+      <c r="V148" s="18">
+        <v>-5.8395115002478093</v>
+      </c>
+      <c r="W148" s="18"/>
       <c r="X148" s="10"/>
       <c r="Y148" s="10"/>
       <c r="Z148" s="10"/>
@@ -37439,7 +37690,10 @@
       <c r="U149" s="18">
         <v>-10.629503701534745</v>
       </c>
-      <c r="W149" s="10"/>
+      <c r="V149" s="18">
+        <v>12.713027056161778</v>
+      </c>
+      <c r="W149" s="18"/>
       <c r="X149" s="10"/>
       <c r="Y149" s="10"/>
       <c r="Z149" s="10"/>
@@ -37573,7 +37827,10 @@
       <c r="U150" s="18">
         <v>-13.757083723264969</v>
       </c>
-      <c r="W150" s="10"/>
+      <c r="V150" s="18">
+        <v>18.939016995586826</v>
+      </c>
+      <c r="W150" s="18"/>
       <c r="X150" s="10"/>
       <c r="Y150" s="10"/>
       <c r="Z150" s="10"/>
@@ -37665,6 +37922,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
       <c r="U151" s="10"/>
+      <c r="V151" s="10"/>
       <c r="W151" s="10"/>
       <c r="X151" s="10"/>
       <c r="Y151" s="10"/>
@@ -37799,7 +38057,10 @@
       <c r="U152" s="18">
         <v>-9.7724807741369801</v>
       </c>
-      <c r="W152" s="10"/>
+      <c r="V152" s="18">
+        <v>8.5708557073969729</v>
+      </c>
+      <c r="W152" s="18"/>
       <c r="X152" s="10"/>
       <c r="Y152" s="10"/>
       <c r="Z152" s="10"/>
@@ -37891,6 +38152,8 @@
       <c r="S153" s="14"/>
       <c r="T153" s="14"/>
       <c r="U153" s="14"/>
+      <c r="V153" s="14"/>
+      <c r="W153" s="14"/>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A154" s="15" t="s">
@@ -38091,7 +38354,7 @@
     </row>
     <row r="158" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="160" spans="1:92" x14ac:dyDescent="0.25">
@@ -38101,7 +38364,7 @@
     </row>
     <row r="161" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:96" x14ac:dyDescent="0.25">
@@ -38134,6 +38397,7 @@
       <c r="T164" s="1"/>
       <c r="U164" s="1"/>
       <c r="V164" s="1"/>
+      <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
@@ -38201,6 +38465,9 @@
       </c>
       <c r="V165" s="16">
         <v>2020</v>
+      </c>
+      <c r="W165" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="166" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -38273,7 +38540,9 @@
       <c r="V167" s="18">
         <v>101.15157636878924</v>
       </c>
-      <c r="W167" s="10"/>
+      <c r="W167" s="18">
+        <v>102.06742971404661</v>
+      </c>
       <c r="X167" s="10"/>
       <c r="Y167" s="10"/>
       <c r="Z167" s="10"/>
@@ -38415,7 +38684,9 @@
       <c r="V168" s="18">
         <v>103.01285617984782</v>
       </c>
-      <c r="W168" s="10"/>
+      <c r="W168" s="18">
+        <v>109.56189674045855</v>
+      </c>
       <c r="X168" s="10"/>
       <c r="Y168" s="10"/>
       <c r="Z168" s="10"/>
@@ -38557,7 +38828,9 @@
       <c r="V169" s="18">
         <v>92.909654392058869</v>
       </c>
-      <c r="W169" s="10"/>
+      <c r="W169" s="18">
+        <v>94.592521773527821</v>
+      </c>
       <c r="X169" s="10"/>
       <c r="Y169" s="10"/>
       <c r="Z169" s="10"/>
@@ -38699,7 +38972,9 @@
       <c r="V170" s="18">
         <v>95.061568472744966</v>
       </c>
-      <c r="W170" s="10"/>
+      <c r="W170" s="18">
+        <v>102.79336251961895</v>
+      </c>
       <c r="X170" s="10"/>
       <c r="Y170" s="10"/>
       <c r="Z170" s="10"/>
@@ -38841,7 +39116,9 @@
       <c r="V171" s="18">
         <v>85.733037399220464</v>
       </c>
-      <c r="W171" s="10"/>
+      <c r="W171" s="18">
+        <v>80.53887628529354</v>
+      </c>
       <c r="X171" s="10"/>
       <c r="Y171" s="10"/>
       <c r="Z171" s="10"/>
@@ -38983,7 +39260,9 @@
       <c r="V172" s="18">
         <v>89.555651123570925</v>
       </c>
-      <c r="W172" s="10"/>
+      <c r="W172" s="18">
+        <v>89.284404229154902</v>
+      </c>
       <c r="X172" s="10"/>
       <c r="Y172" s="10"/>
       <c r="Z172" s="10"/>
@@ -39125,7 +39404,9 @@
       <c r="V173" s="18">
         <v>89.179718852641358</v>
       </c>
-      <c r="W173" s="10"/>
+      <c r="W173" s="18">
+        <v>76.551647611234557</v>
+      </c>
       <c r="X173" s="10"/>
       <c r="Y173" s="10"/>
       <c r="Z173" s="10"/>
@@ -39267,7 +39548,9 @@
       <c r="V174" s="18">
         <v>90.668689986189747</v>
       </c>
-      <c r="W174" s="10"/>
+      <c r="W174" s="18">
+        <v>88.200404420332973</v>
+      </c>
       <c r="X174" s="10"/>
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
@@ -39409,7 +39692,9 @@
       <c r="V175" s="18">
         <v>109.69489336538729</v>
       </c>
-      <c r="W175" s="10"/>
+      <c r="W175" s="18">
+        <v>109.80948779787462</v>
+      </c>
       <c r="X175" s="10"/>
       <c r="Y175" s="10"/>
       <c r="Z175" s="10"/>
@@ -39551,7 +39836,9 @@
       <c r="V176" s="18">
         <v>81.438201625657967</v>
       </c>
-      <c r="W176" s="10"/>
+      <c r="W176" s="18">
+        <v>88.751466414985657</v>
+      </c>
       <c r="X176" s="10"/>
       <c r="Y176" s="10"/>
       <c r="Z176" s="10"/>
@@ -39693,7 +39980,9 @@
       <c r="V177" s="18">
         <v>90.272566294212766</v>
       </c>
-      <c r="W177" s="10"/>
+      <c r="W177" s="18">
+        <v>94.869458748599129</v>
+      </c>
       <c r="X177" s="10"/>
       <c r="Y177" s="10"/>
       <c r="Z177" s="10"/>
@@ -39835,7 +40124,9 @@
       <c r="V178" s="18">
         <v>73.942083263108401</v>
       </c>
-      <c r="W178" s="10"/>
+      <c r="W178" s="18">
+        <v>73.950879183846837</v>
+      </c>
       <c r="X178" s="10"/>
       <c r="Y178" s="10"/>
       <c r="Z178" s="10"/>
@@ -39977,7 +40268,9 @@
       <c r="V179" s="18">
         <v>108.40961566590966</v>
       </c>
-      <c r="W179" s="10"/>
+      <c r="W179" s="18">
+        <v>115.18370447902025</v>
+      </c>
       <c r="X179" s="10"/>
       <c r="Y179" s="10"/>
       <c r="Z179" s="10"/>
@@ -40119,7 +40412,9 @@
       <c r="V180" s="18">
         <v>105.34303645115845</v>
       </c>
-      <c r="W180" s="10"/>
+      <c r="W180" s="18">
+        <v>98.412063331197402</v>
+      </c>
       <c r="X180" s="10"/>
       <c r="Y180" s="10"/>
       <c r="Z180" s="10"/>
@@ -40261,7 +40556,9 @@
       <c r="V181" s="18">
         <v>72.214952510275751</v>
       </c>
-      <c r="W181" s="10"/>
+      <c r="W181" s="18">
+        <v>69.236902891840074</v>
+      </c>
       <c r="X181" s="10"/>
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
@@ -40403,7 +40700,9 @@
       <c r="V182" s="18">
         <v>108.33610742658595</v>
       </c>
-      <c r="W182" s="10"/>
+      <c r="W182" s="18">
+        <v>98.806081310683325</v>
+      </c>
       <c r="X182" s="10"/>
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
@@ -40545,7 +40844,9 @@
       <c r="V183" s="18">
         <v>97.261083091834053</v>
       </c>
-      <c r="W183" s="10"/>
+      <c r="W183" s="18">
+        <v>86.290726059719475</v>
+      </c>
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
       <c r="Z183" s="10"/>
@@ -40687,7 +40988,9 @@
       <c r="V184" s="18">
         <v>94.319630820615302</v>
       </c>
-      <c r="W184" s="10"/>
+      <c r="W184" s="18">
+        <v>98.854608136833974</v>
+      </c>
       <c r="X184" s="10"/>
       <c r="Y184" s="10"/>
       <c r="Z184" s="10"/>
@@ -40829,7 +41132,9 @@
       <c r="V185" s="18">
         <v>98.462844346020916</v>
       </c>
-      <c r="W185" s="10"/>
+      <c r="W185" s="18">
+        <v>92.45798888673275</v>
+      </c>
       <c r="X185" s="10"/>
       <c r="Y185" s="10"/>
       <c r="Z185" s="10"/>
@@ -40971,7 +41276,9 @@
       <c r="V186" s="18">
         <v>85.002087742430618</v>
       </c>
-      <c r="W186" s="10"/>
+      <c r="W186" s="18">
+        <v>82.821168753942743</v>
+      </c>
       <c r="X186" s="10"/>
       <c r="Y186" s="10"/>
       <c r="Z186" s="10"/>
@@ -41113,7 +41420,9 @@
       <c r="V187" s="18">
         <v>95.118887626981007</v>
       </c>
-      <c r="W187" s="10"/>
+      <c r="W187" s="18">
+        <v>89.862229672701162</v>
+      </c>
       <c r="X187" s="10"/>
       <c r="Y187" s="10"/>
       <c r="Z187" s="10"/>
@@ -41255,7 +41564,9 @@
       <c r="V188" s="18">
         <v>101.47745992048658</v>
       </c>
-      <c r="W188" s="10"/>
+      <c r="W188" s="18">
+        <v>98.368775951957673</v>
+      </c>
       <c r="X188" s="10"/>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
@@ -41495,7 +41806,9 @@
       <c r="V190" s="18">
         <v>97.044952001019396</v>
       </c>
-      <c r="W190" s="10"/>
+      <c r="W190" s="18">
+        <v>96.590238075690252</v>
+      </c>
       <c r="X190" s="10"/>
       <c r="Y190" s="10"/>
       <c r="Z190" s="10"/>
@@ -41593,6 +41906,7 @@
       <c r="T191" s="14"/>
       <c r="U191" s="14"/>
       <c r="V191" s="14"/>
+      <c r="W191" s="14"/>
     </row>
     <row r="192" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A192" s="15" t="s">
@@ -41611,7 +41925,7 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="199" spans="1:96" x14ac:dyDescent="0.25">
@@ -41621,7 +41935,7 @@
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.25">
@@ -41654,6 +41968,7 @@
       <c r="T203" s="1"/>
       <c r="U203" s="1"/>
       <c r="V203" s="1"/>
+      <c r="W203" s="1"/>
     </row>
     <row r="204" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
@@ -41721,6 +42036,9 @@
       </c>
       <c r="V204" s="16">
         <v>2020</v>
+      </c>
+      <c r="W204" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="205" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -41793,7 +42111,9 @@
       <c r="V206" s="18">
         <v>51.751327917307279</v>
       </c>
-      <c r="W206" s="10"/>
+      <c r="W206" s="18">
+        <v>50.333087114301492</v>
+      </c>
       <c r="X206" s="10"/>
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
@@ -41935,7 +42255,9 @@
       <c r="V207" s="18">
         <v>4.662736552123337</v>
       </c>
-      <c r="W207" s="10"/>
+      <c r="W207" s="18">
+        <v>4.7043124790959325</v>
+      </c>
       <c r="X207" s="10"/>
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
@@ -42077,7 +42399,9 @@
       <c r="V208" s="18">
         <v>0.56310113931641514</v>
       </c>
-      <c r="W208" s="10"/>
+      <c r="W208" s="18">
+        <v>0.46345358349146715</v>
+      </c>
       <c r="X208" s="10"/>
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
@@ -42219,7 +42543,9 @@
       <c r="V209" s="18">
         <v>0.98768499445176294</v>
       </c>
-      <c r="W209" s="10"/>
+      <c r="W209" s="18">
+        <v>1.1980016328367682</v>
+      </c>
       <c r="X209" s="10"/>
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
@@ -42361,7 +42687,9 @@
       <c r="V210" s="18">
         <v>1.6188768635297106</v>
       </c>
-      <c r="W210" s="10"/>
+      <c r="W210" s="18">
+        <v>1.531691235351635</v>
+      </c>
       <c r="X210" s="10"/>
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
@@ -42503,7 +42831,9 @@
       <c r="V211" s="18">
         <v>0.33314526328908695</v>
       </c>
-      <c r="W211" s="10"/>
+      <c r="W211" s="18">
+        <v>0.30770711915494325</v>
+      </c>
       <c r="X211" s="10"/>
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
@@ -42645,7 +42975,9 @@
       <c r="V212" s="18">
         <v>0.84134362580074196</v>
       </c>
-      <c r="W212" s="10"/>
+      <c r="W212" s="18">
+        <v>0.85917659141793701</v>
+      </c>
       <c r="X212" s="10"/>
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
@@ -42787,7 +43119,9 @@
       <c r="V213" s="18">
         <v>0.68083085322618009</v>
       </c>
-      <c r="W213" s="10"/>
+      <c r="W213" s="18">
+        <v>0.7186641258096591</v>
+      </c>
       <c r="X213" s="10"/>
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
@@ -42929,7 +43263,9 @@
       <c r="V214" s="18">
         <v>0.90993326581840006</v>
       </c>
-      <c r="W214" s="10"/>
+      <c r="W214" s="18">
+        <v>0.97773404858850343</v>
+      </c>
       <c r="X214" s="10"/>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
@@ -43071,7 +43407,9 @@
       <c r="V215" s="18">
         <v>2.3148076138941058</v>
       </c>
-      <c r="W215" s="10"/>
+      <c r="W215" s="18">
+        <v>2.7196384624581973</v>
+      </c>
       <c r="X215" s="10"/>
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
@@ -43213,7 +43551,9 @@
       <c r="V216" s="18">
         <v>11.37030065226767</v>
       </c>
-      <c r="W216" s="10"/>
+      <c r="W216" s="18">
+        <v>11.360777779874635</v>
+      </c>
       <c r="X216" s="10"/>
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
@@ -43355,7 +43695,9 @@
       <c r="V217" s="18">
         <v>1.0981805588712832</v>
       </c>
-      <c r="W217" s="10"/>
+      <c r="W217" s="18">
+        <v>1.144899941631524</v>
+      </c>
       <c r="X217" s="10"/>
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
@@ -43497,7 +43839,9 @@
       <c r="V218" s="18">
         <v>1.1107774074742953</v>
       </c>
-      <c r="W218" s="10"/>
+      <c r="W218" s="18">
+        <v>1.2328384691525633</v>
+      </c>
       <c r="X218" s="10"/>
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
@@ -43639,7 +43983,9 @@
       <c r="V219" s="18">
         <v>2.2399165863827948</v>
       </c>
-      <c r="W219" s="10"/>
+      <c r="W219" s="18">
+        <v>2.72003587142967</v>
+      </c>
       <c r="X219" s="10"/>
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
@@ -43781,7 +44127,9 @@
       <c r="V220" s="18">
         <v>1.9191143440449194</v>
       </c>
-      <c r="W220" s="10"/>
+      <c r="W220" s="18">
+        <v>2.0529179519764669</v>
+      </c>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
@@ -43923,7 +44271,9 @@
       <c r="V221" s="18">
         <v>0.84264108569698581</v>
       </c>
-      <c r="W221" s="10"/>
+      <c r="W221" s="18">
+        <v>0.82443206894773857</v>
+      </c>
       <c r="X221" s="10"/>
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
@@ -44065,7 +44415,9 @@
       <c r="V222" s="18">
         <v>10.349767995553991</v>
       </c>
-      <c r="W222" s="10"/>
+      <c r="W222" s="18">
+        <v>10.346126031597576</v>
+      </c>
       <c r="X222" s="10"/>
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
@@ -44207,7 +44559,9 @@
       <c r="V223" s="18">
         <v>1.281436708160705</v>
       </c>
-      <c r="W223" s="10"/>
+      <c r="W223" s="18">
+        <v>1.5586620132639719</v>
+      </c>
       <c r="X223" s="10"/>
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
@@ -44349,7 +44703,9 @@
       <c r="V224" s="18">
         <v>1.1689879330137669</v>
       </c>
-      <c r="W224" s="10"/>
+      <c r="W224" s="18">
+        <v>1.1101495143510542</v>
+      </c>
       <c r="X224" s="10"/>
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
@@ -44491,7 +44847,9 @@
       <c r="V225" s="18">
         <v>1.5450556542107396</v>
       </c>
-      <c r="W225" s="10"/>
+      <c r="W225" s="18">
+        <v>1.3117499164728084</v>
+      </c>
       <c r="X225" s="10"/>
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
@@ -44633,7 +44991,9 @@
       <c r="V226" s="18">
         <v>0.58140358967913131</v>
       </c>
-      <c r="W226" s="10"/>
+      <c r="W226" s="18">
+        <v>0.57291303305768371</v>
+      </c>
       <c r="X226" s="10"/>
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
@@ -44775,7 +45135,9 @@
       <c r="V227" s="18">
         <v>1.8286293958866939</v>
       </c>
-      <c r="W227" s="10"/>
+      <c r="W227" s="18">
+        <v>1.9510310157377733</v>
+      </c>
       <c r="X227" s="10"/>
       <c r="Y227" s="10"/>
       <c r="Z227" s="10"/>
@@ -45015,7 +45377,9 @@
       <c r="V229" s="18">
         <v>100</v>
       </c>
-      <c r="W229" s="10"/>
+      <c r="W229" s="18">
+        <v>100</v>
+      </c>
       <c r="X229" s="10"/>
       <c r="Y229" s="10"/>
       <c r="Z229" s="10"/>
@@ -45113,6 +45477,7 @@
       <c r="T230" s="14"/>
       <c r="U230" s="14"/>
       <c r="V230" s="14"/>
+      <c r="W230" s="14"/>
     </row>
     <row r="231" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
@@ -45327,7 +45692,7 @@
     </row>
     <row r="236" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="238" spans="1:96" x14ac:dyDescent="0.25">
@@ -45337,7 +45702,7 @@
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.25">
@@ -45370,6 +45735,7 @@
       <c r="T242" s="1"/>
       <c r="U242" s="1"/>
       <c r="V242" s="1"/>
+      <c r="W242" s="1"/>
     </row>
     <row r="243" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
@@ -45437,6 +45803,9 @@
       </c>
       <c r="V243" s="16">
         <v>2020</v>
+      </c>
+      <c r="W243" s="16">
+        <v>2021</v>
       </c>
     </row>
     <row r="244" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -45509,7 +45878,9 @@
       <c r="V245" s="18">
         <v>49.650290326802285</v>
       </c>
-      <c r="W245" s="10"/>
+      <c r="W245" s="18">
+        <v>47.632088718951735</v>
+      </c>
       <c r="X245" s="10"/>
       <c r="Y245" s="10"/>
       <c r="Z245" s="10"/>
@@ -45651,7 +46022,9 @@
       <c r="V246" s="18">
         <v>4.392607502351038</v>
       </c>
-      <c r="W246" s="10"/>
+      <c r="W246" s="18">
+        <v>4.1473420582953562</v>
+      </c>
       <c r="X246" s="10"/>
       <c r="Y246" s="10"/>
       <c r="Z246" s="10"/>
@@ -45793,7 +46166,9 @@
       <c r="V247" s="18">
         <v>0.58816409763064981</v>
       </c>
-      <c r="W247" s="10"/>
+      <c r="W247" s="18">
+        <v>0.47324134220301889</v>
+      </c>
       <c r="X247" s="10"/>
       <c r="Y247" s="10"/>
       <c r="Z247" s="10"/>
@@ -45935,7 +46310,9 @@
       <c r="V248" s="18">
         <v>1.0082922512074841</v>
       </c>
-      <c r="W248" s="10"/>
+      <c r="W248" s="18">
+        <v>1.1257075368916343</v>
+      </c>
       <c r="X248" s="10"/>
       <c r="Y248" s="10"/>
       <c r="Z248" s="10"/>
@@ -46077,7 +46454,9 @@
       <c r="V249" s="18">
         <v>1.8324770973089315</v>
       </c>
-      <c r="W249" s="10"/>
+      <c r="W249" s="18">
+        <v>1.8369566090913745</v>
+      </c>
       <c r="X249" s="10"/>
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
@@ -46219,7 +46598,9 @@
       <c r="V250" s="18">
         <v>0.36100531546185344</v>
       </c>
-      <c r="W250" s="10"/>
+      <c r="W250" s="18">
+        <v>0.33288572795399257</v>
+      </c>
       <c r="X250" s="10"/>
       <c r="Y250" s="10"/>
       <c r="Z250" s="10"/>
@@ -46361,7 +46742,9 @@
       <c r="V251" s="18">
         <v>0.91554618956705014</v>
       </c>
-      <c r="W251" s="10"/>
+      <c r="W251" s="18">
+        <v>1.0840794953959871</v>
+      </c>
       <c r="X251" s="10"/>
       <c r="Y251" s="10"/>
       <c r="Z251" s="10"/>
@@ -46503,7 +46886,9 @@
       <c r="V252" s="18">
         <v>0.72871018079351757</v>
       </c>
-      <c r="W252" s="10"/>
+      <c r="W252" s="18">
+        <v>0.78702517822480911</v>
+      </c>
       <c r="X252" s="10"/>
       <c r="Y252" s="10"/>
       <c r="Z252" s="10"/>
@@ -46645,7 +47030,9 @@
       <c r="V253" s="18">
         <v>0.80500037327481189</v>
       </c>
-      <c r="W253" s="10"/>
+      <c r="W253" s="18">
+        <v>0.86003100844715841</v>
+      </c>
       <c r="X253" s="10"/>
       <c r="Y253" s="10"/>
       <c r="Z253" s="10"/>
@@ -46787,7 +47174,9 @@
       <c r="V254" s="18">
         <v>2.758415452425369</v>
       </c>
-      <c r="W254" s="10"/>
+      <c r="W254" s="18">
+        <v>2.9598443516453972</v>
+      </c>
       <c r="X254" s="10"/>
       <c r="Y254" s="10"/>
       <c r="Z254" s="10"/>
@@ -46929,7 +47318,9 @@
       <c r="V255" s="18">
         <v>12.22331796174066</v>
       </c>
-      <c r="W255" s="10"/>
+      <c r="W255" s="18">
+        <v>11.56684400815459</v>
+      </c>
       <c r="X255" s="10"/>
       <c r="Y255" s="10"/>
       <c r="Z255" s="10"/>
@@ -47071,7 +47462,9 @@
       <c r="V256" s="18">
         <v>1.4413020964651162</v>
       </c>
-      <c r="W256" s="10"/>
+      <c r="W256" s="18">
+        <v>1.4954001785443034</v>
+      </c>
       <c r="X256" s="10"/>
       <c r="Y256" s="10"/>
       <c r="Z256" s="10"/>
@@ -47213,7 +47606,9 @@
       <c r="V257" s="18">
         <v>0.99433375471376129</v>
       </c>
-      <c r="W257" s="10"/>
+      <c r="W257" s="18">
+        <v>1.0338281945603256</v>
+      </c>
       <c r="X257" s="10"/>
       <c r="Y257" s="10"/>
       <c r="Z257" s="10"/>
@@ -47355,7 +47750,9 @@
       <c r="V258" s="18">
         <v>2.0634738178691934</v>
       </c>
-      <c r="W258" s="10"/>
+      <c r="W258" s="18">
+        <v>2.6696819831082874</v>
+      </c>
       <c r="X258" s="10"/>
       <c r="Y258" s="10"/>
       <c r="Z258" s="10"/>
@@ -47497,7 +47894,9 @@
       <c r="V259" s="18">
         <v>2.5789722616767792</v>
       </c>
-      <c r="W259" s="10"/>
+      <c r="W259" s="18">
+        <v>2.8639616367738352</v>
+      </c>
       <c r="X259" s="10"/>
       <c r="Y259" s="10"/>
       <c r="Z259" s="10"/>
@@ -47639,7 +48038,9 @@
       <c r="V260" s="18">
         <v>0.75481818258021804</v>
       </c>
-      <c r="W260" s="10"/>
+      <c r="W260" s="18">
+        <v>0.80594320471533365</v>
+      </c>
       <c r="X260" s="10"/>
       <c r="Y260" s="10"/>
       <c r="Z260" s="10"/>
@@ -47781,7 +48182,9 @@
       <c r="V261" s="18">
         <v>10.326769005871288</v>
       </c>
-      <c r="W261" s="10"/>
+      <c r="W261" s="18">
+        <v>11.58102176427967</v>
+      </c>
       <c r="X261" s="10"/>
       <c r="Y261" s="10"/>
       <c r="Z261" s="10"/>
@@ -47923,7 +48326,9 @@
       <c r="V262" s="18">
         <v>1.3184632165525756</v>
       </c>
-      <c r="W262" s="10"/>
+      <c r="W262" s="18">
+        <v>1.522959200165046</v>
+      </c>
       <c r="X262" s="10"/>
       <c r="Y262" s="10"/>
       <c r="Z262" s="10"/>
@@ -48065,7 +48470,9 @@
       <c r="V263" s="18">
         <v>1.1521541816365006</v>
       </c>
-      <c r="W263" s="10"/>
+      <c r="W263" s="18">
+        <v>1.1597657182673928</v>
+      </c>
       <c r="X263" s="10"/>
       <c r="Y263" s="10"/>
       <c r="Z263" s="10"/>
@@ -48207,7 +48614,9 @@
       <c r="V264" s="18">
         <v>1.7639549308027069</v>
       </c>
-      <c r="W264" s="10"/>
+      <c r="W264" s="18">
+        <v>1.5298291322632855</v>
+      </c>
       <c r="X264" s="10"/>
       <c r="Y264" s="10"/>
       <c r="Z264" s="10"/>
@@ -48349,7 +48758,9 @@
       <c r="V265" s="18">
         <v>0.59317644330427566</v>
       </c>
-      <c r="W265" s="10"/>
+      <c r="W265" s="18">
+        <v>0.61580718018304725</v>
+      </c>
       <c r="X265" s="10"/>
       <c r="Y265" s="10"/>
       <c r="Z265" s="10"/>
@@ -48491,7 +48902,9 @@
       <c r="V266" s="18">
         <v>1.7487553599639449</v>
       </c>
-      <c r="W266" s="10"/>
+      <c r="W266" s="18">
+        <v>1.91575577188441</v>
+      </c>
       <c r="X266" s="10"/>
       <c r="Y266" s="10"/>
       <c r="Z266" s="10"/>
@@ -48731,7 +49144,9 @@
       <c r="V268" s="18">
         <v>100</v>
       </c>
-      <c r="W268" s="10"/>
+      <c r="W268" s="18">
+        <v>100</v>
+      </c>
       <c r="X268" s="10"/>
       <c r="Y268" s="10"/>
       <c r="Z268" s="10"/>
@@ -48829,6 +49244,7 @@
       <c r="T269" s="14"/>
       <c r="U269" s="14"/>
       <c r="V269" s="14"/>
+      <c r="W269" s="14"/>
     </row>
     <row r="270" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A270" s="15" t="s">
@@ -49037,12 +49453,12 @@
   <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="39" max="21" man="1"/>
-    <brk id="78" max="21" man="1"/>
-    <brk id="117" max="21" man="1"/>
-    <brk id="156" max="21" man="1"/>
-    <brk id="194" max="21" man="1"/>
-    <brk id="233" max="21" man="1"/>
+    <brk id="39" max="22" man="1"/>
+    <brk id="78" max="22" man="1"/>
+    <brk id="117" max="22" man="1"/>
+    <brk id="156" max="22" man="1"/>
+    <brk id="194" max="22" man="1"/>
+    <brk id="233" max="22" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2022\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5EB323-3BB3-4E78-9D8D-C7B3C783E650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -660,19 +661,19 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2021</t>
   </si>
   <si>
     <t>Annual 2001 to 2021</t>
   </si>
+  <si>
+    <t>As of April 2022</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
@@ -790,9 +791,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23614,7 +23615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -23623,7 +23624,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23645,7 +23646,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.25">
@@ -23655,7 +23656,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.25">
@@ -23829,10 +23830,10 @@
         <v>1692008.1881739788</v>
       </c>
       <c r="V12" s="9">
-        <v>1640577.4232026543</v>
+        <v>1641068.2848903795</v>
       </c>
       <c r="W12" s="9">
-        <v>1724258.3922225814</v>
+        <v>1733040.6546013635</v>
       </c>
       <c r="X12" s="10"/>
       <c r="Y12" s="10"/>
@@ -23973,10 +23974,10 @@
         <v>166142.68753396563</v>
       </c>
       <c r="V13" s="9">
-        <v>147814.18420757225</v>
+        <v>146334.12839180502</v>
       </c>
       <c r="W13" s="9">
-        <v>161155.4294950809</v>
+        <v>160679.21527469711</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
@@ -24120,7 +24121,7 @@
         <v>17850.962541837536</v>
       </c>
       <c r="W14" s="9">
-        <v>15876.509400786053</v>
+        <v>16828.175922818271</v>
       </c>
       <c r="X14" s="10"/>
       <c r="Y14" s="10"/>
@@ -24264,7 +24265,7 @@
         <v>31310.765700984015</v>
       </c>
       <c r="W15" s="9">
-        <v>41039.890214248779</v>
+        <v>40219.819792633374</v>
       </c>
       <c r="X15" s="10"/>
       <c r="Y15" s="10"/>
@@ -24405,10 +24406,10 @@
         <v>72740.139657979831</v>
       </c>
       <c r="V16" s="9">
-        <v>51320.28375186395</v>
+        <v>51145.294200950317</v>
       </c>
       <c r="W16" s="9">
-        <v>52471.080521075666</v>
+        <v>52409.499152127624</v>
       </c>
       <c r="X16" s="10"/>
       <c r="Y16" s="10"/>
@@ -24552,7 +24553,7 @@
         <v>10561.093204647921</v>
       </c>
       <c r="W17" s="9">
-        <v>10541.10949611893</v>
+        <v>10380.162889464264</v>
       </c>
       <c r="X17" s="10"/>
       <c r="Y17" s="10"/>
@@ -24696,7 +24697,7 @@
         <v>26671.573719802989</v>
       </c>
       <c r="W18" s="9">
-        <v>29432.775398603302</v>
+        <v>29734.499933748186</v>
       </c>
       <c r="X18" s="10"/>
       <c r="Y18" s="10"/>
@@ -24840,7 +24841,7 @@
         <v>21583.131714174349</v>
       </c>
       <c r="W19" s="9">
-        <v>24619.245930665715</v>
+        <v>23436.937346862749</v>
       </c>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
@@ -24981,10 +24982,10 @@
         <v>30959.702483932404</v>
       </c>
       <c r="V20" s="9">
-        <v>28845.945265560655</v>
+        <v>28999.02984099483</v>
       </c>
       <c r="W20" s="9">
-        <v>33494.193090363246</v>
+        <v>32896.986473310208</v>
       </c>
       <c r="X20" s="10"/>
       <c r="Y20" s="10"/>
@@ -25128,7 +25129,7 @@
         <v>73382.09980776615</v>
       </c>
       <c r="W21" s="9">
-        <v>93166.537392307975</v>
+        <v>86803.964550872945</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10"/>
@@ -25272,7 +25273,7 @@
         <v>360451.78541009605</v>
       </c>
       <c r="W22" s="9">
-        <v>389185.67392141401</v>
+        <v>384022.13594049925</v>
       </c>
       <c r="X22" s="10"/>
       <c r="Y22" s="10"/>
@@ -25416,7 +25417,7 @@
         <v>34813.603901394228</v>
       </c>
       <c r="W23" s="9">
-        <v>39220.787871212917</v>
+        <v>39118.716746873673</v>
       </c>
       <c r="X23" s="10"/>
       <c r="Y23" s="10"/>
@@ -25560,7 +25561,7 @@
         <v>35212.93868667019</v>
       </c>
       <c r="W24" s="9">
-        <v>42233.294211893241</v>
+        <v>39424.850589908354</v>
       </c>
       <c r="X24" s="10"/>
       <c r="Y24" s="10"/>
@@ -25701,10 +25702,10 @@
         <v>91377.678382220867</v>
       </c>
       <c r="V25" s="9">
-        <v>71007.966932725161</v>
+        <v>71040.083390617947</v>
       </c>
       <c r="W25" s="9">
-        <v>93180.1514142862</v>
+        <v>93202.192655537365</v>
       </c>
       <c r="X25" s="10"/>
       <c r="Y25" s="10"/>
@@ -25848,7 +25849,7 @@
         <v>60838.161880895888</v>
       </c>
       <c r="W26" s="9">
-        <v>70326.721649347048</v>
+        <v>72100.872212493879</v>
       </c>
       <c r="X26" s="10"/>
       <c r="Y26" s="10"/>
@@ -25989,10 +25990,10 @@
         <v>32658.91287965469</v>
       </c>
       <c r="V27" s="9">
-        <v>26712.704711005572</v>
+        <v>26693.822357037992</v>
       </c>
       <c r="W27" s="9">
-        <v>28242.533792381946</v>
+        <v>29381.854055527623</v>
       </c>
       <c r="X27" s="10"/>
       <c r="Y27" s="10"/>
@@ -26133,10 +26134,10 @@
         <v>402171.7961652872</v>
       </c>
       <c r="V28" s="9">
-        <v>328099.71052380971</v>
+        <v>328141.03313726012</v>
       </c>
       <c r="W28" s="9">
-        <v>354426.79278668365</v>
+        <v>357155.3496984808</v>
       </c>
       <c r="X28" s="10"/>
       <c r="Y28" s="10"/>
@@ -26280,7 +26281,7 @@
         <v>40623.037461585736</v>
       </c>
       <c r="W29" s="9">
-        <v>53395.017295597587</v>
+        <v>53313.150125822227</v>
       </c>
       <c r="X29" s="10"/>
       <c r="Y29" s="10"/>
@@ -26424,7 +26425,7 @@
         <v>37058.280204194431</v>
       </c>
       <c r="W30" s="9">
-        <v>38030.343984161023</v>
+        <v>37150.354620061749</v>
       </c>
       <c r="X30" s="10"/>
       <c r="Y30" s="10"/>
@@ -26568,7 +26569,7 @@
         <v>48980.065360642373</v>
       </c>
       <c r="W31" s="9">
-        <v>44936.560255864977</v>
+        <v>45809.056373919142</v>
       </c>
       <c r="X31" s="10"/>
       <c r="Y31" s="10"/>
@@ -26709,10 +26710,10 @@
         <v>21715.692463492982</v>
       </c>
       <c r="V32" s="9">
-        <v>18431.171554103625</v>
+        <v>18606.920902816302</v>
       </c>
       <c r="W32" s="9">
-        <v>19626.257038835982</v>
+        <v>21663.57571077683</v>
       </c>
       <c r="X32" s="10"/>
       <c r="Y32" s="10"/>
@@ -26853,10 +26854,10 @@
         <v>68621.885710385075</v>
       </c>
       <c r="V33" s="9">
-        <v>57969.683543001833</v>
+        <v>58554.906150409028</v>
       </c>
       <c r="W33" s="9">
-        <v>66836.385273426684</v>
+        <v>64631.836213709103</v>
       </c>
       <c r="X33" s="10"/>
       <c r="Y33" s="10"/>
@@ -27095,10 +27096,10 @@
         <v>3614016.2341033733</v>
       </c>
       <c r="V35" s="13">
-        <v>3170116.5732869892</v>
+        <v>3169921.0028569628</v>
       </c>
       <c r="W35" s="13">
-        <v>3425695.6826569373</v>
+        <v>3423403.8608815079</v>
       </c>
       <c r="X35" s="10"/>
       <c r="Y35" s="10"/>
@@ -27412,7 +27413,7 @@
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.25">
@@ -27422,7 +27423,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.25">
@@ -27596,10 +27597,10 @@
         <v>1666489.4728439795</v>
       </c>
       <c r="V51" s="9">
-        <v>1621900.0060080742</v>
+        <v>1622318.3647800514</v>
       </c>
       <c r="W51" s="9">
-        <v>1689332.6275123076</v>
+        <v>1698578.2161796489</v>
       </c>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
@@ -27740,10 +27741,10 @@
         <v>170923.79115827678</v>
       </c>
       <c r="V52" s="9">
-        <v>143491.00654922801</v>
+        <v>142080.73700193284</v>
       </c>
       <c r="W52" s="9">
-        <v>147090.7626552344</v>
+        <v>146792.26386808921</v>
       </c>
       <c r="X52" s="10"/>
       <c r="Y52" s="10"/>
@@ -27887,7 +27888,7 @@
         <v>19213.248244913593</v>
       </c>
       <c r="W53" s="9">
-        <v>16784.10629415017</v>
+        <v>17910.713870208692</v>
       </c>
       <c r="X53" s="10"/>
       <c r="Y53" s="10"/>
@@ -28031,7 +28032,7 @@
         <v>32937.354394653295</v>
       </c>
       <c r="W54" s="9">
-        <v>39924.650004922238</v>
+        <v>40821.182245793563</v>
       </c>
       <c r="X54" s="10"/>
       <c r="Y54" s="10"/>
@@ -28172,10 +28173,10 @@
         <v>79886.436347274823</v>
       </c>
       <c r="V55" s="9">
-        <v>59860.568701057811</v>
+        <v>59641.369518872256</v>
       </c>
       <c r="W55" s="9">
-        <v>65150.003254585921</v>
+        <v>63972.259220810578</v>
       </c>
       <c r="X55" s="10"/>
       <c r="Y55" s="10"/>
@@ -28319,7 +28320,7 @@
         <v>11792.771390914779</v>
       </c>
       <c r="W56" s="9">
-        <v>11806.215863931184</v>
+        <v>11648.420221863866</v>
       </c>
       <c r="X56" s="10"/>
       <c r="Y56" s="10"/>
@@ -28463,7 +28464,7 @@
         <v>29907.667419174672</v>
       </c>
       <c r="W57" s="9">
-        <v>38448.258550980958</v>
+        <v>37754.915171457214</v>
       </c>
       <c r="X57" s="10"/>
       <c r="Y57" s="10"/>
@@ -28607,7 +28608,7 @@
         <v>23804.393465331636</v>
       </c>
       <c r="W58" s="9">
-        <v>27912.849257854654</v>
+        <v>27240.657288004808</v>
       </c>
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
@@ -28748,10 +28749,10 @@
         <v>32120.685898569482</v>
       </c>
       <c r="V59" s="9">
-        <v>26296.525189624364</v>
+        <v>26420.446421434597</v>
       </c>
       <c r="W59" s="9">
-        <v>30502.093910150747</v>
+        <v>29913.943583807359</v>
       </c>
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
@@ -28895,7 +28896,7 @@
         <v>90107.71154436488</v>
       </c>
       <c r="W60" s="9">
-        <v>104974.64566577216</v>
+        <v>100252.18391600056</v>
       </c>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
@@ -29039,7 +29040,7 @@
         <v>399292.72004445503</v>
       </c>
       <c r="W61" s="9">
-        <v>410232.83895056573</v>
+        <v>410985.76576911565</v>
       </c>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
@@ -29183,7 +29184,7 @@
         <v>47082.260013579609</v>
       </c>
       <c r="W62" s="9">
-        <v>53036.269891676893</v>
+        <v>53302.816961654811</v>
       </c>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
@@ -29327,7 +29328,7 @@
         <v>32481.379507134629</v>
       </c>
       <c r="W63" s="9">
-        <v>36666.032233392601</v>
+        <v>36112.048873760337</v>
       </c>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
@@ -29468,10 +29469,10 @@
         <v>88806.218518178473</v>
       </c>
       <c r="V64" s="9">
-        <v>67406.417476533912</v>
+        <v>67433.144006417657</v>
       </c>
       <c r="W64" s="9">
-        <v>94683.668099403993</v>
+        <v>93526.114328965981</v>
       </c>
       <c r="X64" s="10"/>
       <c r="Y64" s="10"/>
@@ -29615,7 +29616,7 @@
         <v>84245.934901416695</v>
       </c>
       <c r="W65" s="9">
-        <v>101574.0431937134</v>
+        <v>102396.17994580921</v>
       </c>
       <c r="X65" s="10"/>
       <c r="Y65" s="10"/>
@@ -29756,10 +29757,10 @@
         <v>31714.476101666656</v>
       </c>
       <c r="V66" s="9">
-        <v>24657.249873138979</v>
+        <v>24643.340109538098</v>
       </c>
       <c r="W66" s="9">
-        <v>28583.801136264927</v>
+        <v>29479.840691518373</v>
       </c>
       <c r="X66" s="10"/>
       <c r="Y66" s="10"/>
@@ -29900,10 +29901,10 @@
         <v>384052.54256151337</v>
       </c>
       <c r="V67" s="9">
-        <v>337339.149528098</v>
+        <v>337376.75001561723</v>
       </c>
       <c r="W67" s="9">
-        <v>410735.67110954016</v>
+        <v>414922.37482483208</v>
       </c>
       <c r="X67" s="10"/>
       <c r="Y67" s="10"/>
@@ -30047,7 +30048,7 @@
         <v>43069.54671911928</v>
       </c>
       <c r="W68" s="9">
-        <v>54013.685656098613</v>
+        <v>53841.739053418838</v>
       </c>
       <c r="X68" s="10"/>
       <c r="Y68" s="10"/>
@@ -30191,7 +30192,7 @@
         <v>37636.816659452954</v>
       </c>
       <c r="W69" s="9">
-        <v>41132.566738771216</v>
+        <v>40917.361738907333</v>
       </c>
       <c r="X69" s="10"/>
       <c r="Y69" s="10"/>
@@ -30335,7 +30336,7 @@
         <v>57622.191009072027</v>
       </c>
       <c r="W70" s="9">
-        <v>54257.336538402509</v>
+        <v>55458.197956429285</v>
       </c>
       <c r="X70" s="10"/>
       <c r="Y70" s="10"/>
@@ -30476,10 +30477,10 @@
         <v>21681.634002240848</v>
       </c>
       <c r="V71" s="9">
-        <v>19376.983913419441</v>
+        <v>19535.823809541318</v>
       </c>
       <c r="W71" s="9">
-        <v>21840.385121000567</v>
+        <v>22923.360499715003</v>
       </c>
       <c r="X71" s="10"/>
       <c r="Y71" s="10"/>
@@ -30620,10 +30621,10 @@
         <v>66238.106342817147</v>
       </c>
       <c r="V72" s="9">
-        <v>57125.674596530516</v>
+        <v>57657.631754202783</v>
       </c>
       <c r="W72" s="9">
-        <v>67944.71581721105</v>
+        <v>65986.36572104301</v>
       </c>
       <c r="X72" s="10"/>
       <c r="Y72" s="10"/>
@@ -30862,10 +30863,10 @@
         <v>3620455.9375859783</v>
       </c>
       <c r="V74" s="13">
-        <v>3266647.5771492878</v>
+        <v>3266301.6027311916</v>
       </c>
       <c r="W74" s="13">
-        <v>3546627.2274559322</v>
+        <v>3554736.9219308551</v>
       </c>
       <c r="X74" s="10"/>
       <c r="Y74" s="10"/>
@@ -31179,7 +31180,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.25">
@@ -31189,7 +31190,7 @@
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.25">
@@ -31358,10 +31359,10 @@
         <v>5.3269058629306301</v>
       </c>
       <c r="U90" s="18">
-        <v>-3.0396286100026941</v>
+        <v>-3.010618012349795</v>
       </c>
       <c r="V90" s="18">
-        <v>5.1007022184036401</v>
+        <v>5.6044206421993863</v>
       </c>
       <c r="W90" s="18"/>
       <c r="X90" s="10"/>
@@ -31495,10 +31496,10 @@
         <v>5.7793811663099603</v>
       </c>
       <c r="U91" s="18">
-        <v>-11.031784545224937</v>
+        <v>-11.922618705750153</v>
       </c>
       <c r="V91" s="18">
-        <v>9.0256867830585321</v>
+        <v>9.8029673874050758</v>
       </c>
       <c r="W91" s="18"/>
       <c r="X91" s="10"/>
@@ -31635,7 +31636,7 @@
         <v>-26.536815839125921</v>
       </c>
       <c r="V92" s="18">
-        <v>-11.060765694981043</v>
+        <v>-5.7295880635128071</v>
       </c>
       <c r="W92" s="18"/>
       <c r="X92" s="10"/>
@@ -31772,7 +31773,7 @@
         <v>-36.315752329604514</v>
       </c>
       <c r="V93" s="18">
-        <v>31.07277735133448</v>
+        <v>28.453644911562691</v>
       </c>
       <c r="W93" s="18"/>
       <c r="X93" s="10"/>
@@ -31906,10 +31907,10 @@
         <v>3.3442055444236729</v>
       </c>
       <c r="U94" s="18">
-        <v>-29.44709208262573</v>
+        <v>-29.687660153757335</v>
       </c>
       <c r="V94" s="18">
-        <v>2.2423819298737158</v>
+        <v>2.471791336677498</v>
       </c>
       <c r="W94" s="18"/>
       <c r="X94" s="10"/>
@@ -32046,7 +32047,7 @@
         <v>-27.352189322225968</v>
       </c>
       <c r="V95" s="18">
-        <v>-0.18922007543874031</v>
+        <v>-1.7131779038180497</v>
       </c>
       <c r="W95" s="18"/>
       <c r="X95" s="10"/>
@@ -32183,7 +32184,7 @@
         <v>-15.489851771614923</v>
       </c>
       <c r="V96" s="18">
-        <v>10.35260126683184</v>
+        <v>11.48386010560391</v>
       </c>
       <c r="W96" s="18"/>
       <c r="X96" s="10"/>
@@ -32320,7 +32321,7 @@
         <v>-20.510553577362998</v>
       </c>
       <c r="V97" s="18">
-        <v>14.067069861309562</v>
+        <v>8.5891410812775746</v>
       </c>
       <c r="W97" s="18"/>
       <c r="X97" s="10"/>
@@ -32454,10 +32455,10 @@
         <v>9.8522413348952114</v>
       </c>
       <c r="U98" s="18">
-        <v>-6.8274468059528459</v>
+        <v>-6.3329828313276977</v>
       </c>
       <c r="V98" s="18">
-        <v>16.114042309967786</v>
+        <v>13.441679441306633</v>
       </c>
       <c r="W98" s="18"/>
       <c r="X98" s="10"/>
@@ -32594,7 +32595,7 @@
         <v>-58.135242939222657</v>
       </c>
       <c r="V99" s="18">
-        <v>26.960849630045615</v>
+        <v>18.290379776903492</v>
       </c>
       <c r="W99" s="18"/>
       <c r="X99" s="10"/>
@@ -32731,7 +32732,7 @@
         <v>-7.0457394485340075</v>
       </c>
       <c r="V100" s="18">
-        <v>7.97163162297187</v>
+        <v>6.5391132696392447</v>
       </c>
       <c r="W100" s="18"/>
       <c r="X100" s="10"/>
@@ -32868,7 +32869,7 @@
         <v>-0.33516026891877004</v>
       </c>
       <c r="V101" s="18">
-        <v>12.659372991953262</v>
+        <v>12.366179777518042</v>
       </c>
       <c r="W101" s="18"/>
       <c r="X101" s="10"/>
@@ -33005,7 +33006,7 @@
         <v>-15.756855293656216</v>
       </c>
       <c r="V102" s="18">
-        <v>19.936863513980427</v>
+        <v>11.961262139227742</v>
       </c>
       <c r="W102" s="18"/>
       <c r="X102" s="10"/>
@@ -33139,10 +33140,10 @@
         <v>4.2102609122506323</v>
       </c>
       <c r="U103" s="18">
-        <v>-22.291780454622483</v>
+        <v>-22.256633514514803</v>
       </c>
       <c r="V103" s="18">
-        <v>31.224925088430638</v>
+        <v>31.196626196311996</v>
       </c>
       <c r="W103" s="18"/>
       <c r="X103" s="10"/>
@@ -33279,7 +33280,7 @@
         <v>-16.045959721470737</v>
       </c>
       <c r="V104" s="18">
-        <v>15.59639455746067</v>
+        <v>18.512574974975777</v>
       </c>
       <c r="W104" s="18"/>
       <c r="X104" s="10"/>
@@ -33413,10 +33414,10 @@
         <v>5.1939759682711184</v>
       </c>
       <c r="U105" s="18">
-        <v>-18.206999695796327</v>
+        <v>-18.2648165436417</v>
       </c>
       <c r="V105" s="18">
-        <v>5.7269718582487315</v>
+        <v>10.069864339907525</v>
       </c>
       <c r="W105" s="18"/>
       <c r="X105" s="10"/>
@@ -33550,10 +33551,10 @@
         <v>-0.45109026973378263</v>
       </c>
       <c r="U106" s="18">
-        <v>-18.418020942233071</v>
+        <v>-18.407746076157324</v>
       </c>
       <c r="V106" s="18">
-        <v>8.0241101770077279</v>
+        <v>8.8420263335625293</v>
       </c>
       <c r="W106" s="18"/>
       <c r="X106" s="10"/>
@@ -33690,7 +33691,7 @@
         <v>-29.540050120767759</v>
       </c>
       <c r="V107" s="18">
-        <v>31.440238426507108</v>
+        <v>31.238709503780001</v>
       </c>
       <c r="W107" s="18"/>
       <c r="X107" s="10"/>
@@ -33827,7 +33828,7 @@
         <v>-23.682352362050679</v>
       </c>
       <c r="V108" s="18">
-        <v>2.6230677047354334</v>
+        <v>0.24845841566305182</v>
       </c>
       <c r="W108" s="18"/>
       <c r="X108" s="10"/>
@@ -33964,7 +33965,7 @@
         <v>-30.465582328604555</v>
       </c>
       <c r="V109" s="18">
-        <v>-8.2554097774367818</v>
+        <v>-6.4740807579062079</v>
       </c>
       <c r="W109" s="18"/>
       <c r="X109" s="10"/>
@@ -34098,10 +34099,10 @@
         <v>6.6509485447285215</v>
       </c>
       <c r="U110" s="18">
-        <v>-15.125103263048516</v>
+        <v>-14.315783693764061</v>
       </c>
       <c r="V110" s="18">
-        <v>6.4840451472346814</v>
+        <v>16.427515460109674</v>
       </c>
       <c r="W110" s="18"/>
       <c r="X110" s="10"/>
@@ -34235,10 +34236,10 @@
         <v>1.6984375340852722</v>
       </c>
       <c r="U111" s="18">
-        <v>-15.523039125360498</v>
+        <v>-14.670217024439097</v>
       </c>
       <c r="V111" s="18">
-        <v>15.295411650552722</v>
+        <v>10.378174029841958</v>
       </c>
       <c r="W111" s="18"/>
       <c r="X111" s="10"/>
@@ -34465,10 +34466,10 @@
         <v>3.6030137781072114</v>
       </c>
       <c r="U113" s="18">
-        <v>-12.282724593972787</v>
+        <v>-12.288136037014482</v>
       </c>
       <c r="V113" s="18">
-        <v>8.0621359959941969</v>
+        <v>7.9965039442966486</v>
       </c>
       <c r="W113" s="18"/>
       <c r="X113" s="10"/>
@@ -34769,7 +34770,7 @@
     </row>
     <row r="120" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:92" x14ac:dyDescent="0.25">
@@ -34779,7 +34780,7 @@
     </row>
     <row r="123" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="124" spans="1:92" x14ac:dyDescent="0.25">
@@ -34948,10 +34949,10 @@
         <v>3.7383749408631104</v>
       </c>
       <c r="U129" s="18">
-        <v>-2.6756524756085298</v>
+        <v>-2.6505482803048892</v>
       </c>
       <c r="V129" s="18">
-        <v>4.1576312506590938</v>
+        <v>4.7006711540207675</v>
       </c>
       <c r="W129" s="18"/>
       <c r="X129" s="10"/>
@@ -35085,10 +35086,10 @@
         <v>8.8234042899171641</v>
       </c>
       <c r="U130" s="18">
-        <v>-16.049716907838658</v>
+        <v>-16.874803654240893</v>
       </c>
       <c r="V130" s="18">
-        <v>2.5086980658759188</v>
+        <v>3.3160912348675993</v>
       </c>
       <c r="W130" s="18"/>
       <c r="X130" s="10"/>
@@ -35225,7 +35226,7 @@
         <v>-14.647434731790668</v>
       </c>
       <c r="V131" s="18">
-        <v>-12.643057122870943</v>
+        <v>-6.7793553599127989</v>
       </c>
       <c r="W131" s="18"/>
       <c r="X131" s="10"/>
@@ -35362,7 +35363,7 @@
         <v>-35.763869108862096</v>
       </c>
       <c r="V132" s="18">
-        <v>21.213894493612344</v>
+        <v>23.935826043211421</v>
       </c>
       <c r="W132" s="18"/>
       <c r="X132" s="10"/>
@@ -35496,10 +35497,10 @@
         <v>13.497174144875316</v>
       </c>
       <c r="U133" s="18">
-        <v>-25.067919614241447</v>
+        <v>-25.342308098955755</v>
       </c>
       <c r="V133" s="18">
-        <v>8.8362584390793302</v>
+        <v>7.2615530744442509</v>
       </c>
       <c r="W133" s="18"/>
       <c r="X133" s="10"/>
@@ -35636,7 +35637,7 @@
         <v>-25.462441052513483</v>
       </c>
       <c r="V134" s="18">
-        <v>0.11400605142539177</v>
+        <v>-1.224064846725696</v>
       </c>
       <c r="W134" s="18"/>
       <c r="X134" s="10"/>
@@ -35773,7 +35774,7 @@
         <v>-12.086590190365285</v>
       </c>
       <c r="V135" s="18">
-        <v>28.556527034036293</v>
+        <v>26.238247344062174</v>
       </c>
       <c r="W135" s="18"/>
       <c r="X135" s="10"/>
@@ -35910,7 +35911,7 @@
         <v>-10.014036359843359</v>
       </c>
       <c r="V136" s="18">
-        <v>17.259233252493971</v>
+        <v>14.435418519180914</v>
       </c>
       <c r="W136" s="18"/>
       <c r="X136" s="10"/>
@@ -36044,10 +36045,10 @@
         <v>13.971681123333468</v>
       </c>
       <c r="U137" s="18">
-        <v>-18.132118122684616</v>
+        <v>-17.746319288246426</v>
       </c>
       <c r="V137" s="18">
-        <v>15.992868602220284</v>
+        <v>13.222703002998941</v>
       </c>
       <c r="W137" s="18"/>
       <c r="X137" s="10"/>
@@ -36184,7 +36185,7 @@
         <v>-48.120035377219516</v>
       </c>
       <c r="V138" s="18">
-        <v>16.499069687379063</v>
+        <v>11.258162256890756</v>
       </c>
       <c r="W138" s="18"/>
       <c r="X138" s="10"/>
@@ -36321,7 +36322,7 @@
         <v>-1.7863294162665397</v>
       </c>
       <c r="V139" s="18">
-        <v>2.7398743720878969</v>
+        <v>2.9284394975592818</v>
       </c>
       <c r="W139" s="18"/>
       <c r="X139" s="10"/>
@@ -36458,7 +36459,7 @@
         <v>5.807859246775223</v>
       </c>
       <c r="V140" s="18">
-        <v>12.645972976615852</v>
+        <v>13.212103552975265</v>
       </c>
       <c r="W140" s="18"/>
       <c r="X140" s="10"/>
@@ -36595,7 +36596,7 @@
         <v>-20.665001044557968</v>
       </c>
       <c r="V141" s="18">
-        <v>12.883235840826288</v>
+        <v>11.177694487477737</v>
       </c>
       <c r="W141" s="18"/>
       <c r="X141" s="10"/>
@@ -36729,10 +36730,10 @@
         <v>1.277679256626314</v>
       </c>
       <c r="U142" s="18">
-        <v>-24.097187560422995</v>
+        <v>-24.067092224387181</v>
       </c>
       <c r="V142" s="18">
-        <v>40.466845211535031</v>
+        <v>38.69457772881691</v>
       </c>
       <c r="W142" s="18"/>
       <c r="X142" s="10"/>
@@ -36869,7 +36870,7 @@
         <v>-0.45732974597460441</v>
       </c>
       <c r="V143" s="18">
-        <v>20.568480025266254</v>
+        <v>21.544357084566343</v>
       </c>
       <c r="W143" s="18"/>
       <c r="X143" s="10"/>
@@ -37003,10 +37004,10 @@
         <v>2.1519561651834209</v>
       </c>
       <c r="U144" s="18">
-        <v>-22.252381549373297</v>
+        <v>-22.296240901034324</v>
       </c>
       <c r="V144" s="18">
-        <v>15.924530445722723</v>
+        <v>19.625994530296367</v>
       </c>
       <c r="W144" s="18"/>
       <c r="X144" s="10"/>
@@ -37140,10 +37141,10 @@
         <v>-4.9361187043000143</v>
       </c>
       <c r="U145" s="18">
-        <v>-12.163281805622546</v>
+        <v>-12.15349135162154</v>
       </c>
       <c r="V145" s="18">
-        <v>21.757486993168797</v>
+        <v>22.984875159780643</v>
       </c>
       <c r="W145" s="18"/>
       <c r="X145" s="10"/>
@@ -37280,7 +37281,7 @@
         <v>-22.995018873014445</v>
       </c>
       <c r="V146" s="18">
-        <v>25.410388013489467</v>
+        <v>25.011157894349537</v>
       </c>
       <c r="W146" s="18"/>
       <c r="X146" s="10"/>
@@ -37417,7 +37418,7 @@
         <v>-21.369577880943552</v>
       </c>
       <c r="V147" s="18">
-        <v>9.2881130488496382</v>
+        <v>8.7163192071676718</v>
       </c>
       <c r="W147" s="18"/>
       <c r="X147" s="10"/>
@@ -37554,7 +37555,7 @@
         <v>-22.502022800109529</v>
       </c>
       <c r="V148" s="18">
-        <v>-5.8395115002478093</v>
+        <v>-3.7554855425439229</v>
       </c>
       <c r="W148" s="18"/>
       <c r="X148" s="10"/>
@@ -37688,10 +37689,10 @@
         <v>6.4836793128299348</v>
       </c>
       <c r="U149" s="18">
-        <v>-10.629503701534745</v>
+        <v>-9.896902569602247</v>
       </c>
       <c r="V149" s="18">
-        <v>12.713027056161778</v>
+        <v>17.340127159209985</v>
       </c>
       <c r="W149" s="18"/>
       <c r="X149" s="10"/>
@@ -37825,10 +37826,10 @@
         <v>-1.834351380092869</v>
       </c>
       <c r="U150" s="18">
-        <v>-13.757083723264969</v>
+        <v>-12.953985345242032</v>
       </c>
       <c r="V150" s="18">
-        <v>18.939016995586826</v>
+        <v>14.445154463412607</v>
       </c>
       <c r="W150" s="18"/>
       <c r="X150" s="10"/>
@@ -38055,10 +38056,10 @@
         <v>3.7876207763656993</v>
       </c>
       <c r="U152" s="18">
-        <v>-9.7724807741369801</v>
+        <v>-9.7820368749171251</v>
       </c>
       <c r="V152" s="18">
-        <v>8.5708557073969729</v>
+        <v>8.8306394901953382</v>
       </c>
       <c r="W152" s="18"/>
       <c r="X152" s="10"/>
@@ -38354,7 +38355,7 @@
     </row>
     <row r="158" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:92" x14ac:dyDescent="0.25">
@@ -38364,7 +38365,7 @@
     </row>
     <row r="161" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="162" spans="1:96" x14ac:dyDescent="0.25">
@@ -38538,10 +38539,10 @@
         <v>101.53128572042223</v>
       </c>
       <c r="V167" s="18">
-        <v>101.15157636878924</v>
+        <v>101.15574849655791</v>
       </c>
       <c r="W167" s="18">
-        <v>102.06742971404661</v>
+        <v>102.02889911653439</v>
       </c>
       <c r="X167" s="10"/>
       <c r="Y167" s="10"/>
@@ -38682,10 +38683,10 @@
         <v>97.202786345943011</v>
       </c>
       <c r="V168" s="18">
-        <v>103.01285617984782</v>
+        <v>102.99364395175846</v>
       </c>
       <c r="W168" s="18">
-        <v>109.56189674045855</v>
+        <v>109.46027470431754</v>
       </c>
       <c r="X168" s="10"/>
       <c r="Y168" s="10"/>
@@ -38829,7 +38830,7 @@
         <v>92.909654392058869</v>
       </c>
       <c r="W169" s="18">
-        <v>94.592521773527821</v>
+        <v>93.955919595192512</v>
       </c>
       <c r="X169" s="10"/>
       <c r="Y169" s="10"/>
@@ -38973,7 +38974,7 @@
         <v>95.061568472744966</v>
       </c>
       <c r="W170" s="18">
-        <v>102.79336251961895</v>
+        <v>98.526837244597061</v>
       </c>
       <c r="X170" s="10"/>
       <c r="Y170" s="10"/>
@@ -39114,10 +39115,10 @@
         <v>91.05443049402119</v>
       </c>
       <c r="V171" s="18">
-        <v>85.733037399220464</v>
+        <v>85.75472799088972</v>
       </c>
       <c r="W171" s="18">
-        <v>80.53887628529354</v>
+        <v>81.925352942793182</v>
       </c>
       <c r="X171" s="10"/>
       <c r="Y171" s="10"/>
@@ -39261,7 +39262,7 @@
         <v>89.555651123570925</v>
       </c>
       <c r="W172" s="18">
-        <v>89.284404229154902</v>
+        <v>89.112194544466149</v>
       </c>
       <c r="X172" s="10"/>
       <c r="Y172" s="10"/>
@@ -39405,7 +39406,7 @@
         <v>89.179718852641358</v>
       </c>
       <c r="W173" s="18">
-        <v>76.551647611234557</v>
+        <v>78.756632874724403</v>
       </c>
       <c r="X173" s="10"/>
       <c r="Y173" s="10"/>
@@ -39549,7 +39550,7 @@
         <v>90.668689986189747</v>
       </c>
       <c r="W174" s="18">
-        <v>88.200404420332973</v>
+        <v>86.036607336868499</v>
       </c>
       <c r="X174" s="10"/>
       <c r="Y174" s="10"/>
@@ -39690,10 +39691,10 @@
         <v>96.385558458174827</v>
       </c>
       <c r="V175" s="18">
-        <v>109.69489336538729</v>
+        <v>109.75980261055793</v>
       </c>
       <c r="W175" s="18">
-        <v>109.80948779787462</v>
+        <v>109.97208168540371</v>
       </c>
       <c r="X175" s="10"/>
       <c r="Y175" s="10"/>
@@ -39837,7 +39838,7 @@
         <v>81.438201625657967</v>
       </c>
       <c r="W176" s="18">
-        <v>88.751466414985657</v>
+        <v>86.585609569966451</v>
       </c>
       <c r="X176" s="10"/>
       <c r="Y176" s="10"/>
@@ -39981,7 +39982,7 @@
         <v>90.272566294212766</v>
       </c>
       <c r="W177" s="18">
-        <v>94.869458748599129</v>
+        <v>93.439278905886951</v>
       </c>
       <c r="X177" s="10"/>
       <c r="Y177" s="10"/>
@@ -40125,7 +40126,7 @@
         <v>73.942083263108401</v>
       </c>
       <c r="W178" s="18">
-        <v>73.950879183846837</v>
+        <v>73.389586098263905</v>
       </c>
       <c r="X178" s="10"/>
       <c r="Y178" s="10"/>
@@ -40269,7 +40270,7 @@
         <v>108.40961566590966</v>
       </c>
       <c r="W179" s="18">
-        <v>115.18370447902025</v>
+        <v>109.17367421529815</v>
       </c>
       <c r="X179" s="10"/>
       <c r="Y179" s="10"/>
@@ -40410,10 +40411,10 @@
         <v>102.89558536209491</v>
       </c>
       <c r="V180" s="18">
-        <v>105.34303645115845</v>
+        <v>105.34891178121106</v>
       </c>
       <c r="W180" s="18">
-        <v>98.412063331197402</v>
+        <v>99.653656440500399</v>
       </c>
       <c r="X180" s="10"/>
       <c r="Y180" s="10"/>
@@ -40557,7 +40558,7 @@
         <v>72.214952510275751</v>
       </c>
       <c r="W181" s="18">
-        <v>69.236902891840074</v>
+        <v>70.41363481591948</v>
       </c>
       <c r="X181" s="10"/>
       <c r="Y181" s="10"/>
@@ -40698,10 +40699,10 @@
         <v>102.97793592730483</v>
       </c>
       <c r="V182" s="18">
-        <v>108.33610742658595</v>
+        <v>108.32063445290139</v>
       </c>
       <c r="W182" s="18">
-        <v>98.806081310683325</v>
+        <v>99.667614771001993</v>
       </c>
       <c r="X182" s="10"/>
       <c r="Y182" s="10"/>
@@ -40842,10 +40843,10 @@
         <v>104.71791007629423</v>
       </c>
       <c r="V183" s="18">
-        <v>97.261083091834053</v>
+        <v>97.262491597915513</v>
       </c>
       <c r="W183" s="18">
-        <v>86.290726059719475</v>
+        <v>86.077630749429019</v>
       </c>
       <c r="X183" s="10"/>
       <c r="Y183" s="10"/>
@@ -40989,7 +40990,7 @@
         <v>94.319630820615302</v>
       </c>
       <c r="W184" s="18">
-        <v>98.854608136833974</v>
+        <v>99.01825435639779</v>
       </c>
       <c r="X184" s="10"/>
       <c r="Y184" s="10"/>
@@ -41133,7 +41134,7 @@
         <v>98.462844346020916</v>
       </c>
       <c r="W185" s="18">
-        <v>92.45798888673275</v>
+        <v>90.793621683424348</v>
       </c>
       <c r="X185" s="10"/>
       <c r="Y185" s="10"/>
@@ -41277,7 +41278,7 @@
         <v>85.002087742430618</v>
       </c>
       <c r="W186" s="18">
-        <v>82.821168753942743</v>
+        <v>82.601054599554445</v>
       </c>
       <c r="X186" s="10"/>
       <c r="Y186" s="10"/>
@@ -41418,10 +41419,10 @@
         <v>100.15708438417794</v>
       </c>
       <c r="V187" s="18">
-        <v>95.118887626981007</v>
+        <v>95.245130608357869</v>
       </c>
       <c r="W187" s="18">
-        <v>89.862229672701162</v>
+        <v>94.504362530293776</v>
       </c>
       <c r="X187" s="10"/>
       <c r="Y187" s="10"/>
@@ -41562,10 +41563,10 @@
         <v>103.598803618012</v>
       </c>
       <c r="V188" s="18">
-        <v>101.47745992048658</v>
+        <v>101.55621098006829</v>
       </c>
       <c r="W188" s="18">
-        <v>98.368775951957673</v>
+        <v>97.947258509340898</v>
       </c>
       <c r="X188" s="10"/>
       <c r="Y188" s="10"/>
@@ -41804,10 +41805,10 @@
         <v>99.822130041253899</v>
       </c>
       <c r="V190" s="18">
-        <v>97.044952001019396</v>
+        <v>97.049243713635079</v>
       </c>
       <c r="W190" s="18">
-        <v>96.590238075690252</v>
+        <v>96.305407012285741</v>
       </c>
       <c r="X190" s="10"/>
       <c r="Y190" s="10"/>
@@ -41925,7 +41926,7 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:96" x14ac:dyDescent="0.25">
@@ -41935,7 +41936,7 @@
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.25">
@@ -42109,10 +42110,10 @@
         <v>46.817946532931416</v>
       </c>
       <c r="V206" s="18">
-        <v>51.751327917307279</v>
+        <v>51.770005732361454</v>
       </c>
       <c r="W206" s="18">
-        <v>50.333087114301492</v>
+        <v>50.623318925483559</v>
       </c>
       <c r="X206" s="10"/>
       <c r="Y206" s="10"/>
@@ -42253,10 +42254,10 @@
         <v>4.5971760161499429</v>
       </c>
       <c r="V207" s="18">
-        <v>4.662736552123337</v>
+        <v>4.6163336013710774</v>
       </c>
       <c r="W207" s="18">
-        <v>4.7043124790959325</v>
+        <v>4.6935512666426416</v>
       </c>
       <c r="X207" s="10"/>
       <c r="Y207" s="10"/>
@@ -42397,10 +42398,10 @@
         <v>0.67235988043617079</v>
       </c>
       <c r="V208" s="18">
-        <v>0.56310113931641514</v>
+        <v>0.5631358802237959</v>
       </c>
       <c r="W208" s="18">
-        <v>0.46345358349146715</v>
+        <v>0.49156268458741259</v>
       </c>
       <c r="X208" s="10"/>
       <c r="Y208" s="10"/>
@@ -42541,10 +42542,10 @@
         <v>1.3604154848640879</v>
       </c>
       <c r="V209" s="18">
-        <v>0.98768499445176294</v>
+        <v>0.98774593034856328</v>
       </c>
       <c r="W209" s="18">
-        <v>1.1980016328367682</v>
+        <v>1.1748488179328334</v>
       </c>
       <c r="X209" s="10"/>
       <c r="Y209" s="10"/>
@@ -42685,10 +42686,10 @@
         <v>2.0127231021148537</v>
       </c>
       <c r="V210" s="18">
-        <v>1.6188768635297106</v>
+        <v>1.6134564285625561</v>
       </c>
       <c r="W210" s="18">
-        <v>1.531691235351635</v>
+        <v>1.5309178023370127</v>
       </c>
       <c r="X210" s="10"/>
       <c r="Y210" s="10"/>
@@ -42829,10 +42830,10 @@
         <v>0.40225017846384581</v>
       </c>
       <c r="V211" s="18">
-        <v>0.33314526328908695</v>
+        <v>0.33316581691245611</v>
       </c>
       <c r="W211" s="18">
-        <v>0.30770711915494325</v>
+        <v>0.30321175389430766</v>
       </c>
       <c r="X211" s="10"/>
       <c r="Y211" s="10"/>
@@ -42973,10 +42974,10 @@
         <v>0.87327228838868964</v>
       </c>
       <c r="V212" s="18">
-        <v>0.84134362580074196</v>
+        <v>0.84139553306737391</v>
       </c>
       <c r="W212" s="18">
-        <v>0.85917659141793701</v>
+        <v>0.86856535606324026</v>
       </c>
       <c r="X212" s="10"/>
       <c r="Y212" s="10"/>
@@ -43117,10 +43118,10 @@
         <v>0.75130259606832639</v>
       </c>
       <c r="V213" s="18">
-        <v>0.68083085322618009</v>
+        <v>0.68087285754825011</v>
       </c>
       <c r="W213" s="18">
-        <v>0.7186641258096591</v>
+        <v>0.68460918720900976</v>
       </c>
       <c r="X213" s="10"/>
       <c r="Y213" s="10"/>
@@ -43261,10 +43262,10 @@
         <v>0.85665643091980792</v>
       </c>
       <c r="V214" s="18">
-        <v>0.90993326581840006</v>
+        <v>0.91481869153391526</v>
       </c>
       <c r="W214" s="18">
-        <v>0.97773404858850343</v>
+        <v>0.9609437802304579</v>
       </c>
       <c r="X214" s="10"/>
       <c r="Y214" s="10"/>
@@ -43405,10 +43406,10 @@
         <v>4.8501085694858155</v>
       </c>
       <c r="V215" s="18">
-        <v>2.3148076138941058</v>
+        <v>2.3149504275226063</v>
       </c>
       <c r="W215" s="18">
-        <v>2.7196384624581973</v>
+        <v>2.5356039800843537</v>
       </c>
       <c r="X215" s="10"/>
       <c r="Y215" s="10"/>
@@ -43549,10 +43550,10 @@
         <v>10.729704995201153</v>
       </c>
       <c r="V216" s="18">
-        <v>11.37030065226767</v>
+        <v>11.371002150691792</v>
       </c>
       <c r="W216" s="18">
-        <v>11.360777779874635</v>
+        <v>11.217552808438313</v>
       </c>
       <c r="X216" s="10"/>
       <c r="Y216" s="10"/>
@@ -43693,10 +43694,10 @@
         <v>0.96653350156360296</v>
       </c>
       <c r="V217" s="18">
-        <v>1.0981805588712832</v>
+        <v>1.098248311867005</v>
       </c>
       <c r="W217" s="18">
-        <v>1.144899941631524</v>
+        <v>1.1426848346429339</v>
       </c>
       <c r="X217" s="10"/>
       <c r="Y217" s="10"/>
@@ -43837,10 +43838,10 @@
         <v>1.1565851216244845</v>
       </c>
       <c r="V218" s="18">
-        <v>1.1107774074742953</v>
+        <v>1.1108459376411506</v>
       </c>
       <c r="W218" s="18">
-        <v>1.2328384691525633</v>
+        <v>1.1516272164206964</v>
       </c>
       <c r="X218" s="10"/>
       <c r="Y218" s="10"/>
@@ -43981,10 +43982,10 @@
         <v>2.5284246794450662</v>
       </c>
       <c r="V219" s="18">
-        <v>2.2399165863827948</v>
+        <v>2.2410679422796802</v>
       </c>
       <c r="W219" s="18">
-        <v>2.72003587142967</v>
+        <v>2.7225006584977769</v>
       </c>
       <c r="X219" s="10"/>
       <c r="Y219" s="10"/>
@@ -44125,10 +44126,10 @@
         <v>2.0051385364391723</v>
       </c>
       <c r="V220" s="18">
-        <v>1.9191143440449194</v>
+        <v>1.9192327451082889</v>
       </c>
       <c r="W220" s="18">
-        <v>2.0529179519764669</v>
+        <v>2.1061164601809002</v>
       </c>
       <c r="X220" s="10"/>
       <c r="Y220" s="10"/>
@@ -44269,10 +44270,10 @@
         <v>0.90367366287598516</v>
       </c>
       <c r="V221" s="18">
-        <v>0.84264108569698581</v>
+        <v>0.84209740031311775</v>
       </c>
       <c r="W221" s="18">
-        <v>0.82443206894773857</v>
+        <v>0.85826432549392395</v>
       </c>
       <c r="X221" s="10"/>
       <c r="Y221" s="10"/>
@@ -44413,10 +44414,10 @@
         <v>11.128112606972415</v>
       </c>
       <c r="V222" s="18">
-        <v>10.349767995553991</v>
+        <v>10.35171011648289</v>
       </c>
       <c r="W222" s="18">
-        <v>10.346126031597576</v>
+        <v>10.432755357310231</v>
       </c>
       <c r="X222" s="10"/>
       <c r="Y222" s="10"/>
@@ -44557,10 +44558,10 @@
         <v>1.5952911808450789</v>
       </c>
       <c r="V223" s="18">
-        <v>1.281436708160705</v>
+        <v>1.2815157672690678</v>
       </c>
       <c r="W223" s="18">
-        <v>1.5586620132639719</v>
+        <v>1.5573140737211877</v>
       </c>
       <c r="X223" s="10"/>
       <c r="Y223" s="10"/>
@@ -44701,10 +44702,10 @@
         <v>1.3436005909529942</v>
       </c>
       <c r="V224" s="18">
-        <v>1.1689879330137669</v>
+        <v>1.1690600545185454</v>
       </c>
       <c r="W224" s="18">
-        <v>1.1101495143510542</v>
+        <v>1.0851876123810802</v>
       </c>
       <c r="X224" s="10"/>
       <c r="Y224" s="10"/>
@@ -44845,10 +44846,10 @@
         <v>1.9490789867331493</v>
       </c>
       <c r="V225" s="18">
-        <v>1.5450556542107396</v>
+        <v>1.5451509774690908</v>
       </c>
       <c r="W225" s="18">
-        <v>1.3117499164728084</v>
+        <v>1.3381142931270622</v>
       </c>
       <c r="X225" s="10"/>
       <c r="Y225" s="10"/>
@@ -44989,10 +44990,10 @@
         <v>0.60087423677222584</v>
       </c>
       <c r="V226" s="18">
-        <v>0.58140358967913131</v>
+        <v>0.58698374142593435</v>
       </c>
       <c r="W226" s="18">
-        <v>0.57291303305768371</v>
+        <v>0.63280806446244342</v>
       </c>
       <c r="X226" s="10"/>
       <c r="Y226" s="10"/>
@@ -45133,10 +45134,10 @@
         <v>1.8987708207517213</v>
       </c>
       <c r="V227" s="18">
-        <v>1.8286293958866939</v>
+        <v>1.8472039554813857</v>
       </c>
       <c r="W227" s="18">
-        <v>1.9510310157377733</v>
+        <v>1.8879407408586248</v>
       </c>
       <c r="X227" s="10"/>
       <c r="Y227" s="10"/>
@@ -45692,7 +45693,7 @@
     </row>
     <row r="236" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:96" x14ac:dyDescent="0.25">
@@ -45702,7 +45703,7 @@
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.25">
@@ -45876,10 +45877,10 @@
         <v>46.02982335852289</v>
       </c>
       <c r="V245" s="18">
-        <v>49.650290326802285</v>
+        <v>49.668357735963923</v>
       </c>
       <c r="W245" s="18">
-        <v>47.632088718951735</v>
+        <v>47.783514040105629</v>
       </c>
       <c r="X245" s="10"/>
       <c r="Y245" s="10"/>
@@ -46020,10 +46021,10 @@
         <v>4.7210570741607789</v>
       </c>
       <c r="V246" s="18">
-        <v>4.392607502351038</v>
+        <v>4.3498964358688994</v>
       </c>
       <c r="W246" s="18">
-        <v>4.1473420582953562</v>
+        <v>4.1294831964204786</v>
       </c>
       <c r="X246" s="10"/>
       <c r="Y246" s="10"/>
@@ -46164,10 +46165,10 @@
         <v>0.6217573808141641</v>
       </c>
       <c r="V247" s="18">
-        <v>0.58816409763064981</v>
+        <v>0.58822639736783655</v>
       </c>
       <c r="W247" s="18">
-        <v>0.47324134220301889</v>
+        <v>0.50385483549314203</v>
       </c>
       <c r="X247" s="10"/>
       <c r="Y247" s="10"/>
@@ -46308,10 +46309,10 @@
         <v>1.4162700526793888</v>
       </c>
       <c r="V248" s="18">
-        <v>1.0082922512074841</v>
+        <v>1.0083990519158421</v>
       </c>
       <c r="W248" s="18">
-        <v>1.1257075368916343</v>
+        <v>1.1483601499156904</v>
       </c>
       <c r="X248" s="10"/>
       <c r="Y248" s="10"/>
@@ -46452,10 +46453,10 @@
         <v>2.2065297223459908</v>
       </c>
       <c r="V249" s="18">
-        <v>1.8324770973089315</v>
+        <v>1.8259602686108896</v>
       </c>
       <c r="W249" s="18">
-        <v>1.8369566090913745</v>
+        <v>1.7996341396218503</v>
       </c>
       <c r="X249" s="10"/>
       <c r="Y249" s="10"/>
@@ -46596,10 +46597,10 @@
         <v>0.43699598566705555</v>
       </c>
       <c r="V250" s="18">
-        <v>0.36100531546185344</v>
+        <v>0.36104355400168764</v>
       </c>
       <c r="W250" s="18">
-        <v>0.33288572795399257</v>
+        <v>0.32768726568763062</v>
       </c>
       <c r="X250" s="10"/>
       <c r="Y250" s="10"/>
@@ -46740,10 +46741,10 @@
         <v>0.93964574460486272</v>
       </c>
       <c r="V251" s="18">
-        <v>0.91554618956705014</v>
+        <v>0.91564316639243304</v>
       </c>
       <c r="W251" s="18">
-        <v>1.0840794953959871</v>
+        <v>1.0621015282039374</v>
       </c>
       <c r="X251" s="10"/>
       <c r="Y251" s="10"/>
@@ -46884,10 +46885,10 @@
         <v>0.73066630825396983</v>
       </c>
       <c r="V252" s="18">
-        <v>0.72871018079351757</v>
+        <v>0.72878736750540907</v>
       </c>
       <c r="W252" s="18">
-        <v>0.78702517822480911</v>
+        <v>0.76631992426624584</v>
       </c>
       <c r="X252" s="10"/>
       <c r="Y252" s="10"/>
@@ -47028,10 +47029,10 @@
         <v>0.88720002265755182</v>
       </c>
       <c r="V253" s="18">
-        <v>0.80500037327481189</v>
+        <v>0.80887957190917548</v>
       </c>
       <c r="W253" s="18">
-        <v>0.86003100844715841</v>
+        <v>0.8415234162408497</v>
       </c>
       <c r="X253" s="10"/>
       <c r="Y253" s="10"/>
@@ -47172,10 +47173,10 @@
         <v>4.7973236889475874</v>
       </c>
       <c r="V254" s="18">
-        <v>2.758415452425369</v>
+        <v>2.7587076303369931</v>
       </c>
       <c r="W254" s="18">
-        <v>2.9598443516453972</v>
+        <v>2.8202420071510041</v>
       </c>
       <c r="X254" s="10"/>
       <c r="Y254" s="10"/>
@@ -47316,10 +47317,10 @@
         <v>11.229390469186432</v>
       </c>
       <c r="V255" s="18">
-        <v>12.22331796174066</v>
+        <v>12.224612684590348</v>
       </c>
       <c r="W255" s="18">
-        <v>11.56684400815459</v>
+        <v>11.56163662164561</v>
       </c>
       <c r="X255" s="10"/>
       <c r="Y255" s="10"/>
@@ -47460,10 +47461,10 @@
         <v>1.2290685544991442</v>
       </c>
       <c r="V256" s="18">
-        <v>1.4413020964651162</v>
+        <v>1.441454762604002</v>
       </c>
       <c r="W256" s="18">
-        <v>1.4954001785443034</v>
+        <v>1.4994869699865692</v>
       </c>
       <c r="X256" s="10"/>
       <c r="Y256" s="10"/>
@@ -47604,10 +47605,10 @@
         <v>1.130853584818839</v>
       </c>
       <c r="V257" s="18">
-        <v>0.99433375471376129</v>
+        <v>0.9944390769050413</v>
       </c>
       <c r="W257" s="18">
-        <v>1.0338281945603256</v>
+        <v>1.0158852727178771</v>
       </c>
       <c r="X257" s="10"/>
       <c r="Y257" s="10"/>
@@ -47748,10 +47749,10 @@
         <v>2.4529015143156818</v>
       </c>
       <c r="V258" s="18">
-        <v>2.0634738178691934</v>
+        <v>2.0645106364345507</v>
       </c>
       <c r="W258" s="18">
-        <v>2.6696819831082874</v>
+        <v>2.631027735187915</v>
       </c>
       <c r="X258" s="10"/>
       <c r="Y258" s="10"/>
@@ -47892,10 +47893,10 @@
         <v>2.3376333860603773</v>
       </c>
       <c r="V259" s="18">
-        <v>2.5789722616767792</v>
+        <v>2.5792454325397434</v>
       </c>
       <c r="W259" s="18">
-        <v>2.8639616367738352</v>
+        <v>2.8805557821755725</v>
       </c>
       <c r="X259" s="10"/>
       <c r="Y259" s="10"/>
@@ -48036,10 +48037,10 @@
         <v>0.87598017068571221</v>
       </c>
       <c r="V260" s="18">
-        <v>0.75481818258021804</v>
+        <v>0.7544722780325005</v>
       </c>
       <c r="W260" s="18">
-        <v>0.80594320471533365</v>
+        <v>0.82931146070594641</v>
       </c>
       <c r="X260" s="10"/>
       <c r="Y260" s="10"/>
@@ -48180,10 +48181,10 @@
         <v>10.607850204015717</v>
       </c>
       <c r="V261" s="18">
-        <v>10.326769005871288</v>
+        <v>10.329014005733949</v>
       </c>
       <c r="W261" s="18">
-        <v>11.58102176427967</v>
+        <v>11.6723792487984</v>
       </c>
       <c r="X261" s="10"/>
       <c r="Y261" s="10"/>
@@ -48324,10 +48325,10 @@
         <v>1.5448567544470433</v>
       </c>
       <c r="V262" s="18">
-        <v>1.3184632165525756</v>
+        <v>1.3186028713057518</v>
       </c>
       <c r="W262" s="18">
-        <v>1.522959200165046</v>
+        <v>1.514647644421832</v>
       </c>
       <c r="X262" s="10"/>
       <c r="Y262" s="10"/>
@@ -48468,10 +48469,10 @@
         <v>1.322083880172527</v>
       </c>
       <c r="V263" s="18">
-        <v>1.1521541816365006</v>
+        <v>1.1522762205419759</v>
       </c>
       <c r="W263" s="18">
-        <v>1.1597657182673928</v>
+        <v>1.1510658211151648</v>
       </c>
       <c r="X263" s="10"/>
       <c r="Y263" s="10"/>
@@ -48612,10 +48613,10 @@
         <v>2.0536958922430055</v>
       </c>
       <c r="V264" s="18">
-        <v>1.7639549308027069</v>
+        <v>1.7641417730955993</v>
       </c>
       <c r="W264" s="18">
-        <v>1.5298291322632855</v>
+        <v>1.5601210208913465</v>
       </c>
       <c r="X264" s="10"/>
       <c r="Y264" s="10"/>
@@ -48756,10 +48757,10 @@
         <v>0.59886473902780246</v>
       </c>
       <c r="V265" s="18">
-        <v>0.59317644330427566</v>
+        <v>0.59810226322045712</v>
       </c>
       <c r="W265" s="18">
-        <v>0.61580718018304725</v>
+        <v>0.64486798891614006</v>
       </c>
       <c r="X265" s="10"/>
       <c r="Y265" s="10"/>
@@ -48900,10 +48901,10 @@
         <v>1.8295515118734718</v>
       </c>
       <c r="V266" s="18">
-        <v>1.7487553599639449</v>
+        <v>1.7652268151229837</v>
       </c>
       <c r="W266" s="18">
-        <v>1.91575577188441</v>
+        <v>1.8562939303311554</v>
       </c>
       <c r="X266" s="10"/>
       <c r="Y266" s="10"/>

--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9772645-B678-45C9-B4AD-E60E8A185C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7D72C-34E9-4057-AEB8-31F509BAD30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="1770" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -664,13 +664,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2022</t>
   </si>
   <si>
     <t>Annual 2001 to 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -23626,7 +23626,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="W1" sqref="W1:X1048576"/>
+      <selection pane="topRight" activeCell="V186" sqref="V1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23648,7 +23648,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23658,7 +23658,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23839,10 +23839,10 @@
         <v>1641068.2848903795</v>
       </c>
       <c r="W12" s="9">
-        <v>1733040.6546013635</v>
+        <v>1728815.3656187826</v>
       </c>
       <c r="X12" s="9">
-        <v>1969321.5604649053</v>
+        <v>1964555.7786141518</v>
       </c>
       <c r="Y12" s="10"/>
       <c r="Z12" s="10"/>
@@ -23985,10 +23985,10 @@
         <v>146334.12839180502</v>
       </c>
       <c r="W13" s="9">
-        <v>160679.21527469711</v>
+        <v>160609.14752624987</v>
       </c>
       <c r="X13" s="9">
-        <v>166584.95345760102</v>
+        <v>167574.36287501501</v>
       </c>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
@@ -24131,10 +24131,10 @@
         <v>17850.962541837536</v>
       </c>
       <c r="W14" s="9">
-        <v>16828.175922818271</v>
+        <v>16692.669385700443</v>
       </c>
       <c r="X14" s="9">
-        <v>15135.244980633626</v>
+        <v>15190.415658087593</v>
       </c>
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
@@ -24277,10 +24277,10 @@
         <v>31310.765700984015</v>
       </c>
       <c r="W15" s="9">
-        <v>40219.819792633374</v>
+        <v>40086.555863181275</v>
       </c>
       <c r="X15" s="9">
-        <v>43798.996369919492</v>
+        <v>43908.235684848994</v>
       </c>
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
@@ -24423,10 +24423,10 @@
         <v>51145.294200950317</v>
       </c>
       <c r="W16" s="9">
-        <v>52409.499152127624</v>
+        <v>52379.531586994024</v>
       </c>
       <c r="X16" s="9">
-        <v>51625.723756226042</v>
+        <v>52230.124864867947</v>
       </c>
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
@@ -24569,10 +24569,10 @@
         <v>10561.093204647921</v>
       </c>
       <c r="W17" s="9">
-        <v>10380.162889464264</v>
+        <v>10393.075857598771</v>
       </c>
       <c r="X17" s="9">
-        <v>10976.752576905623</v>
+        <v>11783.237032913225</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
@@ -24715,10 +24715,10 @@
         <v>26671.573719802989</v>
       </c>
       <c r="W18" s="9">
-        <v>29734.499933748186</v>
+        <v>29735.106352210714</v>
       </c>
       <c r="X18" s="9">
-        <v>32642.514322755178</v>
+        <v>32409.615369483221</v>
       </c>
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
@@ -24861,10 +24861,10 @@
         <v>21583.131714174349</v>
       </c>
       <c r="W19" s="9">
-        <v>23436.937346862749</v>
+        <v>23319.755618068779</v>
       </c>
       <c r="X19" s="9">
-        <v>27444.775719325375</v>
+        <v>26744.5479711638</v>
       </c>
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
@@ -25007,10 +25007,10 @@
         <v>28999.02984099483</v>
       </c>
       <c r="W20" s="9">
-        <v>32896.986473310208</v>
+        <v>32205.183008854456</v>
       </c>
       <c r="X20" s="9">
-        <v>30909.452126782628</v>
+        <v>30423.549806655294</v>
       </c>
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
@@ -25153,10 +25153,10 @@
         <v>73382.09980776615</v>
       </c>
       <c r="W21" s="9">
-        <v>86803.964550872945</v>
+        <v>86914.645803216699</v>
       </c>
       <c r="X21" s="9">
-        <v>107613.20833563837</v>
+        <v>106335.4168122877</v>
       </c>
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
@@ -25299,10 +25299,10 @@
         <v>360451.78541009605</v>
       </c>
       <c r="W22" s="9">
-        <v>384022.13594049925</v>
+        <v>388749.14218119672</v>
       </c>
       <c r="X22" s="9">
-        <v>457059.75402607338</v>
+        <v>470531.40589619637</v>
       </c>
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
@@ -25445,10 +25445,10 @@
         <v>34813.603901394228</v>
       </c>
       <c r="W23" s="9">
-        <v>39118.716746873673</v>
+        <v>38482.033366260075</v>
       </c>
       <c r="X23" s="9">
-        <v>39582.993358745778</v>
+        <v>37879.254011903337</v>
       </c>
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
@@ -25591,10 +25591,10 @@
         <v>35212.93868667019</v>
       </c>
       <c r="W24" s="9">
-        <v>39424.850589908354</v>
+        <v>39186.206979389171</v>
       </c>
       <c r="X24" s="9">
-        <v>38979.162554918643</v>
+        <v>39638.630031478286</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
@@ -25737,10 +25737,10 @@
         <v>71040.083390617947</v>
       </c>
       <c r="W25" s="9">
-        <v>93202.192655537365</v>
+        <v>92555.760129356844</v>
       </c>
       <c r="X25" s="9">
-        <v>96130.386662738863</v>
+        <v>96137.275069823445</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
@@ -25883,10 +25883,10 @@
         <v>60838.161880895888</v>
       </c>
       <c r="W26" s="9">
-        <v>72100.872212493879</v>
+        <v>72365.053022293578</v>
       </c>
       <c r="X26" s="9">
-        <v>76132.194558490446</v>
+        <v>75065.327696947497</v>
       </c>
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
@@ -26029,10 +26029,10 @@
         <v>26693.822357037992</v>
       </c>
       <c r="W27" s="9">
-        <v>29381.854055527623</v>
+        <v>29618.553624185613</v>
       </c>
       <c r="X27" s="9">
-        <v>31369.330549709077</v>
+        <v>30595.807432212543</v>
       </c>
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
@@ -26175,10 +26175,10 @@
         <v>328141.03313726012</v>
       </c>
       <c r="W28" s="9">
-        <v>357155.3496984808</v>
+        <v>359791.94860719435</v>
       </c>
       <c r="X28" s="9">
-        <v>366911.70974051137</v>
+        <v>359837.03110842162</v>
       </c>
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
@@ -26321,10 +26321,10 @@
         <v>40623.037461585736</v>
       </c>
       <c r="W29" s="9">
-        <v>53313.150125822227</v>
+        <v>53126.522603840771</v>
       </c>
       <c r="X29" s="9">
-        <v>53959.983254987448</v>
+        <v>53456.376791695882</v>
       </c>
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
@@ -26467,10 +26467,10 @@
         <v>37058.280204194431</v>
       </c>
       <c r="W30" s="9">
-        <v>37150.354620061749</v>
+        <v>36897.53248048509</v>
       </c>
       <c r="X30" s="9">
-        <v>44840.946547786836</v>
+        <v>45660.71973049175</v>
       </c>
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
@@ -26613,10 +26613,10 @@
         <v>48980.065360642373</v>
       </c>
       <c r="W31" s="9">
-        <v>45809.056373919142</v>
+        <v>45791.255498750965</v>
       </c>
       <c r="X31" s="9">
-        <v>50754.573809534937</v>
+        <v>52284.648912247023</v>
       </c>
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
@@ -26759,10 +26759,10 @@
         <v>18606.920902816302</v>
       </c>
       <c r="W32" s="9">
-        <v>21663.57571077683</v>
+        <v>21648.239935105739</v>
       </c>
       <c r="X32" s="9">
-        <v>21272.881714941454</v>
+        <v>21127.897740569817</v>
       </c>
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
@@ -26905,10 +26905,10 @@
         <v>58554.906150409028</v>
       </c>
       <c r="W33" s="9">
-        <v>64631.836213709103</v>
+        <v>64685.550393851117</v>
       </c>
       <c r="X33" s="9">
-        <v>64086.706914993469</v>
+        <v>63534.449940858925</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -27149,10 +27149,10 @@
         <v>3169921.0028569628</v>
       </c>
       <c r="W35" s="12">
-        <v>3423403.8608815079</v>
+        <v>3424048.8354427675</v>
       </c>
       <c r="X35" s="12">
-        <v>3797133.805804125</v>
+        <v>3796904.1090523209</v>
       </c>
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
@@ -27466,7 +27466,7 @@
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
@@ -27476,7 +27476,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
@@ -27657,10 +27657,10 @@
         <v>1622318.3647800514</v>
       </c>
       <c r="W51" s="9">
-        <v>1698578.2161796489</v>
+        <v>1694161.4946517027</v>
       </c>
       <c r="X51" s="9">
-        <v>1783531.9589681213</v>
+        <v>1776260.1161583713</v>
       </c>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10"/>
@@ -27803,10 +27803,10 @@
         <v>142080.73700193284</v>
       </c>
       <c r="W52" s="9">
-        <v>146792.26386808921</v>
+        <v>146766.61981999179</v>
       </c>
       <c r="X52" s="9">
-        <v>152606.54707408254</v>
+        <v>153561.38424679224</v>
       </c>
       <c r="Y52" s="10"/>
       <c r="Z52" s="10"/>
@@ -27949,10 +27949,10 @@
         <v>19213.248244913593</v>
       </c>
       <c r="W53" s="9">
-        <v>17910.713870208692</v>
+        <v>17785.000624093522</v>
       </c>
       <c r="X53" s="9">
-        <v>15654.956800159754</v>
+        <v>15773.070773751999</v>
       </c>
       <c r="Y53" s="10"/>
       <c r="Z53" s="10"/>
@@ -28095,10 +28095,10 @@
         <v>32937.354394653295</v>
       </c>
       <c r="W54" s="9">
-        <v>40821.182245793563</v>
+        <v>40680.547175401531</v>
       </c>
       <c r="X54" s="9">
-        <v>44636.238177716201</v>
+        <v>44691.782547776333</v>
       </c>
       <c r="Y54" s="10"/>
       <c r="Z54" s="10"/>
@@ -28241,10 +28241,10 @@
         <v>59641.369518872256</v>
       </c>
       <c r="W55" s="9">
-        <v>63972.259220810578</v>
+        <v>63910.408392930294</v>
       </c>
       <c r="X55" s="9">
-        <v>62792.161949559013</v>
+        <v>63232.527883795527</v>
       </c>
       <c r="Y55" s="10"/>
       <c r="Z55" s="10"/>
@@ -28387,10 +28387,10 @@
         <v>11792.771390914779</v>
       </c>
       <c r="W56" s="9">
-        <v>11648.420221863866</v>
+        <v>11653.883470600751</v>
       </c>
       <c r="X56" s="9">
-        <v>12273.651037602776</v>
+        <v>12988.184926667345</v>
       </c>
       <c r="Y56" s="10"/>
       <c r="Z56" s="10"/>
@@ -28533,10 +28533,10 @@
         <v>29907.667419174672</v>
       </c>
       <c r="W57" s="9">
-        <v>37754.915171457214</v>
+        <v>37755.368142473308</v>
       </c>
       <c r="X57" s="9">
-        <v>46967.003657733767</v>
+        <v>46789.593589389318</v>
       </c>
       <c r="Y57" s="10"/>
       <c r="Z57" s="10"/>
@@ -28679,10 +28679,10 @@
         <v>23804.393465331636</v>
       </c>
       <c r="W58" s="9">
-        <v>27240.657288004808</v>
+        <v>27120.892888556918</v>
       </c>
       <c r="X58" s="9">
-        <v>31121.612914889836</v>
+        <v>30442.032540227981</v>
       </c>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10"/>
@@ -28825,10 +28825,10 @@
         <v>26420.446421434597</v>
       </c>
       <c r="W59" s="9">
-        <v>29913.943583807359</v>
+        <v>29325.305426950494</v>
       </c>
       <c r="X59" s="9">
-        <v>31269.03397782785</v>
+        <v>30581.284609473805</v>
       </c>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10"/>
@@ -28971,10 +28971,10 @@
         <v>90107.71154436488</v>
       </c>
       <c r="W60" s="9">
-        <v>100252.18391600056</v>
+        <v>100113.30236089285</v>
       </c>
       <c r="X60" s="9">
-        <v>103090.90981307908</v>
+        <v>100137.15810980884</v>
       </c>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10"/>
@@ -29117,10 +29117,10 @@
         <v>399292.72004445503</v>
       </c>
       <c r="W61" s="9">
-        <v>410985.76576911565</v>
+        <v>415034.47117934673</v>
       </c>
       <c r="X61" s="9">
-        <v>452422.79181227437</v>
+        <v>465099.32147835364</v>
       </c>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10"/>
@@ -29263,10 +29263,10 @@
         <v>47082.260013579609</v>
       </c>
       <c r="W62" s="9">
-        <v>53302.816961654811</v>
+        <v>52449.361451691599</v>
       </c>
       <c r="X62" s="9">
-        <v>55419.693545184971</v>
+        <v>53068.8484532816</v>
       </c>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10"/>
@@ -29409,10 +29409,10 @@
         <v>32481.379507134629</v>
       </c>
       <c r="W63" s="9">
-        <v>36112.048873760337</v>
+        <v>35919.2351479102</v>
       </c>
       <c r="X63" s="9">
-        <v>35973.490832844676</v>
+        <v>36674.081558855542</v>
       </c>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10"/>
@@ -29555,10 +29555,10 @@
         <v>67433.144006417657</v>
       </c>
       <c r="W64" s="9">
-        <v>93526.114328965981</v>
+        <v>92964.115660627038</v>
       </c>
       <c r="X64" s="9">
-        <v>91989.319061788265</v>
+        <v>91966.10943792903</v>
       </c>
       <c r="Y64" s="10"/>
       <c r="Z64" s="10"/>
@@ -29701,10 +29701,10 @@
         <v>84245.934901416695</v>
       </c>
       <c r="W65" s="9">
-        <v>102396.17994580921</v>
+        <v>102734.16244540413</v>
       </c>
       <c r="X65" s="9">
-        <v>99822.804430176926</v>
+        <v>98697.960495774911</v>
       </c>
       <c r="Y65" s="10"/>
       <c r="Z65" s="10"/>
@@ -29847,10 +29847,10 @@
         <v>24643.340109538098</v>
       </c>
       <c r="W66" s="9">
-        <v>29479.840691518373</v>
+        <v>29637.912448187672</v>
       </c>
       <c r="X66" s="9">
-        <v>33369.7445673763</v>
+        <v>32935.074329012714</v>
       </c>
       <c r="Y66" s="10"/>
       <c r="Z66" s="10"/>
@@ -29993,10 +29993,10 @@
         <v>337376.75001561723</v>
       </c>
       <c r="W67" s="9">
-        <v>414922.37482483208</v>
+        <v>419706.14265012939</v>
       </c>
       <c r="X67" s="9">
-        <v>420683.50761875283</v>
+        <v>417708.2130583555</v>
       </c>
       <c r="Y67" s="10"/>
       <c r="Z67" s="10"/>
@@ -30139,10 +30139,10 @@
         <v>43069.54671911928</v>
       </c>
       <c r="W68" s="9">
-        <v>53841.739053418838</v>
+        <v>53670.581851835603</v>
       </c>
       <c r="X68" s="9">
-        <v>55269.277473622227</v>
+        <v>55288.607417360843</v>
       </c>
       <c r="Y68" s="10"/>
       <c r="Z68" s="10"/>
@@ -30285,10 +30285,10 @@
         <v>37636.816659452954</v>
       </c>
       <c r="W69" s="9">
-        <v>40917.361738907333</v>
+        <v>40638.151264957778</v>
       </c>
       <c r="X69" s="9">
-        <v>49965.706308932597</v>
+        <v>50404.438549311883</v>
       </c>
       <c r="Y69" s="10"/>
       <c r="Z69" s="10"/>
@@ -30431,10 +30431,10 @@
         <v>57622.191009072027</v>
       </c>
       <c r="W70" s="9">
-        <v>55458.197956429285</v>
+        <v>55453.817464419983</v>
       </c>
       <c r="X70" s="9">
-        <v>60834.816830189222</v>
+        <v>61969.874915742323</v>
       </c>
       <c r="Y70" s="10"/>
       <c r="Z70" s="10"/>
@@ -30577,10 +30577,10 @@
         <v>19535.823809541318</v>
       </c>
       <c r="W71" s="9">
-        <v>22923.360499715003</v>
+        <v>22909.561370263531</v>
       </c>
       <c r="X71" s="9">
-        <v>23003.252517042238</v>
+        <v>22800.081192118199</v>
       </c>
       <c r="Y71" s="10"/>
       <c r="Z71" s="10"/>
@@ -30723,10 +30723,10 @@
         <v>57657.631754202783</v>
       </c>
       <c r="W72" s="9">
-        <v>65986.36572104301</v>
+        <v>66035.945592345932</v>
       </c>
       <c r="X72" s="9">
-        <v>69597.520376327244</v>
+        <v>69333.096939007752</v>
       </c>
       <c r="Y72" s="10"/>
       <c r="Z72" s="10"/>
@@ -30967,10 +30967,10 @@
         <v>3266301.6027311916</v>
       </c>
       <c r="W74" s="12">
-        <v>3554736.9219308551</v>
+        <v>3556426.2814807137</v>
       </c>
       <c r="X74" s="12">
-        <v>3732295.9997452847</v>
+        <v>3730402.8432111582</v>
       </c>
       <c r="Y74" s="10"/>
       <c r="Z74" s="10"/>
@@ -31284,7 +31284,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.2">
@@ -31294,7 +31294,7 @@
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
@@ -31470,10 +31470,10 @@
         <v>-3.010618012349795</v>
       </c>
       <c r="V90" s="17">
-        <v>5.6044206421993863</v>
+        <v>5.3469487855140869</v>
       </c>
       <c r="W90" s="17">
-        <v>13.633892848168159</v>
+        <v>13.635950818321902</v>
       </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="10"/>
@@ -31609,10 +31609,10 @@
         <v>-11.922618705750153</v>
       </c>
       <c r="V91" s="17">
-        <v>9.8029673874050758</v>
+        <v>9.7550853593250366</v>
       </c>
       <c r="W91" s="17">
-        <v>3.6754835856071679</v>
+        <v>4.336748844038766</v>
       </c>
       <c r="X91" s="17"/>
       <c r="Y91" s="10"/>
@@ -31748,10 +31748,10 @@
         <v>-26.536815839125921</v>
       </c>
       <c r="V92" s="17">
-        <v>-5.7295880635128071</v>
+        <v>-6.4886873938723824</v>
       </c>
       <c r="W92" s="17">
-        <v>-10.060097719142007</v>
+        <v>-8.99948170602201</v>
       </c>
       <c r="X92" s="17"/>
       <c r="Y92" s="10"/>
@@ -31887,10 +31887,10 @@
         <v>-36.315752329604514</v>
       </c>
       <c r="V93" s="17">
-        <v>28.453644911562691</v>
+        <v>28.028027950531595</v>
       </c>
       <c r="W93" s="17">
-        <v>8.8990368324367068</v>
+        <v>9.5335698948830299</v>
       </c>
       <c r="X93" s="17"/>
       <c r="Y93" s="10"/>
@@ -32026,10 +32026,10 @@
         <v>-29.687660153757335</v>
       </c>
       <c r="V94" s="17">
-        <v>2.471791336677498</v>
+        <v>2.4131983310026186</v>
       </c>
       <c r="W94" s="17">
-        <v>-1.4954834688012113</v>
+        <v>-0.28523875185470615</v>
       </c>
       <c r="X94" s="17"/>
       <c r="Y94" s="10"/>
@@ -32165,10 +32165,10 @@
         <v>-27.352189322225968</v>
       </c>
       <c r="V95" s="17">
-        <v>-1.7131779038180497</v>
+        <v>-1.5909086663036476</v>
       </c>
       <c r="W95" s="17">
-        <v>5.7474019800487923</v>
+        <v>13.375839783735003</v>
       </c>
       <c r="X95" s="17"/>
       <c r="Y95" s="10"/>
@@ -32304,10 +32304,10 @@
         <v>-15.489851771614923</v>
       </c>
       <c r="V96" s="17">
-        <v>11.48386010560391</v>
+        <v>11.486133756453711</v>
       </c>
       <c r="W96" s="17">
-        <v>9.7799337318144666</v>
+        <v>8.994449138984379</v>
       </c>
       <c r="X96" s="17"/>
       <c r="Y96" s="10"/>
@@ -32443,10 +32443,10 @@
         <v>-20.510553577362998</v>
       </c>
       <c r="V97" s="17">
-        <v>8.5891410812775746</v>
+        <v>8.0462090807421163</v>
       </c>
       <c r="W97" s="17">
-        <v>17.100520913408118</v>
+        <v>14.686227459611104</v>
       </c>
       <c r="X97" s="17"/>
       <c r="Y97" s="10"/>
@@ -32582,10 +32582,10 @@
         <v>-6.3329828313276977</v>
       </c>
       <c r="V98" s="17">
-        <v>13.441679441306633</v>
+        <v>11.056070445940264</v>
       </c>
       <c r="W98" s="17">
-        <v>-6.0416912294993779</v>
+        <v>-5.5321318984876484</v>
       </c>
       <c r="X98" s="17"/>
       <c r="Y98" s="10"/>
@@ -32721,10 +32721,10 @@
         <v>-58.135242939222657</v>
       </c>
       <c r="V99" s="17">
-        <v>18.290379776903492</v>
+        <v>18.441208456695563</v>
       </c>
       <c r="W99" s="17">
-        <v>23.972688220443914</v>
+        <v>22.344647245116249</v>
       </c>
       <c r="X99" s="17"/>
       <c r="Y99" s="10"/>
@@ -32860,10 +32860,10 @@
         <v>-7.0457394485340075</v>
       </c>
       <c r="V100" s="17">
-        <v>6.5391132696392447</v>
+        <v>7.8505247904115549</v>
       </c>
       <c r="W100" s="17">
-        <v>19.019116673235374</v>
+        <v>21.037284675699894</v>
       </c>
       <c r="X100" s="17"/>
       <c r="Y100" s="10"/>
@@ -32999,10 +32999,10 @@
         <v>-0.33516026891877004</v>
       </c>
       <c r="V101" s="17">
-        <v>12.366179777518042</v>
+        <v>10.537344755390095</v>
       </c>
       <c r="W101" s="17">
-        <v>1.18684008700059</v>
+        <v>-1.5663916420935209</v>
       </c>
       <c r="X101" s="17"/>
       <c r="Y101" s="10"/>
@@ -33138,10 +33138,10 @@
         <v>-15.756855293656216</v>
       </c>
       <c r="V102" s="17">
-        <v>11.961262139227742</v>
+        <v>11.283546448859866</v>
       </c>
       <c r="W102" s="17">
-        <v>-1.1304748865777441</v>
+        <v>1.1545466809969014</v>
       </c>
       <c r="X102" s="17"/>
       <c r="Y102" s="10"/>
@@ -33277,10 +33277,10 @@
         <v>-22.256633514514803</v>
       </c>
       <c r="V103" s="17">
-        <v>31.196626196311996</v>
+        <v>30.286671568829263</v>
       </c>
       <c r="W103" s="17">
-        <v>3.141765149263918</v>
+        <v>3.8695754164419753</v>
       </c>
       <c r="X103" s="17"/>
       <c r="Y103" s="10"/>
@@ -33416,10 +33416,10 @@
         <v>-16.045959721470737</v>
       </c>
       <c r="V104" s="17">
-        <v>18.512574974975777</v>
+        <v>18.946810332574017</v>
       </c>
       <c r="W104" s="17">
-        <v>5.5912254904705776</v>
+        <v>3.7314623038029708</v>
       </c>
       <c r="X104" s="17"/>
       <c r="Y104" s="10"/>
@@ -33555,10 +33555,10 @@
         <v>-18.2648165436417</v>
       </c>
       <c r="V105" s="17">
-        <v>10.069864339907525</v>
+        <v>10.956584740950362</v>
       </c>
       <c r="W105" s="17">
-        <v>6.7642991161327046</v>
+        <v>3.2994649922031698</v>
       </c>
       <c r="X105" s="17"/>
       <c r="Y105" s="10"/>
@@ -33694,10 +33694,10 @@
         <v>-18.407746076157324</v>
       </c>
       <c r="V106" s="17">
-        <v>8.8420263335625293</v>
+        <v>9.6455219779523134</v>
       </c>
       <c r="W106" s="17">
-        <v>2.7316852597244008</v>
+        <v>1.2530158443439632E-2</v>
       </c>
       <c r="X106" s="17"/>
       <c r="Y106" s="10"/>
@@ -33833,10 +33833,10 @@
         <v>-29.540050120767759</v>
       </c>
       <c r="V107" s="17">
-        <v>31.238709503780001</v>
+        <v>30.779296486823938</v>
       </c>
       <c r="W107" s="17">
-        <v>1.2132712616655681</v>
+        <v>0.62088420564394653</v>
       </c>
       <c r="X107" s="17"/>
       <c r="Y107" s="10"/>
@@ -33972,10 +33972,10 @@
         <v>-23.682352362050679</v>
       </c>
       <c r="V108" s="17">
-        <v>0.24845841566305182</v>
+        <v>-0.43377005846900829</v>
       </c>
       <c r="W108" s="17">
-        <v>20.701261149125202</v>
+        <v>23.750063109617045</v>
       </c>
       <c r="X108" s="17"/>
       <c r="Y108" s="10"/>
@@ -34111,10 +34111,10 @@
         <v>-30.465582328604555</v>
       </c>
       <c r="V109" s="17">
-        <v>-6.4740807579062079</v>
+        <v>-6.510423860017454</v>
       </c>
       <c r="W109" s="17">
-        <v>10.795938242533779</v>
+        <v>14.180422315944526</v>
       </c>
       <c r="X109" s="17"/>
       <c r="Y109" s="10"/>
@@ -34250,10 +34250,10 @@
         <v>-14.315783693764061</v>
       </c>
       <c r="V110" s="17">
-        <v>16.427515460109674</v>
+        <v>16.345095720964295</v>
       </c>
       <c r="W110" s="17">
-        <v>-1.8034603384566026</v>
+        <v>-2.4036235559830033</v>
       </c>
       <c r="X110" s="17"/>
       <c r="Y110" s="10"/>
@@ -34389,10 +34389,10 @@
         <v>-14.670217024439097</v>
       </c>
       <c r="V111" s="17">
-        <v>10.378174029841958</v>
+        <v>10.469907043646188</v>
       </c>
       <c r="W111" s="17">
-        <v>-0.84343774005294847</v>
+        <v>-1.7795325941937392</v>
       </c>
       <c r="X111" s="17"/>
       <c r="Y111" s="10"/>
@@ -34621,10 +34621,10 @@
         <v>-12.288136037014482</v>
       </c>
       <c r="V113" s="17">
-        <v>7.9965039442966486</v>
+        <v>8.0168506520120246</v>
       </c>
       <c r="W113" s="17">
-        <v>10.91691077389811</v>
+        <v>10.889309455813859</v>
       </c>
       <c r="X113" s="17"/>
       <c r="Y113" s="10"/>
@@ -34925,7 +34925,7 @@
     </row>
     <row r="120" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:92" x14ac:dyDescent="0.2">
@@ -34935,7 +34935,7 @@
     </row>
     <row r="123" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="124" spans="1:92" x14ac:dyDescent="0.2">
@@ -35111,10 +35111,10 @@
         <v>-2.6505482803048892</v>
       </c>
       <c r="V129" s="17">
-        <v>4.7006711540207675</v>
+        <v>4.4284236331992446</v>
       </c>
       <c r="W129" s="17">
-        <v>5.0014619273491974</v>
+        <v>4.8459737614062135</v>
       </c>
       <c r="X129" s="17"/>
       <c r="Y129" s="10"/>
@@ -35250,10 +35250,10 @@
         <v>-16.874803654240893</v>
       </c>
       <c r="V130" s="17">
-        <v>3.3160912348675993</v>
+        <v>3.2980423081527164</v>
       </c>
       <c r="W130" s="17">
-        <v>3.960892115689532</v>
+        <v>4.6296388341805539</v>
       </c>
       <c r="X130" s="17"/>
       <c r="Y130" s="10"/>
@@ -35389,10 +35389,10 @@
         <v>-14.647434731790668</v>
       </c>
       <c r="V131" s="17">
-        <v>-6.7793553599127989</v>
+        <v>-7.4336603712918645</v>
       </c>
       <c r="W131" s="17">
-        <v>-12.594456515778475</v>
+        <v>-11.312509304137677</v>
       </c>
       <c r="X131" s="17"/>
       <c r="Y131" s="10"/>
@@ -35528,10 +35528,10 @@
         <v>-35.763869108862096</v>
       </c>
       <c r="V132" s="17">
-        <v>23.935826043211421</v>
+        <v>23.508848609908938</v>
       </c>
       <c r="W132" s="17">
-        <v>9.3457752128572054</v>
+        <v>9.8603279721868944</v>
       </c>
       <c r="X132" s="17"/>
       <c r="Y132" s="10"/>
@@ -35667,10 +35667,10 @@
         <v>-25.342308098955755</v>
       </c>
       <c r="V133" s="17">
-        <v>7.2615530744442509</v>
+        <v>7.1578485009590338</v>
       </c>
       <c r="W133" s="17">
-        <v>-1.8447015716269561</v>
+        <v>-1.0606730987651645</v>
       </c>
       <c r="X133" s="17"/>
       <c r="Y133" s="10"/>
@@ -35806,10 +35806,10 @@
         <v>-25.462441052513483</v>
       </c>
       <c r="V134" s="17">
-        <v>-1.224064846725696</v>
+        <v>-1.1777377489147938</v>
       </c>
       <c r="W134" s="17">
-        <v>5.3675159706666875</v>
+        <v>11.449414776049863</v>
       </c>
       <c r="X134" s="17"/>
       <c r="Y134" s="10"/>
@@ -35945,10 +35945,10 @@
         <v>-12.086590190365285</v>
       </c>
       <c r="V135" s="17">
-        <v>26.238247344062174</v>
+        <v>26.239761908905152</v>
       </c>
       <c r="W135" s="17">
-        <v>24.399706487066638</v>
+        <v>23.928320372415769</v>
       </c>
       <c r="X135" s="17"/>
       <c r="Y135" s="10"/>
@@ -36084,10 +36084,10 @@
         <v>-10.014036359843359</v>
       </c>
       <c r="V136" s="17">
-        <v>14.435418519180914</v>
+        <v>13.932299632231263</v>
       </c>
       <c r="W136" s="17">
-        <v>14.246923581370325</v>
+        <v>12.245686988691844</v>
       </c>
       <c r="X136" s="17"/>
       <c r="Y136" s="10"/>
@@ -36223,10 +36223,10 @@
         <v>-17.746319288246426</v>
       </c>
       <c r="V137" s="17">
-        <v>13.222703002998941</v>
+        <v>10.994738541432142</v>
       </c>
       <c r="W137" s="17">
-        <v>4.5299623910302955</v>
+        <v>4.2829193566353894</v>
       </c>
       <c r="X137" s="17"/>
       <c r="Y137" s="10"/>
@@ -36362,10 +36362,10 @@
         <v>-48.120035377219516</v>
       </c>
       <c r="V138" s="17">
-        <v>11.258162256890756</v>
+        <v>11.10403387794581</v>
       </c>
       <c r="W138" s="17">
-        <v>2.8315850949013139</v>
+        <v>2.3828750379223607E-2</v>
       </c>
       <c r="X138" s="17"/>
       <c r="Y138" s="10"/>
@@ -36501,10 +36501,10 @@
         <v>-1.7863294162665397</v>
       </c>
       <c r="V139" s="17">
-        <v>2.9284394975592818</v>
+        <v>3.9424087504372949</v>
       </c>
       <c r="W139" s="17">
-        <v>10.08235065407041</v>
+        <v>12.062817374360364</v>
       </c>
       <c r="X139" s="17"/>
       <c r="Y139" s="10"/>
@@ -36640,10 +36640,10 @@
         <v>5.807859246775223</v>
       </c>
       <c r="V140" s="17">
-        <v>13.212103552975265</v>
+        <v>11.399413359859949</v>
       </c>
       <c r="W140" s="17">
-        <v>3.9714159667264965</v>
+        <v>1.1811144777436056</v>
       </c>
       <c r="X140" s="17"/>
       <c r="Y140" s="10"/>
@@ -36779,10 +36779,10 @@
         <v>-20.665001044557968</v>
       </c>
       <c r="V141" s="17">
-        <v>11.177694487477737</v>
+        <v>10.584081381212386</v>
       </c>
       <c r="W141" s="17">
-        <v>-0.38368922627466873</v>
+        <v>2.1015102572117428</v>
       </c>
       <c r="X141" s="17"/>
       <c r="Y141" s="10"/>
@@ -36918,10 +36918,10 @@
         <v>-24.067092224387181</v>
       </c>
       <c r="V142" s="17">
-        <v>38.69457772881691</v>
+        <v>37.861161644457184</v>
       </c>
       <c r="W142" s="17">
-        <v>-1.6431723676365237</v>
+        <v>-1.0735391990833421</v>
       </c>
       <c r="X142" s="17"/>
       <c r="Y142" s="10"/>
@@ -37057,10 +37057,10 @@
         <v>-0.45732974597460441</v>
       </c>
       <c r="V143" s="17">
-        <v>21.544357084566343</v>
+        <v>21.945542613565962</v>
       </c>
       <c r="W143" s="17">
-        <v>-2.5131557808056755</v>
+        <v>-3.9287826498553216</v>
       </c>
       <c r="X143" s="17"/>
       <c r="Y143" s="10"/>
@@ -37196,10 +37196,10 @@
         <v>-22.296240901034324</v>
       </c>
       <c r="V144" s="17">
-        <v>19.625994530296367</v>
+        <v>20.267432565752102</v>
       </c>
       <c r="W144" s="17">
-        <v>13.195131943087773</v>
+        <v>11.124811460959222</v>
       </c>
       <c r="X144" s="17"/>
       <c r="Y144" s="10"/>
@@ -37335,10 +37335,10 @@
         <v>-12.15349135162154</v>
       </c>
       <c r="V145" s="17">
-        <v>22.984875159780643</v>
+        <v>24.402805655902824</v>
       </c>
       <c r="W145" s="17">
-        <v>1.3884844837188837</v>
+        <v>-0.47603058157750411</v>
       </c>
       <c r="X145" s="17"/>
       <c r="Y145" s="10"/>
@@ -37474,10 +37474,10 @@
         <v>-22.995018873014445</v>
       </c>
       <c r="V146" s="17">
-        <v>25.011157894349537</v>
+        <v>24.613760627321284</v>
       </c>
       <c r="W146" s="17">
-        <v>2.6513601627671477</v>
+        <v>3.0147345337004197</v>
       </c>
       <c r="X146" s="17"/>
       <c r="Y146" s="10"/>
@@ -37613,10 +37613,10 @@
         <v>-21.369577880943552</v>
       </c>
       <c r="V147" s="17">
-        <v>8.7163192071676718</v>
+        <v>7.9744645586305296</v>
       </c>
       <c r="W147" s="17">
-        <v>22.113704758783143</v>
+        <v>24.032311954051806</v>
       </c>
       <c r="X147" s="17"/>
       <c r="Y147" s="10"/>
@@ -37752,10 +37752,10 @@
         <v>-22.502022800109529</v>
       </c>
       <c r="V148" s="17">
-        <v>-3.7554855425439229</v>
+        <v>-3.7630876346070607</v>
       </c>
       <c r="W148" s="17">
-        <v>9.694903678594244</v>
+        <v>11.750421791075325</v>
       </c>
       <c r="X148" s="17"/>
       <c r="Y148" s="10"/>
@@ -37891,10 +37891,10 @@
         <v>-9.896902569602247</v>
       </c>
       <c r="V149" s="17">
-        <v>17.340127159209985</v>
+        <v>17.26949215765589</v>
       </c>
       <c r="W149" s="17">
-        <v>0.34851791179669078</v>
+        <v>-0.4778798527650423</v>
       </c>
       <c r="X149" s="17"/>
       <c r="Y149" s="10"/>
@@ -38030,10 +38030,10 @@
         <v>-12.953985345242032</v>
       </c>
       <c r="V150" s="17">
-        <v>14.445154463412607</v>
+        <v>14.531144591335803</v>
       </c>
       <c r="W150" s="17">
-        <v>5.4725769722648039</v>
+        <v>4.9929645393674633</v>
       </c>
       <c r="X150" s="17"/>
       <c r="Y150" s="10"/>
@@ -38262,10 +38262,10 @@
         <v>-9.7820368749171251</v>
       </c>
       <c r="V152" s="17">
-        <v>8.8306394901953382</v>
+        <v>8.8823603584839788</v>
       </c>
       <c r="W152" s="17">
-        <v>4.9949991156584161</v>
+        <v>4.8918928148852245</v>
       </c>
       <c r="X152" s="17"/>
       <c r="Y152" s="10"/>
@@ -38561,7 +38561,7 @@
     </row>
     <row r="158" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:92" x14ac:dyDescent="0.2">
@@ -38571,7 +38571,7 @@
     </row>
     <row r="161" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="162" spans="1:96" x14ac:dyDescent="0.2">
@@ -38752,10 +38752,10 @@
         <v>101.15574849655791</v>
       </c>
       <c r="W167" s="17">
-        <v>102.02889911653439</v>
+        <v>102.04548805273161</v>
       </c>
       <c r="X167" s="17">
-        <v>110.41694826731752</v>
+        <v>110.6006806516052</v>
       </c>
       <c r="Y167" s="10"/>
       <c r="Z167" s="10"/>
@@ -38898,10 +38898,10 @@
         <v>102.99364395175846</v>
       </c>
       <c r="W168" s="17">
-        <v>109.46027470431754</v>
+        <v>109.43165940813779</v>
       </c>
       <c r="X168" s="17">
-        <v>109.1597684709639</v>
+        <v>109.12532711068961</v>
       </c>
       <c r="Y168" s="10"/>
       <c r="Z168" s="10"/>
@@ -39044,10 +39044,10 @@
         <v>92.909654392058869</v>
       </c>
       <c r="W169" s="17">
-        <v>93.955919595192512</v>
+        <v>93.858132133471585</v>
       </c>
       <c r="X169" s="17">
-        <v>96.68020917489325</v>
+        <v>96.306013432501658</v>
       </c>
       <c r="Y169" s="10"/>
       <c r="Z169" s="10"/>
@@ -39190,10 +39190,10 @@
         <v>95.061568472744966</v>
       </c>
       <c r="W170" s="17">
-        <v>98.526837244597061</v>
+        <v>98.539864005124727</v>
       </c>
       <c r="X170" s="17">
-        <v>98.124300250251181</v>
+        <v>98.2467764357134</v>
       </c>
       <c r="Y170" s="10"/>
       <c r="Z170" s="10"/>
@@ -39336,10 +39336,10 @@
         <v>85.75472799088972</v>
       </c>
       <c r="W171" s="17">
-        <v>81.925352942793182</v>
+        <v>81.957748204263069</v>
       </c>
       <c r="X171" s="17">
-        <v>82.216827950114251</v>
+        <v>82.60008987914091</v>
       </c>
       <c r="Y171" s="10"/>
       <c r="Z171" s="10"/>
@@ -39482,10 +39482,10 @@
         <v>89.555651123570925</v>
       </c>
       <c r="W172" s="17">
-        <v>89.112194544466149</v>
+        <v>89.181223442103061</v>
       </c>
       <c r="X172" s="17">
-        <v>89.433474548658367</v>
+        <v>90.722738392181952</v>
       </c>
       <c r="Y172" s="10"/>
       <c r="Z172" s="10"/>
@@ -39628,10 +39628,10 @@
         <v>89.179718852641358</v>
       </c>
       <c r="W173" s="17">
-        <v>78.756632874724403</v>
+        <v>78.757294168083831</v>
       </c>
       <c r="X173" s="17">
-        <v>69.500951264920928</v>
+        <v>69.266716983908353</v>
       </c>
       <c r="Y173" s="10"/>
       <c r="Z173" s="10"/>
@@ -39774,10 +39774,10 @@
         <v>90.668689986189747</v>
       </c>
       <c r="W174" s="17">
-        <v>86.036607336868499</v>
+        <v>85.984468556741561</v>
       </c>
       <c r="X174" s="17">
-        <v>88.185582779338162</v>
+        <v>87.854015449927346</v>
       </c>
       <c r="Y174" s="10"/>
       <c r="Z174" s="10"/>
@@ -39920,10 +39920,10 @@
         <v>109.75980261055793</v>
       </c>
       <c r="W175" s="17">
-        <v>109.97208168540371</v>
+        <v>109.82045213161634</v>
       </c>
       <c r="X175" s="17">
-        <v>98.850038503587314</v>
+        <v>99.484211324564015</v>
       </c>
       <c r="Y175" s="10"/>
       <c r="Z175" s="10"/>
@@ -40066,10 +40066,10 @@
         <v>81.438201625657967</v>
       </c>
       <c r="W176" s="17">
-        <v>86.585609569966451</v>
+        <v>86.816280907309348</v>
       </c>
       <c r="X176" s="17">
-        <v>104.3867092945042</v>
+        <v>106.18976893240963</v>
       </c>
       <c r="Y176" s="10"/>
       <c r="Z176" s="10"/>
@@ -40212,10 +40212,10 @@
         <v>90.272566294212766</v>
       </c>
       <c r="W177" s="17">
-        <v>93.439278905886951</v>
+        <v>93.666711846016398</v>
       </c>
       <c r="X177" s="17">
-        <v>101.02491790814179</v>
+        <v>101.16794073157888</v>
       </c>
       <c r="Y177" s="10"/>
       <c r="Z177" s="10"/>
@@ -40358,10 +40358,10 @@
         <v>73.942083263108401</v>
       </c>
       <c r="W178" s="17">
-        <v>73.389586098263905</v>
+        <v>73.369879634671804</v>
       </c>
       <c r="X178" s="17">
-        <v>71.424056732599652</v>
+        <v>71.377569168944362</v>
       </c>
       <c r="Y178" s="10"/>
       <c r="Z178" s="10"/>
@@ -40504,10 +40504,10 @@
         <v>108.40961566590966</v>
       </c>
       <c r="W179" s="17">
-        <v>109.17367421529815</v>
+        <v>109.09532682983381</v>
       </c>
       <c r="X179" s="17">
-        <v>108.35524062994108</v>
+        <v>108.08349751817276</v>
       </c>
       <c r="Y179" s="10"/>
       <c r="Z179" s="10"/>
@@ -40650,10 +40650,10 @@
         <v>105.34891178121106</v>
       </c>
       <c r="W180" s="17">
-        <v>99.653656440500399</v>
+        <v>99.560738540491329</v>
       </c>
       <c r="X180" s="17">
-        <v>104.50168306841046</v>
+        <v>104.53554647183338</v>
       </c>
       <c r="Y180" s="10"/>
       <c r="Z180" s="10"/>
@@ -40796,10 +40796,10 @@
         <v>72.214952510275751</v>
       </c>
       <c r="W181" s="17">
-        <v>70.41363481591948</v>
+        <v>70.439132708898498</v>
       </c>
       <c r="X181" s="17">
-        <v>76.267336900700528</v>
+        <v>76.055601675944374</v>
       </c>
       <c r="Y181" s="10"/>
       <c r="Z181" s="10"/>
@@ -40942,10 +40942,10 @@
         <v>108.32063445290139</v>
       </c>
       <c r="W182" s="17">
-        <v>99.667614771001993</v>
+        <v>99.934682228257813</v>
       </c>
       <c r="X182" s="17">
-        <v>94.005306172996868</v>
+        <v>92.897338340786746</v>
       </c>
       <c r="Y182" s="10"/>
       <c r="Z182" s="10"/>
@@ -41088,10 +41088,10 @@
         <v>97.262491597915513</v>
       </c>
       <c r="W183" s="17">
-        <v>86.077630749429019</v>
+        <v>85.724727862065137</v>
       </c>
       <c r="X183" s="17">
-        <v>87.217992408922171</v>
+        <v>86.145548461636537</v>
       </c>
       <c r="Y183" s="10"/>
       <c r="Z183" s="10"/>
@@ -41234,10 +41234,10 @@
         <v>94.319630820615302</v>
       </c>
       <c r="W184" s="17">
-        <v>99.01825435639779</v>
+        <v>98.986298957039864</v>
       </c>
       <c r="X184" s="17">
-        <v>97.631063262479501</v>
+        <v>96.686061177425074</v>
       </c>
       <c r="Y184" s="10"/>
       <c r="Z184" s="10"/>
@@ -41380,10 +41380,10 @@
         <v>98.462844346020916</v>
       </c>
       <c r="W185" s="17">
-        <v>90.793621683424348</v>
+        <v>90.795302768366298</v>
       </c>
       <c r="X185" s="17">
-        <v>89.743445775668775</v>
+        <v>90.588688307321902</v>
       </c>
       <c r="Y185" s="10"/>
       <c r="Z185" s="10"/>
@@ -41526,10 +41526,10 @@
         <v>85.002087742430618</v>
       </c>
       <c r="W186" s="17">
-        <v>82.601054599554445</v>
+        <v>82.575479187039434</v>
       </c>
       <c r="X186" s="17">
-        <v>83.430141576999091</v>
+        <v>84.371073821491706</v>
       </c>
       <c r="Y186" s="10"/>
       <c r="Z186" s="10"/>
@@ -41672,10 +41672,10 @@
         <v>95.245130608357869</v>
       </c>
       <c r="W187" s="17">
-        <v>94.504362530293776</v>
+        <v>94.49434489481331</v>
       </c>
       <c r="X187" s="17">
-        <v>92.477712441669638</v>
+        <v>92.665888171808604</v>
       </c>
       <c r="Y187" s="10"/>
       <c r="Z187" s="10"/>
@@ -41818,10 +41818,10 @@
         <v>101.55621098006829</v>
       </c>
       <c r="W188" s="17">
-        <v>97.947258509340898</v>
+        <v>97.95506040478152</v>
       </c>
       <c r="X188" s="17">
-        <v>92.081882470042416</v>
+        <v>91.63653831408989</v>
       </c>
       <c r="Y188" s="10"/>
       <c r="Z188" s="10"/>
@@ -42062,10 +42062,10 @@
         <v>97.049243713635079</v>
       </c>
       <c r="W190" s="17">
-        <v>96.305407012285741</v>
+        <v>96.277795866955771</v>
       </c>
       <c r="X190" s="17">
-        <v>101.73720964423147</v>
+        <v>101.78268322849331</v>
       </c>
       <c r="Y190" s="10"/>
       <c r="Z190" s="10"/>
@@ -42183,7 +42183,7 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:96" x14ac:dyDescent="0.2">
@@ -42193,7 +42193,7 @@
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
@@ -42374,10 +42374,10 @@
         <v>51.770005732361454</v>
       </c>
       <c r="W206" s="17">
-        <v>50.623318925483559</v>
+        <v>50.490382839274773</v>
       </c>
       <c r="X206" s="17">
-        <v>51.863370141307385</v>
+        <v>51.740990085327439</v>
       </c>
       <c r="Y206" s="10"/>
       <c r="Z206" s="10"/>
@@ -42520,10 +42520,10 @@
         <v>4.6163336013710774</v>
       </c>
       <c r="W207" s="17">
-        <v>4.6935512666426416</v>
+        <v>4.6906208189487266</v>
       </c>
       <c r="X207" s="17">
-        <v>4.387123603676196</v>
+        <v>4.4134473260858922</v>
       </c>
       <c r="Y207" s="10"/>
       <c r="Z207" s="10"/>
@@ -42666,10 +42666,10 @@
         <v>0.5631358802237959</v>
       </c>
       <c r="W208" s="17">
-        <v>0.49156268458741259</v>
+        <v>0.48751259657609108</v>
       </c>
       <c r="X208" s="17">
-        <v>0.39859656663925258</v>
+        <v>0.40007372379701756</v>
       </c>
       <c r="Y208" s="10"/>
       <c r="Z208" s="10"/>
@@ -42812,10 +42812,10 @@
         <v>0.98774593034856328</v>
       </c>
       <c r="W209" s="17">
-        <v>1.1748488179328334</v>
+        <v>1.1707355177951964</v>
       </c>
       <c r="X209" s="17">
-        <v>1.1534751897067823</v>
+        <v>1.1564220328916381</v>
       </c>
       <c r="Y209" s="10"/>
       <c r="Z209" s="10"/>
@@ -42958,10 +42958,10 @@
         <v>1.6134564285625561</v>
       </c>
       <c r="W210" s="17">
-        <v>1.5309178023370127</v>
+        <v>1.5297542209330308</v>
       </c>
       <c r="X210" s="17">
-        <v>1.3595971697735096</v>
+        <v>1.3755976807616614</v>
       </c>
       <c r="Y210" s="10"/>
       <c r="Z210" s="10"/>
@@ -43104,10 +43104,10 @@
         <v>0.33316581691245611</v>
       </c>
       <c r="W211" s="17">
-        <v>0.30321175389430766</v>
+        <v>0.30353176479315108</v>
       </c>
       <c r="X211" s="17">
-        <v>0.28907995183438256</v>
+        <v>0.31033801998898081</v>
       </c>
       <c r="Y211" s="10"/>
       <c r="Z211" s="10"/>
@@ -43250,10 +43250,10 @@
         <v>0.84139553306737391</v>
       </c>
       <c r="W212" s="17">
-        <v>0.86856535606324026</v>
+        <v>0.86841945840312862</v>
       </c>
       <c r="X212" s="17">
-        <v>0.85966194482952707</v>
+        <v>0.85358003359143086</v>
       </c>
       <c r="Y212" s="10"/>
       <c r="Z212" s="10"/>
@@ -43396,10 +43396,10 @@
         <v>0.68087285754825011</v>
       </c>
       <c r="W213" s="17">
-        <v>0.68460918720900976</v>
+        <v>0.68105791531601434</v>
       </c>
       <c r="X213" s="17">
-        <v>0.72277610226362177</v>
+        <v>0.70437775627257126</v>
       </c>
       <c r="Y213" s="10"/>
       <c r="Z213" s="10"/>
@@ -43542,10 +43542,10 @@
         <v>0.91481869153391526</v>
       </c>
       <c r="W214" s="17">
-        <v>0.9609437802304579</v>
+        <v>0.94055851877737506</v>
       </c>
       <c r="X214" s="17">
-        <v>0.81402061943500259</v>
+        <v>0.80127253501402707</v>
       </c>
       <c r="Y214" s="10"/>
       <c r="Z214" s="10"/>
@@ -43688,10 +43688,10 @@
         <v>2.3149504275226063</v>
       </c>
       <c r="W215" s="17">
-        <v>2.5356039800843537</v>
+        <v>2.5383588254802936</v>
       </c>
       <c r="X215" s="17">
-        <v>2.8340641610033792</v>
+        <v>2.8005820994733583</v>
       </c>
       <c r="Y215" s="10"/>
       <c r="Z215" s="10"/>
@@ -43834,10 +43834,10 @@
         <v>11.371002150691792</v>
       </c>
       <c r="W216" s="17">
-        <v>11.217552808438313</v>
+        <v>11.353492922098676</v>
       </c>
       <c r="X216" s="17">
-        <v>12.036967286415685</v>
+        <v>12.392501690374202</v>
       </c>
       <c r="Y216" s="10"/>
       <c r="Z216" s="10"/>
@@ -43980,10 +43980,10 @@
         <v>1.098248311867005</v>
       </c>
       <c r="W217" s="17">
-        <v>1.1426848346429339</v>
+        <v>1.1238751319177351</v>
       </c>
       <c r="X217" s="17">
-        <v>1.0424439954747189</v>
+        <v>0.9976352555650323</v>
       </c>
       <c r="Y217" s="10"/>
       <c r="Z217" s="10"/>
@@ -44126,10 +44126,10 @@
         <v>1.1108459376411506</v>
       </c>
       <c r="W218" s="17">
-        <v>1.1516272164206964</v>
+        <v>1.1444406567385292</v>
       </c>
       <c r="X218" s="17">
-        <v>1.0265417166847499</v>
+        <v>1.0439723757303894</v>
       </c>
       <c r="Y218" s="10"/>
       <c r="Z218" s="10"/>
@@ -44272,10 +44272,10 @@
         <v>2.2410679422796802</v>
       </c>
       <c r="W219" s="17">
-        <v>2.7225006584977769</v>
+        <v>2.7031086464451191</v>
       </c>
       <c r="X219" s="17">
-        <v>2.5316565488368714</v>
+        <v>2.5319911251016185</v>
       </c>
       <c r="Y219" s="10"/>
       <c r="Z219" s="10"/>
@@ -44418,10 +44418,10 @@
         <v>1.9192327451082889</v>
       </c>
       <c r="W220" s="17">
-        <v>2.1061164601809002</v>
+        <v>2.1134351903288779</v>
       </c>
       <c r="X220" s="17">
-        <v>2.0049910920209935</v>
+        <v>1.9770140498934867</v>
       </c>
       <c r="Y220" s="10"/>
       <c r="Z220" s="10"/>
@@ -44564,10 +44564,10 @@
         <v>0.84209740031311775</v>
       </c>
       <c r="W221" s="17">
-        <v>0.85826432549392395</v>
+        <v>0.86501551372749641</v>
       </c>
       <c r="X221" s="17">
-        <v>0.82613181820875936</v>
+        <v>0.80580932658446902</v>
       </c>
       <c r="Y221" s="10"/>
       <c r="Z221" s="10"/>
@@ -44710,10 +44710,10 @@
         <v>10.35171011648289</v>
       </c>
       <c r="W222" s="17">
-        <v>10.432755357310231</v>
+        <v>10.507792554911655</v>
       </c>
       <c r="X222" s="17">
-        <v>9.6628596332230092</v>
+        <v>9.4771166395938895</v>
       </c>
       <c r="Y222" s="10"/>
       <c r="Z222" s="10"/>
@@ -44856,10 +44856,10 @@
         <v>1.2815157672690678</v>
       </c>
       <c r="W223" s="17">
-        <v>1.5573140737211877</v>
+        <v>1.5515702362046166</v>
       </c>
       <c r="X223" s="17">
-        <v>1.4210714189873079</v>
+        <v>1.4078937802050049</v>
       </c>
       <c r="Y223" s="10"/>
       <c r="Z223" s="10"/>
@@ -45002,10 +45002,10 @@
         <v>1.1690600545185454</v>
       </c>
       <c r="W224" s="17">
-        <v>1.0851876123810802</v>
+        <v>1.0775994810165677</v>
       </c>
       <c r="X224" s="17">
-        <v>1.1809156284997124</v>
+        <v>1.2025776374396857</v>
       </c>
       <c r="Y224" s="10"/>
       <c r="Z224" s="10"/>
@@ -45148,10 +45148,10 @@
         <v>1.5451509774690908</v>
       </c>
       <c r="W225" s="17">
-        <v>1.3381142931270622</v>
+        <v>1.3373423598623893</v>
       </c>
       <c r="X225" s="17">
-        <v>1.3366548666774347</v>
+        <v>1.3770336940454597</v>
       </c>
       <c r="Y225" s="10"/>
       <c r="Z225" s="10"/>
@@ -45294,10 +45294,10 @@
         <v>0.58698374142593435</v>
       </c>
       <c r="W226" s="17">
-        <v>0.63280806446244342</v>
+        <v>0.63224098064905032</v>
       </c>
       <c r="X226" s="17">
-        <v>0.56023524065506203</v>
+        <v>0.55645065384185277</v>
       </c>
       <c r="Y226" s="10"/>
       <c r="Z226" s="10"/>
@@ -45440,10 +45440,10 @@
         <v>1.8472039554813857</v>
       </c>
       <c r="W227" s="17">
-        <v>1.8879407408586248</v>
+        <v>1.889153849801519</v>
       </c>
       <c r="X227" s="17">
-        <v>1.68776530384664</v>
+        <v>1.6733224784208904</v>
       </c>
       <c r="Y227" s="10"/>
       <c r="Z227" s="10"/>
@@ -46001,7 +46001,7 @@
     </row>
     <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:96" x14ac:dyDescent="0.2">
@@ -46011,7 +46011,7 @@
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
@@ -46192,10 +46192,10 @@
         <v>49.668357735963923</v>
       </c>
       <c r="W245" s="17">
-        <v>47.783514040105629</v>
+        <v>47.636626224298979</v>
       </c>
       <c r="X245" s="17">
-        <v>47.786455283553089</v>
+        <v>47.615772097936578</v>
       </c>
       <c r="Y245" s="10"/>
       <c r="Z245" s="10"/>
@@ -46338,10 +46338,10 @@
         <v>4.3498964358688994</v>
       </c>
       <c r="W246" s="17">
-        <v>4.1294831964204786</v>
+        <v>4.1268005633701952</v>
       </c>
       <c r="X246" s="17">
-        <v>4.088811473808545</v>
+        <v>4.1164826079374706</v>
       </c>
       <c r="Y246" s="10"/>
       <c r="Z246" s="10"/>
@@ -46484,10 +46484,10 @@
         <v>0.58822639736783655</v>
       </c>
       <c r="W247" s="17">
-        <v>0.50385483549314203</v>
+        <v>0.50008067696228919</v>
       </c>
       <c r="X247" s="17">
-        <v>0.4194457460294721</v>
+        <v>0.42282486467800412</v>
       </c>
       <c r="Y247" s="10"/>
       <c r="Z247" s="10"/>
@@ -46630,10 +46630,10 @@
         <v>1.0083990519158421</v>
       </c>
       <c r="W248" s="17">
-        <v>1.1483601499156904</v>
+        <v>1.1438602674610827</v>
       </c>
       <c r="X248" s="17">
-        <v>1.1959458247888821</v>
+        <v>1.1980417243437795</v>
       </c>
       <c r="Y248" s="10"/>
       <c r="Z248" s="10"/>
@@ -46776,10 +46776,10 @@
         <v>1.8259602686108896</v>
       </c>
       <c r="W249" s="17">
-        <v>1.7996341396218503</v>
+        <v>1.7970401558927089</v>
       </c>
       <c r="X249" s="17">
-        <v>1.6824003764397129</v>
+        <v>1.6950589665904421</v>
       </c>
       <c r="Y249" s="10"/>
       <c r="Z249" s="10"/>
@@ -46922,10 +46922,10 @@
         <v>0.36104355400168764</v>
       </c>
       <c r="W250" s="17">
-        <v>0.32768726568763062</v>
+        <v>0.32768522522976828</v>
       </c>
       <c r="X250" s="17">
-        <v>0.32884988324721315</v>
+        <v>0.34817110839125948</v>
       </c>
       <c r="Y250" s="10"/>
       <c r="Z250" s="10"/>
@@ -47068,10 +47068,10 @@
         <v>0.91564316639243304</v>
       </c>
       <c r="W251" s="17">
-        <v>1.0621015282039374</v>
+        <v>1.0616097496263555</v>
       </c>
       <c r="X251" s="17">
-        <v>1.258394394789135</v>
+        <v>1.2542772337454176</v>
       </c>
       <c r="Y251" s="10"/>
       <c r="Z251" s="10"/>
@@ -47214,10 +47214,10 @@
         <v>0.72878736750540907</v>
       </c>
       <c r="W252" s="17">
-        <v>0.76631992426624584</v>
+        <v>0.7625883609561328</v>
       </c>
       <c r="X252" s="17">
-        <v>0.83384632186230057</v>
+        <v>0.81605214824528849</v>
       </c>
       <c r="Y252" s="10"/>
       <c r="Z252" s="10"/>
@@ -47360,10 +47360,10 @@
         <v>0.80887957190917548</v>
       </c>
       <c r="W253" s="17">
-        <v>0.8415234162408497</v>
+        <v>0.8245722842521831</v>
       </c>
       <c r="X253" s="17">
-        <v>0.83779619783537662</v>
+        <v>0.8197850445328636</v>
       </c>
       <c r="Y253" s="10"/>
       <c r="Z253" s="10"/>
@@ -47506,10 +47506,10 @@
         <v>2.7587076303369931</v>
       </c>
       <c r="W254" s="17">
-        <v>2.8202420071510041</v>
+        <v>2.8149972595301707</v>
       </c>
       <c r="X254" s="17">
-        <v>2.7621311337609518</v>
+        <v>2.6843523962042135</v>
       </c>
       <c r="Y254" s="10"/>
       <c r="Z254" s="10"/>
@@ -47652,10 +47652,10 @@
         <v>12.224612684590348</v>
       </c>
       <c r="W255" s="17">
-        <v>11.56163662164561</v>
+        <v>11.669986619448432</v>
       </c>
       <c r="X255" s="17">
-        <v>12.121835777311086</v>
+        <v>12.467804176290857</v>
       </c>
       <c r="Y255" s="10"/>
       <c r="Z255" s="10"/>
@@ -47798,10 +47798,10 @@
         <v>1.441454762604002</v>
       </c>
       <c r="W256" s="17">
-        <v>1.4994869699865692</v>
+        <v>1.4747771301997681</v>
       </c>
       <c r="X256" s="17">
-        <v>1.4848686585674651</v>
+        <v>1.4226036887640676</v>
       </c>
       <c r="Y256" s="10"/>
       <c r="Z256" s="10"/>
@@ -47944,10 +47944,10 @@
         <v>0.9944390769050413</v>
       </c>
       <c r="W257" s="17">
-        <v>1.0158852727178771</v>
+        <v>1.0099811525674383</v>
       </c>
       <c r="X257" s="17">
-        <v>0.96384345816354688</v>
+        <v>0.98311316767296431</v>
       </c>
       <c r="Y257" s="10"/>
       <c r="Z257" s="10"/>
@@ -48090,10 +48090,10 @@
         <v>2.0645106364345507</v>
       </c>
       <c r="W258" s="17">
-        <v>2.631027735187915</v>
+        <v>2.6139756121114242</v>
       </c>
       <c r="X258" s="17">
-        <v>2.4646844480734162</v>
+        <v>2.4653130855638081</v>
       </c>
       <c r="Y258" s="10"/>
       <c r="Z258" s="10"/>
@@ -48236,10 +48236,10 @@
         <v>2.5792454325397434</v>
       </c>
       <c r="W259" s="17">
-        <v>2.8805557821755725</v>
+        <v>2.8886909024480296</v>
       </c>
       <c r="X259" s="17">
-        <v>2.674568266744906</v>
+        <v>2.6457721764659334</v>
       </c>
       <c r="Y259" s="10"/>
       <c r="Z259" s="10"/>
@@ -48382,10 +48382,10 @@
         <v>0.7544722780325005</v>
       </c>
       <c r="W260" s="17">
-        <v>0.82931146070594641</v>
+        <v>0.83336220414634776</v>
       </c>
       <c r="X260" s="17">
-        <v>0.89408087058619312</v>
+        <v>0.88288251197723089</v>
       </c>
       <c r="Y260" s="10"/>
       <c r="Z260" s="10"/>
@@ -48528,10 +48528,10 @@
         <v>10.329014005733949</v>
       </c>
       <c r="W261" s="17">
-        <v>11.6723792487984</v>
+        <v>11.801345210939822</v>
       </c>
       <c r="X261" s="17">
-        <v>11.27144009069653</v>
+        <v>11.197402281057379</v>
       </c>
       <c r="Y261" s="10"/>
       <c r="Z261" s="10"/>
@@ -48674,10 +48674,10 @@
         <v>1.3186028713057518</v>
       </c>
       <c r="W262" s="17">
-        <v>1.514647644421832</v>
+        <v>1.5091155447622528</v>
       </c>
       <c r="X262" s="17">
-        <v>1.4808385368522259</v>
+        <v>1.482108226407205</v>
       </c>
       <c r="Y262" s="10"/>
       <c r="Z262" s="10"/>
@@ -48820,10 +48820,10 @@
         <v>1.1522762205419759</v>
       </c>
       <c r="W263" s="17">
-        <v>1.1510658211151648</v>
+        <v>1.1426681744135052</v>
       </c>
       <c r="X263" s="17">
-        <v>1.3387391115908966</v>
+        <v>1.3511795017270405</v>
       </c>
       <c r="Y263" s="10"/>
       <c r="Z263" s="10"/>
@@ -48966,10 +48966,10 @@
         <v>1.7641417730955993</v>
       </c>
       <c r="W264" s="17">
-        <v>1.5601210208913465</v>
+        <v>1.5592567671986681</v>
       </c>
       <c r="X264" s="17">
-        <v>1.6299569175205013</v>
+        <v>1.6612113361568801</v>
       </c>
       <c r="Y264" s="10"/>
       <c r="Z264" s="10"/>
@@ -49112,10 +49112,10 @@
         <v>0.59810226322045712</v>
       </c>
       <c r="W265" s="17">
-        <v>0.64486798891614006</v>
+        <v>0.64417366077739036</v>
       </c>
       <c r="X265" s="17">
-        <v>0.61632980124331316</v>
+        <v>0.61119622063368684</v>
       </c>
       <c r="Y265" s="10"/>
       <c r="Z265" s="10"/>
@@ -49258,10 +49258,10 @@
         <v>1.7652268151229837</v>
       </c>
       <c r="W266" s="17">
-        <v>1.8562939303311554</v>
+        <v>1.8568062534070562</v>
       </c>
       <c r="X266" s="17">
-        <v>1.8647374265352217</v>
+        <v>1.8585954346776477</v>
       </c>
       <c r="Y266" s="10"/>
       <c r="Z266" s="10"/>

--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7D72C-34E9-4057-AEB8-31F509BAD30F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E42F6-E114-4B1A-9C24-CB1D81198502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$X$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$Y$272</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -664,13 +664,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Annual 2000 to 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2001 to 2022</t>
+    <t>As of January 2024</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Annual 2000 to 2023</t>
+  </si>
+  <si>
+    <t>Annual 2001 to 2023</t>
   </si>
 </sst>
 </file>
@@ -23626,14 +23629,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="V186" sqref="V1:X1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
-    <col min="2" max="24" width="10.21875" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="25" width="10.21875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23648,7 +23651,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23658,7 +23661,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23693,6 +23696,7 @@
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23766,6 +23770,9 @@
       </c>
       <c r="X10" s="7">
         <v>2022</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2023</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23844,7 +23851,9 @@
       <c r="X12" s="9">
         <v>1964555.7786141518</v>
       </c>
-      <c r="Y12" s="10"/>
+      <c r="Y12" s="9">
+        <v>2073688.0858358571</v>
+      </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -23990,7 +23999,9 @@
       <c r="X13" s="9">
         <v>167574.36287501501</v>
       </c>
-      <c r="Y13" s="10"/>
+      <c r="Y13" s="9">
+        <v>188221.24133646113</v>
+      </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24136,7 +24147,9 @@
       <c r="X14" s="9">
         <v>15190.415658087593</v>
       </c>
-      <c r="Y14" s="10"/>
+      <c r="Y14" s="9">
+        <v>14201.501664143829</v>
+      </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24282,7 +24295,9 @@
       <c r="X15" s="9">
         <v>43908.235684848994</v>
       </c>
-      <c r="Y15" s="10"/>
+      <c r="Y15" s="9">
+        <v>38655.449540746005</v>
+      </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24428,7 +24443,9 @@
       <c r="X16" s="9">
         <v>52230.124864867947</v>
       </c>
-      <c r="Y16" s="10"/>
+      <c r="Y16" s="9">
+        <v>41639.958835284117</v>
+      </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -24574,7 +24591,9 @@
       <c r="X17" s="9">
         <v>11783.237032913225</v>
       </c>
-      <c r="Y17" s="10"/>
+      <c r="Y17" s="9">
+        <v>10900.395497315867</v>
+      </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -24720,7 +24739,9 @@
       <c r="X18" s="9">
         <v>32409.615369483221</v>
       </c>
-      <c r="Y18" s="10"/>
+      <c r="Y18" s="9">
+        <v>31461.614649557225</v>
+      </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -24866,7 +24887,9 @@
       <c r="X19" s="9">
         <v>26744.5479711638</v>
       </c>
-      <c r="Y19" s="10"/>
+      <c r="Y19" s="9">
+        <v>26776.508627331354</v>
+      </c>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -25012,7 +25035,9 @@
       <c r="X20" s="9">
         <v>30423.549806655294</v>
       </c>
-      <c r="Y20" s="10"/>
+      <c r="Y20" s="9">
+        <v>33714.492653721558</v>
+      </c>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -25158,7 +25183,9 @@
       <c r="X21" s="9">
         <v>106335.4168122877</v>
       </c>
-      <c r="Y21" s="10"/>
+      <c r="Y21" s="9">
+        <v>133656.94058942053</v>
+      </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -25304,7 +25331,9 @@
       <c r="X22" s="9">
         <v>470531.40589619637</v>
       </c>
-      <c r="Y22" s="10"/>
+      <c r="Y22" s="9">
+        <v>445870.28361270204</v>
+      </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -25450,7 +25479,9 @@
       <c r="X23" s="9">
         <v>37879.254011903337</v>
       </c>
-      <c r="Y23" s="10"/>
+      <c r="Y23" s="9">
+        <v>40590.50534536886</v>
+      </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -25596,7 +25627,9 @@
       <c r="X24" s="9">
         <v>39638.630031478286</v>
       </c>
-      <c r="Y24" s="10"/>
+      <c r="Y24" s="9">
+        <v>40814.530390471729</v>
+      </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
@@ -25742,7 +25775,9 @@
       <c r="X25" s="9">
         <v>96137.275069823445</v>
       </c>
-      <c r="Y25" s="10"/>
+      <c r="Y25" s="9">
+        <v>92526.919416331948</v>
+      </c>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -25888,7 +25923,9 @@
       <c r="X26" s="9">
         <v>75065.327696947497</v>
       </c>
-      <c r="Y26" s="10"/>
+      <c r="Y26" s="9">
+        <v>74414.654122246211</v>
+      </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
@@ -26034,7 +26071,9 @@
       <c r="X27" s="9">
         <v>30595.807432212543</v>
       </c>
-      <c r="Y27" s="10"/>
+      <c r="Y27" s="9">
+        <v>29786.301394239992</v>
+      </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -26180,7 +26219,9 @@
       <c r="X28" s="9">
         <v>359837.03110842162</v>
       </c>
-      <c r="Y28" s="10"/>
+      <c r="Y28" s="9">
+        <v>359009.11301316629</v>
+      </c>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
@@ -26326,7 +26367,9 @@
       <c r="X29" s="9">
         <v>53456.376791695882</v>
       </c>
-      <c r="Y29" s="10"/>
+      <c r="Y29" s="9">
+        <v>55929.674858267841</v>
+      </c>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -26472,7 +26515,9 @@
       <c r="X30" s="9">
         <v>45660.71973049175</v>
       </c>
-      <c r="Y30" s="10"/>
+      <c r="Y30" s="9">
+        <v>43143.001518099001</v>
+      </c>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
@@ -26618,7 +26663,9 @@
       <c r="X31" s="9">
         <v>52284.648912247023</v>
       </c>
-      <c r="Y31" s="10"/>
+      <c r="Y31" s="9">
+        <v>58017.589965127816</v>
+      </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -26764,7 +26811,9 @@
       <c r="X32" s="9">
         <v>21127.897740569817</v>
       </c>
-      <c r="Y32" s="10"/>
+      <c r="Y32" s="9">
+        <v>19308.05606711339</v>
+      </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -26910,7 +26959,9 @@
       <c r="X33" s="9">
         <v>63534.449940858925</v>
       </c>
-      <c r="Y33" s="10"/>
+      <c r="Y33" s="9">
+        <v>70167.052737439677</v>
+      </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
@@ -27154,7 +27205,9 @@
       <c r="X35" s="12">
         <v>3796904.1090523209</v>
       </c>
-      <c r="Y35" s="10"/>
+      <c r="Y35" s="12">
+        <v>3922493.8716704138</v>
+      </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
@@ -27252,6 +27305,7 @@
       <c r="V36" s="13"/>
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
+      <c r="Y36" s="13"/>
     </row>
     <row r="37" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -27466,7 +27520,7 @@
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
@@ -27476,7 +27530,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
@@ -27511,6 +27565,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
@@ -27584,6 +27639,9 @@
       </c>
       <c r="X49" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y49" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="50" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27662,7 +27720,9 @@
       <c r="X51" s="9">
         <v>1776260.1161583713</v>
       </c>
-      <c r="Y51" s="10"/>
+      <c r="Y51" s="9">
+        <v>1816542.359008465</v>
+      </c>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
@@ -27808,7 +27868,9 @@
       <c r="X52" s="9">
         <v>153561.38424679224</v>
       </c>
-      <c r="Y52" s="10"/>
+      <c r="Y52" s="9">
+        <v>154862.80176382721</v>
+      </c>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
@@ -27954,7 +28016,9 @@
       <c r="X53" s="9">
         <v>15773.070773751999</v>
       </c>
-      <c r="Y53" s="10"/>
+      <c r="Y53" s="9">
+        <v>13976.339143323479</v>
+      </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
@@ -28100,7 +28164,9 @@
       <c r="X54" s="9">
         <v>44691.782547776333</v>
       </c>
-      <c r="Y54" s="10"/>
+      <c r="Y54" s="9">
+        <v>38549.843382250532</v>
+      </c>
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
@@ -28246,7 +28312,9 @@
       <c r="X55" s="9">
         <v>63232.527883795527</v>
       </c>
-      <c r="Y55" s="10"/>
+      <c r="Y55" s="9">
+        <v>49850.445970930348</v>
+      </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
@@ -28392,7 +28460,9 @@
       <c r="X56" s="9">
         <v>12988.184926667345</v>
       </c>
-      <c r="Y56" s="10"/>
+      <c r="Y56" s="9">
+        <v>11573.733844682207</v>
+      </c>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -28538,7 +28608,9 @@
       <c r="X57" s="9">
         <v>46789.593589389318</v>
       </c>
-      <c r="Y57" s="10"/>
+      <c r="Y57" s="9">
+        <v>45652.321628239959</v>
+      </c>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
@@ -28684,7 +28756,9 @@
       <c r="X58" s="9">
         <v>30442.032540227981</v>
       </c>
-      <c r="Y58" s="10"/>
+      <c r="Y58" s="9">
+        <v>29491.646409800618</v>
+      </c>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
@@ -28830,7 +28904,9 @@
       <c r="X59" s="9">
         <v>30581.284609473805</v>
       </c>
-      <c r="Y59" s="10"/>
+      <c r="Y59" s="9">
+        <v>32914.7822171511</v>
+      </c>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
@@ -28976,7 +29052,9 @@
       <c r="X60" s="9">
         <v>100137.15810980884</v>
       </c>
-      <c r="Y60" s="10"/>
+      <c r="Y60" s="9">
+        <v>134576.23152130767</v>
+      </c>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
@@ -29122,7 +29200,9 @@
       <c r="X61" s="9">
         <v>465099.32147835364</v>
       </c>
-      <c r="Y61" s="10"/>
+      <c r="Y61" s="9">
+        <v>460898.05585332937</v>
+      </c>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
@@ -29268,7 +29348,9 @@
       <c r="X62" s="9">
         <v>53068.8484532816</v>
       </c>
-      <c r="Y62" s="10"/>
+      <c r="Y62" s="9">
+        <v>57856.231446194273</v>
+      </c>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
@@ -29414,7 +29496,9 @@
       <c r="X63" s="9">
         <v>36674.081558855542</v>
       </c>
-      <c r="Y63" s="10"/>
+      <c r="Y63" s="9">
+        <v>35387.53798084813</v>
+      </c>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
@@ -29560,7 +29644,9 @@
       <c r="X64" s="9">
         <v>91966.10943792903</v>
       </c>
-      <c r="Y64" s="10"/>
+      <c r="Y64" s="9">
+        <v>88778.016678999236</v>
+      </c>
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
@@ -29706,7 +29792,9 @@
       <c r="X65" s="9">
         <v>98697.960495774911</v>
       </c>
-      <c r="Y65" s="10"/>
+      <c r="Y65" s="9">
+        <v>103695.82252022008</v>
+      </c>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
@@ -29852,7 +29940,9 @@
       <c r="X66" s="9">
         <v>32935.074329012714</v>
       </c>
-      <c r="Y66" s="10"/>
+      <c r="Y66" s="9">
+        <v>30359.219880923018</v>
+      </c>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
@@ -29998,7 +30088,9 @@
       <c r="X67" s="9">
         <v>417708.2130583555</v>
       </c>
-      <c r="Y67" s="10"/>
+      <c r="Y67" s="9">
+        <v>401898.2920147042</v>
+      </c>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
@@ -30144,7 +30236,9 @@
       <c r="X68" s="9">
         <v>55288.607417360843</v>
       </c>
-      <c r="Y68" s="10"/>
+      <c r="Y68" s="9">
+        <v>58531.13793700363</v>
+      </c>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
@@ -30290,7 +30384,9 @@
       <c r="X69" s="9">
         <v>50404.438549311883</v>
       </c>
-      <c r="Y69" s="10"/>
+      <c r="Y69" s="9">
+        <v>47304.100779804998</v>
+      </c>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -30436,7 +30532,9 @@
       <c r="X70" s="9">
         <v>61969.874915742323</v>
       </c>
-      <c r="Y70" s="10"/>
+      <c r="Y70" s="9">
+        <v>70112.62657270889</v>
+      </c>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -30582,7 +30680,9 @@
       <c r="X71" s="9">
         <v>22800.081192118199</v>
       </c>
-      <c r="Y71" s="10"/>
+      <c r="Y71" s="9">
+        <v>19725.03498938042</v>
+      </c>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -30728,7 +30828,9 @@
       <c r="X72" s="9">
         <v>69333.096939007752</v>
       </c>
-      <c r="Y72" s="10"/>
+      <c r="Y72" s="9">
+        <v>76266.263069595618</v>
+      </c>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -30972,7 +31074,9 @@
       <c r="X74" s="12">
         <v>3730402.8432111582</v>
       </c>
-      <c r="Y74" s="10"/>
+      <c r="Y74" s="12">
+        <v>3778802.8446136904</v>
+      </c>
       <c r="Z74" s="10"/>
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
@@ -31070,6 +31174,7 @@
       <c r="V75" s="13"/>
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
+      <c r="Y75" s="13"/>
     </row>
     <row r="76" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
@@ -31284,7 +31389,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.2">
@@ -31294,7 +31399,7 @@
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
@@ -31329,6 +31434,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
@@ -31400,7 +31506,10 @@
       <c r="W88" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="X88" s="16"/>
+      <c r="X88" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y88" s="16"/>
     </row>
     <row r="89" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
@@ -31475,8 +31584,10 @@
       <c r="W90" s="17">
         <v>13.635950818321902</v>
       </c>
-      <c r="X90" s="17"/>
-      <c r="Y90" s="10"/>
+      <c r="X90" s="17">
+        <v>5.5550627989137524</v>
+      </c>
+      <c r="Y90" s="17"/>
       <c r="Z90" s="10"/>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
@@ -31614,8 +31725,10 @@
       <c r="W91" s="17">
         <v>4.336748844038766</v>
       </c>
-      <c r="X91" s="17"/>
-      <c r="Y91" s="10"/>
+      <c r="X91" s="17">
+        <v>12.321024593031311</v>
+      </c>
+      <c r="Y91" s="17"/>
       <c r="Z91" s="10"/>
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
@@ -31753,8 +31866,10 @@
       <c r="W92" s="17">
         <v>-8.99948170602201</v>
       </c>
-      <c r="X92" s="17"/>
-      <c r="Y92" s="10"/>
+      <c r="X92" s="17">
+        <v>-6.5101180652502535</v>
+      </c>
+      <c r="Y92" s="17"/>
       <c r="Z92" s="10"/>
       <c r="AA92" s="10"/>
       <c r="AB92" s="10"/>
@@ -31892,8 +32007,10 @@
       <c r="W93" s="17">
         <v>9.5335698948830299</v>
       </c>
-      <c r="X93" s="17"/>
-      <c r="Y93" s="10"/>
+      <c r="X93" s="17">
+        <v>-11.963100002024262</v>
+      </c>
+      <c r="Y93" s="17"/>
       <c r="Z93" s="10"/>
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
@@ -32031,8 +32148,10 @@
       <c r="W94" s="17">
         <v>-0.28523875185470615</v>
       </c>
-      <c r="X94" s="17"/>
-      <c r="Y94" s="10"/>
+      <c r="X94" s="17">
+        <v>-20.2759730270283</v>
+      </c>
+      <c r="Y94" s="17"/>
       <c r="Z94" s="10"/>
       <c r="AA94" s="10"/>
       <c r="AB94" s="10"/>
@@ -32170,8 +32289,10 @@
       <c r="W95" s="17">
         <v>13.375839783735003</v>
       </c>
-      <c r="X95" s="17"/>
-      <c r="Y95" s="10"/>
+      <c r="X95" s="17">
+        <v>-7.4923514916264793</v>
+      </c>
+      <c r="Y95" s="17"/>
       <c r="Z95" s="10"/>
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
@@ -32309,8 +32430,10 @@
       <c r="W96" s="17">
         <v>8.994449138984379</v>
       </c>
-      <c r="X96" s="17"/>
-      <c r="Y96" s="10"/>
+      <c r="X96" s="17">
+        <v>-2.9250600759015128</v>
+      </c>
+      <c r="Y96" s="17"/>
       <c r="Z96" s="10"/>
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
@@ -32448,8 +32571,10 @@
       <c r="W97" s="17">
         <v>14.686227459611104</v>
       </c>
-      <c r="X97" s="17"/>
-      <c r="Y97" s="10"/>
+      <c r="X97" s="17">
+        <v>0.11950344497134324</v>
+      </c>
+      <c r="Y97" s="17"/>
       <c r="Z97" s="10"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
@@ -32587,8 +32712,10 @@
       <c r="W98" s="17">
         <v>-5.5321318984876484</v>
       </c>
-      <c r="X98" s="17"/>
-      <c r="Y98" s="10"/>
+      <c r="X98" s="17">
+        <v>10.817090273753507</v>
+      </c>
+      <c r="Y98" s="17"/>
       <c r="Z98" s="10"/>
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
@@ -32726,8 +32853,10 @@
       <c r="W99" s="17">
         <v>22.344647245116249</v>
       </c>
-      <c r="X99" s="17"/>
-      <c r="Y99" s="10"/>
+      <c r="X99" s="17">
+        <v>25.693719549116082</v>
+      </c>
+      <c r="Y99" s="17"/>
       <c r="Z99" s="10"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
@@ -32865,8 +32994,10 @@
       <c r="W100" s="17">
         <v>21.037284675699894</v>
       </c>
-      <c r="X100" s="17"/>
-      <c r="Y100" s="10"/>
+      <c r="X100" s="17">
+        <v>-5.241121416013371</v>
+      </c>
+      <c r="Y100" s="17"/>
       <c r="Z100" s="10"/>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
@@ -33004,8 +33135,10 @@
       <c r="W101" s="17">
         <v>-1.5663916420935209</v>
       </c>
-      <c r="X101" s="17"/>
-      <c r="Y101" s="10"/>
+      <c r="X101" s="17">
+        <v>7.1576154393471683</v>
+      </c>
+      <c r="Y101" s="17"/>
       <c r="Z101" s="10"/>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
@@ -33143,8 +33276,10 @@
       <c r="W102" s="17">
         <v>1.1545466809969014</v>
       </c>
-      <c r="X102" s="17"/>
-      <c r="Y102" s="10"/>
+      <c r="X102" s="17">
+        <v>2.966551462700977</v>
+      </c>
+      <c r="Y102" s="17"/>
       <c r="Z102" s="10"/>
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
@@ -33282,8 +33417,10 @@
       <c r="W103" s="17">
         <v>3.8695754164419753</v>
       </c>
-      <c r="X103" s="17"/>
-      <c r="Y103" s="10"/>
+      <c r="X103" s="17">
+        <v>-3.7554170854846234</v>
+      </c>
+      <c r="Y103" s="17"/>
       <c r="Z103" s="10"/>
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
@@ -33421,8 +33558,10 @@
       <c r="W104" s="17">
         <v>3.7314623038029708</v>
       </c>
-      <c r="X104" s="17"/>
-      <c r="Y104" s="10"/>
+      <c r="X104" s="17">
+        <v>-0.86680974381164333</v>
+      </c>
+      <c r="Y104" s="17"/>
       <c r="Z104" s="10"/>
       <c r="AA104" s="10"/>
       <c r="AB104" s="10"/>
@@ -33560,8 +33699,10 @@
       <c r="W105" s="17">
         <v>3.2994649922031698</v>
       </c>
-      <c r="X105" s="17"/>
-      <c r="Y105" s="10"/>
+      <c r="X105" s="17">
+        <v>-2.6458070759076264</v>
+      </c>
+      <c r="Y105" s="17"/>
       <c r="Z105" s="10"/>
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
@@ -33699,8 +33840,10 @@
       <c r="W106" s="17">
         <v>1.2530158443439632E-2</v>
       </c>
-      <c r="X106" s="17"/>
-      <c r="Y106" s="10"/>
+      <c r="X106" s="17">
+        <v>-0.23008140454723502</v>
+      </c>
+      <c r="Y106" s="17"/>
       <c r="Z106" s="10"/>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
@@ -33838,8 +33981,10 @@
       <c r="W107" s="17">
         <v>0.62088420564394653</v>
       </c>
-      <c r="X107" s="17"/>
-      <c r="Y107" s="10"/>
+      <c r="X107" s="17">
+        <v>4.6267596403132529</v>
+      </c>
+      <c r="Y107" s="17"/>
       <c r="Z107" s="10"/>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
@@ -33977,8 +34122,10 @@
       <c r="W108" s="17">
         <v>23.750063109617045</v>
       </c>
-      <c r="X108" s="17"/>
-      <c r="Y108" s="10"/>
+      <c r="X108" s="17">
+        <v>-5.5139696160142648</v>
+      </c>
+      <c r="Y108" s="17"/>
       <c r="Z108" s="10"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
@@ -34116,8 +34263,10 @@
       <c r="W109" s="17">
         <v>14.180422315944526</v>
       </c>
-      <c r="X109" s="17"/>
-      <c r="Y109" s="10"/>
+      <c r="X109" s="17">
+        <v>10.964864778001655</v>
+      </c>
+      <c r="Y109" s="17"/>
       <c r="Z109" s="10"/>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
@@ -34255,8 +34404,10 @@
       <c r="W110" s="17">
         <v>-2.4036235559830033</v>
       </c>
-      <c r="X110" s="17"/>
-      <c r="Y110" s="10"/>
+      <c r="X110" s="17">
+        <v>-8.6134536232725338</v>
+      </c>
+      <c r="Y110" s="17"/>
       <c r="Z110" s="10"/>
       <c r="AA110" s="10"/>
       <c r="AB110" s="10"/>
@@ -34394,8 +34545,10 @@
       <c r="W111" s="17">
         <v>-1.7795325941937392</v>
       </c>
-      <c r="X111" s="17"/>
-      <c r="Y111" s="10"/>
+      <c r="X111" s="17">
+        <v>10.439380214599666</v>
+      </c>
+      <c r="Y111" s="17"/>
       <c r="Z111" s="10"/>
       <c r="AA111" s="10"/>
       <c r="AB111" s="10"/>
@@ -34626,8 +34779,10 @@
       <c r="W113" s="17">
         <v>10.889309455813859</v>
       </c>
-      <c r="X113" s="17"/>
-      <c r="Y113" s="10"/>
+      <c r="X113" s="17">
+        <v>3.3076885539108218</v>
+      </c>
+      <c r="Y113" s="17"/>
       <c r="Z113" s="10"/>
       <c r="AA113" s="10"/>
       <c r="AB113" s="10"/>
@@ -34720,6 +34875,7 @@
       <c r="V114" s="13"/>
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
+      <c r="Y114" s="13"/>
     </row>
     <row r="115" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
@@ -34925,7 +35081,7 @@
     </row>
     <row r="120" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="122" spans="1:92" x14ac:dyDescent="0.2">
@@ -34935,7 +35091,7 @@
     </row>
     <row r="123" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="124" spans="1:92" x14ac:dyDescent="0.2">
@@ -34970,6 +35126,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
     </row>
     <row r="127" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -35041,7 +35198,10 @@
       <c r="W127" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="X127" s="7"/>
+      <c r="X127" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y127" s="7"/>
     </row>
     <row r="128" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
@@ -35116,8 +35276,10 @@
       <c r="W129" s="17">
         <v>4.8459737614062135</v>
       </c>
-      <c r="X129" s="17"/>
-      <c r="Y129" s="10"/>
+      <c r="X129" s="17">
+        <v>2.2678121567698355</v>
+      </c>
+      <c r="Y129" s="17"/>
       <c r="Z129" s="10"/>
       <c r="AA129" s="10"/>
       <c r="AB129" s="10"/>
@@ -35255,8 +35417,10 @@
       <c r="W130" s="17">
         <v>4.6296388341805539</v>
       </c>
-      <c r="X130" s="17"/>
-      <c r="Y130" s="10"/>
+      <c r="X130" s="17">
+        <v>0.84749009226396765</v>
+      </c>
+      <c r="Y130" s="17"/>
       <c r="Z130" s="10"/>
       <c r="AA130" s="10"/>
       <c r="AB130" s="10"/>
@@ -35394,8 +35558,10 @@
       <c r="W131" s="17">
         <v>-11.312509304137677</v>
       </c>
-      <c r="X131" s="17"/>
-      <c r="Y131" s="10"/>
+      <c r="X131" s="17">
+        <v>-11.391134016963051</v>
+      </c>
+      <c r="Y131" s="17"/>
       <c r="Z131" s="10"/>
       <c r="AA131" s="10"/>
       <c r="AB131" s="10"/>
@@ -35533,8 +35699,10 @@
       <c r="W132" s="17">
         <v>9.8603279721868944</v>
       </c>
-      <c r="X132" s="17"/>
-      <c r="Y132" s="10"/>
+      <c r="X132" s="17">
+        <v>-13.742882506330901</v>
+      </c>
+      <c r="Y132" s="17"/>
       <c r="Z132" s="10"/>
       <c r="AA132" s="10"/>
       <c r="AB132" s="10"/>
@@ -35672,8 +35840,10 @@
       <c r="W133" s="17">
         <v>-1.0606730987651645</v>
       </c>
-      <c r="X133" s="17"/>
-      <c r="Y133" s="10"/>
+      <c r="X133" s="17">
+        <v>-21.163287884770114</v>
+      </c>
+      <c r="Y133" s="17"/>
       <c r="Z133" s="10"/>
       <c r="AA133" s="10"/>
       <c r="AB133" s="10"/>
@@ -35811,8 +35981,10 @@
       <c r="W134" s="17">
         <v>11.449414776049863</v>
       </c>
-      <c r="X134" s="17"/>
-      <c r="Y134" s="10"/>
+      <c r="X134" s="17">
+        <v>-10.890290598503768</v>
+      </c>
+      <c r="Y134" s="17"/>
       <c r="Z134" s="10"/>
       <c r="AA134" s="10"/>
       <c r="AB134" s="10"/>
@@ -35950,8 +36122,10 @@
       <c r="W135" s="17">
         <v>23.928320372415769</v>
       </c>
-      <c r="X135" s="17"/>
-      <c r="Y135" s="10"/>
+      <c r="X135" s="17">
+        <v>-2.4306087612764884</v>
+      </c>
+      <c r="Y135" s="17"/>
       <c r="Z135" s="10"/>
       <c r="AA135" s="10"/>
       <c r="AB135" s="10"/>
@@ -36089,8 +36263,10 @@
       <c r="W136" s="17">
         <v>12.245686988691844</v>
       </c>
-      <c r="X136" s="17"/>
-      <c r="Y136" s="10"/>
+      <c r="X136" s="17">
+        <v>-3.1219535987666518</v>
+      </c>
+      <c r="Y136" s="17"/>
       <c r="Z136" s="10"/>
       <c r="AA136" s="10"/>
       <c r="AB136" s="10"/>
@@ -36228,8 +36404,10 @@
       <c r="W137" s="17">
         <v>4.2829193566353894</v>
       </c>
-      <c r="X137" s="17"/>
-      <c r="Y137" s="10"/>
+      <c r="X137" s="17">
+        <v>7.6304760819445647</v>
+      </c>
+      <c r="Y137" s="17"/>
       <c r="Z137" s="10"/>
       <c r="AA137" s="10"/>
       <c r="AB137" s="10"/>
@@ -36367,8 +36545,10 @@
       <c r="W138" s="17">
         <v>2.3828750379223607E-2</v>
       </c>
-      <c r="X138" s="17"/>
-      <c r="Y138" s="10"/>
+      <c r="X138" s="17">
+        <v>34.391902128611918</v>
+      </c>
+      <c r="Y138" s="17"/>
       <c r="Z138" s="10"/>
       <c r="AA138" s="10"/>
       <c r="AB138" s="10"/>
@@ -36506,8 +36686,10 @@
       <c r="W139" s="17">
         <v>12.062817374360364</v>
       </c>
-      <c r="X139" s="17"/>
-      <c r="Y139" s="10"/>
+      <c r="X139" s="17">
+        <v>-0.90330504281756419</v>
+      </c>
+      <c r="Y139" s="17"/>
       <c r="Z139" s="10"/>
       <c r="AA139" s="10"/>
       <c r="AB139" s="10"/>
@@ -36645,8 +36827,10 @@
       <c r="W140" s="17">
         <v>1.1811144777436056</v>
       </c>
-      <c r="X140" s="17"/>
-      <c r="Y140" s="10"/>
+      <c r="X140" s="17">
+        <v>9.0210794702417161</v>
+      </c>
+      <c r="Y140" s="17"/>
       <c r="Z140" s="10"/>
       <c r="AA140" s="10"/>
       <c r="AB140" s="10"/>
@@ -36784,8 +36968,10 @@
       <c r="W141" s="17">
         <v>2.1015102572117428</v>
       </c>
-      <c r="X141" s="17"/>
-      <c r="Y141" s="10"/>
+      <c r="X141" s="17">
+        <v>-3.5080458005273556</v>
+      </c>
+      <c r="Y141" s="17"/>
       <c r="Z141" s="10"/>
       <c r="AA141" s="10"/>
       <c r="AB141" s="10"/>
@@ -36923,8 +37109,10 @@
       <c r="W142" s="17">
         <v>-1.0735391990833421</v>
       </c>
-      <c r="X142" s="17"/>
-      <c r="Y142" s="10"/>
+      <c r="X142" s="17">
+        <v>-3.4665952255831201</v>
+      </c>
+      <c r="Y142" s="17"/>
       <c r="Z142" s="10"/>
       <c r="AA142" s="10"/>
       <c r="AB142" s="10"/>
@@ -37062,8 +37250,10 @@
       <c r="W143" s="17">
         <v>-3.9287826498553216</v>
       </c>
-      <c r="X143" s="17"/>
-      <c r="Y143" s="10"/>
+      <c r="X143" s="17">
+        <v>5.0637946309530122</v>
+      </c>
+      <c r="Y143" s="17"/>
       <c r="Z143" s="10"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
@@ -37201,8 +37391,10 @@
       <c r="W144" s="17">
         <v>11.124811460959222</v>
       </c>
-      <c r="X144" s="17"/>
-      <c r="Y144" s="10"/>
+      <c r="X144" s="17">
+        <v>-7.8210069373385522</v>
+      </c>
+      <c r="Y144" s="17"/>
       <c r="Z144" s="10"/>
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
@@ -37340,8 +37532,10 @@
       <c r="W145" s="17">
         <v>-0.47603058157750411</v>
       </c>
-      <c r="X145" s="17"/>
-      <c r="Y145" s="10"/>
+      <c r="X145" s="17">
+        <v>-3.7849198434225144</v>
+      </c>
+      <c r="Y145" s="17"/>
       <c r="Z145" s="10"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
@@ -37479,8 +37673,10 @@
       <c r="W146" s="17">
         <v>3.0147345337004197</v>
       </c>
-      <c r="X146" s="17"/>
-      <c r="Y146" s="10"/>
+      <c r="X146" s="17">
+        <v>5.864735378783692</v>
+      </c>
+      <c r="Y146" s="17"/>
       <c r="Z146" s="10"/>
       <c r="AA146" s="10"/>
       <c r="AB146" s="10"/>
@@ -37618,8 +37814,10 @@
       <c r="W147" s="17">
         <v>24.032311954051806</v>
       </c>
-      <c r="X147" s="17"/>
-      <c r="Y147" s="10"/>
+      <c r="X147" s="17">
+        <v>-6.1509221384814197</v>
+      </c>
+      <c r="Y147" s="17"/>
       <c r="Z147" s="10"/>
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>
@@ -37757,8 +37955,10 @@
       <c r="W148" s="17">
         <v>11.750421791075325</v>
       </c>
-      <c r="X148" s="17"/>
-      <c r="Y148" s="10"/>
+      <c r="X148" s="17">
+        <v>13.139854918277479</v>
+      </c>
+      <c r="Y148" s="17"/>
       <c r="Z148" s="10"/>
       <c r="AA148" s="10"/>
       <c r="AB148" s="10"/>
@@ -37896,8 +38096,10 @@
       <c r="W149" s="17">
         <v>-0.4778798527650423</v>
       </c>
-      <c r="X149" s="17"/>
-      <c r="Y149" s="10"/>
+      <c r="X149" s="17">
+        <v>-13.486996720874828</v>
+      </c>
+      <c r="Y149" s="17"/>
       <c r="Z149" s="10"/>
       <c r="AA149" s="10"/>
       <c r="AB149" s="10"/>
@@ -38035,8 +38237,10 @@
       <c r="W150" s="17">
         <v>4.9929645393674633</v>
       </c>
-      <c r="X150" s="17"/>
-      <c r="Y150" s="10"/>
+      <c r="X150" s="17">
+        <v>9.9997929368234679</v>
+      </c>
+      <c r="Y150" s="17"/>
       <c r="Z150" s="10"/>
       <c r="AA150" s="10"/>
       <c r="AB150" s="10"/>
@@ -38267,8 +38471,10 @@
       <c r="W152" s="17">
         <v>4.8918928148852245</v>
       </c>
-      <c r="X152" s="17"/>
-      <c r="Y152" s="10"/>
+      <c r="X152" s="17">
+        <v>1.2974470435710259</v>
+      </c>
+      <c r="Y152" s="17"/>
       <c r="Z152" s="10"/>
       <c r="AA152" s="10"/>
       <c r="AB152" s="10"/>
@@ -38361,6 +38567,7 @@
       <c r="V153" s="13"/>
       <c r="W153" s="13"/>
       <c r="X153" s="13"/>
+      <c r="Y153" s="13"/>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
@@ -38561,7 +38768,7 @@
     </row>
     <row r="158" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="160" spans="1:92" x14ac:dyDescent="0.2">
@@ -38571,7 +38778,7 @@
     </row>
     <row r="161" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="162" spans="1:96" x14ac:dyDescent="0.2">
@@ -38606,6 +38813,7 @@
       <c r="V164" s="1"/>
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
+      <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
@@ -38679,6 +38887,9 @@
       </c>
       <c r="X165" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y165" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="166" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38757,7 +38968,9 @@
       <c r="X167" s="17">
         <v>110.6006806516052</v>
       </c>
-      <c r="Y167" s="10"/>
+      <c r="Y167" s="17">
+        <v>114.15577927771261</v>
+      </c>
       <c r="Z167" s="10"/>
       <c r="AA167" s="10"/>
       <c r="AB167" s="10"/>
@@ -38903,7 +39116,9 @@
       <c r="X168" s="17">
         <v>109.12532711068961</v>
       </c>
-      <c r="Y168" s="10"/>
+      <c r="Y168" s="17">
+        <v>121.54064061394618</v>
+      </c>
       <c r="Z168" s="10"/>
       <c r="AA168" s="10"/>
       <c r="AB168" s="10"/>
@@ -39049,7 +39264,9 @@
       <c r="X169" s="17">
         <v>96.306013432501658</v>
       </c>
-      <c r="Y169" s="10"/>
+      <c r="Y169" s="17">
+        <v>101.61102645343227</v>
+      </c>
       <c r="Z169" s="10"/>
       <c r="AA169" s="10"/>
       <c r="AB169" s="10"/>
@@ -39195,7 +39412,9 @@
       <c r="X170" s="17">
         <v>98.2467764357134</v>
       </c>
-      <c r="Y170" s="10"/>
+      <c r="Y170" s="17">
+        <v>100.27394704940382</v>
+      </c>
       <c r="Z170" s="10"/>
       <c r="AA170" s="10"/>
       <c r="AB170" s="10"/>
@@ -39341,7 +39560,9 @@
       <c r="X171" s="17">
         <v>82.60008987914091</v>
       </c>
-      <c r="Y171" s="10"/>
+      <c r="Y171" s="17">
+        <v>83.529761919413772</v>
+      </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
@@ -39487,7 +39708,9 @@
       <c r="X172" s="17">
         <v>90.722738392181952</v>
       </c>
-      <c r="Y172" s="10"/>
+      <c r="Y172" s="17">
+        <v>94.182185659334834</v>
+      </c>
       <c r="Z172" s="10"/>
       <c r="AA172" s="10"/>
       <c r="AB172" s="10"/>
@@ -39633,7 +39856,9 @@
       <c r="X173" s="17">
         <v>69.266716983908353</v>
       </c>
-      <c r="Y173" s="10"/>
+      <c r="Y173" s="17">
+        <v>68.915694815607054</v>
+      </c>
       <c r="Z173" s="10"/>
       <c r="AA173" s="10"/>
       <c r="AB173" s="10"/>
@@ -39779,7 +40004,9 @@
       <c r="X174" s="17">
         <v>87.854015449927346</v>
       </c>
-      <c r="Y174" s="10"/>
+      <c r="Y174" s="17">
+        <v>90.793536092420482</v>
+      </c>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10"/>
       <c r="AB174" s="10"/>
@@ -39925,7 +40152,9 @@
       <c r="X175" s="17">
         <v>99.484211324564015</v>
       </c>
-      <c r="Y175" s="10"/>
+      <c r="Y175" s="17">
+        <v>102.42963915512024</v>
+      </c>
       <c r="Z175" s="10"/>
       <c r="AA175" s="10"/>
       <c r="AB175" s="10"/>
@@ -40071,7 +40300,9 @@
       <c r="X176" s="17">
         <v>106.18976893240963</v>
       </c>
-      <c r="Y176" s="10"/>
+      <c r="Y176" s="17">
+        <v>99.316899484035872</v>
+      </c>
       <c r="Z176" s="10"/>
       <c r="AA176" s="10"/>
       <c r="AB176" s="10"/>
@@ -40217,7 +40448,9 @@
       <c r="X177" s="17">
         <v>101.16794073157888</v>
       </c>
-      <c r="Y177" s="10"/>
+      <c r="Y177" s="17">
+        <v>96.739458531061899</v>
+      </c>
       <c r="Z177" s="10"/>
       <c r="AA177" s="10"/>
       <c r="AB177" s="10"/>
@@ -40363,7 +40596,9 @@
       <c r="X178" s="17">
         <v>71.377569168944362</v>
       </c>
-      <c r="Y178" s="10"/>
+      <c r="Y178" s="17">
+        <v>70.157534168324858</v>
+      </c>
       <c r="Z178" s="10"/>
       <c r="AA178" s="10"/>
       <c r="AB178" s="10"/>
@@ -40509,7 +40744,9 @@
       <c r="X179" s="17">
         <v>108.08349751817276</v>
       </c>
-      <c r="Y179" s="10"/>
+      <c r="Y179" s="17">
+        <v>115.33588579279154</v>
+      </c>
       <c r="Z179" s="10"/>
       <c r="AA179" s="10"/>
       <c r="AB179" s="10"/>
@@ -40655,7 +40892,9 @@
       <c r="X180" s="17">
         <v>104.53554647183338</v>
       </c>
-      <c r="Y180" s="10"/>
+      <c r="Y180" s="17">
+        <v>104.22278270857062</v>
+      </c>
       <c r="Z180" s="10"/>
       <c r="AA180" s="10"/>
       <c r="AB180" s="10"/>
@@ -40801,7 +41040,9 @@
       <c r="X181" s="17">
         <v>76.055601675944374</v>
       </c>
-      <c r="Y181" s="10"/>
+      <c r="Y181" s="17">
+        <v>71.762441642946413</v>
+      </c>
       <c r="Z181" s="10"/>
       <c r="AA181" s="10"/>
       <c r="AB181" s="10"/>
@@ -40947,7 +41188,9 @@
       <c r="X182" s="17">
         <v>92.897338340786746</v>
       </c>
-      <c r="Y182" s="10"/>
+      <c r="Y182" s="17">
+        <v>98.112868219505756</v>
+      </c>
       <c r="Z182" s="10"/>
       <c r="AA182" s="10"/>
       <c r="AB182" s="10"/>
@@ -41093,7 +41336,9 @@
       <c r="X183" s="17">
         <v>86.145548461636537</v>
       </c>
-      <c r="Y183" s="10"/>
+      <c r="Y183" s="17">
+        <v>89.328350019469909</v>
+      </c>
       <c r="Z183" s="10"/>
       <c r="AA183" s="10"/>
       <c r="AB183" s="10"/>
@@ -41239,7 +41484,9 @@
       <c r="X184" s="17">
         <v>96.686061177425074</v>
       </c>
-      <c r="Y184" s="10"/>
+      <c r="Y184" s="17">
+        <v>95.555420293492816</v>
+      </c>
       <c r="Z184" s="10"/>
       <c r="AA184" s="10"/>
       <c r="AB184" s="10"/>
@@ -41385,7 +41632,9 @@
       <c r="X185" s="17">
         <v>90.588688307321902</v>
       </c>
-      <c r="Y185" s="10"/>
+      <c r="Y185" s="17">
+        <v>91.203512606495948</v>
+      </c>
       <c r="Z185" s="10"/>
       <c r="AA185" s="10"/>
       <c r="AB185" s="10"/>
@@ -41531,7 +41780,9 @@
       <c r="X186" s="17">
         <v>84.371073821491706</v>
       </c>
-      <c r="Y186" s="10"/>
+      <c r="Y186" s="17">
+        <v>82.749132076747742</v>
+      </c>
       <c r="Z186" s="10"/>
       <c r="AA186" s="10"/>
       <c r="AB186" s="10"/>
@@ -41677,7 +41928,9 @@
       <c r="X187" s="17">
         <v>92.665888171808604</v>
       </c>
-      <c r="Y187" s="10"/>
+      <c r="Y187" s="17">
+        <v>97.88604216676157</v>
+      </c>
       <c r="Z187" s="10"/>
       <c r="AA187" s="10"/>
       <c r="AB187" s="10"/>
@@ -41823,7 +42076,9 @@
       <c r="X188" s="17">
         <v>91.63653831408989</v>
       </c>
-      <c r="Y188" s="10"/>
+      <c r="Y188" s="17">
+        <v>92.002741334539763</v>
+      </c>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10"/>
       <c r="AB188" s="10"/>
@@ -42067,7 +42322,9 @@
       <c r="X190" s="17">
         <v>101.78268322849331</v>
       </c>
-      <c r="Y190" s="10"/>
+      <c r="Y190" s="17">
+        <v>103.80255422061886</v>
+      </c>
       <c r="Z190" s="10"/>
       <c r="AA190" s="10"/>
       <c r="AB190" s="10"/>
@@ -42165,6 +42422,7 @@
       <c r="V191" s="13"/>
       <c r="W191" s="13"/>
       <c r="X191" s="13"/>
+      <c r="Y191" s="13"/>
     </row>
     <row r="192" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
@@ -42183,7 +42441,7 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="199" spans="1:96" x14ac:dyDescent="0.2">
@@ -42193,7 +42451,7 @@
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
@@ -42228,6 +42486,7 @@
       <c r="V203" s="1"/>
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
+      <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
@@ -42301,6 +42560,9 @@
       </c>
       <c r="X204" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y204" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="205" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42379,7 +42641,9 @@
       <c r="X206" s="17">
         <v>51.740990085327439</v>
       </c>
-      <c r="Y206" s="10"/>
+      <c r="Y206" s="17">
+        <v>52.866572993593138</v>
+      </c>
       <c r="Z206" s="10"/>
       <c r="AA206" s="10"/>
       <c r="AB206" s="10"/>
@@ -42525,7 +42789,9 @@
       <c r="X207" s="17">
         <v>4.4134473260858922</v>
       </c>
-      <c r="Y207" s="10"/>
+      <c r="Y207" s="17">
+        <v>4.7985095068180739</v>
+      </c>
       <c r="Z207" s="10"/>
       <c r="AA207" s="10"/>
       <c r="AB207" s="10"/>
@@ -42671,7 +42937,9 @@
       <c r="X208" s="17">
         <v>0.40007372379701756</v>
       </c>
-      <c r="Y208" s="10"/>
+      <c r="Y208" s="17">
+        <v>0.36205287066761044</v>
+      </c>
       <c r="Z208" s="10"/>
       <c r="AA208" s="10"/>
       <c r="AB208" s="10"/>
@@ -42817,7 +43085,9 @@
       <c r="X209" s="17">
         <v>1.1564220328916381</v>
       </c>
-      <c r="Y209" s="10"/>
+      <c r="Y209" s="17">
+        <v>0.98548145147985633</v>
+      </c>
       <c r="Z209" s="10"/>
       <c r="AA209" s="10"/>
       <c r="AB209" s="10"/>
@@ -42963,7 +43233,9 @@
       <c r="X210" s="17">
         <v>1.3755976807616614</v>
       </c>
-      <c r="Y210" s="10"/>
+      <c r="Y210" s="17">
+        <v>1.0615684867227475</v>
+      </c>
       <c r="Z210" s="10"/>
       <c r="AA210" s="10"/>
       <c r="AB210" s="10"/>
@@ -43109,7 +43381,9 @@
       <c r="X211" s="17">
         <v>0.31033801998898081</v>
       </c>
-      <c r="Y211" s="10"/>
+      <c r="Y211" s="17">
+        <v>0.2778945195056195</v>
+      </c>
       <c r="Z211" s="10"/>
       <c r="AA211" s="10"/>
       <c r="AB211" s="10"/>
@@ -43255,7 +43529,9 @@
       <c r="X212" s="17">
         <v>0.85358003359143086</v>
       </c>
-      <c r="Y212" s="10"/>
+      <c r="Y212" s="17">
+        <v>0.80208193253745308</v>
+      </c>
       <c r="Z212" s="10"/>
       <c r="AA212" s="10"/>
       <c r="AB212" s="10"/>
@@ -43401,7 +43677,9 @@
       <c r="X213" s="17">
         <v>0.70437775627257126</v>
       </c>
-      <c r="Y213" s="10"/>
+      <c r="Y213" s="17">
+        <v>0.68263990979617373</v>
+      </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
       <c r="AB213" s="10"/>
@@ -43547,7 +43825,9 @@
       <c r="X214" s="17">
         <v>0.80127253501402707</v>
       </c>
-      <c r="Y214" s="10"/>
+      <c r="Y214" s="17">
+        <v>0.85951677062440046</v>
+      </c>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10"/>
       <c r="AB214" s="10"/>
@@ -43693,7 +43973,9 @@
       <c r="X215" s="17">
         <v>2.8005820994733583</v>
       </c>
-      <c r="Y215" s="10"/>
+      <c r="Y215" s="17">
+        <v>3.4074480410214649</v>
+      </c>
       <c r="Z215" s="10"/>
       <c r="AA215" s="10"/>
       <c r="AB215" s="10"/>
@@ -43839,7 +44121,9 @@
       <c r="X216" s="17">
         <v>12.392501690374202</v>
       </c>
-      <c r="Y216" s="10"/>
+      <c r="Y216" s="17">
+        <v>11.367010330670725</v>
+      </c>
       <c r="Z216" s="10"/>
       <c r="AA216" s="10"/>
       <c r="AB216" s="10"/>
@@ -43985,7 +44269,9 @@
       <c r="X217" s="17">
         <v>0.9976352555650323</v>
       </c>
-      <c r="Y217" s="10"/>
+      <c r="Y217" s="17">
+        <v>1.0348137351731079</v>
+      </c>
       <c r="Z217" s="10"/>
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
@@ -44131,7 +44417,9 @@
       <c r="X218" s="17">
         <v>1.0439723757303894</v>
       </c>
-      <c r="Y218" s="10"/>
+      <c r="Y218" s="17">
+        <v>1.0405250263167565</v>
+      </c>
       <c r="Z218" s="10"/>
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
@@ -44277,7 +44565,9 @@
       <c r="X219" s="17">
         <v>2.5319911251016185</v>
       </c>
-      <c r="Y219" s="10"/>
+      <c r="Y219" s="17">
+        <v>2.3588798974191616</v>
+      </c>
       <c r="Z219" s="10"/>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
@@ -44423,7 +44713,9 @@
       <c r="X220" s="17">
         <v>1.9770140498934867</v>
       </c>
-      <c r="Y220" s="10"/>
+      <c r="Y220" s="17">
+        <v>1.8971260773584422</v>
+      </c>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
@@ -44569,7 +44861,9 @@
       <c r="X221" s="17">
         <v>0.80580932658446902</v>
       </c>
-      <c r="Y221" s="10"/>
+      <c r="Y221" s="17">
+        <v>0.75937152150489773</v>
+      </c>
       <c r="Z221" s="10"/>
       <c r="AA221" s="10"/>
       <c r="AB221" s="10"/>
@@ -44715,7 +45009,9 @@
       <c r="X222" s="17">
         <v>9.4771166395938895</v>
       </c>
-      <c r="Y222" s="10"/>
+      <c r="Y222" s="17">
+        <v>9.1525729487062399</v>
+      </c>
       <c r="Z222" s="10"/>
       <c r="AA222" s="10"/>
       <c r="AB222" s="10"/>
@@ -44861,7 +45157,9 @@
       <c r="X223" s="17">
         <v>1.4078937802050049</v>
       </c>
-      <c r="Y223" s="10"/>
+      <c r="Y223" s="17">
+        <v>1.4258702929330493</v>
+      </c>
       <c r="Z223" s="10"/>
       <c r="AA223" s="10"/>
       <c r="AB223" s="10"/>
@@ -45007,7 +45305,9 @@
       <c r="X224" s="17">
         <v>1.2025776374396857</v>
       </c>
-      <c r="Y224" s="10"/>
+      <c r="Y224" s="17">
+        <v>1.0998870343607787</v>
+      </c>
       <c r="Z224" s="10"/>
       <c r="AA224" s="10"/>
       <c r="AB224" s="10"/>
@@ -45153,7 +45453,9 @@
       <c r="X225" s="17">
         <v>1.3770336940454597</v>
       </c>
-      <c r="Y225" s="10"/>
+      <c r="Y225" s="17">
+        <v>1.4790995693874911</v>
+      </c>
       <c r="Z225" s="10"/>
       <c r="AA225" s="10"/>
       <c r="AB225" s="10"/>
@@ -45299,7 +45601,9 @@
       <c r="X226" s="17">
         <v>0.55645065384185277</v>
       </c>
-      <c r="Y226" s="10"/>
+      <c r="Y226" s="17">
+        <v>0.49223929211369188</v>
+      </c>
       <c r="Z226" s="10"/>
       <c r="AA226" s="10"/>
       <c r="AB226" s="10"/>
@@ -45445,7 +45749,9 @@
       <c r="X227" s="17">
         <v>1.6733224784208904</v>
       </c>
-      <c r="Y227" s="10"/>
+      <c r="Y227" s="17">
+        <v>1.7888377912891087</v>
+      </c>
       <c r="Z227" s="10"/>
       <c r="AA227" s="10"/>
       <c r="AB227" s="10"/>
@@ -45689,7 +45995,9 @@
       <c r="X229" s="17">
         <v>100</v>
       </c>
-      <c r="Y229" s="10"/>
+      <c r="Y229" s="17">
+        <v>100</v>
+      </c>
       <c r="Z229" s="10"/>
       <c r="AA229" s="10"/>
       <c r="AB229" s="10"/>
@@ -45787,6 +46095,7 @@
       <c r="V230" s="13"/>
       <c r="W230" s="13"/>
       <c r="X230" s="13"/>
+      <c r="Y230" s="13"/>
     </row>
     <row r="231" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
@@ -46001,7 +46310,7 @@
     </row>
     <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="238" spans="1:96" x14ac:dyDescent="0.2">
@@ -46011,7 +46320,7 @@
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
@@ -46046,6 +46355,7 @@
       <c r="V242" s="1"/>
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
+      <c r="Y242" s="1"/>
     </row>
     <row r="243" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
@@ -46119,6 +46429,9 @@
       </c>
       <c r="X243" s="15">
         <v>2022</v>
+      </c>
+      <c r="Y243" s="15">
+        <v>2023</v>
       </c>
     </row>
     <row r="244" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -46197,7 +46510,9 @@
       <c r="X245" s="17">
         <v>47.615772097936578</v>
       </c>
-      <c r="Y245" s="10"/>
+      <c r="Y245" s="17">
+        <v>48.071900908981434</v>
+      </c>
       <c r="Z245" s="10"/>
       <c r="AA245" s="10"/>
       <c r="AB245" s="10"/>
@@ -46343,7 +46658,9 @@
       <c r="X246" s="17">
         <v>4.1164826079374706</v>
       </c>
-      <c r="Y246" s="10"/>
+      <c r="Y246" s="17">
+        <v>4.0981974485535497</v>
+      </c>
       <c r="Z246" s="10"/>
       <c r="AA246" s="10"/>
       <c r="AB246" s="10"/>
@@ -46489,7 +46806,9 @@
       <c r="X247" s="17">
         <v>0.42282486467800412</v>
       </c>
-      <c r="Y247" s="10"/>
+      <c r="Y247" s="17">
+        <v>0.36986155981239843</v>
+      </c>
       <c r="Z247" s="10"/>
       <c r="AA247" s="10"/>
       <c r="AB247" s="10"/>
@@ -46635,7 +46954,9 @@
       <c r="X248" s="17">
         <v>1.1980417243437795</v>
       </c>
-      <c r="Y248" s="10"/>
+      <c r="Y248" s="17">
+        <v>1.0201602191868655</v>
+      </c>
       <c r="Z248" s="10"/>
       <c r="AA248" s="10"/>
       <c r="AB248" s="10"/>
@@ -46781,7 +47102,9 @@
       <c r="X249" s="17">
         <v>1.6950589665904421</v>
       </c>
-      <c r="Y249" s="10"/>
+      <c r="Y249" s="17">
+        <v>1.3192126718647741</v>
+      </c>
       <c r="Z249" s="10"/>
       <c r="AA249" s="10"/>
       <c r="AB249" s="10"/>
@@ -46927,7 +47250,9 @@
       <c r="X250" s="17">
         <v>0.34817110839125948</v>
       </c>
-      <c r="Y250" s="10"/>
+      <c r="Y250" s="17">
+        <v>0.30628043643979519</v>
+      </c>
       <c r="Z250" s="10"/>
       <c r="AA250" s="10"/>
       <c r="AB250" s="10"/>
@@ -47073,7 +47398,9 @@
       <c r="X251" s="17">
         <v>1.2542772337454176</v>
       </c>
-      <c r="Y251" s="10"/>
+      <c r="Y251" s="17">
+        <v>1.2081159961365231</v>
+      </c>
       <c r="Z251" s="10"/>
       <c r="AA251" s="10"/>
       <c r="AB251" s="10"/>
@@ -47219,7 +47546,9 @@
       <c r="X252" s="17">
         <v>0.81605214824528849</v>
       </c>
-      <c r="Y252" s="10"/>
+      <c r="Y252" s="17">
+        <v>0.78044946038500107</v>
+      </c>
       <c r="Z252" s="10"/>
       <c r="AA252" s="10"/>
       <c r="AB252" s="10"/>
@@ -47365,7 +47694,9 @@
       <c r="X253" s="17">
         <v>0.8197850445328636</v>
       </c>
-      <c r="Y253" s="10"/>
+      <c r="Y253" s="17">
+        <v>0.87103729860021317</v>
+      </c>
       <c r="Z253" s="10"/>
       <c r="AA253" s="10"/>
       <c r="AB253" s="10"/>
@@ -47511,7 +47842,9 @@
       <c r="X254" s="17">
         <v>2.6843523962042135</v>
       </c>
-      <c r="Y254" s="10"/>
+      <c r="Y254" s="17">
+        <v>3.561345670974414</v>
+      </c>
       <c r="Z254" s="10"/>
       <c r="AA254" s="10"/>
       <c r="AB254" s="10"/>
@@ -47657,7 +47990,9 @@
       <c r="X255" s="17">
         <v>12.467804176290857</v>
       </c>
-      <c r="Y255" s="10"/>
+      <c r="Y255" s="17">
+        <v>12.196933124211387</v>
+      </c>
       <c r="Z255" s="10"/>
       <c r="AA255" s="10"/>
       <c r="AB255" s="10"/>
@@ -47803,7 +48138,9 @@
       <c r="X256" s="17">
         <v>1.4226036887640676</v>
       </c>
-      <c r="Y256" s="10"/>
+      <c r="Y256" s="17">
+        <v>1.531073036230578</v>
+      </c>
       <c r="Z256" s="10"/>
       <c r="AA256" s="10"/>
       <c r="AB256" s="10"/>
@@ -47949,7 +48286,9 @@
       <c r="X257" s="17">
         <v>0.98311316767296431</v>
       </c>
-      <c r="Y257" s="10"/>
+      <c r="Y257" s="17">
+        <v>0.93647484232445632</v>
+      </c>
       <c r="Z257" s="10"/>
       <c r="AA257" s="10"/>
       <c r="AB257" s="10"/>
@@ -48095,7 +48434,9 @@
       <c r="X258" s="17">
         <v>2.4653130855638081</v>
       </c>
-      <c r="Y258" s="10"/>
+      <c r="Y258" s="17">
+        <v>2.3493688432447204</v>
+      </c>
       <c r="Z258" s="10"/>
       <c r="AA258" s="10"/>
       <c r="AB258" s="10"/>
@@ -48241,7 +48582,9 @@
       <c r="X259" s="17">
         <v>2.6457721764659334</v>
       </c>
-      <c r="Y259" s="10"/>
+      <c r="Y259" s="17">
+        <v>2.7441448200460692</v>
+      </c>
       <c r="Z259" s="10"/>
       <c r="AA259" s="10"/>
       <c r="AB259" s="10"/>
@@ -48387,7 +48730,9 @@
       <c r="X260" s="17">
         <v>0.88288251197723089</v>
       </c>
-      <c r="Y260" s="10"/>
+      <c r="Y260" s="17">
+        <v>0.80340841079330416</v>
+      </c>
       <c r="Z260" s="10"/>
       <c r="AA260" s="10"/>
       <c r="AB260" s="10"/>
@@ -48533,7 +48878,9 @@
       <c r="X261" s="17">
         <v>11.197402281057379</v>
       </c>
-      <c r="Y261" s="10"/>
+      <c r="Y261" s="17">
+        <v>10.635598324151006</v>
+      </c>
       <c r="Z261" s="10"/>
       <c r="AA261" s="10"/>
       <c r="AB261" s="10"/>
@@ -48679,7 +49026,9 @@
       <c r="X262" s="17">
         <v>1.482108226407205</v>
       </c>
-      <c r="Y262" s="10"/>
+      <c r="Y262" s="17">
+        <v>1.5489333618035663</v>
+      </c>
       <c r="Z262" s="10"/>
       <c r="AA262" s="10"/>
       <c r="AB262" s="10"/>
@@ -48825,7 +49174,9 @@
       <c r="X263" s="17">
         <v>1.3511795017270405</v>
       </c>
-      <c r="Y263" s="10"/>
+      <c r="Y263" s="17">
+        <v>1.251827701125829</v>
+      </c>
       <c r="Z263" s="10"/>
       <c r="AA263" s="10"/>
       <c r="AB263" s="10"/>
@@ -48971,7 +49322,9 @@
       <c r="X264" s="17">
         <v>1.6612113361568801</v>
       </c>
-      <c r="Y264" s="10"/>
+      <c r="Y264" s="17">
+        <v>1.8554190164392277</v>
+      </c>
       <c r="Z264" s="10"/>
       <c r="AA264" s="10"/>
       <c r="AB264" s="10"/>
@@ -49117,7 +49470,9 @@
       <c r="X265" s="17">
         <v>0.61119622063368684</v>
       </c>
-      <c r="Y265" s="10"/>
+      <c r="Y265" s="17">
+        <v>0.52199164128121966</v>
+      </c>
       <c r="Z265" s="10"/>
       <c r="AA265" s="10"/>
       <c r="AB265" s="10"/>
@@ -49263,7 +49618,9 @@
       <c r="X266" s="17">
         <v>1.8585954346776477</v>
       </c>
-      <c r="Y266" s="10"/>
+      <c r="Y266" s="17">
+        <v>2.0182652074136556</v>
+      </c>
       <c r="Z266" s="10"/>
       <c r="AA266" s="10"/>
       <c r="AB266" s="10"/>
@@ -49507,7 +49864,9 @@
       <c r="X268" s="17">
         <v>100</v>
       </c>
-      <c r="Y268" s="10"/>
+      <c r="Y268" s="17">
+        <v>100</v>
+      </c>
       <c r="Z268" s="10"/>
       <c r="AA268" s="10"/>
       <c r="AB268" s="10"/>
@@ -49605,6 +49964,7 @@
       <c r="V269" s="13"/>
       <c r="W269" s="13"/>
       <c r="X269" s="13"/>
+      <c r="Y269" s="13"/>
     </row>
     <row r="270" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
@@ -49813,12 +50173,12 @@
   <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="39" max="23" man="1"/>
-    <brk id="78" max="23" man="1"/>
-    <brk id="117" max="23" man="1"/>
-    <brk id="156" max="23" man="1"/>
-    <brk id="194" max="23" man="1"/>
-    <brk id="233" max="23" man="1"/>
+    <brk id="39" max="24" man="1"/>
+    <brk id="78" max="24" man="1"/>
+    <brk id="117" max="24" man="1"/>
+    <brk id="156" max="24" man="1"/>
+    <brk id="194" max="24" man="1"/>
+    <brk id="233" max="24" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10E42F6-E114-4B1A-9C24-CB1D81198502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19481E0C-324E-442D-B75B-18A970246D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -667,13 +667,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of January 2024</t>
-  </si>
-  <si>
     <t>Annual 2000 to 2023</t>
   </si>
   <si>
     <t>Annual 2001 to 2023</t>
+  </si>
+  <si>
+    <t>As of April 2024</t>
   </si>
 </sst>
 </file>
@@ -23627,49 +23627,49 @@
   <dimension ref="A1:CR272"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
-    <col min="2" max="25" width="10.21875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="7.77734375" style="3"/>
+    <col min="1" max="1" width="43.6328125" style="3" customWidth="1"/>
+    <col min="2" max="25" width="10.1796875" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="7.81640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -23698,7 +23698,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -23775,10 +23775,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -23849,10 +23849,10 @@
         <v>1728815.3656187826</v>
       </c>
       <c r="X12" s="9">
-        <v>1964555.7786141518</v>
+        <v>1963559.1697116825</v>
       </c>
       <c r="Y12" s="9">
-        <v>2073688.0858358571</v>
+        <v>2096310.6648876839</v>
       </c>
       <c r="Z12" s="10"/>
       <c r="AA12" s="10"/>
@@ -23926,7 +23926,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -23997,10 +23997,10 @@
         <v>160609.14752624987</v>
       </c>
       <c r="X13" s="9">
-        <v>167574.36287501501</v>
+        <v>167525.98055008642</v>
       </c>
       <c r="Y13" s="9">
-        <v>188221.24133646113</v>
+        <v>186841.17177051614</v>
       </c>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
@@ -24074,7 +24074,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -24145,10 +24145,10 @@
         <v>16692.669385700443</v>
       </c>
       <c r="X14" s="9">
-        <v>15190.415658087593</v>
+        <v>15171.253303691183</v>
       </c>
       <c r="Y14" s="9">
-        <v>14201.501664143829</v>
+        <v>13976.639216210728</v>
       </c>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
@@ -24222,7 +24222,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -24293,10 +24293,10 @@
         <v>40086.555863181275</v>
       </c>
       <c r="X15" s="9">
-        <v>43908.235684848994</v>
+        <v>43906.880497780046</v>
       </c>
       <c r="Y15" s="9">
-        <v>38655.449540746005</v>
+        <v>39306.481017148224</v>
       </c>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
@@ -24370,7 +24370,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -24441,10 +24441,10 @@
         <v>52379.531586994024</v>
       </c>
       <c r="X16" s="9">
-        <v>52230.124864867947</v>
+        <v>52616.307529226702</v>
       </c>
       <c r="Y16" s="9">
-        <v>41639.958835284117</v>
+        <v>41639.107217353143</v>
       </c>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
@@ -24518,7 +24518,7 @@
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
     </row>
-    <row r="17" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -24589,10 +24589,10 @@
         <v>10393.075857598771</v>
       </c>
       <c r="X17" s="9">
-        <v>11783.237032913225</v>
+        <v>11872.633821638428</v>
       </c>
       <c r="Y17" s="9">
-        <v>10900.395497315867</v>
+        <v>10312.882885329282</v>
       </c>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
@@ -24666,7 +24666,7 @@
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
     </row>
-    <row r="18" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -24737,10 +24737,10 @@
         <v>29735.106352210714</v>
       </c>
       <c r="X18" s="9">
-        <v>32409.615369483221</v>
+        <v>32342.79484233465</v>
       </c>
       <c r="Y18" s="9">
-        <v>31461.614649557225</v>
+        <v>30620.382828570928</v>
       </c>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
@@ -24814,7 +24814,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -24885,10 +24885,10 @@
         <v>23319.755618068779</v>
       </c>
       <c r="X19" s="9">
-        <v>26744.5479711638</v>
+        <v>26704.69813164922</v>
       </c>
       <c r="Y19" s="9">
-        <v>26776.508627331354</v>
+        <v>26825.20184913382</v>
       </c>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -24962,7 +24962,7 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -25033,10 +25033,10 @@
         <v>32205.183008854456</v>
       </c>
       <c r="X20" s="9">
-        <v>30423.549806655294</v>
+        <v>30574.074155602535</v>
       </c>
       <c r="Y20" s="9">
-        <v>33714.492653721558</v>
+        <v>33402.068427776787</v>
       </c>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
@@ -25110,7 +25110,7 @@
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
     </row>
-    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -25181,10 +25181,10 @@
         <v>86914.645803216699</v>
       </c>
       <c r="X21" s="9">
-        <v>106335.4168122877</v>
+        <v>106827.32394022004</v>
       </c>
       <c r="Y21" s="9">
-        <v>133656.94058942053</v>
+        <v>136276.44185113837</v>
       </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
@@ -25258,7 +25258,7 @@
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
     </row>
-    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -25329,10 +25329,10 @@
         <v>388749.14218119672</v>
       </c>
       <c r="X22" s="9">
-        <v>470531.40589619637</v>
+        <v>469262.84027610044</v>
       </c>
       <c r="Y22" s="9">
-        <v>445870.28361270204</v>
+        <v>446210.12678456231</v>
       </c>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
@@ -25406,7 +25406,7 @@
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
     </row>
-    <row r="23" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -25477,10 +25477,10 @@
         <v>38482.033366260075</v>
       </c>
       <c r="X23" s="9">
-        <v>37879.254011903337</v>
+        <v>37904.130965505406</v>
       </c>
       <c r="Y23" s="9">
-        <v>40590.50534536886</v>
+        <v>40535.710656342824</v>
       </c>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
@@ -25554,7 +25554,7 @@
       <c r="CQ23" s="10"/>
       <c r="CR23" s="10"/>
     </row>
-    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -25625,10 +25625,10 @@
         <v>39186.206979389171</v>
       </c>
       <c r="X24" s="9">
-        <v>39638.630031478286</v>
+        <v>39868.735097207973</v>
       </c>
       <c r="Y24" s="9">
-        <v>40814.530390471729</v>
+        <v>39277.403406199912</v>
       </c>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
@@ -25702,7 +25702,7 @@
       <c r="CQ24" s="10"/>
       <c r="CR24" s="10"/>
     </row>
-    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -25773,10 +25773,10 @@
         <v>92555.760129356844</v>
       </c>
       <c r="X25" s="9">
-        <v>96137.275069823445</v>
+        <v>96870.433079412178</v>
       </c>
       <c r="Y25" s="9">
-        <v>92526.919416331948</v>
+        <v>92092.913692660426</v>
       </c>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
@@ -25850,7 +25850,7 @@
       <c r="CQ25" s="10"/>
       <c r="CR25" s="10"/>
     </row>
-    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -25921,10 +25921,10 @@
         <v>72365.053022293578</v>
       </c>
       <c r="X26" s="9">
-        <v>75065.327696947497</v>
+        <v>75436.166146064745</v>
       </c>
       <c r="Y26" s="9">
-        <v>74414.654122246211</v>
+        <v>73434.655457342684</v>
       </c>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
@@ -25998,7 +25998,7 @@
       <c r="CQ26" s="10"/>
       <c r="CR26" s="10"/>
     </row>
-    <row r="27" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
@@ -26069,10 +26069,10 @@
         <v>29618.553624185613</v>
       </c>
       <c r="X27" s="9">
-        <v>30595.807432212543</v>
+        <v>30482.67272056796</v>
       </c>
       <c r="Y27" s="9">
-        <v>29786.301394239992</v>
+        <v>29496.838546776926</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
@@ -26146,7 +26146,7 @@
       <c r="CQ27" s="10"/>
       <c r="CR27" s="10"/>
     </row>
-    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -26217,10 +26217,10 @@
         <v>359791.94860719435</v>
       </c>
       <c r="X28" s="9">
-        <v>359837.03110842162</v>
+        <v>358552.79401338287</v>
       </c>
       <c r="Y28" s="9">
-        <v>359009.11301316629</v>
+        <v>359841.83995603444</v>
       </c>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
@@ -26294,7 +26294,7 @@
       <c r="CQ28" s="10"/>
       <c r="CR28" s="10"/>
     </row>
-    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -26365,10 +26365,10 @@
         <v>53126.522603840771</v>
       </c>
       <c r="X29" s="9">
-        <v>53456.376791695882</v>
+        <v>53389.287277739597</v>
       </c>
       <c r="Y29" s="9">
-        <v>55929.674858267841</v>
+        <v>55044.365187528172</v>
       </c>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
@@ -26442,7 +26442,7 @@
       <c r="CQ29" s="10"/>
       <c r="CR29" s="10"/>
     </row>
-    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -26513,10 +26513,10 @@
         <v>36897.53248048509</v>
       </c>
       <c r="X30" s="9">
-        <v>45660.71973049175</v>
+        <v>45250.094552016111</v>
       </c>
       <c r="Y30" s="9">
-        <v>43143.001518099001</v>
+        <v>42732.060238084596</v>
       </c>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
@@ -26590,7 +26590,7 @@
       <c r="CQ30" s="10"/>
       <c r="CR30" s="10"/>
     </row>
-    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -26661,10 +26661,10 @@
         <v>45791.255498750965</v>
       </c>
       <c r="X31" s="9">
-        <v>52284.648912247023</v>
+        <v>51942.413689319343</v>
       </c>
       <c r="Y31" s="9">
-        <v>58017.589965127816</v>
+        <v>57809.495752934447</v>
       </c>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
@@ -26738,7 +26738,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -26809,10 +26809,10 @@
         <v>21648.239935105739</v>
       </c>
       <c r="X32" s="9">
-        <v>21127.897740569817</v>
+        <v>21430.079964964156</v>
       </c>
       <c r="Y32" s="9">
-        <v>19308.05606711339</v>
+        <v>19691.487493871959</v>
       </c>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
@@ -26886,7 +26886,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -26957,10 +26957,10 @@
         <v>64685.550393851117</v>
       </c>
       <c r="X33" s="9">
-        <v>63534.449940858925</v>
+        <v>63844.544098247512</v>
       </c>
       <c r="Y33" s="9">
-        <v>70167.052737439677</v>
+        <v>72308.576820097165</v>
       </c>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
@@ -27034,7 +27034,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -27132,7 +27132,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -27203,10 +27203,10 @@
         <v>3424048.8354427675</v>
       </c>
       <c r="X35" s="12">
-        <v>3796904.1090523209</v>
+        <v>3795335.3083644398</v>
       </c>
       <c r="Y35" s="12">
-        <v>3922493.8716704138</v>
+        <v>3943986.5159432981</v>
       </c>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
@@ -27280,7 +27280,7 @@
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
     </row>
-    <row r="36" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -27307,12 +27307,12 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -27410,7 +27410,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -27508,37 +27508,37 @@
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>25</v>
@@ -27567,7 +27567,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
@@ -27644,10 +27644,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -27718,10 +27718,10 @@
         <v>1694161.4946517027</v>
       </c>
       <c r="X51" s="9">
-        <v>1776260.1161583713</v>
+        <v>1775626.6722058905</v>
       </c>
       <c r="Y51" s="9">
-        <v>1816542.359008465</v>
+        <v>1817548.8825098276</v>
       </c>
       <c r="Z51" s="10"/>
       <c r="AA51" s="10"/>
@@ -27795,7 +27795,7 @@
       <c r="CQ51" s="10"/>
       <c r="CR51" s="10"/>
     </row>
-    <row r="52" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -27866,10 +27866,10 @@
         <v>146766.61981999179</v>
       </c>
       <c r="X52" s="9">
-        <v>153561.38424679224</v>
+        <v>153519.3927920358</v>
       </c>
       <c r="Y52" s="9">
-        <v>154862.80176382721</v>
+        <v>153755.40477719365</v>
       </c>
       <c r="Z52" s="10"/>
       <c r="AA52" s="10"/>
@@ -27943,7 +27943,7 @@
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
     </row>
-    <row r="53" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -28014,10 +28014,10 @@
         <v>17785.000624093522</v>
       </c>
       <c r="X53" s="9">
-        <v>15773.070773751999</v>
+        <v>15758.202383076276</v>
       </c>
       <c r="Y53" s="9">
-        <v>13976.339143323479</v>
+        <v>13760.007166282561</v>
       </c>
       <c r="Z53" s="10"/>
       <c r="AA53" s="10"/>
@@ -28091,7 +28091,7 @@
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
     </row>
-    <row r="54" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
@@ -28162,10 +28162,10 @@
         <v>40680.547175401531</v>
       </c>
       <c r="X54" s="9">
-        <v>44691.782547776333</v>
+        <v>44690.388333071802</v>
       </c>
       <c r="Y54" s="9">
-        <v>38549.843382250532</v>
+        <v>39432.365458272005</v>
       </c>
       <c r="Z54" s="10"/>
       <c r="AA54" s="10"/>
@@ -28239,7 +28239,7 @@
       <c r="CQ54" s="10"/>
       <c r="CR54" s="10"/>
     </row>
-    <row r="55" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -28310,10 +28310,10 @@
         <v>63910.408392930294</v>
       </c>
       <c r="X55" s="9">
-        <v>63232.527883795527</v>
+        <v>63786.696765953791</v>
       </c>
       <c r="Y55" s="9">
-        <v>49850.445970930348</v>
+        <v>49939.360942686922</v>
       </c>
       <c r="Z55" s="10"/>
       <c r="AA55" s="10"/>
@@ -28387,7 +28387,7 @@
       <c r="CQ55" s="10"/>
       <c r="CR55" s="10"/>
     </row>
-    <row r="56" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>18</v>
       </c>
@@ -28458,10 +28458,10 @@
         <v>11653.883470600751</v>
       </c>
       <c r="X56" s="9">
-        <v>12988.184926667345</v>
+        <v>13079.477492858658</v>
       </c>
       <c r="Y56" s="9">
-        <v>11573.733844682207</v>
+        <v>10890.20166036493</v>
       </c>
       <c r="Z56" s="10"/>
       <c r="AA56" s="10"/>
@@ -28535,7 +28535,7 @@
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
     </row>
-    <row r="57" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>17</v>
       </c>
@@ -28606,10 +28606,10 @@
         <v>37755.368142473308</v>
       </c>
       <c r="X57" s="9">
-        <v>46789.593589389318</v>
+        <v>46698.741828051294</v>
       </c>
       <c r="Y57" s="9">
-        <v>45652.321628239959</v>
+        <v>43995.999616826753</v>
       </c>
       <c r="Z57" s="10"/>
       <c r="AA57" s="10"/>
@@ -28683,7 +28683,7 @@
       <c r="CQ57" s="10"/>
       <c r="CR57" s="10"/>
     </row>
-    <row r="58" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
@@ -28754,10 +28754,10 @@
         <v>27120.892888556918</v>
       </c>
       <c r="X58" s="9">
-        <v>30442.032540227981</v>
+        <v>30412.888144836612</v>
       </c>
       <c r="Y58" s="9">
-        <v>29491.646409800618</v>
+        <v>29583.804544409471</v>
       </c>
       <c r="Z58" s="10"/>
       <c r="AA58" s="10"/>
@@ -28831,7 +28831,7 @@
       <c r="CQ58" s="10"/>
       <c r="CR58" s="10"/>
     </row>
-    <row r="59" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -28902,10 +28902,10 @@
         <v>29325.305426950494</v>
       </c>
       <c r="X59" s="9">
-        <v>30581.284609473805</v>
+        <v>30713.012221075307</v>
       </c>
       <c r="Y59" s="9">
-        <v>32914.7822171511</v>
+        <v>32462.776977883772</v>
       </c>
       <c r="Z59" s="10"/>
       <c r="AA59" s="10"/>
@@ -28979,7 +28979,7 @@
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
     </row>
-    <row r="60" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -29050,10 +29050,10 @@
         <v>100113.30236089285</v>
       </c>
       <c r="X60" s="9">
-        <v>100137.15810980884</v>
+        <v>100536.46253514205</v>
       </c>
       <c r="Y60" s="9">
-        <v>134576.23152130767</v>
+        <v>136579.24630890758</v>
       </c>
       <c r="Z60" s="10"/>
       <c r="AA60" s="10"/>
@@ -29127,7 +29127,7 @@
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
     </row>
-    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -29198,10 +29198,10 @@
         <v>415034.47117934673</v>
       </c>
       <c r="X61" s="9">
-        <v>465099.32147835364</v>
+        <v>464113.70825221518</v>
       </c>
       <c r="Y61" s="9">
-        <v>460898.05585332937</v>
+        <v>462171.38106848137</v>
       </c>
       <c r="Z61" s="10"/>
       <c r="AA61" s="10"/>
@@ -29275,7 +29275,7 @@
       <c r="CQ61" s="10"/>
       <c r="CR61" s="10"/>
     </row>
-    <row r="62" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>12</v>
       </c>
@@ -29346,10 +29346,10 @@
         <v>52449.361451691599</v>
       </c>
       <c r="X62" s="9">
-        <v>53068.8484532816</v>
+        <v>53127.204998006971</v>
       </c>
       <c r="Y62" s="9">
-        <v>57856.231446194273</v>
+        <v>57772.27597103054</v>
       </c>
       <c r="Z62" s="10"/>
       <c r="AA62" s="10"/>
@@ -29423,7 +29423,7 @@
       <c r="CQ62" s="10"/>
       <c r="CR62" s="10"/>
     </row>
-    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
@@ -29494,10 +29494,10 @@
         <v>35919.2351479102</v>
       </c>
       <c r="X63" s="9">
-        <v>36674.081558855542</v>
+        <v>36871.688035300656</v>
       </c>
       <c r="Y63" s="9">
-        <v>35387.53798084813</v>
+        <v>34053.570698963675</v>
       </c>
       <c r="Z63" s="10"/>
       <c r="AA63" s="10"/>
@@ -29571,7 +29571,7 @@
       <c r="CQ63" s="10"/>
       <c r="CR63" s="10"/>
     </row>
-    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -29642,10 +29642,10 @@
         <v>92964.115660627038</v>
       </c>
       <c r="X64" s="9">
-        <v>91966.10943792903</v>
+        <v>92606.478084881761</v>
       </c>
       <c r="Y64" s="9">
-        <v>88778.016678999236</v>
+        <v>88398.473747808515</v>
       </c>
       <c r="Z64" s="10"/>
       <c r="AA64" s="10"/>
@@ -29719,7 +29719,7 @@
       <c r="CQ64" s="10"/>
       <c r="CR64" s="10"/>
     </row>
-    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -29790,10 +29790,10 @@
         <v>102734.16244540413</v>
       </c>
       <c r="X65" s="9">
-        <v>98697.960495774911</v>
+        <v>99139.271405644948</v>
       </c>
       <c r="Y65" s="9">
-        <v>103695.82252022008</v>
+        <v>102957.52717359219</v>
       </c>
       <c r="Z65" s="10"/>
       <c r="AA65" s="10"/>
@@ -29867,7 +29867,7 @@
       <c r="CQ65" s="10"/>
       <c r="CR65" s="10"/>
     </row>
-    <row r="66" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>8</v>
       </c>
@@ -29938,10 +29938,10 @@
         <v>29637.912448187672</v>
       </c>
       <c r="X66" s="9">
-        <v>32935.074329012714</v>
+        <v>32836.376078807938</v>
       </c>
       <c r="Y66" s="9">
-        <v>30359.219880923018</v>
+        <v>30062.523339094401</v>
       </c>
       <c r="Z66" s="10"/>
       <c r="AA66" s="10"/>
@@ -30015,7 +30015,7 @@
       <c r="CQ66" s="10"/>
       <c r="CR66" s="10"/>
     </row>
-    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -30086,10 +30086,10 @@
         <v>419706.14265012939</v>
       </c>
       <c r="X67" s="9">
-        <v>417708.2130583555</v>
+        <v>416171.07144309045</v>
       </c>
       <c r="Y67" s="9">
-        <v>401898.2920147042</v>
+        <v>402646.88621014077</v>
       </c>
       <c r="Z67" s="10"/>
       <c r="AA67" s="10"/>
@@ -30163,7 +30163,7 @@
       <c r="CQ67" s="10"/>
       <c r="CR67" s="10"/>
     </row>
-    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
@@ -30234,10 +30234,10 @@
         <v>53670.581851835603</v>
       </c>
       <c r="X68" s="9">
-        <v>55288.607417360843</v>
+        <v>55223.338007229431</v>
       </c>
       <c r="Y68" s="9">
-        <v>58531.13793700363</v>
+        <v>57469.290656981531</v>
       </c>
       <c r="Z68" s="10"/>
       <c r="AA68" s="10"/>
@@ -30311,7 +30311,7 @@
       <c r="CQ68" s="10"/>
       <c r="CR68" s="10"/>
     </row>
-    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -30382,10 +30382,10 @@
         <v>40638.151264957778</v>
       </c>
       <c r="X69" s="9">
-        <v>50404.438549311883</v>
+        <v>49964.128462948</v>
       </c>
       <c r="Y69" s="9">
-        <v>47304.100779804998</v>
+        <v>47170.211467263463</v>
       </c>
       <c r="Z69" s="10"/>
       <c r="AA69" s="10"/>
@@ -30459,7 +30459,7 @@
       <c r="CQ69" s="10"/>
       <c r="CR69" s="10"/>
     </row>
-    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -30530,10 +30530,10 @@
         <v>55453.817464419983</v>
       </c>
       <c r="X70" s="9">
-        <v>61969.874915742323</v>
+        <v>61553.563960288826</v>
       </c>
       <c r="Y70" s="9">
-        <v>70112.62657270889</v>
+        <v>69863.052785915919</v>
       </c>
       <c r="Z70" s="10"/>
       <c r="AA70" s="10"/>
@@ -30607,7 +30607,7 @@
       <c r="CQ70" s="10"/>
       <c r="CR70" s="10"/>
     </row>
-    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -30678,10 +30678,10 @@
         <v>22909.561370263531</v>
       </c>
       <c r="X71" s="9">
-        <v>22800.081192118199</v>
+        <v>23076.882802143198</v>
       </c>
       <c r="Y71" s="9">
-        <v>19725.03498938042</v>
+        <v>20260.368068977568</v>
       </c>
       <c r="Z71" s="10"/>
       <c r="AA71" s="10"/>
@@ -30755,7 +30755,7 @@
       <c r="CQ71" s="10"/>
       <c r="CR71" s="10"/>
     </row>
-    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -30826,10 +30826,10 @@
         <v>66035.945592345932</v>
       </c>
       <c r="X72" s="9">
-        <v>69333.096939007752</v>
+        <v>69650.984897315808</v>
       </c>
       <c r="Y72" s="9">
-        <v>76266.263069595618</v>
+        <v>78471.316157299894</v>
       </c>
       <c r="Z72" s="10"/>
       <c r="AA72" s="10"/>
@@ -30903,7 +30903,7 @@
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
     </row>
-    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -31001,7 +31001,7 @@
       <c r="CQ73" s="10"/>
       <c r="CR73" s="10"/>
     </row>
-    <row r="74" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>1</v>
       </c>
@@ -31072,10 +31072,10 @@
         <v>3556426.2814807137</v>
       </c>
       <c r="X74" s="12">
-        <v>3730402.8432111582</v>
+        <v>3729156.6311298646</v>
       </c>
       <c r="Y74" s="12">
-        <v>3778802.8446136904</v>
+        <v>3779244.9273082041</v>
       </c>
       <c r="Z74" s="10"/>
       <c r="AA74" s="10"/>
@@ -31149,7 +31149,7 @@
       <c r="CQ74" s="10"/>
       <c r="CR74" s="10"/>
     </row>
-    <row r="75" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -31176,12 +31176,12 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -31279,7 +31279,7 @@
       <c r="CQ77" s="10"/>
       <c r="CR77" s="10"/>
     </row>
-    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -31377,37 +31377,37 @@
       <c r="CQ78" s="10"/>
       <c r="CR78" s="10"/>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="83" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="2" t="s">
         <v>25</v>
@@ -31436,7 +31436,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
     </row>
-    <row r="88" spans="1:91" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>24</v>
       </c>
@@ -31511,10 +31511,10 @@
       </c>
       <c r="Y88" s="16"/>
     </row>
-    <row r="89" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
@@ -31582,10 +31582,10 @@
         <v>5.3469487855140869</v>
       </c>
       <c r="W90" s="17">
-        <v>13.635950818321902</v>
+        <v>13.578303893017505</v>
       </c>
       <c r="X90" s="17">
-        <v>5.5550627989137524</v>
+        <v>6.7607585869436235</v>
       </c>
       <c r="Y90" s="17"/>
       <c r="Z90" s="10"/>
@@ -31655,7 +31655,7 @@
       <c r="CL90" s="10"/>
       <c r="CM90" s="10"/>
     </row>
-    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
@@ -31723,10 +31723,10 @@
         <v>9.7550853593250366</v>
       </c>
       <c r="W91" s="17">
-        <v>4.336748844038766</v>
+        <v>4.3066245792171145</v>
       </c>
       <c r="X91" s="17">
-        <v>12.321024593031311</v>
+        <v>11.52966910386472</v>
       </c>
       <c r="Y91" s="17"/>
       <c r="Z91" s="10"/>
@@ -31796,7 +31796,7 @@
       <c r="CL91" s="10"/>
       <c r="CM91" s="10"/>
     </row>
-    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -31864,10 +31864,10 @@
         <v>-6.4886873938723824</v>
       </c>
       <c r="W92" s="17">
-        <v>-8.99948170602201</v>
+        <v>-9.1142767334298327</v>
       </c>
       <c r="X92" s="17">
-        <v>-6.5101180652502535</v>
+        <v>-7.8741951213075083</v>
       </c>
       <c r="Y92" s="17"/>
       <c r="Z92" s="10"/>
@@ -31937,7 +31937,7 @@
       <c r="CL92" s="10"/>
       <c r="CM92" s="10"/>
     </row>
-    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>20</v>
       </c>
@@ -32005,10 +32005,10 @@
         <v>28.028027950531595</v>
       </c>
       <c r="W93" s="17">
-        <v>9.5335698948830299</v>
+        <v>9.5301892425925843</v>
       </c>
       <c r="X93" s="17">
-        <v>-11.963100002024262</v>
+        <v>-10.477627716832259</v>
       </c>
       <c r="Y93" s="17"/>
       <c r="Z93" s="10"/>
@@ -32078,7 +32078,7 @@
       <c r="CL93" s="10"/>
       <c r="CM93" s="10"/>
     </row>
-    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>19</v>
       </c>
@@ -32146,10 +32146,10 @@
         <v>2.4131983310026186</v>
       </c>
       <c r="W94" s="17">
-        <v>-0.28523875185470615</v>
+        <v>0.452039060027559</v>
       </c>
       <c r="X94" s="17">
-        <v>-20.2759730270283</v>
+        <v>-20.862734059732475</v>
       </c>
       <c r="Y94" s="17"/>
       <c r="Z94" s="10"/>
@@ -32219,7 +32219,7 @@
       <c r="CL94" s="10"/>
       <c r="CM94" s="10"/>
     </row>
-    <row r="95" spans="1:91" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:91" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>18</v>
       </c>
@@ -32287,10 +32287,10 @@
         <v>-1.5909086663036476</v>
       </c>
       <c r="W95" s="17">
-        <v>13.375839783735003</v>
+        <v>14.235996968673106</v>
       </c>
       <c r="X95" s="17">
-        <v>-7.4923514916264793</v>
+        <v>-13.137362439886147</v>
       </c>
       <c r="Y95" s="17"/>
       <c r="Z95" s="10"/>
@@ -32360,7 +32360,7 @@
       <c r="CL95" s="10"/>
       <c r="CM95" s="10"/>
     </row>
-    <row r="96" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>17</v>
       </c>
@@ -32428,10 +32428,10 @@
         <v>11.486133756453711</v>
       </c>
       <c r="W96" s="17">
-        <v>8.994449138984379</v>
+        <v>8.7697298245246174</v>
       </c>
       <c r="X96" s="17">
-        <v>-2.9250600759015128</v>
+        <v>-5.3254890993811017</v>
       </c>
       <c r="Y96" s="17"/>
       <c r="Z96" s="10"/>
@@ -32501,7 +32501,7 @@
       <c r="CL96" s="10"/>
       <c r="CM96" s="10"/>
     </row>
-    <row r="97" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -32569,10 +32569,10 @@
         <v>8.0462090807421163</v>
       </c>
       <c r="W97" s="17">
-        <v>14.686227459611104</v>
+        <v>14.51534299509423</v>
       </c>
       <c r="X97" s="17">
-        <v>0.11950344497134324</v>
+        <v>0.45124538345477561</v>
       </c>
       <c r="Y97" s="17"/>
       <c r="Z97" s="10"/>
@@ -32642,7 +32642,7 @@
       <c r="CL97" s="10"/>
       <c r="CM97" s="10"/>
     </row>
-    <row r="98" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
@@ -32710,10 +32710,10 @@
         <v>11.056070445940264</v>
       </c>
       <c r="W98" s="17">
-        <v>-5.5321318984876484</v>
+        <v>-5.0647402090634444</v>
       </c>
       <c r="X98" s="17">
-        <v>10.817090273753507</v>
+        <v>9.2496481096420666</v>
       </c>
       <c r="Y98" s="17"/>
       <c r="Z98" s="10"/>
@@ -32783,7 +32783,7 @@
       <c r="CL98" s="10"/>
       <c r="CM98" s="10"/>
     </row>
-    <row r="99" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>14</v>
       </c>
@@ -32851,10 +32851,10 @@
         <v>18.441208456695563</v>
       </c>
       <c r="W99" s="17">
-        <v>22.344647245116249</v>
+        <v>22.910612996211938</v>
       </c>
       <c r="X99" s="17">
-        <v>25.693719549116082</v>
+        <v>27.567027633677199</v>
       </c>
       <c r="Y99" s="17"/>
       <c r="Z99" s="10"/>
@@ -32924,7 +32924,7 @@
       <c r="CL99" s="10"/>
       <c r="CM99" s="10"/>
     </row>
-    <row r="100" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>13</v>
       </c>
@@ -32992,10 +32992,10 @@
         <v>7.8505247904115549</v>
       </c>
       <c r="W100" s="17">
-        <v>21.037284675699894</v>
+        <v>20.710964825068643</v>
       </c>
       <c r="X100" s="17">
-        <v>-5.241121416013371</v>
+        <v>-4.9125376042932771</v>
       </c>
       <c r="Y100" s="17"/>
       <c r="Z100" s="10"/>
@@ -33065,7 +33065,7 @@
       <c r="CL100" s="10"/>
       <c r="CM100" s="10"/>
     </row>
-    <row r="101" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>12</v>
       </c>
@@ -33133,10 +33133,10 @@
         <v>10.537344755390095</v>
       </c>
       <c r="W101" s="17">
-        <v>-1.5663916420935209</v>
+        <v>-1.5017460102858138</v>
       </c>
       <c r="X101" s="17">
-        <v>7.1576154393471683</v>
+        <v>6.9427253014513894</v>
       </c>
       <c r="Y101" s="17"/>
       <c r="Z101" s="10"/>
@@ -33206,7 +33206,7 @@
       <c r="CL101" s="10"/>
       <c r="CM101" s="10"/>
     </row>
-    <row r="102" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
@@ -33274,10 +33274,10 @@
         <v>11.283546448859866</v>
       </c>
       <c r="W102" s="17">
-        <v>1.1545466809969014</v>
+        <v>1.7417560167989592</v>
       </c>
       <c r="X102" s="17">
-        <v>2.966551462700977</v>
+        <v>-1.4831965186913436</v>
       </c>
       <c r="Y102" s="17"/>
       <c r="Z102" s="10"/>
@@ -33347,7 +33347,7 @@
       <c r="CL102" s="10"/>
       <c r="CM102" s="10"/>
     </row>
-    <row r="103" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -33415,10 +33415,10 @@
         <v>30.286671568829263</v>
       </c>
       <c r="W103" s="17">
-        <v>3.8695754164419753</v>
+        <v>4.6617011669777213</v>
       </c>
       <c r="X103" s="17">
-        <v>-3.7554170854846234</v>
+        <v>-4.9318654153587289</v>
       </c>
       <c r="Y103" s="17"/>
       <c r="Z103" s="10"/>
@@ -33488,7 +33488,7 @@
       <c r="CL103" s="10"/>
       <c r="CM103" s="10"/>
     </row>
-    <row r="104" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>9</v>
       </c>
@@ -33556,10 +33556,10 @@
         <v>18.946810332574017</v>
       </c>
       <c r="W104" s="17">
-        <v>3.7314623038029708</v>
+        <v>4.2439174650021272</v>
       </c>
       <c r="X104" s="17">
-        <v>-0.86680974381164333</v>
+        <v>-2.6532508092293483</v>
       </c>
       <c r="Y104" s="17"/>
       <c r="Z104" s="10"/>
@@ -33629,7 +33629,7 @@
       <c r="CL104" s="10"/>
       <c r="CM104" s="10"/>
     </row>
-    <row r="105" spans="1:91" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:91" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>8</v>
       </c>
@@ -33697,10 +33697,10 @@
         <v>10.956584740950362</v>
       </c>
       <c r="W105" s="17">
-        <v>3.2994649922031698</v>
+        <v>2.9174925533052942</v>
       </c>
       <c r="X105" s="17">
-        <v>-2.6458070759076264</v>
+        <v>-3.234080498216457</v>
       </c>
       <c r="Y105" s="17"/>
       <c r="Z105" s="10"/>
@@ -33770,7 +33770,7 @@
       <c r="CL105" s="10"/>
       <c r="CM105" s="10"/>
     </row>
-    <row r="106" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -33838,10 +33838,10 @@
         <v>9.6455219779523134</v>
       </c>
       <c r="W106" s="17">
-        <v>1.2530158443439632E-2</v>
+        <v>-0.34440865022367007</v>
       </c>
       <c r="X106" s="17">
-        <v>-0.23008140454723502</v>
+        <v>0.35951356792480738</v>
       </c>
       <c r="Y106" s="17"/>
       <c r="Z106" s="10"/>
@@ -33911,7 +33911,7 @@
       <c r="CL106" s="10"/>
       <c r="CM106" s="10"/>
     </row>
-    <row r="107" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>6</v>
       </c>
@@ -33979,10 +33979,10 @@
         <v>30.779296486823938</v>
       </c>
       <c r="W107" s="17">
-        <v>0.62088420564394653</v>
+        <v>0.49460168108166158</v>
       </c>
       <c r="X107" s="17">
-        <v>4.6267596403132529</v>
+        <v>3.1000187381760753</v>
       </c>
       <c r="Y107" s="17"/>
       <c r="Z107" s="10"/>
@@ -34052,7 +34052,7 @@
       <c r="CL107" s="10"/>
       <c r="CM107" s="10"/>
     </row>
-    <row r="108" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -34120,10 +34120,10 @@
         <v>-0.43377005846900829</v>
       </c>
       <c r="W108" s="17">
-        <v>23.750063109617045</v>
+        <v>22.637183329125449</v>
       </c>
       <c r="X108" s="17">
-        <v>-5.5139696160142648</v>
+        <v>-5.5647050881561597</v>
       </c>
       <c r="Y108" s="17"/>
       <c r="Z108" s="10"/>
@@ -34193,7 +34193,7 @@
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
     </row>
-    <row r="109" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -34261,10 +34261,10 @@
         <v>-6.510423860017454</v>
       </c>
       <c r="W109" s="17">
-        <v>14.180422315944526</v>
+        <v>13.433041141962491</v>
       </c>
       <c r="X109" s="17">
-        <v>10.964864778001655</v>
+        <v>11.295358930964582</v>
       </c>
       <c r="Y109" s="17"/>
       <c r="Z109" s="10"/>
@@ -34334,7 +34334,7 @@
       <c r="CL109" s="10"/>
       <c r="CM109" s="10"/>
     </row>
-    <row r="110" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>3</v>
       </c>
@@ -34402,10 +34402,10 @@
         <v>16.345095720964295</v>
       </c>
       <c r="W110" s="17">
-        <v>-2.4036235559830033</v>
+        <v>-1.0077492248587276</v>
       </c>
       <c r="X110" s="17">
-        <v>-8.6134536232725338</v>
+        <v>-8.1128603996560287</v>
       </c>
       <c r="Y110" s="17"/>
       <c r="Z110" s="10"/>
@@ -34475,7 +34475,7 @@
       <c r="CL110" s="10"/>
       <c r="CM110" s="10"/>
     </row>
-    <row r="111" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>2</v>
       </c>
@@ -34543,10 +34543,10 @@
         <v>10.469907043646188</v>
       </c>
       <c r="W111" s="17">
-        <v>-1.7795325941937392</v>
+        <v>-1.3001455355685465</v>
       </c>
       <c r="X111" s="17">
-        <v>10.439380214599666</v>
+        <v>13.257252975014964</v>
       </c>
       <c r="Y111" s="17"/>
       <c r="Z111" s="10"/>
@@ -34616,7 +34616,7 @@
       <c r="CL111" s="10"/>
       <c r="CM111" s="10"/>
     </row>
-    <row r="112" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -34709,7 +34709,7 @@
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
     </row>
-    <row r="113" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>1</v>
       </c>
@@ -34777,10 +34777,10 @@
         <v>8.0168506520120246</v>
       </c>
       <c r="W113" s="17">
-        <v>10.889309455813859</v>
+        <v>10.84349233218984</v>
       </c>
       <c r="X113" s="17">
-        <v>3.3076885539108218</v>
+        <v>3.916681808093486</v>
       </c>
       <c r="Y113" s="17"/>
       <c r="Z113" s="10"/>
@@ -34850,7 +34850,7 @@
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
     </row>
-    <row r="114" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -34877,12 +34877,12 @@
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
     </row>
-    <row r="115" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A115" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -34975,7 +34975,7 @@
       <c r="CL116" s="10"/>
       <c r="CM116" s="10"/>
     </row>
-    <row r="117" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -35069,37 +35069,37 @@
       <c r="CM117" s="10"/>
       <c r="CN117" s="10"/>
     </row>
-    <row r="118" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="122" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="2" t="s">
         <v>25</v>
@@ -35128,7 +35128,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
     </row>
-    <row r="127" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
         <v>24</v>
       </c>
@@ -35203,10 +35203,10 @@
       </c>
       <c r="Y127" s="7"/>
     </row>
-    <row r="128" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
     </row>
-    <row r="129" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>23</v>
       </c>
@@ -35274,10 +35274,10 @@
         <v>4.4284236331992446</v>
       </c>
       <c r="W129" s="17">
-        <v>4.8459737614062135</v>
+        <v>4.8085839402775434</v>
       </c>
       <c r="X129" s="17">
-        <v>2.2678121567698355</v>
+        <v>2.3609811093824362</v>
       </c>
       <c r="Y129" s="17"/>
       <c r="Z129" s="10"/>
@@ -35347,7 +35347,7 @@
       <c r="CL129" s="10"/>
       <c r="CM129" s="10"/>
     </row>
-    <row r="130" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>22</v>
       </c>
@@ -35415,10 +35415,10 @@
         <v>3.2980423081527164</v>
       </c>
       <c r="W130" s="17">
-        <v>4.6296388341805539</v>
+        <v>4.6010277952345291</v>
       </c>
       <c r="X130" s="17">
-        <v>0.84749009226396765</v>
+        <v>0.15373431386453262</v>
       </c>
       <c r="Y130" s="17"/>
       <c r="Z130" s="10"/>
@@ -35488,7 +35488,7 @@
       <c r="CL130" s="10"/>
       <c r="CM130" s="10"/>
     </row>
-    <row r="131" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>21</v>
       </c>
@@ -35556,10 +35556,10 @@
         <v>-7.4336603712918645</v>
       </c>
       <c r="W131" s="17">
-        <v>-11.312509304137677</v>
+        <v>-11.396110035956482</v>
       </c>
       <c r="X131" s="17">
-        <v>-11.391134016963051</v>
+        <v>-12.680350005783041</v>
       </c>
       <c r="Y131" s="17"/>
       <c r="Z131" s="10"/>
@@ -35629,7 +35629,7 @@
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
     </row>
-    <row r="132" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>20</v>
       </c>
@@ -35697,10 +35697,10 @@
         <v>23.508848609908938</v>
       </c>
       <c r="W132" s="17">
-        <v>9.8603279721868944</v>
+        <v>9.8569007451672519</v>
       </c>
       <c r="X132" s="17">
-        <v>-13.742882506330901</v>
+        <v>-11.765444586456525</v>
       </c>
       <c r="Y132" s="17"/>
       <c r="Z132" s="10"/>
@@ -35770,7 +35770,7 @@
       <c r="CL132" s="10"/>
       <c r="CM132" s="10"/>
     </row>
-    <row r="133" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>19</v>
       </c>
@@ -35838,10 +35838,10 @@
         <v>7.1578485009590338</v>
       </c>
       <c r="W133" s="17">
-        <v>-1.0606730987651645</v>
+        <v>-0.19357039031248746</v>
       </c>
       <c r="X133" s="17">
-        <v>-21.163287884770114</v>
+        <v>-21.70881472993581</v>
       </c>
       <c r="Y133" s="17"/>
       <c r="Z133" s="10"/>
@@ -35911,7 +35911,7 @@
       <c r="CL133" s="10"/>
       <c r="CM133" s="10"/>
     </row>
-    <row r="134" spans="1:91" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:91" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>18</v>
       </c>
@@ -35979,10 +35979,10 @@
         <v>-1.1777377489147938</v>
       </c>
       <c r="W134" s="17">
-        <v>11.449414776049863</v>
+        <v>12.232780822412124</v>
       </c>
       <c r="X134" s="17">
-        <v>-10.890290598503768</v>
+        <v>-16.738251460649437</v>
       </c>
       <c r="Y134" s="17"/>
       <c r="Z134" s="10"/>
@@ -36052,7 +36052,7 @@
       <c r="CL134" s="10"/>
       <c r="CM134" s="10"/>
     </row>
-    <row r="135" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="11" t="s">
         <v>17</v>
       </c>
@@ -36120,10 +36120,10 @@
         <v>26.239761908905152</v>
       </c>
       <c r="W135" s="17">
-        <v>23.928320372415769</v>
+        <v>23.687687673523271</v>
       </c>
       <c r="X135" s="17">
-        <v>-2.4306087612764884</v>
+        <v>-5.7876124825295392</v>
       </c>
       <c r="Y135" s="17"/>
       <c r="Z135" s="10"/>
@@ -36193,7 +36193,7 @@
       <c r="CL135" s="10"/>
       <c r="CM135" s="10"/>
     </row>
-    <row r="136" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>16</v>
       </c>
@@ -36261,10 +36261,10 @@
         <v>13.932299632231263</v>
       </c>
       <c r="W136" s="17">
-        <v>12.245686988691844</v>
+        <v>12.138225941922002</v>
       </c>
       <c r="X136" s="17">
-        <v>-3.1219535987666518</v>
+        <v>-2.7260929526941311</v>
       </c>
       <c r="Y136" s="17"/>
       <c r="Z136" s="10"/>
@@ -36334,7 +36334,7 @@
       <c r="CL136" s="10"/>
       <c r="CM136" s="10"/>
     </row>
-    <row r="137" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -36402,10 +36402,10 @@
         <v>10.994738541432142</v>
       </c>
       <c r="W137" s="17">
-        <v>4.2829193566353894</v>
+        <v>4.7321136947118987</v>
       </c>
       <c r="X137" s="17">
-        <v>7.6304760819445647</v>
+        <v>5.6971447287992589</v>
       </c>
       <c r="Y137" s="17"/>
       <c r="Z137" s="10"/>
@@ -36475,7 +36475,7 @@
       <c r="CL137" s="10"/>
       <c r="CM137" s="10"/>
     </row>
-    <row r="138" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>14</v>
       </c>
@@ -36543,10 +36543,10 @@
         <v>11.10403387794581</v>
       </c>
       <c r="W138" s="17">
-        <v>2.3828750379223607E-2</v>
+        <v>0.42268126639532966</v>
       </c>
       <c r="X138" s="17">
-        <v>34.391902128611918</v>
+        <v>35.850459489925782</v>
       </c>
       <c r="Y138" s="17"/>
       <c r="Z138" s="10"/>
@@ -36616,7 +36616,7 @@
       <c r="CL138" s="10"/>
       <c r="CM138" s="10"/>
     </row>
-    <row r="139" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>13</v>
       </c>
@@ -36684,10 +36684,10 @@
         <v>3.9424087504372949</v>
       </c>
       <c r="W139" s="17">
-        <v>12.062817374360364</v>
+        <v>11.825339937043466</v>
       </c>
       <c r="X139" s="17">
-        <v>-0.90330504281756419</v>
+        <v>-0.41850243791512298</v>
       </c>
       <c r="Y139" s="17"/>
       <c r="Z139" s="10"/>
@@ -36757,7 +36757,7 @@
       <c r="CL139" s="10"/>
       <c r="CM139" s="10"/>
     </row>
-    <row r="140" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="11" t="s">
         <v>12</v>
       </c>
@@ -36825,10 +36825,10 @@
         <v>11.399413359859949</v>
       </c>
       <c r="W140" s="17">
-        <v>1.1811144777436056</v>
+        <v>1.292377118718008</v>
       </c>
       <c r="X140" s="17">
-        <v>9.0210794702417161</v>
+        <v>8.7433001099866345</v>
       </c>
       <c r="Y140" s="17"/>
       <c r="Z140" s="10"/>
@@ -36898,7 +36898,7 @@
       <c r="CL140" s="10"/>
       <c r="CM140" s="10"/>
     </row>
-    <row r="141" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>11</v>
       </c>
@@ -36966,10 +36966,10 @@
         <v>10.584081381212386</v>
       </c>
       <c r="W141" s="17">
-        <v>2.1015102572117428</v>
+        <v>2.6516513602486071</v>
       </c>
       <c r="X141" s="17">
-        <v>-3.5080458005273556</v>
+        <v>-7.6430385656304622</v>
       </c>
       <c r="Y141" s="17"/>
       <c r="Z141" s="10"/>
@@ -37039,7 +37039,7 @@
       <c r="CL141" s="10"/>
       <c r="CM141" s="10"/>
     </row>
-    <row r="142" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>10</v>
       </c>
@@ -37107,10 +37107,10 @@
         <v>37.861161644457184</v>
       </c>
       <c r="W142" s="17">
-        <v>-1.0735391990833421</v>
+        <v>-0.38470497267016412</v>
       </c>
       <c r="X142" s="17">
-        <v>-3.4665952255831201</v>
+        <v>-4.5439632562381433</v>
       </c>
       <c r="Y142" s="17"/>
       <c r="Z142" s="10"/>
@@ -37180,7 +37180,7 @@
       <c r="CL142" s="10"/>
       <c r="CM142" s="10"/>
     </row>
-    <row r="143" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -37248,10 +37248,10 @@
         <v>21.945542613565962</v>
       </c>
       <c r="W143" s="17">
-        <v>-3.9287826498553216</v>
+        <v>-3.499216768978485</v>
       </c>
       <c r="X143" s="17">
-        <v>5.0637946309530122</v>
+        <v>3.8514059199852255</v>
       </c>
       <c r="Y143" s="17"/>
       <c r="Z143" s="10"/>
@@ -37321,7 +37321,7 @@
       <c r="CL143" s="10"/>
       <c r="CM143" s="10"/>
     </row>
-    <row r="144" spans="1:91" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:91" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="11" t="s">
         <v>8</v>
       </c>
@@ -37389,10 +37389,10 @@
         <v>20.267432565752102</v>
       </c>
       <c r="W144" s="17">
-        <v>11.124811460959222</v>
+        <v>10.791797958819643</v>
       </c>
       <c r="X144" s="17">
-        <v>-7.8210069373385522</v>
+        <v>-8.4474996054870246</v>
       </c>
       <c r="Y144" s="17"/>
       <c r="Z144" s="10"/>
@@ -37462,7 +37462,7 @@
       <c r="CL144" s="10"/>
       <c r="CM144" s="10"/>
     </row>
-    <row r="145" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>7</v>
       </c>
@@ -37530,10 +37530,10 @@
         <v>24.402805655902824</v>
       </c>
       <c r="W145" s="17">
-        <v>-0.47603058157750411</v>
+        <v>-0.84227292569930512</v>
       </c>
       <c r="X145" s="17">
-        <v>-3.7849198434225144</v>
+        <v>-3.2496697057904527</v>
       </c>
       <c r="Y145" s="17"/>
       <c r="Z145" s="10"/>
@@ -37603,7 +37603,7 @@
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
     </row>
-    <row r="146" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>6</v>
       </c>
@@ -37671,10 +37671,10 @@
         <v>24.613760627321284</v>
       </c>
       <c r="W146" s="17">
-        <v>3.0147345337004197</v>
+        <v>2.8931233868125616</v>
       </c>
       <c r="X146" s="17">
-        <v>5.864735378783692</v>
+        <v>4.0670352984784728</v>
       </c>
       <c r="Y146" s="17"/>
       <c r="Z146" s="10"/>
@@ -37744,7 +37744,7 @@
       <c r="CL146" s="10"/>
       <c r="CM146" s="10"/>
     </row>
-    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -37812,10 +37812,10 @@
         <v>7.9744645586305296</v>
       </c>
       <c r="W147" s="17">
-        <v>24.032311954051806</v>
+        <v>22.948822492405057</v>
       </c>
       <c r="X147" s="17">
-        <v>-6.1509221384814197</v>
+        <v>-5.5918457534117323</v>
       </c>
       <c r="Y147" s="17"/>
       <c r="Z147" s="10"/>
@@ -37885,7 +37885,7 @@
       <c r="CL147" s="10"/>
       <c r="CM147" s="10"/>
     </row>
-    <row r="148" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
@@ -37953,10 +37953,10 @@
         <v>-3.7630876346070607</v>
       </c>
       <c r="W148" s="17">
-        <v>11.750421791075325</v>
+        <v>10.999687261895957</v>
       </c>
       <c r="X148" s="17">
-        <v>13.139854918277479</v>
+        <v>13.499606344464382</v>
       </c>
       <c r="Y148" s="17"/>
       <c r="Z148" s="10"/>
@@ -38026,7 +38026,7 @@
       <c r="CL148" s="10"/>
       <c r="CM148" s="10"/>
     </row>
-    <row r="149" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>3</v>
       </c>
@@ -38094,10 +38094,10 @@
         <v>17.26949215765589</v>
       </c>
       <c r="W149" s="17">
-        <v>-0.4778798527650423</v>
+        <v>0.73035633103324926</v>
       </c>
       <c r="X149" s="17">
-        <v>-13.486996720874828</v>
+        <v>-12.204918477568611</v>
       </c>
       <c r="Y149" s="17"/>
       <c r="Z149" s="10"/>
@@ -38167,7 +38167,7 @@
       <c r="CL149" s="10"/>
       <c r="CM149" s="10"/>
     </row>
-    <row r="150" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>2</v>
       </c>
@@ -38235,10 +38235,10 @@
         <v>14.531144591335803</v>
       </c>
       <c r="W150" s="17">
-        <v>4.9929645393674633</v>
+        <v>5.4743507835661092</v>
       </c>
       <c r="X150" s="17">
-        <v>9.9997929368234679</v>
+        <v>12.663613117585655</v>
       </c>
       <c r="Y150" s="17"/>
       <c r="Z150" s="10"/>
@@ -38308,7 +38308,7 @@
       <c r="CL150" s="10"/>
       <c r="CM150" s="10"/>
     </row>
-    <row r="151" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -38401,7 +38401,7 @@
       <c r="CL151" s="10"/>
       <c r="CM151" s="10"/>
     </row>
-    <row r="152" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="11" t="s">
         <v>1</v>
       </c>
@@ -38469,10 +38469,10 @@
         <v>8.8823603584839788</v>
       </c>
       <c r="W152" s="17">
-        <v>4.8918928148852245</v>
+        <v>4.8568516813804194</v>
       </c>
       <c r="X152" s="17">
-        <v>1.2974470435710259</v>
+        <v>1.3431534562055418</v>
       </c>
       <c r="Y152" s="17"/>
       <c r="Z152" s="10"/>
@@ -38542,7 +38542,7 @@
       <c r="CL152" s="10"/>
       <c r="CM152" s="10"/>
     </row>
-    <row r="153" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -38569,12 +38569,12 @@
       <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A154" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -38667,7 +38667,7 @@
       <c r="CL155" s="10"/>
       <c r="CM155" s="10"/>
     </row>
-    <row r="156" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -38761,32 +38761,32 @@
       <c r="CM156" s="10"/>
       <c r="CN156" s="10"/>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="160" spans="1:92" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="162" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="1" t="s">
         <v>25</v>
@@ -38815,7 +38815,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
     </row>
-    <row r="165" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>24</v>
       </c>
@@ -38892,10 +38892,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="166" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
     </row>
-    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>23</v>
       </c>
@@ -38966,10 +38966,10 @@
         <v>102.04548805273161</v>
       </c>
       <c r="X167" s="17">
-        <v>110.6006806516052</v>
+        <v>110.58400960334305</v>
       </c>
       <c r="Y167" s="17">
-        <v>114.15577927771261</v>
+        <v>115.33723714725726</v>
       </c>
       <c r="Z167" s="10"/>
       <c r="AA167" s="10"/>
@@ -39043,7 +39043,7 @@
       <c r="CQ167" s="10"/>
       <c r="CR167" s="10"/>
     </row>
-    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>22</v>
       </c>
@@ -39114,10 +39114,10 @@
         <v>109.43165940813779</v>
       </c>
       <c r="X168" s="17">
-        <v>109.12532711068961</v>
+        <v>109.12366021211702</v>
       </c>
       <c r="Y168" s="17">
-        <v>121.54064061394618</v>
+        <v>121.51844160617765</v>
       </c>
       <c r="Z168" s="10"/>
       <c r="AA168" s="10"/>
@@ -39191,7 +39191,7 @@
       <c r="CQ168" s="10"/>
       <c r="CR168" s="10"/>
     </row>
-    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>21</v>
       </c>
@@ -39262,10 +39262,10 @@
         <v>93.858132133471585</v>
       </c>
       <c r="X169" s="17">
-        <v>96.306013432501658</v>
+        <v>96.275278961923632</v>
       </c>
       <c r="Y169" s="17">
-        <v>101.61102645343227</v>
+        <v>101.57436000803111</v>
       </c>
       <c r="Z169" s="10"/>
       <c r="AA169" s="10"/>
@@ -39339,7 +39339,7 @@
       <c r="CQ169" s="10"/>
       <c r="CR169" s="10"/>
     </row>
-    <row r="170" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>20</v>
       </c>
@@ -39410,10 +39410,10 @@
         <v>98.539864005124727</v>
       </c>
       <c r="X170" s="17">
-        <v>98.2467764357134</v>
+        <v>98.24680906898287</v>
       </c>
       <c r="Y170" s="17">
-        <v>100.27394704940382</v>
+        <v>99.680758585844927</v>
       </c>
       <c r="Z170" s="10"/>
       <c r="AA170" s="10"/>
@@ -39487,7 +39487,7 @@
       <c r="CQ170" s="10"/>
       <c r="CR170" s="10"/>
     </row>
-    <row r="171" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>19</v>
       </c>
@@ -39558,10 +39558,10 @@
         <v>81.957748204263069</v>
       </c>
       <c r="X171" s="17">
-        <v>82.60008987914091</v>
+        <v>82.48790139154957</v>
       </c>
       <c r="Y171" s="17">
-        <v>83.529761919413772</v>
+        <v>83.379335320570888</v>
       </c>
       <c r="Z171" s="10"/>
       <c r="AA171" s="10"/>
@@ -39635,7 +39635,7 @@
       <c r="CQ171" s="10"/>
       <c r="CR171" s="10"/>
     </row>
-    <row r="172" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="11" t="s">
         <v>18</v>
       </c>
@@ -39706,10 +39706,10 @@
         <v>89.181223442103061</v>
       </c>
       <c r="X172" s="17">
-        <v>90.722738392181952</v>
+        <v>90.772997836655463</v>
       </c>
       <c r="Y172" s="17">
-        <v>94.182185659334834</v>
+        <v>94.6987320066183</v>
       </c>
       <c r="Z172" s="10"/>
       <c r="AA172" s="10"/>
@@ -39783,7 +39783,7 @@
       <c r="CQ172" s="10"/>
       <c r="CR172" s="10"/>
     </row>
-    <row r="173" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="11" t="s">
         <v>17</v>
       </c>
@@ -39854,10 +39854,10 @@
         <v>78.757294168083831</v>
       </c>
       <c r="X173" s="17">
-        <v>69.266716983908353</v>
+        <v>69.258385935585906</v>
       </c>
       <c r="Y173" s="17">
-        <v>68.915694815607054</v>
+        <v>69.598106862560797</v>
       </c>
       <c r="Z173" s="10"/>
       <c r="AA173" s="10"/>
@@ -39931,7 +39931,7 @@
       <c r="CQ173" s="10"/>
       <c r="CR173" s="10"/>
     </row>
-    <row r="174" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>16</v>
       </c>
@@ -40002,10 +40002,10 @@
         <v>85.984468556741561</v>
       </c>
       <c r="X174" s="17">
-        <v>87.854015449927346</v>
+        <v>87.807175709430425</v>
       </c>
       <c r="Y174" s="17">
-        <v>90.793536092420482</v>
+        <v>90.675294345138752</v>
       </c>
       <c r="Z174" s="10"/>
       <c r="AA174" s="10"/>
@@ -40079,7 +40079,7 @@
       <c r="CQ174" s="10"/>
       <c r="CR174" s="10"/>
     </row>
-    <row r="175" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -40150,10 +40150,10 @@
         <v>109.82045213161634</v>
       </c>
       <c r="X175" s="17">
-        <v>99.484211324564015</v>
+        <v>99.547624751122811</v>
       </c>
       <c r="Y175" s="17">
-        <v>102.42963915512024</v>
+        <v>102.89344146538338</v>
       </c>
       <c r="Z175" s="10"/>
       <c r="AA175" s="10"/>
@@ -40227,7 +40227,7 @@
       <c r="CQ175" s="10"/>
       <c r="CR175" s="10"/>
     </row>
-    <row r="176" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>14</v>
       </c>
@@ -40298,10 +40298,10 @@
         <v>86.816280907309348</v>
       </c>
       <c r="X176" s="17">
-        <v>106.18976893240963</v>
+        <v>106.25729337043168</v>
       </c>
       <c r="Y176" s="17">
-        <v>99.316899484035872</v>
+        <v>99.778293945857385</v>
       </c>
       <c r="Z176" s="10"/>
       <c r="AA176" s="10"/>
@@ -40375,7 +40375,7 @@
       <c r="CQ176" s="10"/>
       <c r="CR176" s="10"/>
     </row>
-    <row r="177" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>13</v>
       </c>
@@ -40446,10 +40446,10 @@
         <v>93.666711846016398</v>
       </c>
       <c r="X177" s="17">
-        <v>101.16794073157888</v>
+        <v>101.10945484529559</v>
       </c>
       <c r="Y177" s="17">
-        <v>96.739458531061899</v>
+        <v>96.546464160758134</v>
       </c>
       <c r="Z177" s="10"/>
       <c r="AA177" s="10"/>
@@ -40523,7 +40523,7 @@
       <c r="CQ177" s="10"/>
       <c r="CR177" s="10"/>
     </row>
-    <row r="178" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="11" t="s">
         <v>12</v>
       </c>
@@ -40594,10 +40594,10 @@
         <v>73.369879634671804</v>
       </c>
       <c r="X178" s="17">
-        <v>71.377569168944362</v>
+        <v>71.345991130019655</v>
       </c>
       <c r="Y178" s="17">
-        <v>70.157534168324858</v>
+        <v>70.164642079652779</v>
       </c>
       <c r="Z178" s="10"/>
       <c r="AA178" s="10"/>
@@ -40671,7 +40671,7 @@
       <c r="CQ178" s="10"/>
       <c r="CR178" s="10"/>
     </row>
-    <row r="179" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>11</v>
       </c>
@@ -40742,10 +40742,10 @@
         <v>109.09532682983381</v>
       </c>
       <c r="X179" s="17">
-        <v>108.08349751817276</v>
+        <v>108.1283153053312</v>
       </c>
       <c r="Y179" s="17">
-        <v>115.33588579279154</v>
+        <v>115.34004393670003</v>
       </c>
       <c r="Z179" s="10"/>
       <c r="AA179" s="10"/>
@@ -40819,7 +40819,7 @@
       <c r="CQ179" s="10"/>
       <c r="CR179" s="10"/>
     </row>
-    <row r="180" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>10</v>
       </c>
@@ -40890,10 +40890,10 @@
         <v>99.560738540491329</v>
       </c>
       <c r="X180" s="17">
-        <v>104.53554647183338</v>
+        <v>104.60438090586075</v>
       </c>
       <c r="Y180" s="17">
-        <v>104.22278270857062</v>
+        <v>104.17930286374826</v>
       </c>
       <c r="Z180" s="10"/>
       <c r="AA180" s="10"/>
@@ -40967,7 +40967,7 @@
       <c r="CQ180" s="10"/>
       <c r="CR180" s="10"/>
     </row>
-    <row r="181" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>9</v>
       </c>
@@ -41038,10 +41038,10 @@
         <v>70.439132708898498</v>
       </c>
       <c r="X181" s="17">
-        <v>76.055601675944374</v>
+        <v>76.091104036265335</v>
       </c>
       <c r="Y181" s="17">
-        <v>71.762441642946413</v>
+        <v>71.325193478596006</v>
       </c>
       <c r="Z181" s="10"/>
       <c r="AA181" s="10"/>
@@ -41115,7 +41115,7 @@
       <c r="CQ181" s="10"/>
       <c r="CR181" s="10"/>
     </row>
-    <row r="182" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="11" t="s">
         <v>8</v>
       </c>
@@ -41186,10 +41186,10 @@
         <v>99.934682228257813</v>
       </c>
       <c r="X182" s="17">
-        <v>92.897338340786746</v>
+        <v>92.832024604082235</v>
       </c>
       <c r="Y182" s="17">
-        <v>98.112868219505756</v>
+        <v>98.118305685997299</v>
       </c>
       <c r="Z182" s="10"/>
       <c r="AA182" s="10"/>
@@ -41263,7 +41263,7 @@
       <c r="CQ182" s="10"/>
       <c r="CR182" s="10"/>
     </row>
-    <row r="183" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>7</v>
       </c>
@@ -41334,10 +41334,10 @@
         <v>85.724727862065137</v>
       </c>
       <c r="X183" s="17">
-        <v>86.145548461636537</v>
+        <v>86.155145952381119</v>
       </c>
       <c r="Y183" s="17">
-        <v>89.328350019469909</v>
+        <v>89.36908548902413</v>
       </c>
       <c r="Z183" s="10"/>
       <c r="AA183" s="10"/>
@@ -41411,7 +41411,7 @@
       <c r="CQ183" s="10"/>
       <c r="CR183" s="10"/>
     </row>
-    <row r="184" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>6</v>
       </c>
@@ -41482,10 +41482,10 @@
         <v>98.986298957039864</v>
       </c>
       <c r="X184" s="17">
-        <v>96.686061177425074</v>
+        <v>96.678848480239026</v>
       </c>
       <c r="Y184" s="17">
-        <v>95.555420293492816</v>
+        <v>95.780484774160385</v>
       </c>
       <c r="Z184" s="10"/>
       <c r="AA184" s="10"/>
@@ -41559,7 +41559,7 @@
       <c r="CQ184" s="10"/>
       <c r="CR184" s="10"/>
     </row>
-    <row r="185" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
@@ -41630,10 +41630,10 @@
         <v>90.795302768366298</v>
       </c>
       <c r="X185" s="17">
-        <v>90.588688307321902</v>
+        <v>90.565163336276981</v>
       </c>
       <c r="Y185" s="17">
-        <v>91.203512606495948</v>
+        <v>90.591199209995096</v>
       </c>
       <c r="Z185" s="10"/>
       <c r="AA185" s="10"/>
@@ -41707,7 +41707,7 @@
       <c r="CQ185" s="10"/>
       <c r="CR185" s="10"/>
     </row>
-    <row r="186" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>4</v>
       </c>
@@ -41778,10 +41778,10 @@
         <v>82.575479187039434</v>
       </c>
       <c r="X186" s="17">
-        <v>84.371073821491706</v>
+        <v>84.385712779896707</v>
       </c>
       <c r="Y186" s="17">
-        <v>82.749132076747742</v>
+        <v>82.746878997804956</v>
       </c>
       <c r="Z186" s="10"/>
       <c r="AA186" s="10"/>
@@ -41855,7 +41855,7 @@
       <c r="CQ186" s="10"/>
       <c r="CR186" s="10"/>
     </row>
-    <row r="187" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>3</v>
       </c>
@@ -41926,10 +41926,10 @@
         <v>94.49434489481331</v>
       </c>
       <c r="X187" s="17">
-        <v>92.665888171808604</v>
+        <v>92.863841917912325</v>
       </c>
       <c r="Y187" s="17">
-        <v>97.88604216676157</v>
+        <v>97.192150837690491</v>
       </c>
       <c r="Z187" s="10"/>
       <c r="AA187" s="10"/>
@@ -42003,7 +42003,7 @@
       <c r="CQ187" s="10"/>
       <c r="CR187" s="10"/>
     </row>
-    <row r="188" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>2</v>
       </c>
@@ -42074,10 +42074,10 @@
         <v>97.95506040478152</v>
       </c>
       <c r="X188" s="17">
-        <v>91.63653831408989</v>
+        <v>91.663519464041258</v>
       </c>
       <c r="Y188" s="17">
-        <v>92.002741334539763</v>
+        <v>92.146506979889068</v>
       </c>
       <c r="Z188" s="10"/>
       <c r="AA188" s="10"/>
@@ -42151,7 +42151,7 @@
       <c r="CQ188" s="10"/>
       <c r="CR188" s="10"/>
     </row>
-    <row r="189" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -42249,7 +42249,7 @@
       <c r="CQ189" s="10"/>
       <c r="CR189" s="10"/>
     </row>
-    <row r="190" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="11" t="s">
         <v>1</v>
       </c>
@@ -42320,10 +42320,10 @@
         <v>96.277795866955771</v>
       </c>
       <c r="X190" s="17">
-        <v>101.78268322849331</v>
+        <v>101.77462852276398</v>
       </c>
       <c r="Y190" s="17">
-        <v>103.80255422061886</v>
+        <v>104.35911383897609</v>
       </c>
       <c r="Z190" s="10"/>
       <c r="AA190" s="10"/>
@@ -42397,7 +42397,7 @@
       <c r="CQ190" s="10"/>
       <c r="CR190" s="10"/>
     </row>
-    <row r="191" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -42424,42 +42424,42 @@
       <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
     </row>
-    <row r="192" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="199" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="1" t="s">
         <v>25</v>
@@ -42488,7 +42488,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>24</v>
       </c>
@@ -42565,10 +42565,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="205" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="8"/>
     </row>
-    <row r="206" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -42639,10 +42639,10 @@
         <v>50.490382839274773</v>
       </c>
       <c r="X206" s="17">
-        <v>51.740990085327439</v>
+        <v>51.736118423693576</v>
       </c>
       <c r="Y206" s="17">
-        <v>52.866572993593138</v>
+        <v>53.152074846440023</v>
       </c>
       <c r="Z206" s="10"/>
       <c r="AA206" s="10"/>
@@ -42716,7 +42716,7 @@
       <c r="CQ206" s="10"/>
       <c r="CR206" s="10"/>
     </row>
-    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>22</v>
       </c>
@@ -42787,10 +42787,10 @@
         <v>4.6906208189487266</v>
       </c>
       <c r="X207" s="17">
-        <v>4.4134473260858922</v>
+        <v>4.4139968392484397</v>
       </c>
       <c r="Y207" s="17">
-        <v>4.7985095068180739</v>
+        <v>4.7373684219056873</v>
       </c>
       <c r="Z207" s="10"/>
       <c r="AA207" s="10"/>
@@ -42864,7 +42864,7 @@
       <c r="CQ207" s="10"/>
       <c r="CR207" s="10"/>
     </row>
-    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>21</v>
       </c>
@@ -42935,10 +42935,10 @@
         <v>0.48751259657609108</v>
       </c>
       <c r="X208" s="17">
-        <v>0.40007372379701756</v>
+        <v>0.39973420188344505</v>
       </c>
       <c r="Y208" s="17">
-        <v>0.36205287066761044</v>
+        <v>0.35437847365124375</v>
       </c>
       <c r="Z208" s="10"/>
       <c r="AA208" s="10"/>
@@ -43012,7 +43012,7 @@
       <c r="CQ208" s="10"/>
       <c r="CR208" s="10"/>
     </row>
-    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>20</v>
       </c>
@@ -43083,10 +43083,10 @@
         <v>1.1707355177951964</v>
       </c>
       <c r="X209" s="17">
-        <v>1.1564220328916381</v>
+        <v>1.1568643329356123</v>
       </c>
       <c r="Y209" s="17">
-        <v>0.98548145147985633</v>
+        <v>0.99661803756819245</v>
       </c>
       <c r="Z209" s="10"/>
       <c r="AA209" s="10"/>
@@ -43160,7 +43160,7 @@
       <c r="CQ209" s="10"/>
       <c r="CR209" s="10"/>
     </row>
-    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>19</v>
       </c>
@@ -43231,10 +43231,10 @@
         <v>1.5297542209330308</v>
       </c>
       <c r="X210" s="17">
-        <v>1.3755976807616614</v>
+        <v>1.386341475897189</v>
       </c>
       <c r="Y210" s="17">
-        <v>1.0615684867227475</v>
+        <v>1.0557619061076877</v>
       </c>
       <c r="Z210" s="10"/>
       <c r="AA210" s="10"/>
@@ -43308,7 +43308,7 @@
       <c r="CQ210" s="10"/>
       <c r="CR210" s="10"/>
     </row>
-    <row r="211" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="11" t="s">
         <v>18</v>
       </c>
@@ -43379,10 +43379,10 @@
         <v>0.30353176479315108</v>
       </c>
       <c r="X211" s="17">
-        <v>0.31033801998898081</v>
+        <v>0.31282173660579193</v>
       </c>
       <c r="Y211" s="17">
-        <v>0.2778945195056195</v>
+        <v>0.26148372575920714</v>
       </c>
       <c r="Z211" s="10"/>
       <c r="AA211" s="10"/>
@@ -43456,7 +43456,7 @@
       <c r="CQ211" s="10"/>
       <c r="CR211" s="10"/>
     </row>
-    <row r="212" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="11" t="s">
         <v>17</v>
       </c>
@@ -43527,10 +43527,10 @@
         <v>0.86841945840312862</v>
       </c>
       <c r="X212" s="17">
-        <v>0.85358003359143086</v>
+        <v>0.85217226449149863</v>
       </c>
       <c r="Y212" s="17">
-        <v>0.80208193253745308</v>
+        <v>0.77638152931786419</v>
       </c>
       <c r="Z212" s="10"/>
       <c r="AA212" s="10"/>
@@ -43604,7 +43604,7 @@
       <c r="CQ212" s="10"/>
       <c r="CR212" s="10"/>
     </row>
-    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>16</v>
       </c>
@@ -43675,10 +43675,10 @@
         <v>0.68105791531601434</v>
       </c>
       <c r="X213" s="17">
-        <v>0.70437775627257126</v>
+        <v>0.70361894172552919</v>
       </c>
       <c r="Y213" s="17">
-        <v>0.68263990979617373</v>
+        <v>0.68015450206776218</v>
       </c>
       <c r="Z213" s="10"/>
       <c r="AA213" s="10"/>
@@ -43752,7 +43752,7 @@
       <c r="CQ213" s="10"/>
       <c r="CR213" s="10"/>
     </row>
-    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>15</v>
       </c>
@@ -43823,10 +43823,10 @@
         <v>0.94055851877737506</v>
       </c>
       <c r="X214" s="17">
-        <v>0.80127253501402707</v>
+        <v>0.80556977635733895</v>
       </c>
       <c r="Y214" s="17">
-        <v>0.85951677062440046</v>
+        <v>0.8469113241830617</v>
       </c>
       <c r="Z214" s="10"/>
       <c r="AA214" s="10"/>
@@ -43900,7 +43900,7 @@
       <c r="CQ214" s="10"/>
       <c r="CR214" s="10"/>
     </row>
-    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>14</v>
       </c>
@@ -43971,10 +43971,10 @@
         <v>2.5383588254802936</v>
       </c>
       <c r="X215" s="17">
-        <v>2.8005820994733583</v>
+        <v>2.8147005537240966</v>
       </c>
       <c r="Y215" s="17">
-        <v>3.4074480410214649</v>
+        <v>3.4552968500335917</v>
       </c>
       <c r="Z215" s="10"/>
       <c r="AA215" s="10"/>
@@ -44048,7 +44048,7 @@
       <c r="CQ215" s="10"/>
       <c r="CR215" s="10"/>
     </row>
-    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>13</v>
       </c>
@@ -44119,10 +44119,10 @@
         <v>11.353492922098676</v>
       </c>
       <c r="X216" s="17">
-        <v>12.392501690374202</v>
+        <v>12.364199791304458</v>
       </c>
       <c r="Y216" s="17">
-        <v>11.367010330670725</v>
+        <v>11.313682868356373</v>
       </c>
       <c r="Z216" s="10"/>
       <c r="AA216" s="10"/>
@@ -44196,7 +44196,7 @@
       <c r="CQ216" s="10"/>
       <c r="CR216" s="10"/>
     </row>
-    <row r="217" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="11" t="s">
         <v>12</v>
       </c>
@@ -44267,10 +44267,10 @@
         <v>1.1238751319177351</v>
       </c>
       <c r="X217" s="17">
-        <v>0.9976352555650323</v>
+        <v>0.99870308907804506</v>
       </c>
       <c r="Y217" s="17">
-        <v>1.0348137351731079</v>
+        <v>1.027785224226299</v>
       </c>
       <c r="Z217" s="10"/>
       <c r="AA217" s="10"/>
@@ -44344,7 +44344,7 @@
       <c r="CQ217" s="10"/>
       <c r="CR217" s="10"/>
     </row>
-    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>11</v>
       </c>
@@ -44415,10 +44415,10 @@
         <v>1.1444406567385292</v>
       </c>
       <c r="X218" s="17">
-        <v>1.0439723757303894</v>
+        <v>1.0504667402993964</v>
       </c>
       <c r="Y218" s="17">
-        <v>1.0405250263167565</v>
+        <v>0.99588077310669465</v>
       </c>
       <c r="Z218" s="10"/>
       <c r="AA218" s="10"/>
@@ -44492,7 +44492,7 @@
       <c r="CQ218" s="10"/>
       <c r="CR218" s="10"/>
     </row>
-    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>10</v>
       </c>
@@ -44563,10 +44563,10 @@
         <v>2.7031086464451191</v>
       </c>
       <c r="X219" s="17">
-        <v>2.5319911251016185</v>
+        <v>2.5523550677043469</v>
       </c>
       <c r="Y219" s="17">
-        <v>2.3588798974191616</v>
+        <v>2.3350210078148357</v>
       </c>
       <c r="Z219" s="10"/>
       <c r="AA219" s="10"/>
@@ -44640,7 +44640,7 @@
       <c r="CQ219" s="10"/>
       <c r="CR219" s="10"/>
     </row>
-    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>9</v>
       </c>
@@ -44711,10 +44711,10 @@
         <v>2.1134351903288779</v>
       </c>
       <c r="X220" s="17">
-        <v>1.9770140498934867</v>
+        <v>1.9876021488750406</v>
       </c>
       <c r="Y220" s="17">
-        <v>1.8971260773584422</v>
+        <v>1.8619398205467506</v>
       </c>
       <c r="Z220" s="10"/>
       <c r="AA220" s="10"/>
@@ -44788,7 +44788,7 @@
       <c r="CQ220" s="10"/>
       <c r="CR220" s="10"/>
     </row>
-    <row r="221" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="11" t="s">
         <v>8</v>
       </c>
@@ -44859,10 +44859,10 @@
         <v>0.86501551372749641</v>
       </c>
       <c r="X221" s="17">
-        <v>0.80580932658446902</v>
+        <v>0.80316151917823964</v>
       </c>
       <c r="Y221" s="17">
-        <v>0.75937152150489773</v>
+        <v>0.74789400084249669</v>
       </c>
       <c r="Z221" s="10"/>
       <c r="AA221" s="10"/>
@@ -44936,7 +44936,7 @@
       <c r="CQ221" s="10"/>
       <c r="CR221" s="10"/>
     </row>
-    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>7</v>
       </c>
@@ -45007,10 +45007,10 @@
         <v>10.507792554911655</v>
       </c>
       <c r="X222" s="17">
-        <v>9.4771166395938895</v>
+        <v>9.4471967528976375</v>
       </c>
       <c r="Y222" s="17">
-        <v>9.1525729487062399</v>
+        <v>9.1238100967485103</v>
       </c>
       <c r="Z222" s="10"/>
       <c r="AA222" s="10"/>
@@ -45084,7 +45084,7 @@
       <c r="CQ222" s="10"/>
       <c r="CR222" s="10"/>
     </row>
-    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>6</v>
       </c>
@@ -45155,10 +45155,10 @@
         <v>1.5515702362046166</v>
       </c>
       <c r="X223" s="17">
-        <v>1.4078937802050049</v>
+        <v>1.406708049222327</v>
       </c>
       <c r="Y223" s="17">
-        <v>1.4258702929330493</v>
+        <v>1.3956529761198486</v>
       </c>
       <c r="Z223" s="10"/>
       <c r="AA223" s="10"/>
@@ -45232,7 +45232,7 @@
       <c r="CQ223" s="10"/>
       <c r="CR223" s="10"/>
     </row>
-    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -45303,10 +45303,10 @@
         <v>1.0775994810165677</v>
       </c>
       <c r="X224" s="17">
-        <v>1.2025776374396857</v>
+        <v>1.1922555156665766</v>
       </c>
       <c r="Y224" s="17">
-        <v>1.0998870343607787</v>
+        <v>1.083473791437753</v>
       </c>
       <c r="Z224" s="10"/>
       <c r="AA224" s="10"/>
@@ -45380,7 +45380,7 @@
       <c r="CQ224" s="10"/>
       <c r="CR224" s="10"/>
     </row>
-    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>4</v>
       </c>
@@ -45451,10 +45451,10 @@
         <v>1.3373423598623893</v>
       </c>
       <c r="X225" s="17">
-        <v>1.3770336940454597</v>
+        <v>1.3685856312838769</v>
       </c>
       <c r="Y225" s="17">
-        <v>1.4790995693874911</v>
+        <v>1.4657630171716733</v>
       </c>
       <c r="Z225" s="10"/>
       <c r="AA225" s="10"/>
@@ -45528,7 +45528,7 @@
       <c r="CQ225" s="10"/>
       <c r="CR225" s="10"/>
     </row>
-    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>3</v>
       </c>
@@ -45599,10 +45599,10 @@
         <v>0.63224098064905032</v>
       </c>
       <c r="X226" s="17">
-        <v>0.55645065384185277</v>
+        <v>0.5646426000289082</v>
       </c>
       <c r="Y226" s="17">
-        <v>0.49223929211369188</v>
+        <v>0.49927877324809444</v>
       </c>
       <c r="Z226" s="10"/>
       <c r="AA226" s="10"/>
@@ -45676,7 +45676,7 @@
       <c r="CQ226" s="10"/>
       <c r="CR226" s="10"/>
     </row>
-    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>2</v>
       </c>
@@ -45747,10 +45747,10 @@
         <v>1.889153849801519</v>
       </c>
       <c r="X227" s="17">
-        <v>1.6733224784208904</v>
+        <v>1.6821845478986321</v>
       </c>
       <c r="Y227" s="17">
-        <v>1.7888377912891087</v>
+        <v>1.8333880333463271</v>
       </c>
       <c r="Z227" s="10"/>
       <c r="AA227" s="10"/>
@@ -45824,7 +45824,7 @@
       <c r="CQ227" s="10"/>
       <c r="CR227" s="10"/>
     </row>
-    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -45922,7 +45922,7 @@
       <c r="CQ228" s="10"/>
       <c r="CR228" s="10"/>
     </row>
-    <row r="229" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="11" t="s">
         <v>1</v>
       </c>
@@ -46070,7 +46070,7 @@
       <c r="CQ229" s="10"/>
       <c r="CR229" s="10"/>
     </row>
-    <row r="230" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -46097,12 +46097,12 @@
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
     </row>
-    <row r="231" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A231" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -46200,7 +46200,7 @@
       <c r="CQ232" s="10"/>
       <c r="CR232" s="10"/>
     </row>
-    <row r="233" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -46298,37 +46298,37 @@
       <c r="CQ233" s="10"/>
       <c r="CR233" s="10"/>
     </row>
-    <row r="234" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="1" t="s">
         <v>25</v>
@@ -46357,7 +46357,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A243" s="7" t="s">
         <v>24</v>
       </c>
@@ -46434,10 +46434,10 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="244" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="8"/>
     </row>
-    <row r="245" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>23</v>
       </c>
@@ -46508,10 +46508,10 @@
         <v>47.636626224298979</v>
       </c>
       <c r="X245" s="17">
-        <v>47.615772097936578</v>
+        <v>47.614698116552667</v>
       </c>
       <c r="Y245" s="17">
-        <v>48.071900908981434</v>
+        <v>48.092910554077015</v>
       </c>
       <c r="Z245" s="10"/>
       <c r="AA245" s="10"/>
@@ -46585,7 +46585,7 @@
       <c r="CQ245" s="10"/>
       <c r="CR245" s="10"/>
     </row>
-    <row r="246" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>22</v>
       </c>
@@ -46656,10 +46656,10 @@
         <v>4.1268005633701952</v>
       </c>
       <c r="X246" s="17">
-        <v>4.1164826079374706</v>
+        <v>4.1167322260079571</v>
       </c>
       <c r="Y246" s="17">
-        <v>4.0981974485535497</v>
+        <v>4.0684159861188753</v>
       </c>
       <c r="Z246" s="10"/>
       <c r="AA246" s="10"/>
@@ -46733,7 +46733,7 @@
       <c r="CQ246" s="10"/>
       <c r="CR246" s="10"/>
     </row>
-    <row r="247" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>21</v>
       </c>
@@ -46804,10 +46804,10 @@
         <v>0.50008067696228919</v>
       </c>
       <c r="X247" s="17">
-        <v>0.42282486467800412</v>
+        <v>0.42256745805557211</v>
       </c>
       <c r="Y247" s="17">
-        <v>0.36986155981239843</v>
+        <v>0.36409408310255326</v>
       </c>
       <c r="Z247" s="10"/>
       <c r="AA247" s="10"/>
@@ -46881,7 +46881,7 @@
       <c r="CQ247" s="10"/>
       <c r="CR247" s="10"/>
     </row>
-    <row r="248" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>20</v>
       </c>
@@ -46952,10 +46952,10 @@
         <v>1.1438602674610827</v>
       </c>
       <c r="X248" s="17">
-        <v>1.1980417243437795</v>
+        <v>1.1984046998726212</v>
       </c>
       <c r="Y248" s="17">
-        <v>1.0201602191868655</v>
+        <v>1.0433926939569382</v>
       </c>
       <c r="Z248" s="10"/>
       <c r="AA248" s="10"/>
@@ -47029,7 +47029,7 @@
       <c r="CQ248" s="10"/>
       <c r="CR248" s="10"/>
     </row>
-    <row r="249" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>19</v>
       </c>
@@ -47100,10 +47100,10 @@
         <v>1.7970401558927089</v>
       </c>
       <c r="X249" s="17">
-        <v>1.6950589665904421</v>
+        <v>1.7104858571367547</v>
       </c>
       <c r="Y249" s="17">
-        <v>1.3192126718647741</v>
+        <v>1.3214110729324076</v>
       </c>
       <c r="Z249" s="10"/>
       <c r="AA249" s="10"/>
@@ -47177,7 +47177,7 @@
       <c r="CQ249" s="10"/>
       <c r="CR249" s="10"/>
     </row>
-    <row r="250" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="11" t="s">
         <v>18</v>
       </c>
@@ -47248,10 +47248,10 @@
         <v>0.32768522522976828</v>
       </c>
       <c r="X250" s="17">
-        <v>0.34817110839125948</v>
+        <v>0.35073553584945077</v>
       </c>
       <c r="Y250" s="17">
-        <v>0.30628043643979519</v>
+        <v>0.28815813396147255</v>
       </c>
       <c r="Z250" s="10"/>
       <c r="AA250" s="10"/>
@@ -47325,7 +47325,7 @@
       <c r="CQ250" s="10"/>
       <c r="CR250" s="10"/>
     </row>
-    <row r="251" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11" t="s">
         <v>17</v>
       </c>
@@ -47396,10 +47396,10 @@
         <v>1.0616097496263555</v>
       </c>
       <c r="X251" s="17">
-        <v>1.2542772337454176</v>
+        <v>1.2522601340534856</v>
       </c>
       <c r="Y251" s="17">
-        <v>1.2081159961365231</v>
+        <v>1.1641478777657113</v>
       </c>
       <c r="Z251" s="10"/>
       <c r="AA251" s="10"/>
@@ -47473,7 +47473,7 @@
       <c r="CQ251" s="10"/>
       <c r="CR251" s="10"/>
     </row>
-    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -47544,10 +47544,10 @@
         <v>0.7625883609561328</v>
       </c>
       <c r="X252" s="17">
-        <v>0.81605214824528849</v>
+        <v>0.81554332931363294</v>
       </c>
       <c r="Y252" s="17">
-        <v>0.78044946038500107</v>
+        <v>0.78279669916712069</v>
       </c>
       <c r="Z252" s="10"/>
       <c r="AA252" s="10"/>
@@ -47621,7 +47621,7 @@
       <c r="CQ252" s="10"/>
       <c r="CR252" s="10"/>
     </row>
-    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -47692,10 +47692,10 @@
         <v>0.8245722842521831</v>
       </c>
       <c r="X253" s="17">
-        <v>0.8197850445328636</v>
+        <v>0.82359137089315115</v>
       </c>
       <c r="Y253" s="17">
-        <v>0.87103729860021317</v>
+        <v>0.85897520807167238</v>
       </c>
       <c r="Z253" s="10"/>
       <c r="AA253" s="10"/>
@@ -47769,7 +47769,7 @@
       <c r="CQ253" s="10"/>
       <c r="CR253" s="10"/>
     </row>
-    <row r="254" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>14</v>
       </c>
@@ -47840,10 +47840,10 @@
         <v>2.8149972595301707</v>
       </c>
       <c r="X254" s="17">
-        <v>2.6843523962042135</v>
+        <v>2.6959570884176403</v>
       </c>
       <c r="Y254" s="17">
-        <v>3.561345670974414</v>
+        <v>3.6139294736366074</v>
       </c>
       <c r="Z254" s="10"/>
       <c r="AA254" s="10"/>
@@ -47917,7 +47917,7 @@
       <c r="CQ254" s="10"/>
       <c r="CR254" s="10"/>
     </row>
-    <row r="255" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>13</v>
       </c>
@@ -47988,10 +47988,10 @@
         <v>11.669986619448432</v>
       </c>
       <c r="X255" s="17">
-        <v>12.467804176290857</v>
+        <v>12.445540752510507</v>
       </c>
       <c r="Y255" s="17">
-        <v>12.196933124211387</v>
+        <v>12.229198952650746</v>
       </c>
       <c r="Z255" s="10"/>
       <c r="AA255" s="10"/>
@@ -48065,7 +48065,7 @@
       <c r="CQ255" s="10"/>
       <c r="CR255" s="10"/>
     </row>
-    <row r="256" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="11" t="s">
         <v>12</v>
       </c>
@@ -48136,10 +48136,10 @@
         <v>1.4747771301997681</v>
       </c>
       <c r="X256" s="17">
-        <v>1.4226036887640676</v>
+        <v>1.4246439678751284</v>
       </c>
       <c r="Y256" s="17">
-        <v>1.531073036230578</v>
+        <v>1.5286724486570731</v>
       </c>
       <c r="Z256" s="10"/>
       <c r="AA256" s="10"/>
@@ -48213,7 +48213,7 @@
       <c r="CQ256" s="10"/>
       <c r="CR256" s="10"/>
     </row>
-    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>11</v>
       </c>
@@ -48284,10 +48284,10 @@
         <v>1.0099811525674383</v>
       </c>
       <c r="X257" s="17">
-        <v>0.98311316767296431</v>
+        <v>0.98874066397498639</v>
       </c>
       <c r="Y257" s="17">
-        <v>0.93647484232445632</v>
+        <v>0.90106810630076284</v>
       </c>
       <c r="Z257" s="10"/>
       <c r="AA257" s="10"/>
@@ -48361,7 +48361,7 @@
       <c r="CQ257" s="10"/>
       <c r="CR257" s="10"/>
     </row>
-    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>10</v>
       </c>
@@ -48432,10 +48432,10 @@
         <v>2.6139756121114242</v>
       </c>
       <c r="X258" s="17">
-        <v>2.4653130855638081</v>
+        <v>2.4833088884449386</v>
       </c>
       <c r="Y258" s="17">
-        <v>2.3493688432447204</v>
+        <v>2.3390511980066608</v>
       </c>
       <c r="Z258" s="10"/>
       <c r="AA258" s="10"/>
@@ -48509,7 +48509,7 @@
       <c r="CQ258" s="10"/>
       <c r="CR258" s="10"/>
     </row>
-    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>9</v>
       </c>
@@ -48580,10 +48580,10 @@
         <v>2.8886909024480296</v>
       </c>
       <c r="X259" s="17">
-        <v>2.6457721764659334</v>
+        <v>2.6584904098170745</v>
       </c>
       <c r="Y259" s="17">
-        <v>2.7441448200460692</v>
+        <v>2.7242882944589799</v>
       </c>
       <c r="Z259" s="10"/>
       <c r="AA259" s="10"/>
@@ -48657,7 +48657,7 @@
       <c r="CQ259" s="10"/>
       <c r="CR259" s="10"/>
     </row>
-    <row r="260" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="11" t="s">
         <v>8</v>
       </c>
@@ -48728,10 +48728,10 @@
         <v>0.83336220414634776</v>
       </c>
       <c r="X260" s="17">
-        <v>0.88288251197723089</v>
+        <v>0.88053089014014219</v>
       </c>
       <c r="Y260" s="17">
-        <v>0.80340841079330416</v>
+        <v>0.79546374784728924</v>
       </c>
       <c r="Z260" s="10"/>
       <c r="AA260" s="10"/>
@@ -48805,7 +48805,7 @@
       <c r="CQ260" s="10"/>
       <c r="CR260" s="10"/>
     </row>
-    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>7</v>
       </c>
@@ -48876,10 +48876,10 @@
         <v>11.801345210939822</v>
       </c>
       <c r="X261" s="17">
-        <v>11.197402281057379</v>
+        <v>11.159924685625189</v>
       </c>
       <c r="Y261" s="17">
-        <v>10.635598324151006</v>
+        <v>10.654162245497252</v>
       </c>
       <c r="Z261" s="10"/>
       <c r="AA261" s="10"/>
@@ -48953,7 +48953,7 @@
       <c r="CQ261" s="10"/>
       <c r="CR261" s="10"/>
     </row>
-    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>6</v>
       </c>
@@ -49024,10 +49024,10 @@
         <v>1.5091155447622528</v>
       </c>
       <c r="X262" s="17">
-        <v>1.482108226407205</v>
+        <v>1.480853272459564</v>
       </c>
       <c r="Y262" s="17">
-        <v>1.5489333618035663</v>
+        <v>1.5206553627079806</v>
       </c>
       <c r="Z262" s="10"/>
       <c r="AA262" s="10"/>
@@ -49101,7 +49101,7 @@
       <c r="CQ262" s="10"/>
       <c r="CR262" s="10"/>
     </row>
-    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>5</v>
       </c>
@@ -49172,10 +49172,10 @@
         <v>1.1426681744135052</v>
       </c>
       <c r="X263" s="17">
-        <v>1.3511795017270405</v>
+        <v>1.3398238101843902</v>
       </c>
       <c r="Y263" s="17">
-        <v>1.251827701125829</v>
+        <v>1.248138513765521</v>
       </c>
       <c r="Z263" s="10"/>
       <c r="AA263" s="10"/>
@@ -49249,7 +49249,7 @@
       <c r="CQ263" s="10"/>
       <c r="CR263" s="10"/>
     </row>
-    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>4</v>
       </c>
@@ -49320,10 +49320,10 @@
         <v>1.5592567671986681</v>
       </c>
       <c r="X264" s="17">
-        <v>1.6612113361568801</v>
+        <v>1.650602805107686</v>
       </c>
       <c r="Y264" s="17">
-        <v>1.8554190164392277</v>
+        <v>1.8485981758180572</v>
       </c>
       <c r="Z264" s="10"/>
       <c r="AA264" s="10"/>
@@ -49397,7 +49397,7 @@
       <c r="CQ264" s="10"/>
       <c r="CR264" s="10"/>
     </row>
-    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>3</v>
       </c>
@@ -49468,10 +49468,10 @@
         <v>0.64417366077739036</v>
       </c>
       <c r="X265" s="17">
-        <v>0.61119622063368684</v>
+        <v>0.61882310358069714</v>
       </c>
       <c r="Y265" s="17">
-        <v>0.52199164128121966</v>
+        <v>0.53609566087075944</v>
       </c>
       <c r="Z265" s="10"/>
       <c r="AA265" s="10"/>
@@ -49545,7 +49545,7 @@
       <c r="CQ265" s="10"/>
       <c r="CR265" s="10"/>
     </row>
-    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>2</v>
       </c>
@@ -49616,10 +49616,10 @@
         <v>1.8568062534070562</v>
       </c>
       <c r="X266" s="17">
-        <v>1.8585954346776477</v>
+        <v>1.8677409341267832</v>
       </c>
       <c r="Y266" s="17">
-        <v>2.0182652074136556</v>
+        <v>2.0763755106285657</v>
       </c>
       <c r="Z266" s="10"/>
       <c r="AA266" s="10"/>
@@ -49693,7 +49693,7 @@
       <c r="CQ266" s="10"/>
       <c r="CR266" s="10"/>
     </row>
-    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -49791,7 +49791,7 @@
       <c r="CQ267" s="10"/>
       <c r="CR267" s="10"/>
     </row>
-    <row r="268" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="11" t="s">
         <v>1</v>
       </c>
@@ -49939,7 +49939,7 @@
       <c r="CQ268" s="10"/>
       <c r="CR268" s="10"/>
     </row>
-    <row r="269" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -49966,12 +49966,12 @@
       <c r="X269" s="13"/>
       <c r="Y269" s="13"/>
     </row>
-    <row r="270" spans="1:96" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A270" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
@@ -50069,7 +50069,7 @@
       <c r="CQ271" s="18"/>
       <c r="CR271" s="18"/>
     </row>
-    <row r="272" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>

--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2024\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19481E0C-324E-442D-B75B-18A970246D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4331CC6-2FF1-4313-8E68-F49DD964EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$Y$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$Z$272</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="70">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -667,13 +667,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Annual 2000 to 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2001 to 2023</t>
+    <t>Annual 2000 to 2024</t>
   </si>
   <si>
-    <t>As of April 2024</t>
+    <t>Annual 2001 to 2024</t>
+  </si>
+  <si>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -754,10 +757,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -795,10 +799,11 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{CFE876A0-2AE9-403A-B28D-216C16ED63DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23627,49 +23632,49 @@
   <dimension ref="A1:CR272"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.6328125" style="3" customWidth="1"/>
-    <col min="2" max="25" width="10.1796875" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="7.81640625" style="3"/>
+    <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
+    <col min="2" max="26" width="10.21875" style="3" customWidth="1"/>
+    <col min="27" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>25</v>
@@ -23697,8 +23702,9 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
@@ -23774,11 +23780,14 @@
       <c r="Y10" s="7">
         <v>2023</v>
       </c>
+      <c r="Z10" s="7">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
     </row>
-    <row r="12" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>23</v>
       </c>
@@ -23854,7 +23863,9 @@
       <c r="Y12" s="9">
         <v>2096310.6648876839</v>
       </c>
-      <c r="Z12" s="10"/>
+      <c r="Z12" s="9">
+        <v>2213700.9745257832</v>
+      </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
@@ -23926,7 +23937,7 @@
       <c r="CQ12" s="10"/>
       <c r="CR12" s="10"/>
     </row>
-    <row r="13" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -24002,7 +24013,9 @@
       <c r="Y13" s="9">
         <v>186841.17177051614</v>
       </c>
-      <c r="Z13" s="10"/>
+      <c r="Z13" s="9">
+        <v>204915.00009854208</v>
+      </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
@@ -24074,7 +24087,7 @@
       <c r="CQ13" s="10"/>
       <c r="CR13" s="10"/>
     </row>
-    <row r="14" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -24150,7 +24163,9 @@
       <c r="Y14" s="9">
         <v>13976.639216210728</v>
       </c>
-      <c r="Z14" s="10"/>
+      <c r="Z14" s="9">
+        <v>14183.830341565572</v>
+      </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
@@ -24222,7 +24237,7 @@
       <c r="CQ14" s="10"/>
       <c r="CR14" s="10"/>
     </row>
-    <row r="15" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -24298,7 +24313,9 @@
       <c r="Y15" s="9">
         <v>39306.481017148224</v>
       </c>
-      <c r="Z15" s="10"/>
+      <c r="Z15" s="9">
+        <v>37807.213946867028</v>
+      </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
@@ -24370,7 +24387,7 @@
       <c r="CQ15" s="10"/>
       <c r="CR15" s="10"/>
     </row>
-    <row r="16" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>19</v>
       </c>
@@ -24446,7 +24463,9 @@
       <c r="Y16" s="9">
         <v>41639.107217353143</v>
       </c>
-      <c r="Z16" s="10"/>
+      <c r="Z16" s="9">
+        <v>43563.686127633213</v>
+      </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
@@ -24518,7 +24537,7 @@
       <c r="CQ16" s="10"/>
       <c r="CR16" s="10"/>
     </row>
-    <row r="17" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>18</v>
       </c>
@@ -24594,7 +24613,9 @@
       <c r="Y17" s="9">
         <v>10312.882885329282</v>
       </c>
-      <c r="Z17" s="10"/>
+      <c r="Z17" s="9">
+        <v>11228.934814647751</v>
+      </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
@@ -24666,7 +24687,7 @@
       <c r="CQ17" s="10"/>
       <c r="CR17" s="10"/>
     </row>
-    <row r="18" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>17</v>
       </c>
@@ -24742,7 +24763,9 @@
       <c r="Y18" s="9">
         <v>30620.382828570928</v>
       </c>
-      <c r="Z18" s="10"/>
+      <c r="Z18" s="9">
+        <v>26505.087340467075</v>
+      </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
@@ -24814,7 +24837,7 @@
       <c r="CQ18" s="10"/>
       <c r="CR18" s="10"/>
     </row>
-    <row r="19" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
@@ -24890,7 +24913,9 @@
       <c r="Y19" s="9">
         <v>26825.20184913382</v>
       </c>
-      <c r="Z19" s="10"/>
+      <c r="Z19" s="9">
+        <v>27982.446812547787</v>
+      </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
@@ -24962,7 +24987,7 @@
       <c r="CQ19" s="10"/>
       <c r="CR19" s="10"/>
     </row>
-    <row r="20" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
@@ -25038,7 +25063,9 @@
       <c r="Y20" s="9">
         <v>33402.068427776787</v>
       </c>
-      <c r="Z20" s="10"/>
+      <c r="Z20" s="9">
+        <v>39160.041825961482</v>
+      </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
@@ -25110,7 +25137,7 @@
       <c r="CQ20" s="10"/>
       <c r="CR20" s="10"/>
     </row>
-    <row r="21" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -25186,7 +25213,9 @@
       <c r="Y21" s="9">
         <v>136276.44185113837</v>
       </c>
-      <c r="Z21" s="10"/>
+      <c r="Z21" s="9">
+        <v>147999.03013764077</v>
+      </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
@@ -25258,7 +25287,7 @@
       <c r="CQ21" s="10"/>
       <c r="CR21" s="10"/>
     </row>
-    <row r="22" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
@@ -25334,7 +25363,9 @@
       <c r="Y22" s="9">
         <v>446210.12678456231</v>
       </c>
-      <c r="Z22" s="10"/>
+      <c r="Z22" s="9">
+        <v>468834.75799380435</v>
+      </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
@@ -25406,7 +25437,7 @@
       <c r="CQ22" s="10"/>
       <c r="CR22" s="10"/>
     </row>
-    <row r="23" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>12</v>
       </c>
@@ -25482,7 +25513,9 @@
       <c r="Y23" s="9">
         <v>40535.710656342824</v>
       </c>
-      <c r="Z23" s="10"/>
+      <c r="Z23" s="9">
+        <v>42071.709335981388</v>
+      </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
@@ -25554,7 +25587,7 @@
       <c r="CQ23" s="10"/>
       <c r="CR23" s="10"/>
     </row>
-    <row r="24" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>11</v>
       </c>
@@ -25630,7 +25663,9 @@
       <c r="Y24" s="9">
         <v>39277.403406199912</v>
       </c>
-      <c r="Z24" s="10"/>
+      <c r="Z24" s="9">
+        <v>39002.879609099939</v>
+      </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
@@ -25702,7 +25737,7 @@
       <c r="CQ24" s="10"/>
       <c r="CR24" s="10"/>
     </row>
-    <row r="25" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
@@ -25778,7 +25813,9 @@
       <c r="Y25" s="9">
         <v>92092.913692660426</v>
       </c>
-      <c r="Z25" s="10"/>
+      <c r="Z25" s="9">
+        <v>84127.105664127215</v>
+      </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
@@ -25850,7 +25887,7 @@
       <c r="CQ25" s="10"/>
       <c r="CR25" s="10"/>
     </row>
-    <row r="26" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>9</v>
       </c>
@@ -25926,7 +25963,9 @@
       <c r="Y26" s="9">
         <v>73434.655457342684</v>
       </c>
-      <c r="Z26" s="10"/>
+      <c r="Z26" s="9">
+        <v>68586.628719488246</v>
+      </c>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
@@ -25998,7 +26037,7 @@
       <c r="CQ26" s="10"/>
       <c r="CR26" s="10"/>
     </row>
-    <row r="27" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>8</v>
       </c>
@@ -26074,7 +26113,9 @@
       <c r="Y27" s="9">
         <v>29496.838546776926</v>
       </c>
-      <c r="Z27" s="10"/>
+      <c r="Z27" s="9">
+        <v>30195.630427882694</v>
+      </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
@@ -26146,7 +26187,7 @@
       <c r="CQ27" s="10"/>
       <c r="CR27" s="10"/>
     </row>
-    <row r="28" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>7</v>
       </c>
@@ -26222,7 +26263,9 @@
       <c r="Y28" s="9">
         <v>359841.83995603444</v>
       </c>
-      <c r="Z28" s="10"/>
+      <c r="Z28" s="9">
+        <v>376871.36468614615</v>
+      </c>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
@@ -26294,7 +26337,7 @@
       <c r="CQ28" s="10"/>
       <c r="CR28" s="10"/>
     </row>
-    <row r="29" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
@@ -26370,7 +26413,9 @@
       <c r="Y29" s="9">
         <v>55044.365187528172</v>
       </c>
-      <c r="Z29" s="10"/>
+      <c r="Z29" s="9">
+        <v>58570.179802308587</v>
+      </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
@@ -26442,7 +26487,7 @@
       <c r="CQ29" s="10"/>
       <c r="CR29" s="10"/>
     </row>
-    <row r="30" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>5</v>
       </c>
@@ -26518,7 +26563,9 @@
       <c r="Y30" s="9">
         <v>42732.060238084596</v>
       </c>
-      <c r="Z30" s="10"/>
+      <c r="Z30" s="9">
+        <v>48432.862563084971</v>
+      </c>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
@@ -26590,7 +26637,7 @@
       <c r="CQ30" s="10"/>
       <c r="CR30" s="10"/>
     </row>
-    <row r="31" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>4</v>
       </c>
@@ -26666,7 +26713,9 @@
       <c r="Y31" s="9">
         <v>57809.495752934447</v>
       </c>
-      <c r="Z31" s="10"/>
+      <c r="Z31" s="9">
+        <v>61097.791025079525</v>
+      </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
@@ -26738,7 +26787,7 @@
       <c r="CQ31" s="10"/>
       <c r="CR31" s="10"/>
     </row>
-    <row r="32" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -26814,7 +26863,9 @@
       <c r="Y32" s="9">
         <v>19691.487493871959</v>
       </c>
-      <c r="Z32" s="10"/>
+      <c r="Z32" s="9">
+        <v>21744.025721318598</v>
+      </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
@@ -26886,7 +26937,7 @@
       <c r="CQ32" s="10"/>
       <c r="CR32" s="10"/>
     </row>
-    <row r="33" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>2</v>
       </c>
@@ -26962,7 +27013,9 @@
       <c r="Y33" s="9">
         <v>72308.576820097165</v>
       </c>
-      <c r="Z33" s="10"/>
+      <c r="Z33" s="9">
+        <v>72503.551375851006</v>
+      </c>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
@@ -27034,7 +27087,7 @@
       <c r="CQ33" s="10"/>
       <c r="CR33" s="10"/>
     </row>
-    <row r="34" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
@@ -27132,7 +27185,7 @@
       <c r="CQ34" s="10"/>
       <c r="CR34" s="10"/>
     </row>
-    <row r="35" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>1</v>
       </c>
@@ -27208,7 +27261,9 @@
       <c r="Y35" s="12">
         <v>3943986.5159432981</v>
       </c>
-      <c r="Z35" s="10"/>
+      <c r="Z35" s="12">
+        <v>4139084.7328958279</v>
+      </c>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
@@ -27280,7 +27335,7 @@
       <c r="CQ35" s="10"/>
       <c r="CR35" s="10"/>
     </row>
-    <row r="36" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -27306,13 +27361,14 @@
       <c r="W36" s="13"/>
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
     </row>
-    <row r="37" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -27410,7 +27466,7 @@
       <c r="CQ38" s="10"/>
       <c r="CR38" s="10"/>
     </row>
-    <row r="39" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39"/>
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
@@ -27508,37 +27564,37 @@
       <c r="CQ39" s="10"/>
       <c r="CR39" s="10"/>
     </row>
-    <row r="40" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="42" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A48" s="6"/>
       <c r="B48" s="1" t="s">
         <v>25</v>
@@ -27566,8 +27622,9 @@
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>24</v>
       </c>
@@ -27643,11 +27700,14 @@
       <c r="Y49" s="15">
         <v>2023</v>
       </c>
+      <c r="Z49" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="50" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
     </row>
-    <row r="51" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>23</v>
       </c>
@@ -27723,7 +27783,9 @@
       <c r="Y51" s="9">
         <v>1817548.8825098276</v>
       </c>
-      <c r="Z51" s="10"/>
+      <c r="Z51" s="9">
+        <v>1892351.8901886179</v>
+      </c>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
@@ -27795,7 +27857,7 @@
       <c r="CQ51" s="10"/>
       <c r="CR51" s="10"/>
     </row>
-    <row r="52" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
@@ -27871,7 +27933,9 @@
       <c r="Y52" s="9">
         <v>153755.40477719365</v>
       </c>
-      <c r="Z52" s="10"/>
+      <c r="Z52" s="9">
+        <v>162578.09618707988</v>
+      </c>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
@@ -27943,7 +28007,7 @@
       <c r="CQ52" s="10"/>
       <c r="CR52" s="10"/>
     </row>
-    <row r="53" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -28019,7 +28083,9 @@
       <c r="Y53" s="9">
         <v>13760.007166282561</v>
       </c>
-      <c r="Z53" s="10"/>
+      <c r="Z53" s="9">
+        <v>13353.632747120708</v>
+      </c>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
@@ -28091,7 +28157,7 @@
       <c r="CQ53" s="10"/>
       <c r="CR53" s="10"/>
     </row>
-    <row r="54" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
@@ -28167,7 +28233,9 @@
       <c r="Y54" s="9">
         <v>39432.365458272005</v>
       </c>
-      <c r="Z54" s="10"/>
+      <c r="Z54" s="9">
+        <v>38117.430829422003</v>
+      </c>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
@@ -28239,7 +28307,7 @@
       <c r="CQ54" s="10"/>
       <c r="CR54" s="10"/>
     </row>
-    <row r="55" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>19</v>
       </c>
@@ -28315,7 +28383,9 @@
       <c r="Y55" s="9">
         <v>49939.360942686922</v>
       </c>
-      <c r="Z55" s="10"/>
+      <c r="Z55" s="9">
+        <v>50874.588918591922</v>
+      </c>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
@@ -28387,7 +28457,7 @@
       <c r="CQ55" s="10"/>
       <c r="CR55" s="10"/>
     </row>
-    <row r="56" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>18</v>
       </c>
@@ -28463,7 +28533,9 @@
       <c r="Y56" s="9">
         <v>10890.20166036493</v>
       </c>
-      <c r="Z56" s="10"/>
+      <c r="Z56" s="9">
+        <v>11370.369327455264</v>
+      </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
@@ -28535,7 +28607,7 @@
       <c r="CQ56" s="10"/>
       <c r="CR56" s="10"/>
     </row>
-    <row r="57" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>17</v>
       </c>
@@ -28611,7 +28683,9 @@
       <c r="Y57" s="9">
         <v>43995.999616826753</v>
       </c>
-      <c r="Z57" s="10"/>
+      <c r="Z57" s="9">
+        <v>39081.522693687693</v>
+      </c>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
@@ -28683,7 +28757,7 @@
       <c r="CQ57" s="10"/>
       <c r="CR57" s="10"/>
     </row>
-    <row r="58" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>16</v>
       </c>
@@ -28759,7 +28833,9 @@
       <c r="Y58" s="9">
         <v>29583.804544409471</v>
       </c>
-      <c r="Z58" s="10"/>
+      <c r="Z58" s="9">
+        <v>31249.674413774977</v>
+      </c>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
@@ -28831,7 +28907,7 @@
       <c r="CQ58" s="10"/>
       <c r="CR58" s="10"/>
     </row>
-    <row r="59" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -28907,7 +28983,9 @@
       <c r="Y59" s="9">
         <v>32462.776977883772</v>
       </c>
-      <c r="Z59" s="10"/>
+      <c r="Z59" s="9">
+        <v>36136.937558488236</v>
+      </c>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
@@ -28979,7 +29057,7 @@
       <c r="CQ59" s="10"/>
       <c r="CR59" s="10"/>
     </row>
-    <row r="60" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>14</v>
       </c>
@@ -29055,7 +29133,9 @@
       <c r="Y60" s="9">
         <v>136579.24630890758</v>
       </c>
-      <c r="Z60" s="10"/>
+      <c r="Z60" s="9">
+        <v>147898.6395162855</v>
+      </c>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
@@ -29127,7 +29207,7 @@
       <c r="CQ60" s="10"/>
       <c r="CR60" s="10"/>
     </row>
-    <row r="61" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
@@ -29203,7 +29283,9 @@
       <c r="Y61" s="9">
         <v>462171.38106848137</v>
       </c>
-      <c r="Z61" s="10"/>
+      <c r="Z61" s="9">
+        <v>489762.05612342409</v>
+      </c>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
       <c r="AC61" s="10"/>
@@ -29275,7 +29357,7 @@
       <c r="CQ61" s="10"/>
       <c r="CR61" s="10"/>
     </row>
-    <row r="62" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>12</v>
       </c>
@@ -29351,7 +29433,9 @@
       <c r="Y62" s="9">
         <v>57772.27597103054</v>
       </c>
-      <c r="Z62" s="10"/>
+      <c r="Z62" s="9">
+        <v>59106.803649511508</v>
+      </c>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
@@ -29423,7 +29507,7 @@
       <c r="CQ62" s="10"/>
       <c r="CR62" s="10"/>
     </row>
-    <row r="63" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>11</v>
       </c>
@@ -29499,7 +29583,9 @@
       <c r="Y63" s="9">
         <v>34053.570698963675</v>
       </c>
-      <c r="Z63" s="10"/>
+      <c r="Z63" s="9">
+        <v>34670.43531844618</v>
+      </c>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
@@ -29571,7 +29657,7 @@
       <c r="CQ63" s="10"/>
       <c r="CR63" s="10"/>
     </row>
-    <row r="64" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>10</v>
       </c>
@@ -29647,7 +29733,9 @@
       <c r="Y64" s="9">
         <v>88398.473747808515</v>
       </c>
-      <c r="Z64" s="10"/>
+      <c r="Z64" s="9">
+        <v>81994.442313852021</v>
+      </c>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10"/>
@@ -29719,7 +29807,7 @@
       <c r="CQ64" s="10"/>
       <c r="CR64" s="10"/>
     </row>
-    <row r="65" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>9</v>
       </c>
@@ -29795,7 +29883,9 @@
       <c r="Y65" s="9">
         <v>102957.52717359219</v>
       </c>
-      <c r="Z65" s="10"/>
+      <c r="Z65" s="9">
+        <v>96596.813766250911</v>
+      </c>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
@@ -29867,7 +29957,7 @@
       <c r="CQ65" s="10"/>
       <c r="CR65" s="10"/>
     </row>
-    <row r="66" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>8</v>
       </c>
@@ -29943,7 +30033,9 @@
       <c r="Y66" s="9">
         <v>30062.523339094401</v>
       </c>
-      <c r="Z66" s="10"/>
+      <c r="Z66" s="9">
+        <v>31043.747549175689</v>
+      </c>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
@@ -30015,7 +30107,7 @@
       <c r="CQ66" s="10"/>
       <c r="CR66" s="10"/>
     </row>
-    <row r="67" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>7</v>
       </c>
@@ -30091,7 +30183,9 @@
       <c r="Y67" s="9">
         <v>402646.88621014077</v>
       </c>
-      <c r="Z67" s="10"/>
+      <c r="Z67" s="9">
+        <v>412001.73489314294</v>
+      </c>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
       <c r="AC67" s="10"/>
@@ -30163,7 +30257,7 @@
       <c r="CQ67" s="10"/>
       <c r="CR67" s="10"/>
     </row>
-    <row r="68" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>6</v>
       </c>
@@ -30239,7 +30333,9 @@
       <c r="Y68" s="9">
         <v>57469.290656981531</v>
       </c>
-      <c r="Z68" s="10"/>
+      <c r="Z68" s="9">
+        <v>63057.279398850573</v>
+      </c>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
@@ -30311,7 +30407,7 @@
       <c r="CQ68" s="10"/>
       <c r="CR68" s="10"/>
     </row>
-    <row r="69" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>5</v>
       </c>
@@ -30387,7 +30483,9 @@
       <c r="Y69" s="9">
         <v>47170.211467263463</v>
       </c>
-      <c r="Z69" s="10"/>
+      <c r="Z69" s="9">
+        <v>52319.647549066329</v>
+      </c>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
@@ -30459,7 +30557,7 @@
       <c r="CQ69" s="10"/>
       <c r="CR69" s="10"/>
     </row>
-    <row r="70" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>4</v>
       </c>
@@ -30535,7 +30633,9 @@
       <c r="Y70" s="9">
         <v>69863.052785915919</v>
       </c>
-      <c r="Z70" s="10"/>
+      <c r="Z70" s="9">
+        <v>71431.751142688154</v>
+      </c>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
@@ -30607,7 +30707,7 @@
       <c r="CQ70" s="10"/>
       <c r="CR70" s="10"/>
     </row>
-    <row r="71" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>3</v>
       </c>
@@ -30683,7 +30783,9 @@
       <c r="Y71" s="9">
         <v>20260.368068977568</v>
       </c>
-      <c r="Z71" s="10"/>
+      <c r="Z71" s="9">
+        <v>22264.867523293338</v>
+      </c>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
@@ -30755,7 +30857,7 @@
       <c r="CQ71" s="10"/>
       <c r="CR71" s="10"/>
     </row>
-    <row r="72" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>2</v>
       </c>
@@ -30831,7 +30933,9 @@
       <c r="Y72" s="9">
         <v>78471.316157299894</v>
       </c>
-      <c r="Z72" s="10"/>
+      <c r="Z72" s="9">
+        <v>78525.075952528598</v>
+      </c>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
@@ -30903,7 +31007,7 @@
       <c r="CQ72" s="10"/>
       <c r="CR72" s="10"/>
     </row>
-    <row r="73" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73"/>
       <c r="B73" s="10"/>
       <c r="C73" s="10"/>
@@ -31001,7 +31105,7 @@
       <c r="CQ73" s="10"/>
       <c r="CR73" s="10"/>
     </row>
-    <row r="74" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>1</v>
       </c>
@@ -31077,7 +31181,9 @@
       <c r="Y74" s="12">
         <v>3779244.9273082041</v>
       </c>
-      <c r="Z74" s="10"/>
+      <c r="Z74" s="12">
+        <v>3915787.4375607548</v>
+      </c>
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
       <c r="AC74" s="10"/>
@@ -31149,7 +31255,7 @@
       <c r="CQ74" s="10"/>
       <c r="CR74" s="10"/>
     </row>
-    <row r="75" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -31175,13 +31281,14 @@
       <c r="W75" s="13"/>
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
+      <c r="Z75" s="13"/>
     </row>
-    <row r="76" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77"/>
       <c r="B77" s="10"/>
       <c r="C77" s="10"/>
@@ -31279,7 +31386,7 @@
       <c r="CQ77" s="10"/>
       <c r="CR77" s="10"/>
     </row>
-    <row r="78" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78"/>
       <c r="B78" s="10"/>
       <c r="C78" s="10"/>
@@ -31377,37 +31484,37 @@
       <c r="CQ78" s="10"/>
       <c r="CR78" s="10"/>
     </row>
-    <row r="79" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="80" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="83" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A87" s="6"/>
       <c r="B87" s="2" t="s">
         <v>25</v>
@@ -31435,8 +31542,9 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>24</v>
       </c>
@@ -31509,12 +31617,15 @@
       <c r="X88" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="Y88" s="16"/>
+      <c r="Y88" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z88" s="16"/>
     </row>
-    <row r="89" spans="1:91" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
     </row>
-    <row r="90" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>23</v>
       </c>
@@ -31587,8 +31698,10 @@
       <c r="X90" s="17">
         <v>6.7607585869436235</v>
       </c>
-      <c r="Y90" s="17"/>
-      <c r="Z90" s="10"/>
+      <c r="Y90" s="17">
+        <v>5.5998527128796809</v>
+      </c>
+      <c r="Z90" s="17"/>
       <c r="AA90" s="10"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
@@ -31655,7 +31768,7 @@
       <c r="CL90" s="10"/>
       <c r="CM90" s="10"/>
     </row>
-    <row r="91" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>22</v>
       </c>
@@ -31728,8 +31841,10 @@
       <c r="X91" s="17">
         <v>11.52966910386472</v>
       </c>
-      <c r="Y91" s="17"/>
-      <c r="Z91" s="10"/>
+      <c r="Y91" s="17">
+        <v>9.673364899586872</v>
+      </c>
+      <c r="Z91" s="17"/>
       <c r="AA91" s="10"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
@@ -31796,7 +31911,7 @@
       <c r="CL91" s="10"/>
       <c r="CM91" s="10"/>
     </row>
-    <row r="92" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -31869,8 +31984,10 @@
       <c r="X92" s="17">
         <v>-7.8741951213075083</v>
       </c>
-      <c r="Y92" s="17"/>
-      <c r="Z92" s="10"/>
+      <c r="Y92" s="17">
+        <v>1.4824101999752202</v>
+      </c>
+      <c r="Z92" s="17"/>
       <c r="AA92" s="10"/>
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
@@ -31937,7 +32054,7 @@
       <c r="CL92" s="10"/>
       <c r="CM92" s="10"/>
     </row>
-    <row r="93" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>20</v>
       </c>
@@ -32010,8 +32127,10 @@
       <c r="X93" s="17">
         <v>-10.477627716832259</v>
       </c>
-      <c r="Y93" s="17"/>
-      <c r="Z93" s="10"/>
+      <c r="Y93" s="17">
+        <v>-3.814299910559555</v>
+      </c>
+      <c r="Z93" s="17"/>
       <c r="AA93" s="10"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
@@ -32078,7 +32197,7 @@
       <c r="CL93" s="10"/>
       <c r="CM93" s="10"/>
     </row>
-    <row r="94" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>19</v>
       </c>
@@ -32151,8 +32270,10 @@
       <c r="X94" s="17">
         <v>-20.862734059732475</v>
       </c>
-      <c r="Y94" s="17"/>
-      <c r="Z94" s="10"/>
+      <c r="Y94" s="17">
+        <v>4.6220465300418283</v>
+      </c>
+      <c r="Z94" s="17"/>
       <c r="AA94" s="10"/>
       <c r="AB94" s="10"/>
       <c r="AC94" s="10"/>
@@ -32219,7 +32340,7 @@
       <c r="CL94" s="10"/>
       <c r="CM94" s="10"/>
     </row>
-    <row r="95" spans="1:91" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:91" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>18</v>
       </c>
@@ -32292,8 +32413,10 @@
       <c r="X95" s="17">
         <v>-13.137362439886147</v>
       </c>
-      <c r="Y95" s="17"/>
-      <c r="Z95" s="10"/>
+      <c r="Y95" s="17">
+        <v>8.8825980039161578</v>
+      </c>
+      <c r="Z95" s="17"/>
       <c r="AA95" s="10"/>
       <c r="AB95" s="10"/>
       <c r="AC95" s="10"/>
@@ -32360,7 +32483,7 @@
       <c r="CL95" s="10"/>
       <c r="CM95" s="10"/>
     </row>
-    <row r="96" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>17</v>
       </c>
@@ -32433,8 +32556,10 @@
       <c r="X96" s="17">
         <v>-5.3254890993811017</v>
       </c>
-      <c r="Y96" s="17"/>
-      <c r="Z96" s="10"/>
+      <c r="Y96" s="17">
+        <v>-13.439725790312451</v>
+      </c>
+      <c r="Z96" s="17"/>
       <c r="AA96" s="10"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
@@ -32501,7 +32626,7 @@
       <c r="CL96" s="10"/>
       <c r="CM96" s="10"/>
     </row>
-    <row r="97" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>16</v>
       </c>
@@ -32574,8 +32699,10 @@
       <c r="X97" s="17">
         <v>0.45124538345477561</v>
       </c>
-      <c r="Y97" s="17"/>
-      <c r="Z97" s="10"/>
+      <c r="Y97" s="17">
+        <v>4.3140214561007326</v>
+      </c>
+      <c r="Z97" s="17"/>
       <c r="AA97" s="10"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
@@ -32642,7 +32769,7 @@
       <c r="CL97" s="10"/>
       <c r="CM97" s="10"/>
     </row>
-    <row r="98" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>15</v>
       </c>
@@ -32715,8 +32842,10 @@
       <c r="X98" s="17">
         <v>9.2496481096420666</v>
       </c>
-      <c r="Y98" s="17"/>
-      <c r="Z98" s="10"/>
+      <c r="Y98" s="17">
+        <v>17.2383737571067</v>
+      </c>
+      <c r="Z98" s="17"/>
       <c r="AA98" s="10"/>
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
@@ -32783,7 +32912,7 @@
       <c r="CL98" s="10"/>
       <c r="CM98" s="10"/>
     </row>
-    <row r="99" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>14</v>
       </c>
@@ -32856,8 +32985,10 @@
       <c r="X99" s="17">
         <v>27.567027633677199</v>
       </c>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="10"/>
+      <c r="Y99" s="17">
+        <v>8.6020651311894198</v>
+      </c>
+      <c r="Z99" s="17"/>
       <c r="AA99" s="10"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
@@ -32924,7 +33055,7 @@
       <c r="CL99" s="10"/>
       <c r="CM99" s="10"/>
     </row>
-    <row r="100" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>13</v>
       </c>
@@ -32997,8 +33128,10 @@
       <c r="X100" s="17">
         <v>-4.9125376042932771</v>
       </c>
-      <c r="Y100" s="17"/>
-      <c r="Z100" s="10"/>
+      <c r="Y100" s="17">
+        <v>5.0703984179555732</v>
+      </c>
+      <c r="Z100" s="17"/>
       <c r="AA100" s="10"/>
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
@@ -33065,7 +33198,7 @@
       <c r="CL100" s="10"/>
       <c r="CM100" s="10"/>
     </row>
-    <row r="101" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>12</v>
       </c>
@@ -33138,8 +33271,10 @@
       <c r="X101" s="17">
         <v>6.9427253014513894</v>
       </c>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="10"/>
+      <c r="Y101" s="17">
+        <v>3.789248183313191</v>
+      </c>
+      <c r="Z101" s="17"/>
       <c r="AA101" s="10"/>
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
@@ -33206,7 +33341,7 @@
       <c r="CL101" s="10"/>
       <c r="CM101" s="10"/>
     </row>
-    <row r="102" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>11</v>
       </c>
@@ -33279,8 +33414,10 @@
       <c r="X102" s="17">
         <v>-1.4831965186913436</v>
       </c>
-      <c r="Y102" s="17"/>
-      <c r="Z102" s="10"/>
+      <c r="Y102" s="17">
+        <v>-0.69893570677494665</v>
+      </c>
+      <c r="Z102" s="17"/>
       <c r="AA102" s="10"/>
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
@@ -33347,7 +33484,7 @@
       <c r="CL102" s="10"/>
       <c r="CM102" s="10"/>
     </row>
-    <row r="103" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>10</v>
       </c>
@@ -33420,8 +33557,10 @@
       <c r="X103" s="17">
         <v>-4.9318654153587289</v>
       </c>
-      <c r="Y103" s="17"/>
-      <c r="Z103" s="10"/>
+      <c r="Y103" s="17">
+        <v>-8.6497513317010686</v>
+      </c>
+      <c r="Z103" s="17"/>
       <c r="AA103" s="10"/>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
@@ -33488,7 +33627,7 @@
       <c r="CL103" s="10"/>
       <c r="CM103" s="10"/>
     </row>
-    <row r="104" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>9</v>
       </c>
@@ -33561,8 +33700,10 @@
       <c r="X104" s="17">
         <v>-2.6532508092293483</v>
       </c>
-      <c r="Y104" s="17"/>
-      <c r="Z104" s="10"/>
+      <c r="Y104" s="17">
+        <v>-6.6018240402456883</v>
+      </c>
+      <c r="Z104" s="17"/>
       <c r="AA104" s="10"/>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
@@ -33629,7 +33770,7 @@
       <c r="CL104" s="10"/>
       <c r="CM104" s="10"/>
     </row>
-    <row r="105" spans="1:91" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:91" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>8</v>
       </c>
@@ -33702,8 +33843,10 @@
       <c r="X105" s="17">
         <v>-3.234080498216457</v>
       </c>
-      <c r="Y105" s="17"/>
-      <c r="Z105" s="10"/>
+      <c r="Y105" s="17">
+        <v>2.3690399226940997</v>
+      </c>
+      <c r="Z105" s="17"/>
       <c r="AA105" s="10"/>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
@@ -33770,7 +33913,7 @@
       <c r="CL105" s="10"/>
       <c r="CM105" s="10"/>
     </row>
-    <row r="106" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>7</v>
       </c>
@@ -33843,8 +33986,10 @@
       <c r="X106" s="17">
         <v>0.35951356792480738</v>
       </c>
-      <c r="Y106" s="17"/>
-      <c r="Z106" s="10"/>
+      <c r="Y106" s="17">
+        <v>4.7325026828987973</v>
+      </c>
+      <c r="Z106" s="17"/>
       <c r="AA106" s="10"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
@@ -33911,7 +34056,7 @@
       <c r="CL106" s="10"/>
       <c r="CM106" s="10"/>
     </row>
-    <row r="107" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>6</v>
       </c>
@@ -33984,8 +34129,10 @@
       <c r="X107" s="17">
         <v>3.1000187381760753</v>
       </c>
-      <c r="Y107" s="17"/>
-      <c r="Z107" s="10"/>
+      <c r="Y107" s="17">
+        <v>6.4054051722977903</v>
+      </c>
+      <c r="Z107" s="17"/>
       <c r="AA107" s="10"/>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
@@ -34052,7 +34199,7 @@
       <c r="CL107" s="10"/>
       <c r="CM107" s="10"/>
     </row>
-    <row r="108" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>5</v>
       </c>
@@ -34125,8 +34272,10 @@
       <c r="X108" s="17">
         <v>-5.5647050881561597</v>
       </c>
-      <c r="Y108" s="17"/>
-      <c r="Z108" s="10"/>
+      <c r="Y108" s="17">
+        <v>13.340808501246997</v>
+      </c>
+      <c r="Z108" s="17"/>
       <c r="AA108" s="10"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
@@ -34193,7 +34342,7 @@
       <c r="CL108" s="10"/>
       <c r="CM108" s="10"/>
     </row>
-    <row r="109" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>4</v>
       </c>
@@ -34266,8 +34415,10 @@
       <c r="X109" s="17">
         <v>11.295358930964582</v>
       </c>
-      <c r="Y109" s="17"/>
-      <c r="Z109" s="10"/>
+      <c r="Y109" s="17">
+        <v>5.6881576794901605</v>
+      </c>
+      <c r="Z109" s="17"/>
       <c r="AA109" s="10"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
@@ -34334,7 +34485,7 @@
       <c r="CL109" s="10"/>
       <c r="CM109" s="10"/>
     </row>
-    <row r="110" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>3</v>
       </c>
@@ -34407,8 +34558,10 @@
       <c r="X110" s="17">
         <v>-8.1128603996560287</v>
       </c>
-      <c r="Y110" s="17"/>
-      <c r="Z110" s="10"/>
+      <c r="Y110" s="17">
+        <v>10.423479831502803</v>
+      </c>
+      <c r="Z110" s="17"/>
       <c r="AA110" s="10"/>
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
@@ -34475,7 +34628,7 @@
       <c r="CL110" s="10"/>
       <c r="CM110" s="10"/>
     </row>
-    <row r="111" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>2</v>
       </c>
@@ -34548,8 +34701,10 @@
       <c r="X111" s="17">
         <v>13.257252975014964</v>
       </c>
-      <c r="Y111" s="17"/>
-      <c r="Z111" s="10"/>
+      <c r="Y111" s="17">
+        <v>0.26964236378061912</v>
+      </c>
+      <c r="Z111" s="17"/>
       <c r="AA111" s="10"/>
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
@@ -34616,7 +34771,7 @@
       <c r="CL111" s="10"/>
       <c r="CM111" s="10"/>
     </row>
-    <row r="112" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112"/>
       <c r="B112" s="10"/>
       <c r="C112" s="10"/>
@@ -34709,7 +34864,7 @@
       <c r="CL112" s="10"/>
       <c r="CM112" s="10"/>
     </row>
-    <row r="113" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>1</v>
       </c>
@@ -34782,8 +34937,10 @@
       <c r="X113" s="17">
         <v>3.916681808093486</v>
       </c>
-      <c r="Y113" s="17"/>
-      <c r="Z113" s="10"/>
+      <c r="Y113" s="17">
+        <v>4.9467262670361123</v>
+      </c>
+      <c r="Z113" s="17"/>
       <c r="AA113" s="10"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
@@ -34850,7 +35007,7 @@
       <c r="CL113" s="10"/>
       <c r="CM113" s="10"/>
     </row>
-    <row r="114" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -34876,13 +35033,14 @@
       <c r="W114" s="13"/>
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
+      <c r="Z114" s="13"/>
     </row>
-    <row r="115" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
@@ -34975,7 +35133,7 @@
       <c r="CL116" s="10"/>
       <c r="CM116" s="10"/>
     </row>
-    <row r="117" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
@@ -35069,37 +35227,37 @@
       <c r="CM117" s="10"/>
       <c r="CN117" s="10"/>
     </row>
-    <row r="118" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="119" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="122" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="123" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="124" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="126" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A126" s="6"/>
       <c r="B126" s="2" t="s">
         <v>25</v>
@@ -35127,8 +35285,9 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
         <v>24</v>
       </c>
@@ -35201,12 +35360,15 @@
       <c r="X127" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Y127" s="7"/>
+      <c r="Y127" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z127" s="7"/>
     </row>
-    <row r="128" spans="1:92" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
     </row>
-    <row r="129" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>23</v>
       </c>
@@ -35279,8 +35441,10 @@
       <c r="X129" s="17">
         <v>2.3609811093824362</v>
       </c>
-      <c r="Y129" s="17"/>
-      <c r="Z129" s="10"/>
+      <c r="Y129" s="17">
+        <v>4.1155981222081834</v>
+      </c>
+      <c r="Z129" s="17"/>
       <c r="AA129" s="10"/>
       <c r="AB129" s="10"/>
       <c r="AC129" s="10"/>
@@ -35347,7 +35511,7 @@
       <c r="CL129" s="10"/>
       <c r="CM129" s="10"/>
     </row>
-    <row r="130" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>22</v>
       </c>
@@ -35420,8 +35584,10 @@
       <c r="X130" s="17">
         <v>0.15373431386453262</v>
       </c>
-      <c r="Y130" s="17"/>
-      <c r="Z130" s="10"/>
+      <c r="Y130" s="17">
+        <v>5.7381341635899901</v>
+      </c>
+      <c r="Z130" s="17"/>
       <c r="AA130" s="10"/>
       <c r="AB130" s="10"/>
       <c r="AC130" s="10"/>
@@ -35488,7 +35654,7 @@
       <c r="CL130" s="10"/>
       <c r="CM130" s="10"/>
     </row>
-    <row r="131" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>21</v>
       </c>
@@ -35561,8 +35727,10 @@
       <c r="X131" s="17">
         <v>-12.680350005783041</v>
       </c>
-      <c r="Y131" s="17"/>
-      <c r="Z131" s="10"/>
+      <c r="Y131" s="17">
+        <v>-2.9533009267439354</v>
+      </c>
+      <c r="Z131" s="17"/>
       <c r="AA131" s="10"/>
       <c r="AB131" s="10"/>
       <c r="AC131" s="10"/>
@@ -35629,7 +35797,7 @@
       <c r="CL131" s="10"/>
       <c r="CM131" s="10"/>
     </row>
-    <row r="132" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>20</v>
       </c>
@@ -35702,8 +35870,10 @@
       <c r="X132" s="17">
         <v>-11.765444586456525</v>
       </c>
-      <c r="Y132" s="17"/>
-      <c r="Z132" s="10"/>
+      <c r="Y132" s="17">
+        <v>-3.3346582523472676</v>
+      </c>
+      <c r="Z132" s="17"/>
       <c r="AA132" s="10"/>
       <c r="AB132" s="10"/>
       <c r="AC132" s="10"/>
@@ -35770,7 +35940,7 @@
       <c r="CL132" s="10"/>
       <c r="CM132" s="10"/>
     </row>
-    <row r="133" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>19</v>
       </c>
@@ -35843,8 +36013,10 @@
       <c r="X133" s="17">
         <v>-21.70881472993581</v>
       </c>
-      <c r="Y133" s="17"/>
-      <c r="Z133" s="10"/>
+      <c r="Y133" s="17">
+        <v>1.8727271600017588</v>
+      </c>
+      <c r="Z133" s="17"/>
       <c r="AA133" s="10"/>
       <c r="AB133" s="10"/>
       <c r="AC133" s="10"/>
@@ -35911,7 +36083,7 @@
       <c r="CL133" s="10"/>
       <c r="CM133" s="10"/>
     </row>
-    <row r="134" spans="1:91" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:91" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>18</v>
       </c>
@@ -35984,8 +36156,10 @@
       <c r="X134" s="17">
         <v>-16.738251460649437</v>
       </c>
-      <c r="Y134" s="17"/>
-      <c r="Z134" s="10"/>
+      <c r="Y134" s="17">
+        <v>4.4091714925529146</v>
+      </c>
+      <c r="Z134" s="17"/>
       <c r="AA134" s="10"/>
       <c r="AB134" s="10"/>
       <c r="AC134" s="10"/>
@@ -36052,7 +36226,7 @@
       <c r="CL134" s="10"/>
       <c r="CM134" s="10"/>
     </row>
-    <row r="135" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>17</v>
       </c>
@@ -36125,8 +36299,10 @@
       <c r="X135" s="17">
         <v>-5.7876124825295392</v>
       </c>
-      <c r="Y135" s="17"/>
-      <c r="Z135" s="10"/>
+      <c r="Y135" s="17">
+        <v>-11.170281311802412</v>
+      </c>
+      <c r="Z135" s="17"/>
       <c r="AA135" s="10"/>
       <c r="AB135" s="10"/>
       <c r="AC135" s="10"/>
@@ -36193,7 +36369,7 @@
       <c r="CL135" s="10"/>
       <c r="CM135" s="10"/>
     </row>
-    <row r="136" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>16</v>
       </c>
@@ -36266,8 +36442,10 @@
       <c r="X136" s="17">
         <v>-2.7260929526941311</v>
       </c>
-      <c r="Y136" s="17"/>
-      <c r="Z136" s="10"/>
+      <c r="Y136" s="17">
+        <v>5.6310197252175556</v>
+      </c>
+      <c r="Z136" s="17"/>
       <c r="AA136" s="10"/>
       <c r="AB136" s="10"/>
       <c r="AC136" s="10"/>
@@ -36334,7 +36512,7 @@
       <c r="CL136" s="10"/>
       <c r="CM136" s="10"/>
     </row>
-    <row r="137" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>15</v>
       </c>
@@ -36407,8 +36585,10 @@
       <c r="X137" s="17">
         <v>5.6971447287992589</v>
       </c>
-      <c r="Y137" s="17"/>
-      <c r="Z137" s="10"/>
+      <c r="Y137" s="17">
+        <v>11.318072335917535</v>
+      </c>
+      <c r="Z137" s="17"/>
       <c r="AA137" s="10"/>
       <c r="AB137" s="10"/>
       <c r="AC137" s="10"/>
@@ -36475,7 +36655,7 @@
       <c r="CL137" s="10"/>
       <c r="CM137" s="10"/>
     </row>
-    <row r="138" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>14</v>
       </c>
@@ -36548,8 +36728,10 @@
       <c r="X138" s="17">
         <v>35.850459489925782</v>
       </c>
-      <c r="Y138" s="17"/>
-      <c r="Z138" s="10"/>
+      <c r="Y138" s="17">
+        <v>8.2877842082803141</v>
+      </c>
+      <c r="Z138" s="17"/>
       <c r="AA138" s="10"/>
       <c r="AB138" s="10"/>
       <c r="AC138" s="10"/>
@@ -36616,7 +36798,7 @@
       <c r="CL138" s="10"/>
       <c r="CM138" s="10"/>
     </row>
-    <row r="139" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>13</v>
       </c>
@@ -36689,8 +36871,10 @@
       <c r="X139" s="17">
         <v>-0.41850243791512298</v>
       </c>
-      <c r="Y139" s="17"/>
-      <c r="Z139" s="10"/>
+      <c r="Y139" s="17">
+        <v>5.9697930648922011</v>
+      </c>
+      <c r="Z139" s="17"/>
       <c r="AA139" s="10"/>
       <c r="AB139" s="10"/>
       <c r="AC139" s="10"/>
@@ -36757,7 +36941,7 @@
       <c r="CL139" s="10"/>
       <c r="CM139" s="10"/>
     </row>
-    <row r="140" spans="1:91" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:91" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>12</v>
       </c>
@@ -36830,8 +37014,10 @@
       <c r="X140" s="17">
         <v>8.7433001099866345</v>
       </c>
-      <c r="Y140" s="17"/>
-      <c r="Z140" s="10"/>
+      <c r="Y140" s="17">
+        <v>2.3099794080298182</v>
+      </c>
+      <c r="Z140" s="17"/>
       <c r="AA140" s="10"/>
       <c r="AB140" s="10"/>
       <c r="AC140" s="10"/>
@@ -36898,7 +37084,7 @@
       <c r="CL140" s="10"/>
       <c r="CM140" s="10"/>
     </row>
-    <row r="141" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>11</v>
       </c>
@@ -36971,8 +37157,10 @@
       <c r="X141" s="17">
         <v>-7.6430385656304622</v>
       </c>
-      <c r="Y141" s="17"/>
-      <c r="Z141" s="10"/>
+      <c r="Y141" s="17">
+        <v>1.8114535621995174</v>
+      </c>
+      <c r="Z141" s="17"/>
       <c r="AA141" s="10"/>
       <c r="AB141" s="10"/>
       <c r="AC141" s="10"/>
@@ -37039,7 +37227,7 @@
       <c r="CL141" s="10"/>
       <c r="CM141" s="10"/>
     </row>
-    <row r="142" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>10</v>
       </c>
@@ -37112,8 +37300,10 @@
       <c r="X142" s="17">
         <v>-4.5439632562381433</v>
       </c>
-      <c r="Y142" s="17"/>
-      <c r="Z142" s="10"/>
+      <c r="Y142" s="17">
+        <v>-7.2445045286941507</v>
+      </c>
+      <c r="Z142" s="17"/>
       <c r="AA142" s="10"/>
       <c r="AB142" s="10"/>
       <c r="AC142" s="10"/>
@@ -37180,7 +37370,7 @@
       <c r="CL142" s="10"/>
       <c r="CM142" s="10"/>
     </row>
-    <row r="143" spans="1:91" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -37253,8 +37443,10 @@
       <c r="X143" s="17">
         <v>3.8514059199852255</v>
       </c>
-      <c r="Y143" s="17"/>
-      <c r="Z143" s="10"/>
+      <c r="Y143" s="17">
+        <v>-6.1779974538595468</v>
+      </c>
+      <c r="Z143" s="17"/>
       <c r="AA143" s="10"/>
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
@@ -37321,7 +37513,7 @@
       <c r="CL143" s="10"/>
       <c r="CM143" s="10"/>
     </row>
-    <row r="144" spans="1:91" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:91" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>8</v>
       </c>
@@ -37394,8 +37586,10 @@
       <c r="X144" s="17">
         <v>-8.4474996054870246</v>
       </c>
-      <c r="Y144" s="17"/>
-      <c r="Z144" s="10"/>
+      <c r="Y144" s="17">
+        <v>3.2639449423903528</v>
+      </c>
+      <c r="Z144" s="17"/>
       <c r="AA144" s="10"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
@@ -37462,7 +37656,7 @@
       <c r="CL144" s="10"/>
       <c r="CM144" s="10"/>
     </row>
-    <row r="145" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>7</v>
       </c>
@@ -37535,8 +37729,10 @@
       <c r="X145" s="17">
         <v>-3.2496697057904527</v>
       </c>
-      <c r="Y145" s="17"/>
-      <c r="Z145" s="10"/>
+      <c r="Y145" s="17">
+        <v>2.32333814152976</v>
+      </c>
+      <c r="Z145" s="17"/>
       <c r="AA145" s="10"/>
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
@@ -37603,7 +37799,7 @@
       <c r="CL145" s="10"/>
       <c r="CM145" s="10"/>
     </row>
-    <row r="146" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>6</v>
       </c>
@@ -37676,8 +37872,10 @@
       <c r="X146" s="17">
         <v>4.0670352984784728</v>
       </c>
-      <c r="Y146" s="17"/>
-      <c r="Z146" s="10"/>
+      <c r="Y146" s="17">
+        <v>9.7234343385621713</v>
+      </c>
+      <c r="Z146" s="17"/>
       <c r="AA146" s="10"/>
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
@@ -37744,7 +37942,7 @@
       <c r="CL146" s="10"/>
       <c r="CM146" s="10"/>
     </row>
-    <row r="147" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>5</v>
       </c>
@@ -37817,8 +38015,10 @@
       <c r="X147" s="17">
         <v>-5.5918457534117323</v>
       </c>
-      <c r="Y147" s="17"/>
-      <c r="Z147" s="10"/>
+      <c r="Y147" s="17">
+        <v>10.916711885798122</v>
+      </c>
+      <c r="Z147" s="17"/>
       <c r="AA147" s="10"/>
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
@@ -37885,7 +38085,7 @@
       <c r="CL147" s="10"/>
       <c r="CM147" s="10"/>
     </row>
-    <row r="148" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>4</v>
       </c>
@@ -37958,8 +38158,10 @@
       <c r="X148" s="17">
         <v>13.499606344464382</v>
       </c>
-      <c r="Y148" s="17"/>
-      <c r="Z148" s="10"/>
+      <c r="Y148" s="17">
+        <v>2.2453905093143618</v>
+      </c>
+      <c r="Z148" s="17"/>
       <c r="AA148" s="10"/>
       <c r="AB148" s="10"/>
       <c r="AC148" s="10"/>
@@ -38026,7 +38228,7 @@
       <c r="CL148" s="10"/>
       <c r="CM148" s="10"/>
     </row>
-    <row r="149" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>3</v>
       </c>
@@ -38099,8 +38301,10 @@
       <c r="X149" s="17">
         <v>-12.204918477568611</v>
       </c>
-      <c r="Y149" s="17"/>
-      <c r="Z149" s="10"/>
+      <c r="Y149" s="17">
+        <v>9.8936971307300041</v>
+      </c>
+      <c r="Z149" s="17"/>
       <c r="AA149" s="10"/>
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
@@ -38167,7 +38371,7 @@
       <c r="CL149" s="10"/>
       <c r="CM149" s="10"/>
     </row>
-    <row r="150" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>2</v>
       </c>
@@ -38240,8 +38444,10 @@
       <c r="X150" s="17">
         <v>12.663613117585655</v>
       </c>
-      <c r="Y150" s="17"/>
-      <c r="Z150" s="10"/>
+      <c r="Y150" s="17">
+        <v>6.8508848661252841E-2</v>
+      </c>
+      <c r="Z150" s="17"/>
       <c r="AA150" s="10"/>
       <c r="AB150" s="10"/>
       <c r="AC150" s="10"/>
@@ -38308,7 +38514,7 @@
       <c r="CL150" s="10"/>
       <c r="CM150" s="10"/>
     </row>
-    <row r="151" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151"/>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -38401,7 +38607,7 @@
       <c r="CL151" s="10"/>
       <c r="CM151" s="10"/>
     </row>
-    <row r="152" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:92" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>1</v>
       </c>
@@ -38474,8 +38680,10 @@
       <c r="X152" s="17">
         <v>1.3431534562055418</v>
       </c>
-      <c r="Y152" s="17"/>
-      <c r="Z152" s="10"/>
+      <c r="Y152" s="17">
+        <v>3.6129574261228043</v>
+      </c>
+      <c r="Z152" s="17"/>
       <c r="AA152" s="10"/>
       <c r="AB152" s="10"/>
       <c r="AC152" s="10"/>
@@ -38542,7 +38750,7 @@
       <c r="CL152" s="10"/>
       <c r="CM152" s="10"/>
     </row>
-    <row r="153" spans="1:92" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:92" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -38568,13 +38776,14 @@
       <c r="W153" s="13"/>
       <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
+      <c r="Z153" s="13"/>
     </row>
-    <row r="154" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155"/>
       <c r="B155" s="10"/>
       <c r="C155" s="10"/>
@@ -38667,7 +38876,7 @@
       <c r="CL155" s="10"/>
       <c r="CM155" s="10"/>
     </row>
-    <row r="156" spans="1:92" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156"/>
       <c r="B156" s="10"/>
       <c r="C156" s="10"/>
@@ -38761,32 +38970,32 @@
       <c r="CM156" s="10"/>
       <c r="CN156" s="10"/>
     </row>
-    <row r="157" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="160" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="161" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A164" s="6"/>
       <c r="B164" s="1" t="s">
         <v>25</v>
@@ -38814,8 +39023,9 @@
       <c r="W164" s="1"/>
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
+      <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
         <v>24</v>
       </c>
@@ -38891,11 +39101,14 @@
       <c r="Y165" s="15">
         <v>2023</v>
       </c>
+      <c r="Z165" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="166" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8"/>
     </row>
-    <row r="167" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>23</v>
       </c>
@@ -38971,7 +39184,9 @@
       <c r="Y167" s="17">
         <v>115.33723714725726</v>
       </c>
-      <c r="Z167" s="10"/>
+      <c r="Z167" s="17">
+        <v>116.98146555105748</v>
+      </c>
       <c r="AA167" s="10"/>
       <c r="AB167" s="10"/>
       <c r="AC167" s="10"/>
@@ -39043,7 +39258,7 @@
       <c r="CQ167" s="10"/>
       <c r="CR167" s="10"/>
     </row>
-    <row r="168" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>22</v>
       </c>
@@ -39119,7 +39334,9 @@
       <c r="Y168" s="17">
         <v>121.51844160617765</v>
       </c>
-      <c r="Z168" s="10"/>
+      <c r="Z168" s="17">
+        <v>126.04096425310874</v>
+      </c>
       <c r="AA168" s="10"/>
       <c r="AB168" s="10"/>
       <c r="AC168" s="10"/>
@@ -39191,7 +39408,7 @@
       <c r="CQ168" s="10"/>
       <c r="CR168" s="10"/>
     </row>
-    <row r="169" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>21</v>
       </c>
@@ -39267,7 +39484,9 @@
       <c r="Y169" s="17">
         <v>101.57436000803111</v>
       </c>
-      <c r="Z169" s="10"/>
+      <c r="Z169" s="17">
+        <v>106.21701682355965</v>
+      </c>
       <c r="AA169" s="10"/>
       <c r="AB169" s="10"/>
       <c r="AC169" s="10"/>
@@ -39339,7 +39558,7 @@
       <c r="CQ169" s="10"/>
       <c r="CR169" s="10"/>
     </row>
-    <row r="170" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>20</v>
       </c>
@@ -39415,7 +39634,9 @@
       <c r="Y170" s="17">
         <v>99.680758585844927</v>
       </c>
-      <c r="Z170" s="10"/>
+      <c r="Z170" s="17">
+        <v>99.186154796362814</v>
+      </c>
       <c r="AA170" s="10"/>
       <c r="AB170" s="10"/>
       <c r="AC170" s="10"/>
@@ -39487,7 +39708,7 @@
       <c r="CQ170" s="10"/>
       <c r="CR170" s="10"/>
     </row>
-    <row r="171" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>19</v>
       </c>
@@ -39563,7 +39784,9 @@
       <c r="Y171" s="17">
         <v>83.379335320570888</v>
       </c>
-      <c r="Z171" s="10"/>
+      <c r="Z171" s="17">
+        <v>85.629558987380889</v>
+      </c>
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
       <c r="AC171" s="10"/>
@@ -39635,7 +39858,7 @@
       <c r="CQ171" s="10"/>
       <c r="CR171" s="10"/>
     </row>
-    <row r="172" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
         <v>18</v>
       </c>
@@ -39711,7 +39934,9 @@
       <c r="Y172" s="17">
         <v>94.6987320066183</v>
       </c>
-      <c r="Z172" s="10"/>
+      <c r="Z172" s="17">
+        <v>98.756113291183951</v>
+      </c>
       <c r="AA172" s="10"/>
       <c r="AB172" s="10"/>
       <c r="AC172" s="10"/>
@@ -39783,7 +40008,7 @@
       <c r="CQ172" s="10"/>
       <c r="CR172" s="10"/>
     </row>
-    <row r="173" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
         <v>17</v>
       </c>
@@ -39859,7 +40084,9 @@
       <c r="Y173" s="17">
         <v>69.598106862560797</v>
       </c>
-      <c r="Z173" s="10"/>
+      <c r="Z173" s="17">
+        <v>67.819996544679356</v>
+      </c>
       <c r="AA173" s="10"/>
       <c r="AB173" s="10"/>
       <c r="AC173" s="10"/>
@@ -39931,7 +40158,7 @@
       <c r="CQ173" s="10"/>
       <c r="CR173" s="10"/>
     </row>
-    <row r="174" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>16</v>
       </c>
@@ -40007,7 +40234,9 @@
       <c r="Y174" s="17">
         <v>90.675294345138752</v>
       </c>
-      <c r="Z174" s="10"/>
+      <c r="Z174" s="17">
+        <v>89.544762745473648</v>
+      </c>
       <c r="AA174" s="10"/>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
@@ -40079,7 +40308,7 @@
       <c r="CQ174" s="10"/>
       <c r="CR174" s="10"/>
     </row>
-    <row r="175" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>15</v>
       </c>
@@ -40155,7 +40384,9 @@
       <c r="Y175" s="17">
         <v>102.89344146538338</v>
       </c>
-      <c r="Z175" s="10"/>
+      <c r="Z175" s="17">
+        <v>108.36569026520387</v>
+      </c>
       <c r="AA175" s="10"/>
       <c r="AB175" s="10"/>
       <c r="AC175" s="10"/>
@@ -40227,7 +40458,7 @@
       <c r="CQ175" s="10"/>
       <c r="CR175" s="10"/>
     </row>
-    <row r="176" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>14</v>
       </c>
@@ -40303,7 +40534,9 @@
       <c r="Y176" s="17">
         <v>99.778293945857385</v>
       </c>
-      <c r="Z176" s="10"/>
+      <c r="Z176" s="17">
+        <v>100.06787798838693</v>
+      </c>
       <c r="AA176" s="10"/>
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
@@ -40375,7 +40608,7 @@
       <c r="CQ176" s="10"/>
       <c r="CR176" s="10"/>
     </row>
-    <row r="177" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>13</v>
       </c>
@@ -40451,7 +40684,9 @@
       <c r="Y177" s="17">
         <v>96.546464160758134</v>
       </c>
-      <c r="Z177" s="10"/>
+      <c r="Z177" s="17">
+        <v>95.727047886219694</v>
+      </c>
       <c r="AA177" s="10"/>
       <c r="AB177" s="10"/>
       <c r="AC177" s="10"/>
@@ -40523,7 +40758,7 @@
       <c r="CQ177" s="10"/>
       <c r="CR177" s="10"/>
     </row>
-    <row r="178" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
         <v>12</v>
       </c>
@@ -40599,7 +40834,9 @@
       <c r="Y178" s="17">
         <v>70.164642079652779</v>
       </c>
-      <c r="Z178" s="10"/>
+      <c r="Z178" s="17">
+        <v>71.179131230739614</v>
+      </c>
       <c r="AA178" s="10"/>
       <c r="AB178" s="10"/>
       <c r="AC178" s="10"/>
@@ -40671,7 +40908,7 @@
       <c r="CQ178" s="10"/>
       <c r="CR178" s="10"/>
     </row>
-    <row r="179" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>11</v>
       </c>
@@ -40747,7 +40984,9 @@
       <c r="Y179" s="17">
         <v>115.34004393670003</v>
       </c>
-      <c r="Z179" s="10"/>
+      <c r="Z179" s="17">
+        <v>112.49607699142072</v>
+      </c>
       <c r="AA179" s="10"/>
       <c r="AB179" s="10"/>
       <c r="AC179" s="10"/>
@@ -40819,7 +41058,7 @@
       <c r="CQ179" s="10"/>
       <c r="CR179" s="10"/>
     </row>
-    <row r="180" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>10</v>
       </c>
@@ -40895,7 +41134,9 @@
       <c r="Y180" s="17">
         <v>104.17930286374826</v>
       </c>
-      <c r="Z180" s="10"/>
+      <c r="Z180" s="17">
+        <v>102.60098524984407</v>
+      </c>
       <c r="AA180" s="10"/>
       <c r="AB180" s="10"/>
       <c r="AC180" s="10"/>
@@ -40967,7 +41208,7 @@
       <c r="CQ180" s="10"/>
       <c r="CR180" s="10"/>
     </row>
-    <row r="181" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>9</v>
       </c>
@@ -41043,7 +41284,9 @@
       <c r="Y181" s="17">
         <v>71.325193478596006</v>
       </c>
-      <c r="Z181" s="10"/>
+      <c r="Z181" s="17">
+        <v>71.002992795867044</v>
+      </c>
       <c r="AA181" s="10"/>
       <c r="AB181" s="10"/>
       <c r="AC181" s="10"/>
@@ -41115,7 +41358,7 @@
       <c r="CQ181" s="10"/>
       <c r="CR181" s="10"/>
     </row>
-    <row r="182" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
         <v>8</v>
       </c>
@@ -41191,7 +41434,9 @@
       <c r="Y182" s="17">
         <v>98.118305685997299</v>
       </c>
-      <c r="Z182" s="10"/>
+      <c r="Z182" s="17">
+        <v>97.267993756393253</v>
+      </c>
       <c r="AA182" s="10"/>
       <c r="AB182" s="10"/>
       <c r="AC182" s="10"/>
@@ -41263,7 +41508,7 @@
       <c r="CQ182" s="10"/>
       <c r="CR182" s="10"/>
     </row>
-    <row r="183" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>7</v>
       </c>
@@ -41339,7 +41584,9 @@
       <c r="Y183" s="17">
         <v>89.36908548902413</v>
       </c>
-      <c r="Z183" s="10"/>
+      <c r="Z183" s="17">
+        <v>91.473247020159206</v>
+      </c>
       <c r="AA183" s="10"/>
       <c r="AB183" s="10"/>
       <c r="AC183" s="10"/>
@@ -41411,7 +41658,7 @@
       <c r="CQ183" s="10"/>
       <c r="CR183" s="10"/>
     </row>
-    <row r="184" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>6</v>
       </c>
@@ -41487,7 +41734,9 @@
       <c r="Y184" s="17">
         <v>95.780484774160385</v>
       </c>
-      <c r="Z184" s="10"/>
+      <c r="Z184" s="17">
+        <v>92.884089451179563</v>
+      </c>
       <c r="AA184" s="10"/>
       <c r="AB184" s="10"/>
       <c r="AC184" s="10"/>
@@ -41559,7 +41808,7 @@
       <c r="CQ184" s="10"/>
       <c r="CR184" s="10"/>
     </row>
-    <row r="185" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>5</v>
       </c>
@@ -41635,7 +41884,9 @@
       <c r="Y185" s="17">
         <v>90.591199209995096</v>
       </c>
-      <c r="Z185" s="10"/>
+      <c r="Z185" s="17">
+        <v>92.571079569417478</v>
+      </c>
       <c r="AA185" s="10"/>
       <c r="AB185" s="10"/>
       <c r="AC185" s="10"/>
@@ -41707,7 +41958,7 @@
       <c r="CQ185" s="10"/>
       <c r="CR185" s="10"/>
     </row>
-    <row r="186" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>4</v>
       </c>
@@ -41783,7 +42034,9 @@
       <c r="Y186" s="17">
         <v>82.746878997804956</v>
       </c>
-      <c r="Z186" s="10"/>
+      <c r="Z186" s="17">
+        <v>85.533099843841043</v>
+      </c>
       <c r="AA186" s="10"/>
       <c r="AB186" s="10"/>
       <c r="AC186" s="10"/>
@@ -41855,7 +42108,7 @@
       <c r="CQ186" s="10"/>
       <c r="CR186" s="10"/>
     </row>
-    <row r="187" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>3</v>
       </c>
@@ -41931,7 +42184,9 @@
       <c r="Y187" s="17">
         <v>97.192150837690491</v>
       </c>
-      <c r="Z187" s="10"/>
+      <c r="Z187" s="17">
+        <v>97.660701095886424</v>
+      </c>
       <c r="AA187" s="10"/>
       <c r="AB187" s="10"/>
       <c r="AC187" s="10"/>
@@ -42003,7 +42258,7 @@
       <c r="CQ187" s="10"/>
       <c r="CR187" s="10"/>
     </row>
-    <row r="188" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>2</v>
       </c>
@@ -42079,7 +42334,9 @@
       <c r="Y188" s="17">
         <v>92.146506979889068</v>
       </c>
-      <c r="Z188" s="10"/>
+      <c r="Z188" s="17">
+        <v>92.331717602772102</v>
+      </c>
       <c r="AA188" s="10"/>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
@@ -42151,7 +42408,7 @@
       <c r="CQ188" s="10"/>
       <c r="CR188" s="10"/>
     </row>
-    <row r="189" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189"/>
       <c r="B189" s="10"/>
       <c r="C189" s="10"/>
@@ -42249,7 +42506,7 @@
       <c r="CQ189" s="10"/>
       <c r="CR189" s="10"/>
     </row>
-    <row r="190" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
         <v>1</v>
       </c>
@@ -42325,7 +42582,9 @@
       <c r="Y190" s="17">
         <v>104.35911383897609</v>
       </c>
-      <c r="Z190" s="10"/>
+      <c r="Z190" s="17">
+        <v>105.70248765786354</v>
+      </c>
       <c r="AA190" s="10"/>
       <c r="AB190" s="10"/>
       <c r="AC190" s="10"/>
@@ -42397,7 +42656,7 @@
       <c r="CQ190" s="10"/>
       <c r="CR190" s="10"/>
     </row>
-    <row r="191" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="13"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -42423,43 +42682,44 @@
       <c r="W191" s="13"/>
       <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
+      <c r="Z191" s="13"/>
     </row>
-    <row r="192" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="196" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="199" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="201" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A203" s="6"/>
       <c r="B203" s="1" t="s">
         <v>25</v>
@@ -42487,8 +42747,9 @@
       <c r="W203" s="1"/>
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
+      <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
         <v>24</v>
       </c>
@@ -42564,11 +42825,14 @@
       <c r="Y204" s="15">
         <v>2023</v>
       </c>
+      <c r="Z204" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="205" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
     </row>
-    <row r="206" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>23</v>
       </c>
@@ -42644,7 +42908,9 @@
       <c r="Y206" s="17">
         <v>53.152074846440023</v>
       </c>
-      <c r="Z206" s="10"/>
+      <c r="Z206" s="17">
+        <v>53.482861970235909</v>
+      </c>
       <c r="AA206" s="10"/>
       <c r="AB206" s="10"/>
       <c r="AC206" s="10"/>
@@ -42716,7 +42982,7 @@
       <c r="CQ206" s="10"/>
       <c r="CR206" s="10"/>
     </row>
-    <row r="207" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>22</v>
       </c>
@@ -42792,7 +43058,9 @@
       <c r="Y207" s="17">
         <v>4.7373684219056873</v>
       </c>
-      <c r="Z207" s="10"/>
+      <c r="Z207" s="17">
+        <v>4.9507321865135481</v>
+      </c>
       <c r="AA207" s="10"/>
       <c r="AB207" s="10"/>
       <c r="AC207" s="10"/>
@@ -42864,7 +43132,7 @@
       <c r="CQ207" s="10"/>
       <c r="CR207" s="10"/>
     </row>
-    <row r="208" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>21</v>
       </c>
@@ -42940,7 +43208,9 @@
       <c r="Y208" s="17">
         <v>0.35437847365124375</v>
       </c>
-      <c r="Z208" s="10"/>
+      <c r="Z208" s="17">
+        <v>0.34268035705667083</v>
+      </c>
       <c r="AA208" s="10"/>
       <c r="AB208" s="10"/>
       <c r="AC208" s="10"/>
@@ -43012,7 +43282,7 @@
       <c r="CQ208" s="10"/>
       <c r="CR208" s="10"/>
     </row>
-    <row r="209" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>20</v>
       </c>
@@ -43088,7 +43358,9 @@
       <c r="Y209" s="17">
         <v>0.99661803756819245</v>
       </c>
-      <c r="Z209" s="10"/>
+      <c r="Z209" s="17">
+        <v>0.91341966610130176</v>
+      </c>
       <c r="AA209" s="10"/>
       <c r="AB209" s="10"/>
       <c r="AC209" s="10"/>
@@ -43160,7 +43432,7 @@
       <c r="CQ209" s="10"/>
       <c r="CR209" s="10"/>
     </row>
-    <row r="210" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>19</v>
       </c>
@@ -43236,7 +43508,9 @@
       <c r="Y210" s="17">
         <v>1.0557619061076877</v>
       </c>
-      <c r="Z210" s="10"/>
+      <c r="Z210" s="17">
+        <v>1.0524956346364709</v>
+      </c>
       <c r="AA210" s="10"/>
       <c r="AB210" s="10"/>
       <c r="AC210" s="10"/>
@@ -43308,7 +43582,7 @@
       <c r="CQ210" s="10"/>
       <c r="CR210" s="10"/>
     </row>
-    <row r="211" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
         <v>18</v>
       </c>
@@ -43384,7 +43658,9 @@
       <c r="Y211" s="17">
         <v>0.26148372575920714</v>
       </c>
-      <c r="Z211" s="10"/>
+      <c r="Z211" s="17">
+        <v>0.27129028612061423</v>
+      </c>
       <c r="AA211" s="10"/>
       <c r="AB211" s="10"/>
       <c r="AC211" s="10"/>
@@ -43456,7 +43732,7 @@
       <c r="CQ211" s="10"/>
       <c r="CR211" s="10"/>
     </row>
-    <row r="212" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
         <v>17</v>
       </c>
@@ -43532,7 +43808,9 @@
       <c r="Y212" s="17">
         <v>0.77638152931786419</v>
       </c>
-      <c r="Z212" s="10"/>
+      <c r="Z212" s="17">
+        <v>0.6403610713695953</v>
+      </c>
       <c r="AA212" s="10"/>
       <c r="AB212" s="10"/>
       <c r="AC212" s="10"/>
@@ -43604,7 +43882,7 @@
       <c r="CQ212" s="10"/>
       <c r="CR212" s="10"/>
     </row>
-    <row r="213" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>16</v>
       </c>
@@ -43680,7 +43958,9 @@
       <c r="Y213" s="17">
         <v>0.68015450206776218</v>
       </c>
-      <c r="Z213" s="10"/>
+      <c r="Z213" s="17">
+        <v>0.6760539737240514</v>
+      </c>
       <c r="AA213" s="10"/>
       <c r="AB213" s="10"/>
       <c r="AC213" s="10"/>
@@ -43752,7 +44032,7 @@
       <c r="CQ213" s="10"/>
       <c r="CR213" s="10"/>
     </row>
-    <row r="214" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>15</v>
       </c>
@@ -43828,7 +44108,9 @@
       <c r="Y214" s="17">
         <v>0.8469113241830617</v>
       </c>
-      <c r="Z214" s="10"/>
+      <c r="Z214" s="17">
+        <v>0.94610389380852189</v>
+      </c>
       <c r="AA214" s="10"/>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
@@ -43900,7 +44182,7 @@
       <c r="CQ214" s="10"/>
       <c r="CR214" s="10"/>
     </row>
-    <row r="215" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>14</v>
       </c>
@@ -43976,7 +44258,9 @@
       <c r="Y215" s="17">
         <v>3.4552968500335917</v>
       </c>
-      <c r="Z215" s="10"/>
+      <c r="Z215" s="17">
+        <v>3.5756463007727848</v>
+      </c>
       <c r="AA215" s="10"/>
       <c r="AB215" s="10"/>
       <c r="AC215" s="10"/>
@@ -44048,7 +44332,7 @@
       <c r="CQ215" s="10"/>
       <c r="CR215" s="10"/>
     </row>
-    <row r="216" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>13</v>
       </c>
@@ -44124,7 +44408,9 @@
       <c r="Y216" s="17">
         <v>11.313682868356373</v>
       </c>
-      <c r="Z216" s="10"/>
+      <c r="Z216" s="17">
+        <v>11.327015227972719</v>
+      </c>
       <c r="AA216" s="10"/>
       <c r="AB216" s="10"/>
       <c r="AC216" s="10"/>
@@ -44196,7 +44482,7 @@
       <c r="CQ216" s="10"/>
       <c r="CR216" s="10"/>
     </row>
-    <row r="217" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
         <v>12</v>
       </c>
@@ -44272,7 +44558,9 @@
       <c r="Y217" s="17">
         <v>1.027785224226299</v>
       </c>
-      <c r="Z217" s="10"/>
+      <c r="Z217" s="17">
+        <v>1.0164495788552452</v>
+      </c>
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
       <c r="AC217" s="10"/>
@@ -44344,7 +44632,7 @@
       <c r="CQ217" s="10"/>
       <c r="CR217" s="10"/>
     </row>
-    <row r="218" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>11</v>
       </c>
@@ -44420,7 +44708,9 @@
       <c r="Y218" s="17">
         <v>0.99588077310669465</v>
       </c>
-      <c r="Z218" s="10"/>
+      <c r="Z218" s="17">
+        <v>0.94230686555219068</v>
+      </c>
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10"/>
@@ -44492,7 +44782,7 @@
       <c r="CQ218" s="10"/>
       <c r="CR218" s="10"/>
     </row>
-    <row r="219" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>10</v>
       </c>
@@ -44568,7 +44858,9 @@
       <c r="Y219" s="17">
         <v>2.3350210078148357</v>
       </c>
-      <c r="Z219" s="10"/>
+      <c r="Z219" s="17">
+        <v>2.0325050365728892</v>
+      </c>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
@@ -44640,7 +44932,7 @@
       <c r="CQ219" s="10"/>
       <c r="CR219" s="10"/>
     </row>
-    <row r="220" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>9</v>
       </c>
@@ -44716,7 +45008,9 @@
       <c r="Y220" s="17">
         <v>1.8619398205467506</v>
       </c>
-      <c r="Z220" s="10"/>
+      <c r="Z220" s="17">
+        <v>1.6570481917025888</v>
+      </c>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
@@ -44788,7 +45082,7 @@
       <c r="CQ220" s="10"/>
       <c r="CR220" s="10"/>
     </row>
-    <row r="221" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
         <v>8</v>
       </c>
@@ -44864,7 +45158,9 @@
       <c r="Y221" s="17">
         <v>0.74789400084249669</v>
       </c>
-      <c r="Z221" s="10"/>
+      <c r="Z221" s="17">
+        <v>0.72952433633212732</v>
+      </c>
       <c r="AA221" s="10"/>
       <c r="AB221" s="10"/>
       <c r="AC221" s="10"/>
@@ -44936,7 +45232,7 @@
       <c r="CQ221" s="10"/>
       <c r="CR221" s="10"/>
     </row>
-    <row r="222" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>7</v>
       </c>
@@ -45012,7 +45308,9 @@
       <c r="Y222" s="17">
         <v>9.1238100967485103</v>
       </c>
-      <c r="Z222" s="10"/>
+      <c r="Z222" s="17">
+        <v>9.105186025570335</v>
+      </c>
       <c r="AA222" s="10"/>
       <c r="AB222" s="10"/>
       <c r="AC222" s="10"/>
@@ -45084,7 +45382,7 @@
       <c r="CQ222" s="10"/>
       <c r="CR222" s="10"/>
     </row>
-    <row r="223" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>6</v>
       </c>
@@ -45160,7 +45458,9 @@
       <c r="Y223" s="17">
         <v>1.3956529761198486</v>
       </c>
-      <c r="Z223" s="10"/>
+      <c r="Z223" s="17">
+        <v>1.4150514807492509</v>
+      </c>
       <c r="AA223" s="10"/>
       <c r="AB223" s="10"/>
       <c r="AC223" s="10"/>
@@ -45232,7 +45532,7 @@
       <c r="CQ223" s="10"/>
       <c r="CR223" s="10"/>
     </row>
-    <row r="224" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>5</v>
       </c>
@@ -45308,7 +45608,9 @@
       <c r="Y224" s="17">
         <v>1.083473791437753</v>
       </c>
-      <c r="Z224" s="10"/>
+      <c r="Z224" s="17">
+        <v>1.1701345995205052</v>
+      </c>
       <c r="AA224" s="10"/>
       <c r="AB224" s="10"/>
       <c r="AC224" s="10"/>
@@ -45380,7 +45682,7 @@
       <c r="CQ224" s="10"/>
       <c r="CR224" s="10"/>
     </row>
-    <row r="225" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>4</v>
       </c>
@@ -45456,7 +45758,9 @@
       <c r="Y225" s="17">
         <v>1.4657630171716733</v>
       </c>
-      <c r="Z225" s="10"/>
+      <c r="Z225" s="17">
+        <v>1.4761183925397361</v>
+      </c>
       <c r="AA225" s="10"/>
       <c r="AB225" s="10"/>
       <c r="AC225" s="10"/>
@@ -45528,7 +45832,7 @@
       <c r="CQ225" s="10"/>
       <c r="CR225" s="10"/>
     </row>
-    <row r="226" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>3</v>
       </c>
@@ -45604,7 +45908,9 @@
       <c r="Y226" s="17">
         <v>0.49927877324809444</v>
       </c>
-      <c r="Z226" s="10"/>
+      <c r="Z226" s="17">
+        <v>0.52533415294704122</v>
+      </c>
       <c r="AA226" s="10"/>
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
@@ -45676,7 +45982,7 @@
       <c r="CQ226" s="10"/>
       <c r="CR226" s="10"/>
     </row>
-    <row r="227" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>2</v>
       </c>
@@ -45752,7 +46058,9 @@
       <c r="Y227" s="17">
         <v>1.8333880333463271</v>
       </c>
-      <c r="Z227" s="10"/>
+      <c r="Z227" s="17">
+        <v>1.7516807713459239</v>
+      </c>
       <c r="AA227" s="10"/>
       <c r="AB227" s="10"/>
       <c r="AC227" s="10"/>
@@ -45824,7 +46132,7 @@
       <c r="CQ227" s="10"/>
       <c r="CR227" s="10"/>
     </row>
-    <row r="228" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228"/>
       <c r="B228" s="10"/>
       <c r="C228" s="10"/>
@@ -45922,7 +46230,7 @@
       <c r="CQ228" s="10"/>
       <c r="CR228" s="10"/>
     </row>
-    <row r="229" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
         <v>1</v>
       </c>
@@ -45998,7 +46306,9 @@
       <c r="Y229" s="17">
         <v>100</v>
       </c>
-      <c r="Z229" s="10"/>
+      <c r="Z229" s="17">
+        <v>100</v>
+      </c>
       <c r="AA229" s="10"/>
       <c r="AB229" s="10"/>
       <c r="AC229" s="10"/>
@@ -46070,7 +46380,7 @@
       <c r="CQ229" s="10"/>
       <c r="CR229" s="10"/>
     </row>
-    <row r="230" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="13"/>
       <c r="C230" s="13"/>
@@ -46096,13 +46406,14 @@
       <c r="W230" s="13"/>
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
+      <c r="Z230" s="13"/>
     </row>
-    <row r="231" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232"/>
       <c r="B232" s="10"/>
       <c r="C232" s="10"/>
@@ -46200,7 +46511,7 @@
       <c r="CQ232" s="10"/>
       <c r="CR232" s="10"/>
     </row>
-    <row r="233" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233"/>
       <c r="B233" s="10"/>
       <c r="C233" s="10"/>
@@ -46298,37 +46609,37 @@
       <c r="CQ233" s="10"/>
       <c r="CR233" s="10"/>
     </row>
-    <row r="234" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="235" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="236" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="238" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="239" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="242" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A242" s="6"/>
       <c r="B242" s="1" t="s">
         <v>25</v>
@@ -46356,8 +46667,9 @@
       <c r="W242" s="1"/>
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
+      <c r="Z242" s="1"/>
     </row>
-    <row r="243" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
         <v>24</v>
       </c>
@@ -46433,11 +46745,14 @@
       <c r="Y243" s="15">
         <v>2023</v>
       </c>
+      <c r="Z243" s="15">
+        <v>2024</v>
+      </c>
     </row>
-    <row r="244" spans="1:96" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="8"/>
     </row>
-    <row r="245" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>23</v>
       </c>
@@ -46513,7 +46828,9 @@
       <c r="Y245" s="17">
         <v>48.092910554077015</v>
       </c>
-      <c r="Z245" s="10"/>
+      <c r="Z245" s="17">
+        <v>48.326215872621844</v>
+      </c>
       <c r="AA245" s="10"/>
       <c r="AB245" s="10"/>
       <c r="AC245" s="10"/>
@@ -46585,7 +46902,7 @@
       <c r="CQ245" s="10"/>
       <c r="CR245" s="10"/>
     </row>
-    <row r="246" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>22</v>
       </c>
@@ -46661,7 +46978,9 @@
       <c r="Y246" s="17">
         <v>4.0684159861188753</v>
       </c>
-      <c r="Z246" s="10"/>
+      <c r="Z246" s="17">
+        <v>4.1518621421481949</v>
+      </c>
       <c r="AA246" s="10"/>
       <c r="AB246" s="10"/>
       <c r="AC246" s="10"/>
@@ -46733,7 +47052,7 @@
       <c r="CQ246" s="10"/>
       <c r="CR246" s="10"/>
     </row>
-    <row r="247" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>21</v>
       </c>
@@ -46809,7 +47128,9 @@
       <c r="Y247" s="17">
         <v>0.36409408310255326</v>
       </c>
-      <c r="Z247" s="10"/>
+      <c r="Z247" s="17">
+        <v>0.34102036844571498</v>
+      </c>
       <c r="AA247" s="10"/>
       <c r="AB247" s="10"/>
       <c r="AC247" s="10"/>
@@ -46881,7 +47202,7 @@
       <c r="CQ247" s="10"/>
       <c r="CR247" s="10"/>
     </row>
-    <row r="248" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>20</v>
       </c>
@@ -46957,7 +47278,9 @@
       <c r="Y248" s="17">
         <v>1.0433926939569382</v>
       </c>
-      <c r="Z248" s="10"/>
+      <c r="Z248" s="17">
+        <v>0.97342951927866483</v>
+      </c>
       <c r="AA248" s="10"/>
       <c r="AB248" s="10"/>
       <c r="AC248" s="10"/>
@@ -47029,7 +47352,7 @@
       <c r="CQ248" s="10"/>
       <c r="CR248" s="10"/>
     </row>
-    <row r="249" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>19</v>
       </c>
@@ -47105,7 +47428,9 @@
       <c r="Y249" s="17">
         <v>1.3214110729324076</v>
       </c>
-      <c r="Z249" s="10"/>
+      <c r="Z249" s="17">
+        <v>1.2992173280550441</v>
+      </c>
       <c r="AA249" s="10"/>
       <c r="AB249" s="10"/>
       <c r="AC249" s="10"/>
@@ -47177,7 +47502,7 @@
       <c r="CQ249" s="10"/>
       <c r="CR249" s="10"/>
     </row>
-    <row r="250" spans="1:96" ht="37.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:96" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11" t="s">
         <v>18</v>
       </c>
@@ -47253,7 +47578,9 @@
       <c r="Y250" s="17">
         <v>0.28815813396147255</v>
       </c>
-      <c r="Z250" s="10"/>
+      <c r="Z250" s="17">
+        <v>0.29037248596257209</v>
+      </c>
       <c r="AA250" s="10"/>
       <c r="AB250" s="10"/>
       <c r="AC250" s="10"/>
@@ -47325,7 +47652,7 @@
       <c r="CQ250" s="10"/>
       <c r="CR250" s="10"/>
     </row>
-    <row r="251" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11" t="s">
         <v>17</v>
       </c>
@@ -47401,7 +47728,9 @@
       <c r="Y251" s="17">
         <v>1.1641478777657113</v>
       </c>
-      <c r="Z251" s="10"/>
+      <c r="Z251" s="17">
+        <v>0.99805015764677429</v>
+      </c>
       <c r="AA251" s="10"/>
       <c r="AB251" s="10"/>
       <c r="AC251" s="10"/>
@@ -47473,7 +47802,7 @@
       <c r="CQ251" s="10"/>
       <c r="CR251" s="10"/>
     </row>
-    <row r="252" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>16</v>
       </c>
@@ -47549,7 +47878,9 @@
       <c r="Y252" s="17">
         <v>0.78279669916712069</v>
       </c>
-      <c r="Z252" s="10"/>
+      <c r="Z252" s="17">
+        <v>0.79804317553154014</v>
+      </c>
       <c r="AA252" s="10"/>
       <c r="AB252" s="10"/>
       <c r="AC252" s="10"/>
@@ -47621,7 +47952,7 @@
       <c r="CQ252" s="10"/>
       <c r="CR252" s="10"/>
     </row>
-    <row r="253" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>15</v>
       </c>
@@ -47697,7 +48028,9 @@
       <c r="Y253" s="17">
         <v>0.85897520807167238</v>
       </c>
-      <c r="Z253" s="10"/>
+      <c r="Z253" s="17">
+        <v>0.92285237987787383</v>
+      </c>
       <c r="AA253" s="10"/>
       <c r="AB253" s="10"/>
       <c r="AC253" s="10"/>
@@ -47769,7 +48102,7 @@
       <c r="CQ253" s="10"/>
       <c r="CR253" s="10"/>
     </row>
-    <row r="254" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>14</v>
       </c>
@@ -47845,7 +48178,9 @@
       <c r="Y254" s="17">
         <v>3.6139294736366074</v>
       </c>
-      <c r="Z254" s="10"/>
+      <c r="Z254" s="17">
+        <v>3.7769833494438956</v>
+      </c>
       <c r="AA254" s="10"/>
       <c r="AB254" s="10"/>
       <c r="AC254" s="10"/>
@@ -47917,7 +48252,7 @@
       <c r="CQ254" s="10"/>
       <c r="CR254" s="10"/>
     </row>
-    <row r="255" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>13</v>
       </c>
@@ -47993,7 +48328,9 @@
       <c r="Y255" s="17">
         <v>12.229198952650746</v>
       </c>
-      <c r="Z255" s="10"/>
+      <c r="Z255" s="17">
+        <v>12.50737084004002</v>
+      </c>
       <c r="AA255" s="10"/>
       <c r="AB255" s="10"/>
       <c r="AC255" s="10"/>
@@ -48065,7 +48402,7 @@
       <c r="CQ255" s="10"/>
       <c r="CR255" s="10"/>
     </row>
-    <row r="256" spans="1:96" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:96" ht="34.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="11" t="s">
         <v>12</v>
       </c>
@@ -48141,7 +48478,9 @@
       <c r="Y256" s="17">
         <v>1.5286724486570731</v>
       </c>
-      <c r="Z256" s="10"/>
+      <c r="Z256" s="17">
+        <v>1.5094487275420307</v>
+      </c>
       <c r="AA256" s="10"/>
       <c r="AB256" s="10"/>
       <c r="AC256" s="10"/>
@@ -48213,7 +48552,7 @@
       <c r="CQ256" s="10"/>
       <c r="CR256" s="10"/>
     </row>
-    <row r="257" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>11</v>
       </c>
@@ -48289,7 +48628,9 @@
       <c r="Y257" s="17">
         <v>0.90106810630076284</v>
       </c>
-      <c r="Z257" s="10"/>
+      <c r="Z257" s="17">
+        <v>0.88540136233858735</v>
+      </c>
       <c r="AA257" s="10"/>
       <c r="AB257" s="10"/>
       <c r="AC257" s="10"/>
@@ -48361,7 +48702,7 @@
       <c r="CQ257" s="10"/>
       <c r="CR257" s="10"/>
     </row>
-    <row r="258" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>10</v>
       </c>
@@ -48437,7 +48778,9 @@
       <c r="Y258" s="17">
         <v>2.3390511980066608</v>
       </c>
-      <c r="Z258" s="10"/>
+      <c r="Z258" s="17">
+        <v>2.0939451801533044</v>
+      </c>
       <c r="AA258" s="10"/>
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
@@ -48509,7 +48852,7 @@
       <c r="CQ258" s="10"/>
       <c r="CR258" s="10"/>
     </row>
-    <row r="259" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>9</v>
       </c>
@@ -48585,7 +48928,9 @@
       <c r="Y259" s="17">
         <v>2.7242882944589799</v>
       </c>
-      <c r="Z259" s="10"/>
+      <c r="Z259" s="17">
+        <v>2.4668553977082976</v>
+      </c>
       <c r="AA259" s="10"/>
       <c r="AB259" s="10"/>
       <c r="AC259" s="10"/>
@@ -48657,7 +49002,7 @@
       <c r="CQ259" s="10"/>
       <c r="CR259" s="10"/>
     </row>
-    <row r="260" spans="1:96" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:96" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="11" t="s">
         <v>8</v>
       </c>
@@ -48733,7 +49078,9 @@
       <c r="Y260" s="17">
         <v>0.79546374784728924</v>
       </c>
-      <c r="Z260" s="10"/>
+      <c r="Z260" s="17">
+        <v>0.79278428781398913</v>
+      </c>
       <c r="AA260" s="10"/>
       <c r="AB260" s="10"/>
       <c r="AC260" s="10"/>
@@ -48805,7 +49152,7 @@
       <c r="CQ260" s="10"/>
       <c r="CR260" s="10"/>
     </row>
-    <row r="261" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>7</v>
       </c>
@@ -48881,7 +49228,9 @@
       <c r="Y261" s="17">
         <v>10.654162245497252</v>
       </c>
-      <c r="Z261" s="10"/>
+      <c r="Z261" s="17">
+        <v>10.521555152385632</v>
+      </c>
       <c r="AA261" s="10"/>
       <c r="AB261" s="10"/>
       <c r="AC261" s="10"/>
@@ -48953,7 +49302,7 @@
       <c r="CQ261" s="10"/>
       <c r="CR261" s="10"/>
     </row>
-    <row r="262" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>6</v>
       </c>
@@ -49029,7 +49378,9 @@
       <c r="Y262" s="17">
         <v>1.5206553627079806</v>
       </c>
-      <c r="Z262" s="10"/>
+      <c r="Z262" s="17">
+        <v>1.6103345854271034</v>
+      </c>
       <c r="AA262" s="10"/>
       <c r="AB262" s="10"/>
       <c r="AC262" s="10"/>
@@ -49101,7 +49452,7 @@
       <c r="CQ262" s="10"/>
       <c r="CR262" s="10"/>
     </row>
-    <row r="263" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>5</v>
       </c>
@@ -49177,7 +49528,9 @@
       <c r="Y263" s="17">
         <v>1.248138513765521</v>
       </c>
-      <c r="Z263" s="10"/>
+      <c r="Z263" s="17">
+        <v>1.3361207262480415</v>
+      </c>
       <c r="AA263" s="10"/>
       <c r="AB263" s="10"/>
       <c r="AC263" s="10"/>
@@ -49249,7 +49602,7 @@
       <c r="CQ263" s="10"/>
       <c r="CR263" s="10"/>
     </row>
-    <row r="264" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>4</v>
       </c>
@@ -49325,7 +49678,9 @@
       <c r="Y264" s="17">
         <v>1.8485981758180572</v>
       </c>
-      <c r="Z264" s="10"/>
+      <c r="Z264" s="17">
+        <v>1.8241988943910814</v>
+      </c>
       <c r="AA264" s="10"/>
       <c r="AB264" s="10"/>
       <c r="AC264" s="10"/>
@@ -49397,7 +49752,7 @@
       <c r="CQ264" s="10"/>
       <c r="CR264" s="10"/>
     </row>
-    <row r="265" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>3</v>
       </c>
@@ -49473,7 +49828,9 @@
       <c r="Y265" s="17">
         <v>0.53609566087075944</v>
       </c>
-      <c r="Z265" s="10"/>
+      <c r="Z265" s="17">
+        <v>0.56859234262119962</v>
+      </c>
       <c r="AA265" s="10"/>
       <c r="AB265" s="10"/>
       <c r="AC265" s="10"/>
@@ -49545,7 +49902,7 @@
       <c r="CQ265" s="10"/>
       <c r="CR265" s="10"/>
     </row>
-    <row r="266" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>2</v>
       </c>
@@ -49621,7 +49978,9 @@
       <c r="Y266" s="17">
         <v>2.0763755106285657</v>
       </c>
-      <c r="Z266" s="10"/>
+      <c r="Z266" s="17">
+        <v>2.0053457243185777</v>
+      </c>
       <c r="AA266" s="10"/>
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
@@ -49693,7 +50052,7 @@
       <c r="CQ266" s="10"/>
       <c r="CR266" s="10"/>
     </row>
-    <row r="267" spans="1:96" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267" s="10"/>
       <c r="C267" s="10"/>
@@ -49791,7 +50150,7 @@
       <c r="CQ267" s="10"/>
       <c r="CR267" s="10"/>
     </row>
-    <row r="268" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:96" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="11" t="s">
         <v>1</v>
       </c>
@@ -49867,7 +50226,9 @@
       <c r="Y268" s="17">
         <v>100</v>
       </c>
-      <c r="Z268" s="10"/>
+      <c r="Z268" s="17">
+        <v>100</v>
+      </c>
       <c r="AA268" s="10"/>
       <c r="AB268" s="10"/>
       <c r="AC268" s="10"/>
@@ -49939,7 +50300,7 @@
       <c r="CQ268" s="10"/>
       <c r="CR268" s="10"/>
     </row>
-    <row r="269" spans="1:96" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:96" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="13"/>
       <c r="B269" s="13"/>
       <c r="C269" s="13"/>
@@ -49965,13 +50326,14 @@
       <c r="W269" s="13"/>
       <c r="X269" s="13"/>
       <c r="Y269" s="13"/>
+      <c r="Z269" s="13"/>
     </row>
-    <row r="270" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="18"/>
       <c r="C271" s="18"/>
@@ -50069,7 +50431,7 @@
       <c r="CQ271" s="18"/>
       <c r="CR271" s="18"/>
     </row>
-    <row r="272" spans="1:96" s="19" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:96" s="19" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="18"/>
       <c r="C272" s="18"/>
@@ -50173,12 +50535,12 @@
   <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="39" max="24" man="1"/>
-    <brk id="78" max="24" man="1"/>
-    <brk id="117" max="24" man="1"/>
-    <brk id="156" max="24" man="1"/>
-    <brk id="194" max="24" man="1"/>
-    <brk id="233" max="24" man="1"/>
+    <brk id="39" max="25" man="1"/>
+    <brk id="78" max="25" man="1"/>
+    <brk id="117" max="25" man="1"/>
+    <brk id="156" max="25" man="1"/>
+    <brk id="194" max="25" man="1"/>
+    <brk id="233" max="25" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4331CC6-2FF1-4313-8E68-F49DD964EA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E6F2A-15CF-45F3-A196-8ED443264130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -676,7 +676,7 @@
     <t>Annual 2001 to 2024</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>As of April 2025</t>
   </si>
 </sst>
 </file>
@@ -23634,7 +23634,7 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23861,10 +23861,10 @@
         <v>1963559.1697116825</v>
       </c>
       <c r="Y12" s="9">
-        <v>2096310.6648876839</v>
+        <v>2103183.0411664778</v>
       </c>
       <c r="Z12" s="9">
-        <v>2213700.9745257832</v>
+        <v>2228956.9688645643</v>
       </c>
       <c r="AA12" s="10"/>
       <c r="AB12" s="10"/>
@@ -24011,10 +24011,10 @@
         <v>167525.98055008642</v>
       </c>
       <c r="Y13" s="9">
-        <v>186841.17177051614</v>
+        <v>186406.40244344261</v>
       </c>
       <c r="Z13" s="9">
-        <v>204915.00009854208</v>
+        <v>204657.1675677959</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10"/>
@@ -24161,10 +24161,10 @@
         <v>15171.253303691183</v>
       </c>
       <c r="Y14" s="9">
-        <v>13976.639216210728</v>
+        <v>13975.066396461005</v>
       </c>
       <c r="Z14" s="9">
-        <v>14183.830341565572</v>
+        <v>14382.075022825285</v>
       </c>
       <c r="AA14" s="10"/>
       <c r="AB14" s="10"/>
@@ -24314,7 +24314,7 @@
         <v>39306.481017148224</v>
       </c>
       <c r="Z15" s="9">
-        <v>37807.213946867028</v>
+        <v>37663.830022278278</v>
       </c>
       <c r="AA15" s="10"/>
       <c r="AB15" s="10"/>
@@ -24461,10 +24461,10 @@
         <v>52616.307529226702</v>
       </c>
       <c r="Y16" s="9">
-        <v>41639.107217353143</v>
+        <v>41563.322010886535</v>
       </c>
       <c r="Z16" s="9">
-        <v>43563.686127633213</v>
+        <v>43888.293777481296</v>
       </c>
       <c r="AA16" s="10"/>
       <c r="AB16" s="10"/>
@@ -24611,10 +24611,10 @@
         <v>11872.633821638428</v>
       </c>
       <c r="Y17" s="9">
-        <v>10312.882885329282</v>
+        <v>10361.537886590389</v>
       </c>
       <c r="Z17" s="9">
-        <v>11228.934814647751</v>
+        <v>11936.204341495037</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
@@ -24761,10 +24761,10 @@
         <v>32342.79484233465</v>
       </c>
       <c r="Y18" s="9">
-        <v>30620.382828570928</v>
+        <v>30676.962781957674</v>
       </c>
       <c r="Z18" s="9">
-        <v>26505.087340467075</v>
+        <v>26389.78195729079</v>
       </c>
       <c r="AA18" s="10"/>
       <c r="AB18" s="10"/>
@@ -24911,10 +24911,10 @@
         <v>26704.69813164922</v>
       </c>
       <c r="Y19" s="9">
-        <v>26825.20184913382</v>
+        <v>26843.197711509099</v>
       </c>
       <c r="Z19" s="9">
-        <v>27982.446812547787</v>
+        <v>27945.32781718711</v>
       </c>
       <c r="AA19" s="10"/>
       <c r="AB19" s="10"/>
@@ -25061,10 +25061,10 @@
         <v>30574.074155602535</v>
       </c>
       <c r="Y20" s="9">
-        <v>33402.068427776787</v>
+        <v>32992.020349153376</v>
       </c>
       <c r="Z20" s="9">
-        <v>39160.041825961482</v>
+        <v>37018.400290474536</v>
       </c>
       <c r="AA20" s="10"/>
       <c r="AB20" s="10"/>
@@ -25211,10 +25211,10 @@
         <v>106827.32394022004</v>
       </c>
       <c r="Y21" s="9">
-        <v>136276.44185113837</v>
+        <v>136166.77930683346</v>
       </c>
       <c r="Z21" s="9">
-        <v>147999.03013764077</v>
+        <v>147969.40875276463</v>
       </c>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10"/>
@@ -25361,10 +25361,10 @@
         <v>469262.84027610044</v>
       </c>
       <c r="Y22" s="9">
-        <v>446210.12678456231</v>
+        <v>442344.55499518447</v>
       </c>
       <c r="Z22" s="9">
-        <v>468834.75799380435</v>
+        <v>461073.28673980158</v>
       </c>
       <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
@@ -25511,10 +25511,10 @@
         <v>37904.130965505406</v>
       </c>
       <c r="Y23" s="9">
-        <v>40535.710656342824</v>
+        <v>40565.633189774177</v>
       </c>
       <c r="Z23" s="9">
-        <v>42071.709335981388</v>
+        <v>41790.543313932554</v>
       </c>
       <c r="AA23" s="10"/>
       <c r="AB23" s="10"/>
@@ -25661,10 +25661,10 @@
         <v>39868.735097207973</v>
       </c>
       <c r="Y24" s="9">
-        <v>39277.403406199912</v>
+        <v>39118.77624454991</v>
       </c>
       <c r="Z24" s="9">
-        <v>39002.879609099939</v>
+        <v>38611.144802957191</v>
       </c>
       <c r="AA24" s="10"/>
       <c r="AB24" s="10"/>
@@ -25811,10 +25811,10 @@
         <v>96870.433079412178</v>
       </c>
       <c r="Y25" s="9">
-        <v>92092.913692660426</v>
+        <v>92109.176159616851</v>
       </c>
       <c r="Z25" s="9">
-        <v>84127.105664127215</v>
+        <v>83314.93161544895</v>
       </c>
       <c r="AA25" s="10"/>
       <c r="AB25" s="10"/>
@@ -25961,10 +25961,10 @@
         <v>75436.166146064745</v>
       </c>
       <c r="Y26" s="9">
-        <v>73434.655457342684</v>
+        <v>73529.682559120585</v>
       </c>
       <c r="Z26" s="9">
-        <v>68586.628719488246</v>
+        <v>67190.191734506225</v>
       </c>
       <c r="AA26" s="10"/>
       <c r="AB26" s="10"/>
@@ -26111,10 +26111,10 @@
         <v>30482.67272056796</v>
       </c>
       <c r="Y27" s="9">
-        <v>29496.838546776926</v>
+        <v>29436.322817594271</v>
       </c>
       <c r="Z27" s="9">
-        <v>30195.630427882694</v>
+        <v>30448.722139393369</v>
       </c>
       <c r="AA27" s="10"/>
       <c r="AB27" s="10"/>
@@ -26261,10 +26261,10 @@
         <v>358552.79401338287</v>
       </c>
       <c r="Y28" s="9">
-        <v>359841.83995603444</v>
+        <v>360997.98265814112</v>
       </c>
       <c r="Z28" s="9">
-        <v>376871.36468614615</v>
+        <v>376901.60826731857</v>
       </c>
       <c r="AA28" s="10"/>
       <c r="AB28" s="10"/>
@@ -26411,10 +26411,10 @@
         <v>53389.287277739597</v>
       </c>
       <c r="Y29" s="9">
-        <v>55044.365187528172</v>
+        <v>54544.368293739113</v>
       </c>
       <c r="Z29" s="9">
-        <v>58570.179802308587</v>
+        <v>58978.810408547084</v>
       </c>
       <c r="AA29" s="10"/>
       <c r="AB29" s="10"/>
@@ -26561,10 +26561,10 @@
         <v>45250.094552016111</v>
       </c>
       <c r="Y30" s="9">
-        <v>42732.060238084596</v>
+        <v>42746.736867806205</v>
       </c>
       <c r="Z30" s="9">
-        <v>48432.862563084971</v>
+        <v>50603.911738026167</v>
       </c>
       <c r="AA30" s="10"/>
       <c r="AB30" s="10"/>
@@ -26711,10 +26711,10 @@
         <v>51942.413689319343</v>
       </c>
       <c r="Y31" s="9">
-        <v>57809.495752934447</v>
+        <v>57326.249298612885</v>
       </c>
       <c r="Z31" s="9">
-        <v>61097.791025079525</v>
+        <v>59967.948827625543</v>
       </c>
       <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
@@ -26861,10 +26861,10 @@
         <v>21430.079964964156</v>
       </c>
       <c r="Y32" s="9">
-        <v>19691.487493871959</v>
+        <v>19279.455413816831</v>
       </c>
       <c r="Z32" s="9">
-        <v>21744.025721318598</v>
+        <v>22523.341358021033</v>
       </c>
       <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
@@ -27011,10 +27011,10 @@
         <v>63844.544098247512</v>
       </c>
       <c r="Y33" s="9">
-        <v>72308.576820097165</v>
+        <v>72696.890875136858</v>
       </c>
       <c r="Z33" s="9">
-        <v>72503.551375851006</v>
+        <v>73825.935570902438</v>
       </c>
       <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
@@ -27259,10 +27259,10 @@
         <v>3795335.3083644398</v>
       </c>
       <c r="Y35" s="12">
-        <v>3943986.5159432981</v>
+        <v>3946170.6404435537</v>
       </c>
       <c r="Z35" s="12">
-        <v>4139084.7328958279</v>
+        <v>4146037.8349306383</v>
       </c>
       <c r="AA35" s="10"/>
       <c r="AB35" s="10"/>
@@ -27781,10 +27781,10 @@
         <v>1775626.6722058905</v>
       </c>
       <c r="Y51" s="9">
-        <v>1817548.8825098276</v>
+        <v>1822714.3832008329</v>
       </c>
       <c r="Z51" s="9">
-        <v>1892351.8901886179</v>
+        <v>1903695.6854249169</v>
       </c>
       <c r="AA51" s="10"/>
       <c r="AB51" s="10"/>
@@ -27931,10 +27931,10 @@
         <v>153519.3927920358</v>
       </c>
       <c r="Y52" s="9">
-        <v>153755.40477719365</v>
+        <v>153428.56843799033</v>
       </c>
       <c r="Z52" s="9">
-        <v>162578.09618707988</v>
+        <v>162440.29422283522</v>
       </c>
       <c r="AA52" s="10"/>
       <c r="AB52" s="10"/>
@@ -28081,10 +28081,10 @@
         <v>15758.202383076276</v>
       </c>
       <c r="Y53" s="9">
-        <v>13760.007166282561</v>
+        <v>13758.891675729754</v>
       </c>
       <c r="Z53" s="9">
-        <v>13353.632747120708</v>
+        <v>13547.020644440841</v>
       </c>
       <c r="AA53" s="10"/>
       <c r="AB53" s="10"/>
@@ -28234,7 +28234,7 @@
         <v>39432.365458272005</v>
       </c>
       <c r="Z54" s="9">
-        <v>38117.430829422003</v>
+        <v>38015.986374732871</v>
       </c>
       <c r="AA54" s="10"/>
       <c r="AB54" s="10"/>
@@ -28381,10 +28381,10 @@
         <v>63786.696765953791</v>
       </c>
       <c r="Y55" s="9">
-        <v>49939.360942686922</v>
+        <v>49837.781941557216</v>
       </c>
       <c r="Z55" s="9">
-        <v>50874.588918591922</v>
+        <v>51450.747185487569</v>
       </c>
       <c r="AA55" s="10"/>
       <c r="AB55" s="10"/>
@@ -28531,10 +28531,10 @@
         <v>13079.477492858658</v>
       </c>
       <c r="Y56" s="9">
-        <v>10890.20166036493</v>
+        <v>10942.933395335838</v>
       </c>
       <c r="Z56" s="9">
-        <v>11370.369327455264</v>
+        <v>12077.90069676261</v>
       </c>
       <c r="AA56" s="10"/>
       <c r="AB56" s="10"/>
@@ -28681,10 +28681,10 @@
         <v>46698.741828051294</v>
       </c>
       <c r="Y57" s="9">
-        <v>43995.999616826753</v>
+        <v>44071.498240620276</v>
       </c>
       <c r="Z57" s="9">
-        <v>39081.522693687693</v>
+        <v>38819.205691276096</v>
       </c>
       <c r="AA57" s="10"/>
       <c r="AB57" s="10"/>
@@ -28831,10 +28831,10 @@
         <v>30412.888144836612</v>
       </c>
       <c r="Y58" s="9">
-        <v>29583.804544409471</v>
+        <v>29601.043987528217</v>
       </c>
       <c r="Z58" s="9">
-        <v>31249.674413774977</v>
+        <v>31228.914381692633</v>
       </c>
       <c r="AA58" s="10"/>
       <c r="AB58" s="10"/>
@@ -28981,10 +28981,10 @@
         <v>30713.012221075307</v>
       </c>
       <c r="Y59" s="9">
-        <v>32462.776977883772</v>
+        <v>32092.694842262725</v>
       </c>
       <c r="Z59" s="9">
-        <v>36136.937558488236</v>
+        <v>34406.653362367782</v>
       </c>
       <c r="AA59" s="10"/>
       <c r="AB59" s="10"/>
@@ -29131,10 +29131,10 @@
         <v>100536.46253514205</v>
       </c>
       <c r="Y60" s="9">
-        <v>136579.24630890758</v>
+        <v>136484.12095471291</v>
       </c>
       <c r="Z60" s="9">
-        <v>147898.6395162855</v>
+        <v>147870.76637623337</v>
       </c>
       <c r="AA60" s="10"/>
       <c r="AB60" s="10"/>
@@ -29281,10 +29281,10 @@
         <v>464113.70825221518</v>
       </c>
       <c r="Y61" s="9">
-        <v>462171.38106848137</v>
+        <v>458858.48002449644</v>
       </c>
       <c r="Z61" s="9">
-        <v>489762.05612342409</v>
+        <v>483382.86271329771</v>
       </c>
       <c r="AA61" s="10"/>
       <c r="AB61" s="10"/>
@@ -29431,10 +29431,10 @@
         <v>53127.204998006971</v>
       </c>
       <c r="Y62" s="9">
-        <v>57772.27597103054</v>
+        <v>57811.389674434031</v>
       </c>
       <c r="Z62" s="9">
-        <v>59106.803649511508</v>
+        <v>58744.263242797118</v>
       </c>
       <c r="AA62" s="10"/>
       <c r="AB62" s="10"/>
@@ -29581,10 +29581,10 @@
         <v>36871.688035300656</v>
       </c>
       <c r="Y63" s="9">
-        <v>34053.570698963675</v>
+        <v>33927.105249363318</v>
       </c>
       <c r="Z63" s="9">
-        <v>34670.43531844618</v>
+        <v>34346.945270353288</v>
       </c>
       <c r="AA63" s="10"/>
       <c r="AB63" s="10"/>
@@ -29731,10 +29731,10 @@
         <v>92606.478084881761</v>
       </c>
       <c r="Y64" s="9">
-        <v>88398.473747808515</v>
+        <v>88412.858078606834</v>
       </c>
       <c r="Z64" s="9">
-        <v>81994.442313852021</v>
+        <v>81238.45679361542</v>
       </c>
       <c r="AA64" s="10"/>
       <c r="AB64" s="10"/>
@@ -29881,10 +29881,10 @@
         <v>99139.271405644948</v>
       </c>
       <c r="Y65" s="9">
-        <v>102957.52717359219</v>
+        <v>103074.69320655862</v>
       </c>
       <c r="Z65" s="9">
-        <v>96596.813766250911</v>
+        <v>94578.184797933427</v>
       </c>
       <c r="AA65" s="10"/>
       <c r="AB65" s="10"/>
@@ -30031,10 +30031,10 @@
         <v>32836.376078807938</v>
       </c>
       <c r="Y66" s="9">
-        <v>30062.523339094401</v>
+        <v>30012.335146910573</v>
       </c>
       <c r="Z66" s="9">
-        <v>31043.747549175689</v>
+        <v>31277.62116287048</v>
       </c>
       <c r="AA66" s="10"/>
       <c r="AB66" s="10"/>
@@ -30181,10 +30181,10 @@
         <v>416171.07144309045</v>
       </c>
       <c r="Y67" s="9">
-        <v>402646.88621014077</v>
+        <v>404335.56977385108</v>
       </c>
       <c r="Z67" s="9">
-        <v>412001.73489314294</v>
+        <v>412476.97679023747</v>
       </c>
       <c r="AA67" s="10"/>
       <c r="AB67" s="10"/>
@@ -30331,10 +30331,10 @@
         <v>55223.338007229431</v>
       </c>
       <c r="Y68" s="9">
-        <v>57469.290656981531</v>
+        <v>56937.634002551116</v>
       </c>
       <c r="Z68" s="9">
-        <v>63057.279398850573</v>
+        <v>63478.67353463469</v>
       </c>
       <c r="AA68" s="10"/>
       <c r="AB68" s="10"/>
@@ -30481,10 +30481,10 @@
         <v>49964.128462948</v>
       </c>
       <c r="Y69" s="9">
-        <v>47170.211467263463</v>
+        <v>47183.96854997646</v>
       </c>
       <c r="Z69" s="9">
-        <v>52319.647549066329</v>
+        <v>54635.055723868951</v>
       </c>
       <c r="AA69" s="10"/>
       <c r="AB69" s="10"/>
@@ -30631,10 +30631,10 @@
         <v>61553.563960288826</v>
       </c>
       <c r="Y70" s="9">
-        <v>69863.052785915919</v>
+        <v>69245.936918795778</v>
       </c>
       <c r="Z70" s="9">
-        <v>71431.751142688154</v>
+        <v>70149.350764100323</v>
       </c>
       <c r="AA70" s="10"/>
       <c r="AB70" s="10"/>
@@ -30781,10 +30781,10 @@
         <v>23076.882802143198</v>
       </c>
       <c r="Y71" s="9">
-        <v>20260.368068977568</v>
+        <v>19856.296953808549</v>
       </c>
       <c r="Z71" s="9">
-        <v>22264.867523293338</v>
+        <v>23032.611235429405</v>
       </c>
       <c r="AA71" s="10"/>
       <c r="AB71" s="10"/>
@@ -30931,10 +30931,10 @@
         <v>69650.984897315808</v>
       </c>
       <c r="Y72" s="9">
-        <v>78471.316157299894</v>
+        <v>78847.404405572233</v>
       </c>
       <c r="Z72" s="9">
-        <v>78525.075952528598</v>
+        <v>79853.635910963145</v>
       </c>
       <c r="AA72" s="10"/>
       <c r="AB72" s="10"/>
@@ -31179,10 +31179,10 @@
         <v>3729156.6311298646</v>
       </c>
       <c r="Y74" s="12">
-        <v>3779244.9273082041</v>
+        <v>3780867.9541197671</v>
       </c>
       <c r="Z74" s="12">
-        <v>3915787.4375607548</v>
+        <v>3920747.8123008478</v>
       </c>
       <c r="AA74" s="10"/>
       <c r="AB74" s="10"/>
@@ -31696,10 +31696,10 @@
         <v>13.578303893017505</v>
       </c>
       <c r="X90" s="17">
-        <v>6.7607585869436235</v>
+        <v>7.1107544711930899</v>
       </c>
       <c r="Y90" s="17">
-        <v>5.5998527128796809</v>
+        <v>5.9801703054969977</v>
       </c>
       <c r="Z90" s="17"/>
       <c r="AA90" s="10"/>
@@ -31839,10 +31839,10 @@
         <v>4.3066245792171145</v>
       </c>
       <c r="X91" s="17">
-        <v>11.52966910386472</v>
+        <v>11.270145580620181</v>
       </c>
       <c r="Y91" s="17">
-        <v>9.673364899586872</v>
+        <v>9.7908467118723195</v>
       </c>
       <c r="Z91" s="17"/>
       <c r="AA91" s="10"/>
@@ -31982,10 +31982,10 @@
         <v>-9.1142767334298327</v>
       </c>
       <c r="X92" s="17">
-        <v>-7.8741951213075083</v>
+        <v>-7.884562226241016</v>
       </c>
       <c r="Y92" s="17">
-        <v>1.4824101999752202</v>
+        <v>2.9123913605687761</v>
       </c>
       <c r="Z92" s="17"/>
       <c r="AA92" s="10"/>
@@ -32128,7 +32128,7 @@
         <v>-10.477627716832259</v>
       </c>
       <c r="Y93" s="17">
-        <v>-3.814299910559555</v>
+        <v>-4.1790843452847071</v>
       </c>
       <c r="Z93" s="17"/>
       <c r="AA93" s="10"/>
@@ -32268,10 +32268,10 @@
         <v>0.452039060027559</v>
       </c>
       <c r="X94" s="17">
-        <v>-20.862734059732475</v>
+        <v>-21.006767744392903</v>
       </c>
       <c r="Y94" s="17">
-        <v>4.6220465300418283</v>
+        <v>5.5938063997526228</v>
       </c>
       <c r="Z94" s="17"/>
       <c r="AA94" s="10"/>
@@ -32411,10 +32411,10 @@
         <v>14.235996968673106</v>
       </c>
       <c r="X95" s="17">
-        <v>-13.137362439886147</v>
+        <v>-12.727554456316142</v>
       </c>
       <c r="Y95" s="17">
-        <v>8.8825980039161578</v>
+        <v>15.197227208352302</v>
       </c>
       <c r="Z95" s="17"/>
       <c r="AA95" s="10"/>
@@ -32554,10 +32554,10 @@
         <v>8.7697298245246174</v>
       </c>
       <c r="X96" s="17">
-        <v>-5.3254890993811017</v>
+        <v>-5.1505507439836578</v>
       </c>
       <c r="Y96" s="17">
-        <v>-13.439725790312451</v>
+        <v>-13.975245382467733</v>
       </c>
       <c r="Z96" s="17"/>
       <c r="AA96" s="10"/>
@@ -32697,10 +32697,10 @@
         <v>14.51534299509423</v>
       </c>
       <c r="X97" s="17">
-        <v>0.45124538345477561</v>
+        <v>0.51863375941229606</v>
       </c>
       <c r="Y97" s="17">
-        <v>4.3140214561007326</v>
+        <v>4.1058078010037775</v>
       </c>
       <c r="Z97" s="17"/>
       <c r="AA97" s="10"/>
@@ -32840,10 +32840,10 @@
         <v>-5.0647402090634444</v>
       </c>
       <c r="X98" s="17">
-        <v>9.2496481096420666</v>
+        <v>7.9084854090594376</v>
       </c>
       <c r="Y98" s="17">
-        <v>17.2383737571067</v>
+        <v>12.204102382061251</v>
       </c>
       <c r="Z98" s="17"/>
       <c r="AA98" s="10"/>
@@ -32983,10 +32983,10 @@
         <v>22.910612996211938</v>
       </c>
       <c r="X99" s="17">
-        <v>27.567027633677199</v>
+        <v>27.46437361197178</v>
       </c>
       <c r="Y99" s="17">
-        <v>8.6020651311894198</v>
+        <v>8.6677745526576189</v>
       </c>
       <c r="Z99" s="17"/>
       <c r="AA99" s="10"/>
@@ -33126,10 +33126,10 @@
         <v>20.710964825068643</v>
       </c>
       <c r="X100" s="17">
-        <v>-4.9125376042932771</v>
+        <v>-5.7362916835856907</v>
       </c>
       <c r="Y100" s="17">
-        <v>5.0703984179555732</v>
+        <v>4.2339690933509928</v>
       </c>
       <c r="Z100" s="17"/>
       <c r="AA100" s="10"/>
@@ -33269,10 +33269,10 @@
         <v>-1.5017460102858138</v>
       </c>
       <c r="X101" s="17">
-        <v>6.9427253014513894</v>
+        <v>7.0216679725248525</v>
       </c>
       <c r="Y101" s="17">
-        <v>3.789248183313191</v>
+        <v>3.0195760002759187</v>
       </c>
       <c r="Z101" s="17"/>
       <c r="AA101" s="10"/>
@@ -33412,10 +33412,10 @@
         <v>1.7417560167989592</v>
       </c>
       <c r="X102" s="17">
-        <v>-1.4831965186913436</v>
+        <v>-1.8810700937200835</v>
       </c>
       <c r="Y102" s="17">
-        <v>-0.69893570677494665</v>
+        <v>-1.2976669781776309</v>
       </c>
       <c r="Z102" s="17"/>
       <c r="AA102" s="10"/>
@@ -33555,10 +33555,10 @@
         <v>4.6617011669777213</v>
       </c>
       <c r="X103" s="17">
-        <v>-4.9318654153587289</v>
+        <v>-4.9150775612741882</v>
       </c>
       <c r="Y103" s="17">
-        <v>-8.6497513317010686</v>
+        <v>-9.5476313119208385</v>
       </c>
       <c r="Z103" s="17"/>
       <c r="AA103" s="10"/>
@@ -33698,10 +33698,10 @@
         <v>4.2439174650021272</v>
       </c>
       <c r="X104" s="17">
-        <v>-2.6532508092293483</v>
+        <v>-2.5272805927765347</v>
       </c>
       <c r="Y104" s="17">
-        <v>-6.6018240402456883</v>
+        <v>-8.6216757695331836</v>
       </c>
       <c r="Z104" s="17"/>
       <c r="AA104" s="10"/>
@@ -33841,10 +33841,10 @@
         <v>2.9174925533052942</v>
       </c>
       <c r="X105" s="17">
-        <v>-3.234080498216457</v>
+        <v>-3.4326055085965947</v>
       </c>
       <c r="Y105" s="17">
-        <v>2.3690399226940997</v>
+        <v>3.4392859735658874</v>
       </c>
       <c r="Z105" s="17"/>
       <c r="AA105" s="10"/>
@@ -33984,10 +33984,10 @@
         <v>-0.34440865022367007</v>
       </c>
       <c r="X106" s="17">
-        <v>0.35951356792480738</v>
+        <v>0.68196056078339495</v>
       </c>
       <c r="Y106" s="17">
-        <v>4.7325026828987973</v>
+        <v>4.4054610754536725</v>
       </c>
       <c r="Z106" s="17"/>
       <c r="AA106" s="10"/>
@@ -34127,10 +34127,10 @@
         <v>0.49460168108166158</v>
       </c>
       <c r="X107" s="17">
-        <v>3.1000187381760753</v>
+        <v>2.1635070908337894</v>
       </c>
       <c r="Y107" s="17">
-        <v>6.4054051722977903</v>
+        <v>8.1299724490841356</v>
       </c>
       <c r="Z107" s="17"/>
       <c r="AA107" s="10"/>
@@ -34270,10 +34270,10 @@
         <v>22.637183329125449</v>
       </c>
       <c r="X108" s="17">
-        <v>-5.5647050881561597</v>
+        <v>-5.5322706151082883</v>
       </c>
       <c r="Y108" s="17">
-        <v>13.340808501246997</v>
+        <v>18.380759435552193</v>
       </c>
       <c r="Z108" s="17"/>
       <c r="AA108" s="10"/>
@@ -34413,10 +34413,10 @@
         <v>13.433041141962491</v>
       </c>
       <c r="X109" s="17">
-        <v>11.295358930964582</v>
+        <v>10.365008529437276</v>
       </c>
       <c r="Y109" s="17">
-        <v>5.6881576794901605</v>
+        <v>4.6081848391162481</v>
       </c>
       <c r="Z109" s="17"/>
       <c r="AA109" s="10"/>
@@ -34556,10 +34556,10 @@
         <v>-1.0077492248587276</v>
       </c>
       <c r="X110" s="17">
-        <v>-8.1128603996560287</v>
+        <v>-10.035541419646407</v>
       </c>
       <c r="Y110" s="17">
-        <v>10.423479831502803</v>
+        <v>16.825609824432263</v>
       </c>
       <c r="Z110" s="17"/>
       <c r="AA110" s="10"/>
@@ -34699,10 +34699,10 @@
         <v>-1.3001455355685465</v>
       </c>
       <c r="X111" s="17">
-        <v>13.257252975014964</v>
+        <v>13.865471046777088</v>
       </c>
       <c r="Y111" s="17">
-        <v>0.26964236378061912</v>
+        <v>1.5530852587695989</v>
       </c>
       <c r="Z111" s="17"/>
       <c r="AA111" s="10"/>
@@ -34935,10 +34935,10 @@
         <v>10.84349233218984</v>
       </c>
       <c r="X113" s="17">
-        <v>3.916681808093486</v>
+        <v>3.974229411211482</v>
       </c>
       <c r="Y113" s="17">
-        <v>4.9467262670361123</v>
+        <v>5.0648391237490813</v>
       </c>
       <c r="Z113" s="17"/>
       <c r="AA113" s="10"/>
@@ -35439,10 +35439,10 @@
         <v>4.8085839402775434</v>
       </c>
       <c r="X129" s="17">
-        <v>2.3609811093824362</v>
+        <v>2.6518925251581322</v>
       </c>
       <c r="Y129" s="17">
-        <v>4.1155981222081834</v>
+        <v>4.4428958793793214</v>
       </c>
       <c r="Z129" s="17"/>
       <c r="AA129" s="10"/>
@@ -35582,10 +35582,10 @@
         <v>4.6010277952345291</v>
       </c>
       <c r="X130" s="17">
-        <v>0.15373431386453262</v>
+        <v>-5.9161485981448436E-2</v>
       </c>
       <c r="Y130" s="17">
-        <v>5.7381341635899901</v>
+        <v>5.8735644062839896</v>
       </c>
       <c r="Z130" s="17"/>
       <c r="AA130" s="10"/>
@@ -35725,10 +35725,10 @@
         <v>-11.396110035956482</v>
       </c>
       <c r="X131" s="17">
-        <v>-12.680350005783041</v>
+        <v>-12.687428798945405</v>
       </c>
       <c r="Y131" s="17">
-        <v>-2.9533009267439354</v>
+        <v>-1.5398844346063498</v>
       </c>
       <c r="Z131" s="17"/>
       <c r="AA131" s="10"/>
@@ -35871,7 +35871,7 @@
         <v>-11.765444586456525</v>
       </c>
       <c r="Y132" s="17">
-        <v>-3.3346582523472676</v>
+        <v>-3.59192015766331</v>
       </c>
       <c r="Z132" s="17"/>
       <c r="AA132" s="10"/>
@@ -36011,10 +36011,10 @@
         <v>-0.19357039031248746</v>
       </c>
       <c r="X133" s="17">
-        <v>-21.70881472993581</v>
+        <v>-21.868062670775927</v>
       </c>
       <c r="Y133" s="17">
-        <v>1.8727271600017588</v>
+        <v>3.2364306377475032</v>
       </c>
       <c r="Z133" s="17"/>
       <c r="AA133" s="10"/>
@@ -36154,10 +36154,10 @@
         <v>12.232780822412124</v>
       </c>
       <c r="X134" s="17">
-        <v>-16.738251460649437</v>
+        <v>-16.335087534569809</v>
       </c>
       <c r="Y134" s="17">
-        <v>4.4091714925529146</v>
+        <v>10.371691578699767</v>
       </c>
       <c r="Z134" s="17"/>
       <c r="AA134" s="10"/>
@@ -36297,10 +36297,10 @@
         <v>23.687687673523271</v>
       </c>
       <c r="X135" s="17">
-        <v>-5.7876124825295392</v>
+        <v>-5.6259408382023537</v>
       </c>
       <c r="Y135" s="17">
-        <v>-11.170281311802412</v>
+        <v>-11.917662795732213</v>
       </c>
       <c r="Z135" s="17"/>
       <c r="AA135" s="10"/>
@@ -36440,10 +36440,10 @@
         <v>12.138225941922002</v>
       </c>
       <c r="X136" s="17">
-        <v>-2.7260929526941311</v>
+        <v>-2.6694082898083025</v>
       </c>
       <c r="Y136" s="17">
-        <v>5.6310197252175556</v>
+        <v>5.4993681805624277</v>
       </c>
       <c r="Z136" s="17"/>
       <c r="AA136" s="10"/>
@@ -36583,10 +36583,10 @@
         <v>4.7321136947118987</v>
       </c>
       <c r="X137" s="17">
-        <v>5.6971447287992589</v>
+        <v>4.4921761866153957</v>
       </c>
       <c r="Y137" s="17">
-        <v>11.318072335917535</v>
+        <v>7.2102343897210375</v>
       </c>
       <c r="Z137" s="17"/>
       <c r="AA137" s="10"/>
@@ -36726,10 +36726,10 @@
         <v>0.42268126639532966</v>
       </c>
       <c r="X138" s="17">
-        <v>35.850459489925782</v>
+        <v>35.755841724593722</v>
       </c>
       <c r="Y138" s="17">
-        <v>8.2877842082803141</v>
+        <v>8.3428352997186153</v>
       </c>
       <c r="Z138" s="17"/>
       <c r="AA138" s="10"/>
@@ -36869,10 +36869,10 @@
         <v>11.825339937043466</v>
       </c>
       <c r="X139" s="17">
-        <v>-0.41850243791512298</v>
+        <v>-1.1323148043847198</v>
       </c>
       <c r="Y139" s="17">
-        <v>5.9697930648922011</v>
+        <v>5.3446506398861828</v>
       </c>
       <c r="Z139" s="17"/>
       <c r="AA139" s="10"/>
@@ -37012,10 +37012,10 @@
         <v>1.292377118718008</v>
       </c>
       <c r="X140" s="17">
-        <v>8.7433001099866345</v>
+        <v>8.8169228488545173</v>
       </c>
       <c r="Y140" s="17">
-        <v>2.3099794080298182</v>
+        <v>1.613650136446438</v>
       </c>
       <c r="Z140" s="17"/>
       <c r="AA140" s="10"/>
@@ -37155,10 +37155,10 @@
         <v>2.6516513602486071</v>
       </c>
       <c r="X141" s="17">
-        <v>-7.6430385656304622</v>
+        <v>-7.9860265228926295</v>
       </c>
       <c r="Y141" s="17">
-        <v>1.8114535621995174</v>
+        <v>1.237476695710285</v>
       </c>
       <c r="Z141" s="17"/>
       <c r="AA141" s="10"/>
@@ -37298,10 +37298,10 @@
         <v>-0.38470497267016412</v>
       </c>
       <c r="X142" s="17">
-        <v>-4.5439632562381433</v>
+        <v>-4.5284305083183511</v>
       </c>
       <c r="Y142" s="17">
-        <v>-7.2445045286941507</v>
+        <v>-8.1146582532291092</v>
       </c>
       <c r="Z142" s="17"/>
       <c r="AA142" s="10"/>
@@ -37441,10 +37441,10 @@
         <v>-3.499216768978485</v>
       </c>
       <c r="X143" s="17">
-        <v>3.8514059199852255</v>
+        <v>3.9695891901517371</v>
       </c>
       <c r="Y143" s="17">
-        <v>-6.1779974538595468</v>
+        <v>-8.2430596146412398</v>
       </c>
       <c r="Z143" s="17"/>
       <c r="AA143" s="10"/>
@@ -37584,10 +37584,10 @@
         <v>10.791797958819643</v>
       </c>
       <c r="X144" s="17">
-        <v>-8.4474996054870246</v>
+        <v>-8.6003428792495669</v>
       </c>
       <c r="Y144" s="17">
-        <v>3.2639449423903528</v>
+        <v>4.2158866005138407</v>
       </c>
       <c r="Z144" s="17"/>
       <c r="AA144" s="10"/>
@@ -37727,10 +37727,10 @@
         <v>-0.84227292569930512</v>
       </c>
       <c r="X145" s="17">
-        <v>-3.2496697057904527</v>
+        <v>-2.8439030200247402</v>
       </c>
       <c r="Y145" s="17">
-        <v>2.32333814152976</v>
+        <v>2.0135272840180676</v>
       </c>
       <c r="Z145" s="17"/>
       <c r="AA145" s="10"/>
@@ -37870,10 +37870,10 @@
         <v>2.8931233868125616</v>
       </c>
       <c r="X146" s="17">
-        <v>4.0670352984784728</v>
+        <v>3.1042962218206753</v>
       </c>
       <c r="Y146" s="17">
-        <v>9.7234343385621713</v>
+        <v>11.48807751967793</v>
       </c>
       <c r="Z146" s="17"/>
       <c r="AA146" s="10"/>
@@ -38013,10 +38013,10 @@
         <v>22.948822492405057</v>
       </c>
       <c r="X147" s="17">
-        <v>-5.5918457534117323</v>
+        <v>-5.5643118343057409</v>
       </c>
       <c r="Y147" s="17">
-        <v>10.916711885798122</v>
+        <v>15.791565234705573</v>
       </c>
       <c r="Z147" s="17"/>
       <c r="AA147" s="10"/>
@@ -38156,10 +38156,10 @@
         <v>10.999687261895957</v>
       </c>
       <c r="X148" s="17">
-        <v>13.499606344464382</v>
+        <v>12.497039104786325</v>
       </c>
       <c r="Y148" s="17">
-        <v>2.2453905093143618</v>
+        <v>1.3046452766809438</v>
       </c>
       <c r="Z148" s="17"/>
       <c r="AA148" s="10"/>
@@ -38299,10 +38299,10 @@
         <v>0.73035633103324926</v>
       </c>
       <c r="X149" s="17">
-        <v>-12.204918477568611</v>
+        <v>-13.955896365845149</v>
       </c>
       <c r="Y149" s="17">
-        <v>9.8936971307300041</v>
+        <v>15.996508759966048</v>
       </c>
       <c r="Z149" s="17"/>
       <c r="AA149" s="10"/>
@@ -38442,10 +38442,10 @@
         <v>5.4743507835661092</v>
       </c>
       <c r="X150" s="17">
-        <v>12.663613117585655</v>
+        <v>13.203574252129258</v>
       </c>
       <c r="Y150" s="17">
-        <v>6.8508848661252841E-2</v>
+        <v>1.2761758145076101</v>
       </c>
       <c r="Z150" s="17"/>
       <c r="AA150" s="10"/>
@@ -38678,10 +38678,10 @@
         <v>4.8568516813804194</v>
       </c>
       <c r="X152" s="17">
-        <v>1.3431534562055418</v>
+        <v>1.3866760800078026</v>
       </c>
       <c r="Y152" s="17">
-        <v>3.6129574261228043</v>
+        <v>3.6996758384185853</v>
       </c>
       <c r="Z152" s="17"/>
       <c r="AA152" s="10"/>
@@ -39182,10 +39182,10 @@
         <v>110.58400960334305</v>
       </c>
       <c r="Y167" s="17">
-        <v>115.33723714725726</v>
+        <v>115.38741673136519</v>
       </c>
       <c r="Z167" s="17">
-        <v>116.98146555105748</v>
+        <v>117.08578140560564</v>
       </c>
       <c r="AA167" s="10"/>
       <c r="AB167" s="10"/>
@@ -39332,10 +39332,10 @@
         <v>109.12366021211702</v>
       </c>
       <c r="Y168" s="17">
-        <v>121.51844160617765</v>
+        <v>121.4939331971807</v>
       </c>
       <c r="Z168" s="17">
-        <v>126.04096425310874</v>
+        <v>125.98916330885714</v>
       </c>
       <c r="AA168" s="10"/>
       <c r="AB168" s="10"/>
@@ -39482,10 +39482,10 @@
         <v>96.275278961923632</v>
       </c>
       <c r="Y169" s="17">
-        <v>101.57436000803111</v>
+        <v>101.57116376686486</v>
       </c>
       <c r="Z169" s="17">
-        <v>106.21701682355965</v>
+        <v>106.16411829804892</v>
       </c>
       <c r="AA169" s="10"/>
       <c r="AB169" s="10"/>
@@ -39635,7 +39635,7 @@
         <v>99.680758585844927</v>
       </c>
       <c r="Z170" s="17">
-        <v>99.186154796362814</v>
+        <v>99.073662461409512</v>
       </c>
       <c r="AA170" s="10"/>
       <c r="AB170" s="10"/>
@@ -39782,10 +39782,10 @@
         <v>82.48790139154957</v>
       </c>
       <c r="Y171" s="17">
-        <v>83.379335320570888</v>
+        <v>83.39721470675839</v>
       </c>
       <c r="Z171" s="17">
-        <v>85.629558987380889</v>
+        <v>85.301567379104313</v>
       </c>
       <c r="AA171" s="10"/>
       <c r="AB171" s="10"/>
@@ -39932,10 +39932,10 @@
         <v>90.772997836655463</v>
       </c>
       <c r="Y172" s="17">
-        <v>94.6987320066183</v>
+        <v>94.68702323461774</v>
       </c>
       <c r="Z172" s="17">
-        <v>98.756113291183951</v>
+        <v>98.826813046198055</v>
       </c>
       <c r="AA172" s="10"/>
       <c r="AB172" s="10"/>
@@ -40082,10 +40082,10 @@
         <v>69.258385935585906</v>
       </c>
       <c r="Y173" s="17">
-        <v>69.598106862560797</v>
+        <v>69.607260943271072</v>
       </c>
       <c r="Z173" s="17">
-        <v>67.819996544679356</v>
+        <v>67.981251773066049</v>
       </c>
       <c r="AA173" s="10"/>
       <c r="AB173" s="10"/>
@@ -40232,10 +40232,10 @@
         <v>87.807175709430425</v>
       </c>
       <c r="Y174" s="17">
-        <v>90.675294345138752</v>
+        <v>90.683280369499542</v>
       </c>
       <c r="Z174" s="17">
-        <v>89.544762745473648</v>
+        <v>89.485428393788595</v>
       </c>
       <c r="AA174" s="10"/>
       <c r="AB174" s="10"/>
@@ -40382,10 +40382,10 @@
         <v>99.547624751122811</v>
       </c>
       <c r="Y175" s="17">
-        <v>102.89344146538338</v>
+        <v>102.80227482083035</v>
       </c>
       <c r="Z175" s="17">
-        <v>108.36569026520387</v>
+        <v>107.5908194284404</v>
       </c>
       <c r="AA175" s="10"/>
       <c r="AB175" s="10"/>
@@ -40532,10 +40532,10 @@
         <v>106.25729337043168</v>
       </c>
       <c r="Y176" s="17">
-        <v>99.778293945857385</v>
+        <v>99.767488228183893</v>
       </c>
       <c r="Z176" s="17">
-        <v>100.06787798838693</v>
+        <v>100.06670850428966</v>
       </c>
       <c r="AA176" s="10"/>
       <c r="AB176" s="10"/>
@@ -40682,10 +40682,10 @@
         <v>101.10945484529559</v>
       </c>
       <c r="Y177" s="17">
-        <v>96.546464160758134</v>
+        <v>96.401085356768306</v>
       </c>
       <c r="Z177" s="17">
-        <v>95.727047886219694</v>
+        <v>95.384698611723778</v>
       </c>
       <c r="AA177" s="10"/>
       <c r="AB177" s="10"/>
@@ -40832,10 +40832,10 @@
         <v>71.345991130019655</v>
       </c>
       <c r="Y178" s="17">
-        <v>70.164642079652779</v>
+        <v>70.168929372257494</v>
       </c>
       <c r="Z178" s="17">
-        <v>71.179131230739614</v>
+        <v>71.139786265098266</v>
       </c>
       <c r="AA178" s="10"/>
       <c r="AB178" s="10"/>
@@ -40982,10 +40982,10 @@
         <v>108.1283153053312</v>
       </c>
       <c r="Y179" s="17">
-        <v>115.34004393670003</v>
+        <v>115.30242841830433</v>
       </c>
       <c r="Z179" s="17">
-        <v>112.49607699142072</v>
+        <v>112.41507650546312</v>
       </c>
       <c r="AA179" s="10"/>
       <c r="AB179" s="10"/>
@@ -41132,10 +41132,10 @@
         <v>104.60438090586075</v>
       </c>
       <c r="Y180" s="17">
-        <v>104.17930286374826</v>
+        <v>104.18074719145905</v>
       </c>
       <c r="Z180" s="17">
-        <v>102.60098524984407</v>
+        <v>102.55602445416802</v>
       </c>
       <c r="AA180" s="10"/>
       <c r="AB180" s="10"/>
@@ -41282,10 +41282,10 @@
         <v>76.091104036265335</v>
       </c>
       <c r="Y181" s="17">
-        <v>71.325193478596006</v>
+        <v>71.336309885268633</v>
       </c>
       <c r="Z181" s="17">
-        <v>71.002992795867044</v>
+        <v>71.041955264904132</v>
       </c>
       <c r="AA181" s="10"/>
       <c r="AB181" s="10"/>
@@ -41432,10 +41432,10 @@
         <v>92.832024604082235</v>
       </c>
       <c r="Y182" s="17">
-        <v>98.118305685997299</v>
+        <v>98.080748044106798</v>
       </c>
       <c r="Z182" s="17">
-        <v>97.267993756393253</v>
+        <v>97.349865518349915</v>
       </c>
       <c r="AA182" s="10"/>
       <c r="AB182" s="10"/>
@@ -41582,10 +41582,10 @@
         <v>86.155145952381119</v>
       </c>
       <c r="Y183" s="17">
-        <v>89.36908548902413</v>
+        <v>89.281777227774171</v>
       </c>
       <c r="Z183" s="17">
-        <v>91.473247020159206</v>
+        <v>91.375186852911185</v>
       </c>
       <c r="AA183" s="10"/>
       <c r="AB183" s="10"/>
@@ -41732,10 +41732,10 @@
         <v>96.678848480239026</v>
       </c>
       <c r="Y184" s="17">
-        <v>95.780484774160385</v>
+        <v>95.796689218409085</v>
       </c>
       <c r="Z184" s="17">
-        <v>92.884089451179563</v>
+        <v>92.911220610757667</v>
       </c>
       <c r="AA184" s="10"/>
       <c r="AB184" s="10"/>
@@ -41882,10 +41882,10 @@
         <v>90.565163336276981</v>
       </c>
       <c r="Y185" s="17">
-        <v>90.591199209995096</v>
+        <v>90.59589131959001</v>
       </c>
       <c r="Z185" s="17">
-        <v>92.571079569417478</v>
+        <v>92.62168962320348</v>
       </c>
       <c r="AA185" s="10"/>
       <c r="AB185" s="10"/>
@@ -42032,10 +42032,10 @@
         <v>84.385712779896707</v>
       </c>
       <c r="Y186" s="17">
-        <v>82.746878997804956</v>
+        <v>82.786444735145935</v>
       </c>
       <c r="Z186" s="17">
-        <v>85.533099843841043</v>
+        <v>85.486106677290564</v>
       </c>
       <c r="AA186" s="10"/>
       <c r="AB186" s="10"/>
@@ -42182,10 +42182,10 @@
         <v>92.863841917912325</v>
       </c>
       <c r="Y187" s="17">
-        <v>97.192150837690491</v>
+        <v>97.094918849503429</v>
       </c>
       <c r="Z187" s="17">
-        <v>97.660701095886424</v>
+        <v>97.78891818994019</v>
       </c>
       <c r="AA187" s="10"/>
       <c r="AB187" s="10"/>
@@ -42332,10 +42332,10 @@
         <v>91.663519464041258</v>
       </c>
       <c r="Y188" s="17">
-        <v>92.146506979889068</v>
+        <v>92.199472415352318</v>
       </c>
       <c r="Z188" s="17">
-        <v>92.331717602772102</v>
+        <v>92.451564326035708</v>
       </c>
       <c r="AA188" s="10"/>
       <c r="AB188" s="10"/>
@@ -42580,10 +42580,10 @@
         <v>101.77462852276398</v>
       </c>
       <c r="Y190" s="17">
-        <v>104.35911383897609</v>
+        <v>104.37208303304185</v>
       </c>
       <c r="Z190" s="17">
-        <v>105.70248765786354</v>
+        <v>105.74609828061298</v>
       </c>
       <c r="AA190" s="10"/>
       <c r="AB190" s="10"/>
@@ -42906,10 +42906,10 @@
         <v>51.736118423693576</v>
       </c>
       <c r="Y206" s="17">
-        <v>53.152074846440023</v>
+        <v>53.296809307011564</v>
       </c>
       <c r="Z206" s="17">
-        <v>53.482861970235909</v>
+        <v>53.761134307204259</v>
       </c>
       <c r="AA206" s="10"/>
       <c r="AB206" s="10"/>
@@ -43056,10 +43056,10 @@
         <v>4.4139968392484397</v>
       </c>
       <c r="Y207" s="17">
-        <v>4.7373684219056873</v>
+        <v>4.7237288862523776</v>
       </c>
       <c r="Z207" s="17">
-        <v>4.9507321865135481</v>
+        <v>4.936210804531159</v>
       </c>
       <c r="AA207" s="10"/>
       <c r="AB207" s="10"/>
@@ -43206,10 +43206,10 @@
         <v>0.39973420188344505</v>
       </c>
       <c r="Y208" s="17">
-        <v>0.35437847365124375</v>
+        <v>0.35414247557450262</v>
       </c>
       <c r="Z208" s="17">
-        <v>0.34268035705667083</v>
+        <v>0.34688721124673222</v>
       </c>
       <c r="AA208" s="10"/>
       <c r="AB208" s="10"/>
@@ -43356,10 +43356,10 @@
         <v>1.1568643329356123</v>
       </c>
       <c r="Y209" s="17">
-        <v>0.99661803756819245</v>
+        <v>0.9960664299283859</v>
       </c>
       <c r="Z209" s="17">
-        <v>0.91341966610130176</v>
+        <v>0.90842948187684291</v>
       </c>
       <c r="AA209" s="10"/>
       <c r="AB209" s="10"/>
@@ -43506,10 +43506,10 @@
         <v>1.386341475897189</v>
       </c>
       <c r="Y210" s="17">
-        <v>1.0557619061076877</v>
+        <v>1.0532570889082173</v>
       </c>
       <c r="Z210" s="17">
-        <v>1.0524956346364709</v>
+        <v>1.0585598956121327</v>
       </c>
       <c r="AA210" s="10"/>
       <c r="AB210" s="10"/>
@@ -43656,10 +43656,10 @@
         <v>0.31282173660579193</v>
       </c>
       <c r="Y211" s="17">
-        <v>0.26148372575920714</v>
+        <v>0.26257196737507887</v>
       </c>
       <c r="Z211" s="17">
-        <v>0.27129028612061423</v>
+        <v>0.2878942454632647</v>
       </c>
       <c r="AA211" s="10"/>
       <c r="AB211" s="10"/>
@@ -43806,10 +43806,10 @@
         <v>0.85217226449149863</v>
       </c>
       <c r="Y212" s="17">
-        <v>0.77638152931786419</v>
+        <v>0.77738561195391065</v>
       </c>
       <c r="Z212" s="17">
-        <v>0.6403610713695953</v>
+        <v>0.63650605730018095</v>
       </c>
       <c r="AA212" s="10"/>
       <c r="AB212" s="10"/>
@@ -43956,10 +43956,10 @@
         <v>0.70361894172552919</v>
       </c>
       <c r="Y213" s="17">
-        <v>0.68015450206776218</v>
+        <v>0.6802340840610962</v>
       </c>
       <c r="Z213" s="17">
-        <v>0.6760539737240514</v>
+        <v>0.67402491076530724</v>
       </c>
       <c r="AA213" s="10"/>
       <c r="AB213" s="10"/>
@@ -44106,10 +44106,10 @@
         <v>0.80556977635733895</v>
       </c>
       <c r="Y214" s="17">
-        <v>0.8469113241830617</v>
+        <v>0.83605153844652402</v>
       </c>
       <c r="Z214" s="17">
-        <v>0.94610389380852189</v>
+        <v>0.89286209543463657</v>
       </c>
       <c r="AA214" s="10"/>
       <c r="AB214" s="10"/>
@@ -44256,10 +44256,10 @@
         <v>2.8147005537240966</v>
       </c>
       <c r="Y215" s="17">
-        <v>3.4552968500335917</v>
+        <v>3.4506054530761032</v>
       </c>
       <c r="Z215" s="17">
-        <v>3.5756463007727848</v>
+        <v>3.5689353219623987</v>
       </c>
       <c r="AA215" s="10"/>
       <c r="AB215" s="10"/>
@@ -44406,10 +44406,10 @@
         <v>12.364199791304458</v>
       </c>
       <c r="Y216" s="17">
-        <v>11.313682868356373</v>
+        <v>11.209463434289413</v>
       </c>
       <c r="Z216" s="17">
-        <v>11.327015227972719</v>
+        <v>11.120817153553912</v>
       </c>
       <c r="AA216" s="10"/>
       <c r="AB216" s="10"/>
@@ -44556,10 +44556,10 @@
         <v>0.99870308907804506</v>
       </c>
       <c r="Y217" s="17">
-        <v>1.027785224226299</v>
+        <v>1.0279746337886331</v>
       </c>
       <c r="Z217" s="17">
-        <v>1.0164495788552452</v>
+        <v>1.007963385231184</v>
       </c>
       <c r="AA217" s="10"/>
       <c r="AB217" s="10"/>
@@ -44706,10 +44706,10 @@
         <v>1.0504667402993964</v>
       </c>
       <c r="Y218" s="17">
-        <v>0.99588077310669465</v>
+        <v>0.99130979901449268</v>
       </c>
       <c r="Z218" s="17">
-        <v>0.94230686555219068</v>
+        <v>0.93127815857481544</v>
       </c>
       <c r="AA218" s="10"/>
       <c r="AB218" s="10"/>
@@ -44856,10 +44856,10 @@
         <v>2.5523550677043469</v>
       </c>
       <c r="Y219" s="17">
-        <v>2.3350210078148357</v>
+        <v>2.3341407291313607</v>
       </c>
       <c r="Z219" s="17">
-        <v>2.0325050365728892</v>
+        <v>2.0095072677223356</v>
       </c>
       <c r="AA219" s="10"/>
       <c r="AB219" s="10"/>
@@ -45006,10 +45006,10 @@
         <v>1.9876021488750406</v>
       </c>
       <c r="Y220" s="17">
-        <v>1.8619398205467506</v>
+        <v>1.8633173589993506</v>
       </c>
       <c r="Z220" s="17">
-        <v>1.6570481917025888</v>
+        <v>1.6205880025605288</v>
       </c>
       <c r="AA220" s="10"/>
       <c r="AB220" s="10"/>
@@ -45156,10 +45156,10 @@
         <v>0.80316151917823964</v>
       </c>
       <c r="Y221" s="17">
-        <v>0.74789400084249669</v>
+        <v>0.74594652638451531</v>
       </c>
       <c r="Z221" s="17">
-        <v>0.72952433633212732</v>
+        <v>0.73440531301622258</v>
       </c>
       <c r="AA221" s="10"/>
       <c r="AB221" s="10"/>
@@ -45306,10 +45306,10 @@
         <v>9.4471967528976375</v>
       </c>
       <c r="Y222" s="17">
-        <v>9.1238100967485103</v>
+        <v>9.1480580935436837</v>
       </c>
       <c r="Z222" s="17">
-        <v>9.105186025570335</v>
+        <v>9.0906456543135707</v>
       </c>
       <c r="AA222" s="10"/>
       <c r="AB222" s="10"/>
@@ -45456,10 +45456,10 @@
         <v>1.406708049222327</v>
       </c>
       <c r="Y223" s="17">
-        <v>1.3956529761198486</v>
+        <v>1.3822100781634792</v>
       </c>
       <c r="Z223" s="17">
-        <v>1.4150514807492509</v>
+        <v>1.4225343027901669</v>
       </c>
       <c r="AA223" s="10"/>
       <c r="AB223" s="10"/>
@@ -45606,10 +45606,10 @@
         <v>1.1922555156665766</v>
       </c>
       <c r="Y224" s="17">
-        <v>1.083473791437753</v>
+        <v>1.0832460317276453</v>
       </c>
       <c r="Z224" s="17">
-        <v>1.1701345995205052</v>
+        <v>1.2205366606084711</v>
       </c>
       <c r="AA224" s="10"/>
       <c r="AB224" s="10"/>
@@ -45756,10 +45756,10 @@
         <v>1.3685856312838769</v>
       </c>
       <c r="Y225" s="17">
-        <v>1.4657630171716733</v>
+        <v>1.4527057880134995</v>
       </c>
       <c r="Z225" s="17">
-        <v>1.4761183925397361</v>
+        <v>1.4463917411074176</v>
       </c>
       <c r="AA225" s="10"/>
       <c r="AB225" s="10"/>
@@ -45906,10 +45906,10 @@
         <v>0.5646426000289082</v>
       </c>
       <c r="Y226" s="17">
-        <v>0.49927877324809444</v>
+        <v>0.4885611183719567</v>
       </c>
       <c r="Z226" s="17">
-        <v>0.52533415294704122</v>
+        <v>0.54324977857800572</v>
       </c>
       <c r="AA226" s="10"/>
       <c r="AB226" s="10"/>
@@ -46056,10 +46056,10 @@
         <v>1.6821845478986321</v>
       </c>
       <c r="Y227" s="17">
-        <v>1.8333880333463271</v>
+        <v>1.8422135659842032</v>
       </c>
       <c r="Z227" s="17">
-        <v>1.7516807713459239</v>
+        <v>1.7806382505464406</v>
       </c>
       <c r="AA227" s="10"/>
       <c r="AB227" s="10"/>
@@ -46826,10 +46826,10 @@
         <v>47.614698116552667</v>
       </c>
       <c r="Y245" s="17">
-        <v>48.092910554077015</v>
+        <v>48.208887623666911</v>
       </c>
       <c r="Z245" s="17">
-        <v>48.326215872621844</v>
+        <v>48.554402796637767</v>
       </c>
       <c r="AA245" s="10"/>
       <c r="AB245" s="10"/>
@@ -46976,10 +46976,10 @@
         <v>4.1167322260079571</v>
       </c>
       <c r="Y246" s="17">
-        <v>4.0684159861188753</v>
+        <v>4.0580250434509129</v>
       </c>
       <c r="Z246" s="17">
-        <v>4.1518621421481949</v>
+        <v>4.1430946849781938</v>
       </c>
       <c r="AA246" s="10"/>
       <c r="AB246" s="10"/>
@@ -47126,10 +47126,10 @@
         <v>0.42256745805557211</v>
       </c>
       <c r="Y247" s="17">
-        <v>0.36409408310255326</v>
+        <v>0.36390828356588284</v>
       </c>
       <c r="Z247" s="17">
-        <v>0.34102036844571498</v>
+        <v>0.34552134676805241</v>
       </c>
       <c r="AA247" s="10"/>
       <c r="AB247" s="10"/>
@@ -47276,10 +47276,10 @@
         <v>1.1984046998726212</v>
       </c>
       <c r="Y248" s="17">
-        <v>1.0433926939569382</v>
+        <v>1.0429447930151887</v>
       </c>
       <c r="Z248" s="17">
-        <v>0.97342951927866483</v>
+        <v>0.96961059967852425</v>
       </c>
       <c r="AA248" s="10"/>
       <c r="AB248" s="10"/>
@@ -47426,10 +47426,10 @@
         <v>1.7104858571367547</v>
       </c>
       <c r="Y249" s="17">
-        <v>1.3214110729324076</v>
+        <v>1.3181571677808057</v>
       </c>
       <c r="Z249" s="17">
-        <v>1.2992173280550441</v>
+        <v>1.3122687213920619</v>
       </c>
       <c r="AA249" s="10"/>
       <c r="AB249" s="10"/>
@@ -47576,10 +47576,10 @@
         <v>0.35073553584945077</v>
       </c>
       <c r="Y250" s="17">
-        <v>0.28815813396147255</v>
+        <v>0.28942913447723112</v>
       </c>
       <c r="Z250" s="17">
-        <v>0.29037248596257209</v>
+        <v>0.30805094525257992</v>
       </c>
       <c r="AA250" s="10"/>
       <c r="AB250" s="10"/>
@@ -47726,10 +47726,10 @@
         <v>1.2522601340534856</v>
       </c>
       <c r="Y251" s="17">
-        <v>1.1641478777657113</v>
+        <v>1.1656449993869376</v>
       </c>
       <c r="Z251" s="17">
-        <v>0.99805015764677429</v>
+        <v>0.99009698021091208</v>
       </c>
       <c r="AA251" s="10"/>
       <c r="AB251" s="10"/>
@@ -47876,10 +47876,10 @@
         <v>0.81554332931363294</v>
       </c>
       <c r="Y252" s="17">
-        <v>0.78279669916712069</v>
+        <v>0.78291663043333415</v>
       </c>
       <c r="Z252" s="17">
-        <v>0.79804317553154014</v>
+        <v>0.79650403129004843</v>
       </c>
       <c r="AA252" s="10"/>
       <c r="AB252" s="10"/>
@@ -48026,10 +48026,10 @@
         <v>0.82359137089315115</v>
       </c>
       <c r="Y253" s="17">
-        <v>0.85897520807167238</v>
+        <v>0.84881818756175798</v>
       </c>
       <c r="Z253" s="17">
-        <v>0.92285237987787383</v>
+        <v>0.8775533395547982</v>
       </c>
       <c r="AA253" s="10"/>
       <c r="AB253" s="10"/>
@@ -48176,10 +48176,10 @@
         <v>2.6959570884176403</v>
       </c>
       <c r="Y254" s="17">
-        <v>3.6139294736366074</v>
+        <v>3.6098621430561995</v>
       </c>
       <c r="Z254" s="17">
-        <v>3.7769833494438956</v>
+        <v>3.7714939459331616</v>
       </c>
       <c r="AA254" s="10"/>
       <c r="AB254" s="10"/>
@@ -48326,10 +48326,10 @@
         <v>12.445540752510507</v>
       </c>
       <c r="Y255" s="17">
-        <v>12.229198952650746</v>
+        <v>12.136326515304722</v>
       </c>
       <c r="Z255" s="17">
-        <v>12.50737084004002</v>
+        <v>12.328843523083668</v>
       </c>
       <c r="AA255" s="10"/>
       <c r="AB255" s="10"/>
@@ -48476,10 +48476,10 @@
         <v>1.4246439678751284</v>
       </c>
       <c r="Y256" s="17">
-        <v>1.5286724486570731</v>
+        <v>1.529050746441454</v>
       </c>
       <c r="Z256" s="17">
-        <v>1.5094487275420307</v>
+        <v>1.4982923170547839</v>
       </c>
       <c r="AA256" s="10"/>
       <c r="AB256" s="10"/>
@@ -48626,10 +48626,10 @@
         <v>0.98874066397498639</v>
       </c>
       <c r="Y257" s="17">
-        <v>0.90106810630076284</v>
+        <v>0.89733642277549397</v>
       </c>
       <c r="Z257" s="17">
-        <v>0.88540136233858735</v>
+        <v>0.87603046445869615</v>
       </c>
       <c r="AA257" s="10"/>
       <c r="AB257" s="10"/>
@@ -48776,10 +48776,10 @@
         <v>2.4833088884449386</v>
       </c>
       <c r="Y258" s="17">
-        <v>2.3390511980066608</v>
+        <v>2.3384275555635066</v>
       </c>
       <c r="Z258" s="17">
-        <v>2.0939451801533044</v>
+        <v>2.0720143371307915</v>
       </c>
       <c r="AA258" s="10"/>
       <c r="AB258" s="10"/>
@@ -48926,10 +48926,10 @@
         <v>2.6584904098170745</v>
       </c>
       <c r="Y259" s="17">
-        <v>2.7242882944589799</v>
+        <v>2.7262177483412189</v>
       </c>
       <c r="Z259" s="17">
-        <v>2.4668553977082976</v>
+        <v>2.4122486149506068</v>
       </c>
       <c r="AA259" s="10"/>
       <c r="AB259" s="10"/>
@@ -49076,10 +49076,10 @@
         <v>0.88053089014014219</v>
       </c>
       <c r="Y260" s="17">
-        <v>0.79546374784728924</v>
+        <v>0.79379485110576464</v>
       </c>
       <c r="Z260" s="17">
-        <v>0.79278428781398913</v>
+        <v>0.79774631422967113</v>
       </c>
       <c r="AA260" s="10"/>
       <c r="AB260" s="10"/>
@@ -49226,10 +49226,10 @@
         <v>11.159924685625189</v>
       </c>
       <c r="Y261" s="17">
-        <v>10.654162245497252</v>
+        <v>10.694252607612832</v>
       </c>
       <c r="Z261" s="17">
-        <v>10.521555152385632</v>
+        <v>10.52036490324992</v>
       </c>
       <c r="AA261" s="10"/>
       <c r="AB261" s="10"/>
@@ -49376,10 +49376,10 @@
         <v>1.480853272459564</v>
       </c>
       <c r="Y262" s="17">
-        <v>1.5206553627079806</v>
+        <v>1.5059408234691154</v>
       </c>
       <c r="Z262" s="17">
-        <v>1.6103345854271034</v>
+        <v>1.6190450539939962</v>
       </c>
       <c r="AA262" s="10"/>
       <c r="AB262" s="10"/>
@@ -49526,10 +49526,10 @@
         <v>1.3398238101843902</v>
       </c>
       <c r="Y263" s="17">
-        <v>1.248138513765521</v>
+        <v>1.2479665812862664</v>
       </c>
       <c r="Z263" s="17">
-        <v>1.3361207262480415</v>
+        <v>1.3934855884496933</v>
       </c>
       <c r="AA263" s="10"/>
       <c r="AB263" s="10"/>
@@ -49676,10 +49676,10 @@
         <v>1.650602805107686</v>
       </c>
       <c r="Y264" s="17">
-        <v>1.8485981758180572</v>
+        <v>1.8314825526594487</v>
       </c>
       <c r="Z264" s="17">
-        <v>1.8241988943910814</v>
+        <v>1.789182934541611</v>
       </c>
       <c r="AA264" s="10"/>
       <c r="AB264" s="10"/>
@@ -49826,10 +49826,10 @@
         <v>0.61882310358069714</v>
       </c>
       <c r="Y265" s="17">
-        <v>0.53609566087075944</v>
+        <v>0.52517827109440385</v>
       </c>
       <c r="Z265" s="17">
-        <v>0.56859234262119962</v>
+        <v>0.58745454535911534</v>
       </c>
       <c r="AA265" s="10"/>
       <c r="AB265" s="10"/>
@@ -49976,10 +49976,10 @@
         <v>1.8677409341267832</v>
       </c>
       <c r="Y266" s="17">
-        <v>2.0763755106285657</v>
+        <v>2.0854313179506128</v>
       </c>
       <c r="Z266" s="17">
-        <v>2.0053457243185777</v>
+        <v>2.036694011801333</v>
       </c>
       <c r="AA266" s="10"/>
       <c r="AB266" s="10"/>

--- a/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
+++ b/Data/National Accounts/PSA-10MFG_2018PSNA_Ann.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2025\Annl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Shared drives\QNAP\NAP Dissemination\As of January 2026\Tables\Prelim Q4 2025\NAP Q1 2000 to Q4 2025\Annl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64E6F2A-15CF-45F3-A196-8ED443264130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BA400A-E945-477F-99AD-E4B9B82152B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="7500" windowHeight="10800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MFG" sheetId="1" r:id="rId1"/>
@@ -322,7 +322,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$Z$272</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">MFG!$A$1:$AA$272</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[11]CAP93+'!$A$1:$IV$1,'[11]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="71">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -670,13 +670,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Annual 2000 to 2024</t>
+    <t>As of January 2026</t>
   </si>
   <si>
-    <t>Annual 2001 to 2024</t>
+    <t>Annual 2000 to 2025</t>
   </si>
   <si>
-    <t>As of April 2025</t>
+    <t>Annual 2001 to 2025</t>
+  </si>
+  <si>
+    <t>2024 - 2025</t>
   </si>
 </sst>
 </file>
@@ -23634,14 +23637,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="D152" sqref="D152"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="topRight" activeCell="Z1" sqref="Z1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.6640625" style="3" customWidth="1"/>
-    <col min="2" max="26" width="10.21875" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="7.77734375" style="3"/>
+    <col min="2" max="27" width="10.21875" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="7.77734375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:96" x14ac:dyDescent="0.2">
@@ -23656,7 +23659,7 @@
     </row>
     <row r="3" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:96" x14ac:dyDescent="0.2">
@@ -23666,7 +23669,7 @@
     </row>
     <row r="6" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:96" x14ac:dyDescent="0.2">
@@ -23703,6 +23706,7 @@
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
@@ -23782,6 +23786,9 @@
       </c>
       <c r="Z10" s="7">
         <v>2024</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>2025</v>
       </c>
     </row>
     <row r="11" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -23866,7 +23873,9 @@
       <c r="Z12" s="9">
         <v>2228956.9688645643</v>
       </c>
-      <c r="AA12" s="10"/>
+      <c r="AA12" s="9">
+        <v>2440450.5554043413</v>
+      </c>
       <c r="AB12" s="10"/>
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
@@ -24016,7 +24025,9 @@
       <c r="Z13" s="9">
         <v>204657.1675677959</v>
       </c>
-      <c r="AA13" s="10"/>
+      <c r="AA13" s="9">
+        <v>195602.93927849986</v>
+      </c>
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
@@ -24166,7 +24177,9 @@
       <c r="Z14" s="9">
         <v>14382.075022825285</v>
       </c>
-      <c r="AA14" s="10"/>
+      <c r="AA14" s="9">
+        <v>16049.648563902429</v>
+      </c>
       <c r="AB14" s="10"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
@@ -24316,7 +24329,9 @@
       <c r="Z15" s="9">
         <v>37663.830022278278</v>
       </c>
-      <c r="AA15" s="10"/>
+      <c r="AA15" s="9">
+        <v>40591.573619657822</v>
+      </c>
       <c r="AB15" s="10"/>
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
@@ -24466,7 +24481,9 @@
       <c r="Z16" s="9">
         <v>43888.293777481296</v>
       </c>
-      <c r="AA16" s="10"/>
+      <c r="AA16" s="9">
+        <v>41927.022433126622</v>
+      </c>
       <c r="AB16" s="10"/>
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
@@ -24616,7 +24633,9 @@
       <c r="Z17" s="9">
         <v>11936.204341495037</v>
       </c>
-      <c r="AA17" s="10"/>
+      <c r="AA17" s="9">
+        <v>14044.879582514939</v>
+      </c>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
@@ -24766,7 +24785,9 @@
       <c r="Z18" s="9">
         <v>26389.78195729079</v>
       </c>
-      <c r="AA18" s="10"/>
+      <c r="AA18" s="9">
+        <v>29004.465847074978</v>
+      </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -24916,7 +24937,9 @@
       <c r="Z19" s="9">
         <v>27945.32781718711</v>
       </c>
-      <c r="AA19" s="10"/>
+      <c r="AA19" s="9">
+        <v>29135.744227243282</v>
+      </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -25066,7 +25089,9 @@
       <c r="Z20" s="9">
         <v>37018.400290474536</v>
       </c>
-      <c r="AA20" s="10"/>
+      <c r="AA20" s="9">
+        <v>38251.055303494184</v>
+      </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -25216,7 +25241,9 @@
       <c r="Z21" s="9">
         <v>147969.40875276463</v>
       </c>
-      <c r="AA21" s="10"/>
+      <c r="AA21" s="9">
+        <v>139904.61138249311</v>
+      </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -25366,7 +25393,9 @@
       <c r="Z22" s="9">
         <v>461073.28673980158</v>
       </c>
-      <c r="AA22" s="10"/>
+      <c r="AA22" s="9">
+        <v>415032.0219772936</v>
+      </c>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -25516,7 +25545,9 @@
       <c r="Z23" s="9">
         <v>41790.543313932554</v>
       </c>
-      <c r="AA23" s="10"/>
+      <c r="AA23" s="9">
+        <v>41173.374906336961</v>
+      </c>
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
@@ -25666,7 +25697,9 @@
       <c r="Z24" s="9">
         <v>38611.144802957191</v>
       </c>
-      <c r="AA24" s="10"/>
+      <c r="AA24" s="9">
+        <v>38043.544114456839</v>
+      </c>
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
@@ -25816,7 +25849,9 @@
       <c r="Z25" s="9">
         <v>83314.93161544895</v>
       </c>
-      <c r="AA25" s="10"/>
+      <c r="AA25" s="9">
+        <v>86193.992445274853</v>
+      </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
@@ -25966,7 +26001,9 @@
       <c r="Z26" s="9">
         <v>67190.191734506225</v>
       </c>
-      <c r="AA26" s="10"/>
+      <c r="AA26" s="9">
+        <v>44822.17407570385</v>
+      </c>
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
@@ -26116,7 +26153,9 @@
       <c r="Z27" s="9">
         <v>30448.722139393369</v>
       </c>
-      <c r="AA27" s="10"/>
+      <c r="AA27" s="9">
+        <v>31023.469301596284</v>
+      </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10"/>
       <c r="AD27" s="10"/>
@@ -26266,7 +26305,9 @@
       <c r="Z28" s="9">
         <v>376901.60826731857</v>
       </c>
-      <c r="AA28" s="10"/>
+      <c r="AA28" s="9">
+        <v>382436.39356333594</v>
+      </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
@@ -26416,7 +26457,9 @@
       <c r="Z29" s="9">
         <v>58978.810408547084</v>
       </c>
-      <c r="AA29" s="10"/>
+      <c r="AA29" s="9">
+        <v>58664.997565336773</v>
+      </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
@@ -26566,7 +26609,9 @@
       <c r="Z30" s="9">
         <v>50603.911738026167</v>
       </c>
-      <c r="AA30" s="10"/>
+      <c r="AA30" s="9">
+        <v>45042.214834636077</v>
+      </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10"/>
       <c r="AD30" s="10"/>
@@ -26716,7 +26761,9 @@
       <c r="Z31" s="9">
         <v>59967.948827625543</v>
       </c>
-      <c r="AA31" s="10"/>
+      <c r="AA31" s="9">
+        <v>63924.415043571105</v>
+      </c>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -26866,7 +26913,9 @@
       <c r="Z32" s="9">
         <v>22523.341358021033</v>
       </c>
-      <c r="AA32" s="10"/>
+      <c r="AA32" s="9">
+        <v>22587.605754798038</v>
+      </c>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -27016,7 +27065,9 @@
       <c r="Z33" s="9">
         <v>73825.935570902438</v>
       </c>
-      <c r="AA33" s="10"/>
+      <c r="AA33" s="9">
+        <v>79476.674135885813</v>
+      </c>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -27264,7 +27315,9 @@
       <c r="Z35" s="12">
         <v>4146037.8349306383</v>
       </c>
-      <c r="AA35" s="10"/>
+      <c r="AA35" s="12">
+        <v>4293383.3733605752</v>
+      </c>
       <c r="AB35" s="10"/>
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
@@ -27362,6 +27415,7 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="13"/>
       <c r="Z36" s="13"/>
+      <c r="AA36" s="13"/>
     </row>
     <row r="37" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A37" s="14" t="s">
@@ -27576,7 +27630,7 @@
     </row>
     <row r="42" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:96" x14ac:dyDescent="0.2">
@@ -27586,7 +27640,7 @@
     </row>
     <row r="45" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:96" x14ac:dyDescent="0.2">
@@ -27623,6 +27677,7 @@
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
@@ -27702,6 +27757,9 @@
       </c>
       <c r="Z49" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA49" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="50" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27786,7 +27844,9 @@
       <c r="Z51" s="9">
         <v>1903695.6854249169</v>
       </c>
-      <c r="AA51" s="10"/>
+      <c r="AA51" s="9">
+        <v>2071985.4532681161</v>
+      </c>
       <c r="AB51" s="10"/>
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
@@ -27936,7 +27996,9 @@
       <c r="Z52" s="9">
         <v>162440.29422283522</v>
       </c>
-      <c r="AA52" s="10"/>
+      <c r="AA52" s="9">
+        <v>157422.43470796605</v>
+      </c>
       <c r="AB52" s="10"/>
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
@@ -28086,7 +28148,9 @@
       <c r="Z53" s="9">
         <v>13547.020644440841</v>
       </c>
-      <c r="AA53" s="10"/>
+      <c r="AA53" s="9">
+        <v>14894.253940744251</v>
+      </c>
       <c r="AB53" s="10"/>
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
@@ -28236,7 +28300,9 @@
       <c r="Z54" s="9">
         <v>38015.986374732871</v>
       </c>
-      <c r="AA54" s="10"/>
+      <c r="AA54" s="9">
+        <v>41201.517081122031</v>
+      </c>
       <c r="AB54" s="10"/>
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
@@ -28386,7 +28452,9 @@
       <c r="Z55" s="9">
         <v>51450.747185487569</v>
       </c>
-      <c r="AA55" s="10"/>
+      <c r="AA55" s="9">
+        <v>48886.974127668916</v>
+      </c>
       <c r="AB55" s="10"/>
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
@@ -28536,7 +28604,9 @@
       <c r="Z56" s="9">
         <v>12077.90069676261</v>
       </c>
-      <c r="AA56" s="10"/>
+      <c r="AA56" s="9">
+        <v>14103.487683247331</v>
+      </c>
       <c r="AB56" s="10"/>
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
@@ -28686,7 +28756,9 @@
       <c r="Z57" s="9">
         <v>38819.205691276096</v>
       </c>
-      <c r="AA57" s="10"/>
+      <c r="AA57" s="9">
+        <v>42811.421190137007</v>
+      </c>
       <c r="AB57" s="10"/>
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
@@ -28836,7 +28908,9 @@
       <c r="Z58" s="9">
         <v>31228.914381692633</v>
       </c>
-      <c r="AA58" s="10"/>
+      <c r="AA58" s="9">
+        <v>33334.317021707</v>
+      </c>
       <c r="AB58" s="10"/>
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
@@ -28986,7 +29060,9 @@
       <c r="Z59" s="9">
         <v>34406.653362367782</v>
       </c>
-      <c r="AA59" s="10"/>
+      <c r="AA59" s="9">
+        <v>35653.618405319547</v>
+      </c>
       <c r="AB59" s="10"/>
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
@@ -29136,7 +29212,9 @@
       <c r="Z60" s="9">
         <v>147870.76637623337</v>
       </c>
-      <c r="AA60" s="10"/>
+      <c r="AA60" s="9">
+        <v>134998.8203093044</v>
+      </c>
       <c r="AB60" s="10"/>
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
@@ -29286,7 +29364,9 @@
       <c r="Z61" s="9">
         <v>483382.86271329771</v>
       </c>
-      <c r="AA61" s="10"/>
+      <c r="AA61" s="9">
+        <v>436612.4154241443</v>
+      </c>
       <c r="AB61" s="10"/>
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
@@ -29436,7 +29516,9 @@
       <c r="Z62" s="9">
         <v>58744.263242797118</v>
       </c>
-      <c r="AA62" s="10"/>
+      <c r="AA62" s="9">
+        <v>60708.162860234195</v>
+      </c>
       <c r="AB62" s="10"/>
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
@@ -29586,7 +29668,9 @@
       <c r="Z63" s="9">
         <v>34346.945270353288</v>
       </c>
-      <c r="AA63" s="10"/>
+      <c r="AA63" s="9">
+        <v>34012.198041211486</v>
+      </c>
       <c r="AB63" s="10"/>
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
@@ -29736,7 +29820,9 @@
       <c r="Z64" s="9">
         <v>81238.45679361542</v>
       </c>
-      <c r="AA64" s="10"/>
+      <c r="AA64" s="9">
+        <v>83603.594703259936</v>
+      </c>
       <c r="AB64" s="10"/>
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
@@ -29886,7 +29972,9 @@
       <c r="Z65" s="9">
         <v>94578.184797933427</v>
       </c>
-      <c r="AA65" s="10"/>
+      <c r="AA65" s="9">
+        <v>62358.306310679902</v>
+      </c>
       <c r="AB65" s="10"/>
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
@@ -30036,7 +30124,9 @@
       <c r="Z66" s="9">
         <v>31277.62116287048</v>
       </c>
-      <c r="AA66" s="10"/>
+      <c r="AA66" s="9">
+        <v>32060.389161837058</v>
+      </c>
       <c r="AB66" s="10"/>
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
@@ -30186,7 +30276,9 @@
       <c r="Z67" s="9">
         <v>412476.97679023747</v>
       </c>
-      <c r="AA67" s="10"/>
+      <c r="AA67" s="9">
+        <v>414843.24020558066</v>
+      </c>
       <c r="AB67" s="10"/>
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
@@ -30336,7 +30428,9 @@
       <c r="Z68" s="9">
         <v>63478.67353463469</v>
       </c>
-      <c r="AA68" s="10"/>
+      <c r="AA68" s="9">
+        <v>62839.973792838879</v>
+      </c>
       <c r="AB68" s="10"/>
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
@@ -30486,7 +30580,9 @@
       <c r="Z69" s="9">
         <v>54635.055723868951</v>
       </c>
-      <c r="AA69" s="10"/>
+      <c r="AA69" s="9">
+        <v>50360.129556203319</v>
+      </c>
       <c r="AB69" s="10"/>
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
@@ -30636,7 +30732,9 @@
       <c r="Z70" s="9">
         <v>70149.350764100323</v>
       </c>
-      <c r="AA70" s="10"/>
+      <c r="AA70" s="9">
+        <v>75698.966058828519</v>
+      </c>
       <c r="AB70" s="10"/>
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
@@ -30786,7 +30884,9 @@
       <c r="Z71" s="9">
         <v>23032.611235429405</v>
       </c>
-      <c r="AA71" s="10"/>
+      <c r="AA71" s="9">
+        <v>22999.223944237092</v>
+      </c>
       <c r="AB71" s="10"/>
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
@@ -30936,7 +31036,9 @@
       <c r="Z72" s="9">
         <v>79853.635910963145</v>
       </c>
-      <c r="AA72" s="10"/>
+      <c r="AA72" s="9">
+        <v>86403.023759447591</v>
+      </c>
       <c r="AB72" s="10"/>
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
@@ -31184,7 +31286,9 @@
       <c r="Z74" s="12">
         <v>3920747.8123008478</v>
       </c>
-      <c r="AA74" s="10"/>
+      <c r="AA74" s="12">
+        <v>4017791.9215538353</v>
+      </c>
       <c r="AB74" s="10"/>
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
@@ -31282,6 +31386,7 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="13"/>
       <c r="Z75" s="13"/>
+      <c r="AA75" s="13"/>
     </row>
     <row r="76" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A76" s="14" t="s">
@@ -31496,7 +31601,7 @@
     </row>
     <row r="81" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:91" x14ac:dyDescent="0.2">
@@ -31506,7 +31611,7 @@
     </row>
     <row r="84" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:91" x14ac:dyDescent="0.2">
@@ -31543,6 +31648,7 @@
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
     </row>
     <row r="88" spans="1:91" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
@@ -31620,7 +31726,10 @@
       <c r="Y88" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="Z88" s="16"/>
+      <c r="Z88" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA88" s="16"/>
     </row>
     <row r="89" spans="1:91" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8"/>
@@ -31701,8 +31810,10 @@
       <c r="Y90" s="17">
         <v>5.9801703054969977</v>
       </c>
-      <c r="Z90" s="17"/>
-      <c r="AA90" s="10"/>
+      <c r="Z90" s="17">
+        <v>9.4884553400558644</v>
+      </c>
+      <c r="AA90" s="17"/>
       <c r="AB90" s="10"/>
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
@@ -31844,8 +31955,10 @@
       <c r="Y91" s="17">
         <v>9.7908467118723195</v>
       </c>
-      <c r="Z91" s="17"/>
-      <c r="AA91" s="10"/>
+      <c r="Z91" s="17">
+        <v>-4.4240953771124083</v>
+      </c>
+      <c r="AA91" s="17"/>
       <c r="AB91" s="10"/>
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
@@ -31987,8 +32100,10 @@
       <c r="Y92" s="17">
         <v>2.9123913605687761</v>
       </c>
-      <c r="Z92" s="17"/>
-      <c r="AA92" s="10"/>
+      <c r="Z92" s="17">
+        <v>11.594804911186984</v>
+      </c>
+      <c r="AA92" s="17"/>
       <c r="AB92" s="10"/>
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
@@ -32130,8 +32245,10 @@
       <c r="Y93" s="17">
         <v>-4.1790843452847071</v>
       </c>
-      <c r="Z93" s="17"/>
-      <c r="AA93" s="10"/>
+      <c r="Z93" s="17">
+        <v>7.7733560172923859</v>
+      </c>
+      <c r="AA93" s="17"/>
       <c r="AB93" s="10"/>
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
@@ -32273,8 +32390,10 @@
       <c r="Y94" s="17">
         <v>5.5938063997526228</v>
       </c>
-      <c r="Z94" s="17"/>
-      <c r="AA94" s="10"/>
+      <c r="Z94" s="17">
+        <v>-4.468780113208652</v>
+      </c>
+      <c r="AA94" s="17"/>
       <c r="AB94" s="10"/>
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
@@ -32416,8 +32535,10 @@
       <c r="Y95" s="17">
         <v>15.197227208352302</v>
       </c>
-      <c r="Z95" s="17"/>
-      <c r="AA95" s="10"/>
+      <c r="Z95" s="17">
+        <v>17.666212647594364</v>
+      </c>
+      <c r="AA95" s="17"/>
       <c r="AB95" s="10"/>
       <c r="AC95" s="10"/>
       <c r="AD95" s="10"/>
@@ -32559,8 +32680,10 @@
       <c r="Y96" s="17">
         <v>-13.975245382467733</v>
       </c>
-      <c r="Z96" s="17"/>
-      <c r="AA96" s="10"/>
+      <c r="Z96" s="17">
+        <v>9.9079404824783808</v>
+      </c>
+      <c r="AA96" s="17"/>
       <c r="AB96" s="10"/>
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
@@ -32702,8 +32825,10 @@
       <c r="Y97" s="17">
         <v>4.1058078010037775</v>
       </c>
-      <c r="Z97" s="17"/>
-      <c r="AA97" s="10"/>
+      <c r="Z97" s="17">
+        <v>4.259804779688551</v>
+      </c>
+      <c r="AA97" s="17"/>
       <c r="AB97" s="10"/>
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
@@ -32845,8 +32970,10 @@
       <c r="Y98" s="17">
         <v>12.204102382061251</v>
       </c>
-      <c r="Z98" s="17"/>
-      <c r="AA98" s="10"/>
+      <c r="Z98" s="17">
+        <v>3.3298440865820851</v>
+      </c>
+      <c r="AA98" s="17"/>
       <c r="AB98" s="10"/>
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
@@ -32988,8 +33115,10 @@
       <c r="Y99" s="17">
         <v>8.6677745526576189</v>
       </c>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="10"/>
+      <c r="Z99" s="17">
+        <v>-5.4503139792540765</v>
+      </c>
+      <c r="AA99" s="17"/>
       <c r="AB99" s="10"/>
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
@@ -33131,8 +33260,10 @@
       <c r="Y100" s="17">
         <v>4.2339690933509928</v>
       </c>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="10"/>
+      <c r="Z100" s="17">
+        <v>-9.9856717113369768</v>
+      </c>
+      <c r="AA100" s="17"/>
       <c r="AB100" s="10"/>
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
@@ -33274,8 +33405,10 @@
       <c r="Y101" s="17">
         <v>3.0195760002759187</v>
       </c>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="10"/>
+      <c r="Z101" s="17">
+        <v>-1.4768135531509898</v>
+      </c>
+      <c r="AA101" s="17"/>
       <c r="AB101" s="10"/>
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
@@ -33417,8 +33550,10 @@
       <c r="Y102" s="17">
         <v>-1.2976669781776309</v>
       </c>
-      <c r="Z102" s="17"/>
-      <c r="AA102" s="10"/>
+      <c r="Z102" s="17">
+        <v>-1.4700436658818887</v>
+      </c>
+      <c r="AA102" s="17"/>
       <c r="AB102" s="10"/>
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
@@ -33560,8 +33695,10 @@
       <c r="Y103" s="17">
         <v>-9.5476313119208385</v>
       </c>
-      <c r="Z103" s="17"/>
-      <c r="AA103" s="10"/>
+      <c r="Z103" s="17">
+        <v>3.4556360714722558</v>
+      </c>
+      <c r="AA103" s="17"/>
       <c r="AB103" s="10"/>
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
@@ -33703,8 +33840,10 @@
       <c r="Y104" s="17">
         <v>-8.6216757695331836</v>
       </c>
-      <c r="Z104" s="17"/>
-      <c r="AA104" s="10"/>
+      <c r="Z104" s="17">
+        <v>-33.29059953748434</v>
+      </c>
+      <c r="AA104" s="17"/>
       <c r="AB104" s="10"/>
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
@@ -33846,8 +33985,10 @@
       <c r="Y105" s="17">
         <v>3.4392859735658874</v>
       </c>
-      <c r="Z105" s="17"/>
-      <c r="AA105" s="10"/>
+      <c r="Z105" s="17">
+        <v>1.8875904202867417</v>
+      </c>
+      <c r="AA105" s="17"/>
       <c r="AB105" s="10"/>
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
@@ -33989,8 +34130,10 @@
       <c r="Y106" s="17">
         <v>4.4054610754536725</v>
       </c>
-      <c r="Z106" s="17"/>
-      <c r="AA106" s="10"/>
+      <c r="Z106" s="17">
+        <v>1.4684960675709817</v>
+      </c>
+      <c r="AA106" s="17"/>
       <c r="AB106" s="10"/>
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
@@ -34132,8 +34275,10 @@
       <c r="Y107" s="17">
         <v>8.1299724490841356</v>
       </c>
-      <c r="Z107" s="17"/>
-      <c r="AA107" s="10"/>
+      <c r="Z107" s="17">
+        <v>-0.53207726815193723</v>
+      </c>
+      <c r="AA107" s="17"/>
       <c r="AB107" s="10"/>
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
@@ -34275,8 +34420,10 @@
       <c r="Y108" s="17">
         <v>18.380759435552193</v>
       </c>
-      <c r="Z108" s="17"/>
-      <c r="AA108" s="10"/>
+      <c r="Z108" s="17">
+        <v>-10.990646201785154</v>
+      </c>
+      <c r="AA108" s="17"/>
       <c r="AB108" s="10"/>
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
@@ -34418,8 +34565,10 @@
       <c r="Y109" s="17">
         <v>4.6081848391162481</v>
       </c>
-      <c r="Z109" s="17"/>
-      <c r="AA109" s="10"/>
+      <c r="Z109" s="17">
+        <v>6.597634725373382</v>
+      </c>
+      <c r="AA109" s="17"/>
       <c r="AB109" s="10"/>
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
@@ -34561,8 +34710,10 @@
       <c r="Y110" s="17">
         <v>16.825609824432263</v>
       </c>
-      <c r="Z110" s="17"/>
-      <c r="AA110" s="10"/>
+      <c r="Z110" s="17">
+        <v>0.28532354838249319</v>
+      </c>
+      <c r="AA110" s="17"/>
       <c r="AB110" s="10"/>
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
@@ -34704,8 +34855,10 @@
       <c r="Y111" s="17">
         <v>1.5530852587695989</v>
       </c>
-      <c r="Z111" s="17"/>
-      <c r="AA111" s="10"/>
+      <c r="Z111" s="17">
+        <v>7.6541374264826061</v>
+      </c>
+      <c r="AA111" s="17"/>
       <c r="AB111" s="10"/>
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
@@ -34940,8 +35093,10 @@
       <c r="Y113" s="17">
         <v>5.0648391237490813</v>
       </c>
-      <c r="Z113" s="17"/>
-      <c r="AA113" s="10"/>
+      <c r="Z113" s="17">
+        <v>3.5538879358152826</v>
+      </c>
+      <c r="AA113" s="17"/>
       <c r="AB113" s="10"/>
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
@@ -35034,6 +35189,7 @@
       <c r="X114" s="13"/>
       <c r="Y114" s="13"/>
       <c r="Z114" s="13"/>
+      <c r="AA114" s="13"/>
     </row>
     <row r="115" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
@@ -35239,7 +35395,7 @@
     </row>
     <row r="120" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" spans="1:92" x14ac:dyDescent="0.2">
@@ -35249,7 +35405,7 @@
     </row>
     <row r="123" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="124" spans="1:92" x14ac:dyDescent="0.2">
@@ -35286,6 +35442,7 @@
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
     </row>
     <row r="127" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A127" s="7" t="s">
@@ -35363,7 +35520,10 @@
       <c r="Y127" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="Z127" s="7"/>
+      <c r="Z127" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA127" s="7"/>
     </row>
     <row r="128" spans="1:92" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8"/>
@@ -35444,8 +35604,10 @@
       <c r="Y129" s="17">
         <v>4.4428958793793214</v>
       </c>
-      <c r="Z129" s="17"/>
-      <c r="AA129" s="10"/>
+      <c r="Z129" s="17">
+        <v>8.8401612259595908</v>
+      </c>
+      <c r="AA129" s="17"/>
       <c r="AB129" s="10"/>
       <c r="AC129" s="10"/>
       <c r="AD129" s="10"/>
@@ -35587,8 +35749,10 @@
       <c r="Y130" s="17">
         <v>5.8735644062839896</v>
       </c>
-      <c r="Z130" s="17"/>
-      <c r="AA130" s="10"/>
+      <c r="Z130" s="17">
+        <v>-3.0890485263377343</v>
+      </c>
+      <c r="AA130" s="17"/>
       <c r="AB130" s="10"/>
       <c r="AC130" s="10"/>
       <c r="AD130" s="10"/>
@@ -35730,8 +35894,10 @@
       <c r="Y131" s="17">
         <v>-1.5398844346063498</v>
       </c>
-      <c r="Z131" s="17"/>
-      <c r="AA131" s="10"/>
+      <c r="Z131" s="17">
+        <v>9.9448678175319714</v>
+      </c>
+      <c r="AA131" s="17"/>
       <c r="AB131" s="10"/>
       <c r="AC131" s="10"/>
       <c r="AD131" s="10"/>
@@ -35873,8 +36039,10 @@
       <c r="Y132" s="17">
         <v>-3.59192015766331</v>
       </c>
-      <c r="Z132" s="17"/>
-      <c r="AA132" s="10"/>
+      <c r="Z132" s="17">
+        <v>8.3794503580378148</v>
+      </c>
+      <c r="AA132" s="17"/>
       <c r="AB132" s="10"/>
       <c r="AC132" s="10"/>
       <c r="AD132" s="10"/>
@@ -36016,8 +36184,10 @@
       <c r="Y133" s="17">
         <v>3.2364306377475032</v>
       </c>
-      <c r="Z133" s="17"/>
-      <c r="AA133" s="10"/>
+      <c r="Z133" s="17">
+        <v>-4.9829656478571138</v>
+      </c>
+      <c r="AA133" s="17"/>
       <c r="AB133" s="10"/>
       <c r="AC133" s="10"/>
       <c r="AD133" s="10"/>
@@ -36159,8 +36329,10 @@
       <c r="Y134" s="17">
         <v>10.371691578699767</v>
       </c>
-      <c r="Z134" s="17"/>
-      <c r="AA134" s="10"/>
+      <c r="Z134" s="17">
+        <v>16.771018717082711</v>
+      </c>
+      <c r="AA134" s="17"/>
       <c r="AB134" s="10"/>
       <c r="AC134" s="10"/>
       <c r="AD134" s="10"/>
@@ -36302,8 +36474,10 @@
       <c r="Y135" s="17">
         <v>-11.917662795732213</v>
       </c>
-      <c r="Z135" s="17"/>
-      <c r="AA135" s="10"/>
+      <c r="Z135" s="17">
+        <v>10.284124643380039</v>
+      </c>
+      <c r="AA135" s="17"/>
       <c r="AB135" s="10"/>
       <c r="AC135" s="10"/>
       <c r="AD135" s="10"/>
@@ -36445,8 +36619,10 @@
       <c r="Y136" s="17">
         <v>5.4993681805624277</v>
       </c>
-      <c r="Z136" s="17"/>
-      <c r="AA136" s="10"/>
+      <c r="Z136" s="17">
+        <v>6.7418374339923304</v>
+      </c>
+      <c r="AA136" s="17"/>
       <c r="AB136" s="10"/>
       <c r="AC136" s="10"/>
       <c r="AD136" s="10"/>
@@ -36588,8 +36764,10 @@
       <c r="Y137" s="17">
         <v>7.2102343897210375</v>
       </c>
-      <c r="Z137" s="17"/>
-      <c r="AA137" s="10"/>
+      <c r="Z137" s="17">
+        <v>3.6241974185017085</v>
+      </c>
+      <c r="AA137" s="17"/>
       <c r="AB137" s="10"/>
       <c r="AC137" s="10"/>
       <c r="AD137" s="10"/>
@@ -36731,8 +36909,10 @@
       <c r="Y138" s="17">
         <v>8.3428352997186153</v>
       </c>
-      <c r="Z138" s="17"/>
-      <c r="AA138" s="10"/>
+      <c r="Z138" s="17">
+        <v>-8.7048619428794893</v>
+      </c>
+      <c r="AA138" s="17"/>
       <c r="AB138" s="10"/>
       <c r="AC138" s="10"/>
       <c r="AD138" s="10"/>
@@ -36874,8 +37054,10 @@
       <c r="Y139" s="17">
         <v>5.3446506398861828</v>
       </c>
-      <c r="Z139" s="17"/>
-      <c r="AA139" s="10"/>
+      <c r="Z139" s="17">
+        <v>-9.6756527582761578</v>
+      </c>
+      <c r="AA139" s="17"/>
       <c r="AB139" s="10"/>
       <c r="AC139" s="10"/>
       <c r="AD139" s="10"/>
@@ -37017,8 +37199,10 @@
       <c r="Y140" s="17">
         <v>1.613650136446438</v>
       </c>
-      <c r="Z140" s="17"/>
-      <c r="AA140" s="10"/>
+      <c r="Z140" s="17">
+        <v>3.3431343062726597</v>
+      </c>
+      <c r="AA140" s="17"/>
       <c r="AB140" s="10"/>
       <c r="AC140" s="10"/>
       <c r="AD140" s="10"/>
@@ -37160,8 +37344,10 @@
       <c r="Y141" s="17">
         <v>1.237476695710285</v>
       </c>
-      <c r="Z141" s="17"/>
-      <c r="AA141" s="10"/>
+      <c r="Z141" s="17">
+        <v>-0.97460553335069733</v>
+      </c>
+      <c r="AA141" s="17"/>
       <c r="AB141" s="10"/>
       <c r="AC141" s="10"/>
       <c r="AD141" s="10"/>
@@ -37303,8 +37489,10 @@
       <c r="Y142" s="17">
         <v>-8.1146582532291092</v>
       </c>
-      <c r="Z142" s="17"/>
-      <c r="AA142" s="10"/>
+      <c r="Z142" s="17">
+        <v>2.9113525822543664</v>
+      </c>
+      <c r="AA142" s="17"/>
       <c r="AB142" s="10"/>
       <c r="AC142" s="10"/>
       <c r="AD142" s="10"/>
@@ -37446,8 +37634,10 @@
       <c r="Y143" s="17">
         <v>-8.2430596146412398</v>
       </c>
-      <c r="Z143" s="17"/>
-      <c r="AA143" s="10"/>
+      <c r="Z143" s="17">
+        <v>-34.06692416025048</v>
+      </c>
+      <c r="AA143" s="17"/>
       <c r="AB143" s="10"/>
       <c r="AC143" s="10"/>
       <c r="AD143" s="10"/>
@@ -37589,8 +37779,10 @@
       <c r="Y144" s="17">
         <v>4.2158866005138407</v>
       </c>
-      <c r="Z144" s="17"/>
-      <c r="AA144" s="10"/>
+      <c r="Z144" s="17">
+        <v>2.5026455653085264</v>
+      </c>
+      <c r="AA144" s="17"/>
       <c r="AB144" s="10"/>
       <c r="AC144" s="10"/>
       <c r="AD144" s="10"/>
@@ -37732,8 +37924,10 @@
       <c r="Y145" s="17">
         <v>2.0135272840180676</v>
       </c>
-      <c r="Z145" s="17"/>
-      <c r="AA145" s="10"/>
+      <c r="Z145" s="17">
+        <v>0.57367163465866611</v>
+      </c>
+      <c r="AA145" s="17"/>
       <c r="AB145" s="10"/>
       <c r="AC145" s="10"/>
       <c r="AD145" s="10"/>
@@ -37875,8 +38069,10 @@
       <c r="Y146" s="17">
         <v>11.48807751967793</v>
       </c>
-      <c r="Z146" s="17"/>
-      <c r="AA146" s="10"/>
+      <c r="Z146" s="17">
+        <v>-1.0061642851552932</v>
+      </c>
+      <c r="AA146" s="17"/>
       <c r="AB146" s="10"/>
       <c r="AC146" s="10"/>
       <c r="AD146" s="10"/>
@@ -38018,8 +38214,10 @@
       <c r="Y147" s="17">
         <v>15.791565234705573</v>
       </c>
-      <c r="Z147" s="17"/>
-      <c r="AA147" s="10"/>
+      <c r="Z147" s="17">
+        <v>-7.8245114076052857</v>
+      </c>
+      <c r="AA147" s="17"/>
       <c r="AB147" s="10"/>
       <c r="AC147" s="10"/>
       <c r="AD147" s="10"/>
@@ -38161,8 +38359,10 @@
       <c r="Y148" s="17">
         <v>1.3046452766809438</v>
       </c>
-      <c r="Z148" s="17"/>
-      <c r="AA148" s="10"/>
+      <c r="Z148" s="17">
+        <v>7.9111427750636665</v>
+      </c>
+      <c r="AA148" s="17"/>
       <c r="AB148" s="10"/>
       <c r="AC148" s="10"/>
       <c r="AD148" s="10"/>
@@ -38304,8 +38504,10 @@
       <c r="Y149" s="17">
         <v>15.996508759966048</v>
       </c>
-      <c r="Z149" s="17"/>
-      <c r="AA149" s="10"/>
+      <c r="Z149" s="17">
+        <v>-0.14495660457706094</v>
+      </c>
+      <c r="AA149" s="17"/>
       <c r="AB149" s="10"/>
       <c r="AC149" s="10"/>
       <c r="AD149" s="10"/>
@@ -38447,8 +38649,10 @@
       <c r="Y150" s="17">
         <v>1.2761758145076101</v>
       </c>
-      <c r="Z150" s="17"/>
-      <c r="AA150" s="10"/>
+      <c r="Z150" s="17">
+        <v>8.2017403137247413</v>
+      </c>
+      <c r="AA150" s="17"/>
       <c r="AB150" s="10"/>
       <c r="AC150" s="10"/>
       <c r="AD150" s="10"/>
@@ -38683,8 +38887,10 @@
       <c r="Y152" s="17">
         <v>3.6996758384185853</v>
       </c>
-      <c r="Z152" s="17"/>
-      <c r="AA152" s="10"/>
+      <c r="Z152" s="17">
+        <v>2.4751428528130219</v>
+      </c>
+      <c r="AA152" s="17"/>
       <c r="AB152" s="10"/>
       <c r="AC152" s="10"/>
       <c r="AD152" s="10"/>
@@ -38777,6 +38983,7 @@
       <c r="X153" s="13"/>
       <c r="Y153" s="13"/>
       <c r="Z153" s="13"/>
+      <c r="AA153" s="13"/>
     </row>
     <row r="154" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
@@ -38977,7 +39184,7 @@
     </row>
     <row r="158" spans="1:92" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="160" spans="1:92" x14ac:dyDescent="0.2">
@@ -38987,7 +39194,7 @@
     </row>
     <row r="161" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="162" spans="1:96" x14ac:dyDescent="0.2">
@@ -39024,6 +39231,7 @@
       <c r="X164" s="1"/>
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
+      <c r="AA164" s="1"/>
     </row>
     <row r="165" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A165" s="7" t="s">
@@ -39103,6 +39311,9 @@
       </c>
       <c r="Z165" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA165" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="166" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -39187,7 +39398,9 @@
       <c r="Z167" s="17">
         <v>117.08578140560564</v>
       </c>
-      <c r="AA167" s="10"/>
+      <c r="AA167" s="17">
+        <v>117.78318962399325</v>
+      </c>
       <c r="AB167" s="10"/>
       <c r="AC167" s="10"/>
       <c r="AD167" s="10"/>
@@ -39337,7 +39550,9 @@
       <c r="Z168" s="17">
         <v>125.98916330885714</v>
       </c>
-      <c r="AA168" s="10"/>
+      <c r="AA168" s="17">
+        <v>124.2535345367783</v>
+      </c>
       <c r="AB168" s="10"/>
       <c r="AC168" s="10"/>
       <c r="AD168" s="10"/>
@@ -39487,7 +39702,9 @@
       <c r="Z169" s="17">
         <v>106.16411829804892</v>
       </c>
-      <c r="AA169" s="10"/>
+      <c r="AA169" s="17">
+        <v>107.75731787409315</v>
+      </c>
       <c r="AB169" s="10"/>
       <c r="AC169" s="10"/>
       <c r="AD169" s="10"/>
@@ -39637,7 +39854,9 @@
       <c r="Z170" s="17">
         <v>99.073662461409512</v>
       </c>
-      <c r="AA170" s="10"/>
+      <c r="AA170" s="17">
+        <v>98.519609216662374</v>
+      </c>
       <c r="AB170" s="10"/>
       <c r="AC170" s="10"/>
       <c r="AD170" s="10"/>
@@ -39787,7 +40006,9 @@
       <c r="Z171" s="17">
         <v>85.301567379104313</v>
       </c>
-      <c r="AA171" s="10"/>
+      <c r="AA171" s="17">
+        <v>85.763177576983395</v>
+      </c>
       <c r="AB171" s="10"/>
       <c r="AC171" s="10"/>
       <c r="AD171" s="10"/>
@@ -39937,7 +40158,9 @@
       <c r="Z172" s="17">
         <v>98.826813046198055</v>
       </c>
-      <c r="AA172" s="10"/>
+      <c r="AA172" s="17">
+        <v>99.584442500687203</v>
+      </c>
       <c r="AB172" s="10"/>
       <c r="AC172" s="10"/>
       <c r="AD172" s="10"/>
@@ -40087,7 +40310,9 @@
       <c r="Z173" s="17">
         <v>67.981251773066049</v>
       </c>
-      <c r="AA173" s="10"/>
+      <c r="AA173" s="17">
+        <v>67.749364633933467</v>
+      </c>
       <c r="AB173" s="10"/>
       <c r="AC173" s="10"/>
       <c r="AD173" s="10"/>
@@ -40237,7 +40462,9 @@
       <c r="Z174" s="17">
         <v>89.485428393788595</v>
       </c>
-      <c r="AA174" s="10"/>
+      <c r="AA174" s="17">
+        <v>87.404653313491778</v>
+      </c>
       <c r="AB174" s="10"/>
       <c r="AC174" s="10"/>
       <c r="AD174" s="10"/>
@@ -40387,7 +40614,9 @@
       <c r="Z175" s="17">
         <v>107.5908194284404</v>
       </c>
-      <c r="AA175" s="10"/>
+      <c r="AA175" s="17">
+        <v>107.2851985698795</v>
+      </c>
       <c r="AB175" s="10"/>
       <c r="AC175" s="10"/>
       <c r="AD175" s="10"/>
@@ -40537,7 +40766,9 @@
       <c r="Z176" s="17">
         <v>100.06670850428966</v>
       </c>
-      <c r="AA176" s="10"/>
+      <c r="AA176" s="17">
+        <v>103.63395106857136</v>
+      </c>
       <c r="AB176" s="10"/>
       <c r="AC176" s="10"/>
       <c r="AD176" s="10"/>
@@ -40687,7 +40918,9 @@
       <c r="Z177" s="17">
         <v>95.384698611723778</v>
       </c>
-      <c r="AA177" s="10"/>
+      <c r="AA177" s="17">
+        <v>95.057311087710005</v>
+      </c>
       <c r="AB177" s="10"/>
       <c r="AC177" s="10"/>
       <c r="AD177" s="10"/>
@@ -40837,7 +41070,9 @@
       <c r="Z178" s="17">
         <v>71.139786265098266</v>
       </c>
-      <c r="AA178" s="10"/>
+      <c r="AA178" s="17">
+        <v>67.821810060582237</v>
+      </c>
       <c r="AB178" s="10"/>
       <c r="AC178" s="10"/>
       <c r="AD178" s="10"/>
@@ -40987,7 +41222,9 @@
       <c r="Z179" s="17">
         <v>112.41507650546312</v>
       </c>
-      <c r="AA179" s="10"/>
+      <c r="AA179" s="17">
+        <v>111.85264788932695</v>
+      </c>
       <c r="AB179" s="10"/>
       <c r="AC179" s="10"/>
       <c r="AD179" s="10"/>
@@ -41137,7 +41374,9 @@
       <c r="Z180" s="17">
         <v>102.55602445416802</v>
       </c>
-      <c r="AA180" s="10"/>
+      <c r="AA180" s="17">
+        <v>103.09842866351524</v>
+      </c>
       <c r="AB180" s="10"/>
       <c r="AC180" s="10"/>
       <c r="AD180" s="10"/>
@@ -41287,7 +41526,9 @@
       <c r="Z181" s="17">
         <v>71.041955264904132</v>
       </c>
-      <c r="AA181" s="10"/>
+      <c r="AA181" s="17">
+        <v>71.878434049173819</v>
+      </c>
       <c r="AB181" s="10"/>
       <c r="AC181" s="10"/>
       <c r="AD181" s="10"/>
@@ -41437,7 +41678,9 @@
       <c r="Z182" s="17">
         <v>97.349865518349915</v>
       </c>
-      <c r="AA182" s="10"/>
+      <c r="AA182" s="17">
+        <v>96.765729027784019</v>
+      </c>
       <c r="AB182" s="10"/>
       <c r="AC182" s="10"/>
       <c r="AD182" s="10"/>
@@ -41587,7 +41830,9 @@
       <c r="Z183" s="17">
         <v>91.375186852911185</v>
       </c>
-      <c r="AA183" s="10"/>
+      <c r="AA183" s="17">
+        <v>92.188170493947268</v>
+      </c>
       <c r="AB183" s="10"/>
       <c r="AC183" s="10"/>
       <c r="AD183" s="10"/>
@@ -41737,7 +41982,9 @@
       <c r="Z184" s="17">
         <v>92.911220610757667</v>
       </c>
-      <c r="AA184" s="10"/>
+      <c r="AA184" s="17">
+        <v>93.35617764376299</v>
+      </c>
       <c r="AB184" s="10"/>
       <c r="AC184" s="10"/>
       <c r="AD184" s="10"/>
@@ -41887,7 +42134,9 @@
       <c r="Z185" s="17">
         <v>92.62168962320348</v>
       </c>
-      <c r="AA185" s="10"/>
+      <c r="AA185" s="17">
+        <v>89.440228274964426</v>
+      </c>
       <c r="AB185" s="10"/>
       <c r="AC185" s="10"/>
       <c r="AD185" s="10"/>
@@ -42037,7 +42286,9 @@
       <c r="Z186" s="17">
         <v>85.486106677290564</v>
       </c>
-      <c r="AA186" s="10"/>
+      <c r="AA186" s="17">
+        <v>84.445558997322408</v>
+      </c>
       <c r="AB186" s="10"/>
       <c r="AC186" s="10"/>
       <c r="AD186" s="10"/>
@@ -42187,7 +42438,9 @@
       <c r="Z187" s="17">
         <v>97.78891818994019</v>
       </c>
-      <c r="AA187" s="10"/>
+      <c r="AA187" s="17">
+        <v>98.210295310672024</v>
+      </c>
       <c r="AB187" s="10"/>
       <c r="AC187" s="10"/>
       <c r="AD187" s="10"/>
@@ -42337,7 +42590,9 @@
       <c r="Z188" s="17">
         <v>92.451564326035708</v>
       </c>
-      <c r="AA188" s="10"/>
+      <c r="AA188" s="17">
+        <v>91.983672188550656</v>
+      </c>
       <c r="AB188" s="10"/>
       <c r="AC188" s="10"/>
       <c r="AD188" s="10"/>
@@ -42585,7 +42840,9 @@
       <c r="Z190" s="17">
         <v>105.74609828061298</v>
       </c>
-      <c r="AA190" s="10"/>
+      <c r="AA190" s="17">
+        <v>106.85927636840282</v>
+      </c>
       <c r="AB190" s="10"/>
       <c r="AC190" s="10"/>
       <c r="AD190" s="10"/>
@@ -42683,6 +42940,7 @@
       <c r="X191" s="13"/>
       <c r="Y191" s="13"/>
       <c r="Z191" s="13"/>
+      <c r="AA191" s="13"/>
     </row>
     <row r="192" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A192" s="14" t="s">
@@ -42701,7 +42959,7 @@
     </row>
     <row r="197" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" spans="1:96" x14ac:dyDescent="0.2">
@@ -42711,7 +42969,7 @@
     </row>
     <row r="200" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="201" spans="1:96" x14ac:dyDescent="0.2">
@@ -42748,6 +43006,7 @@
       <c r="X203" s="1"/>
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
+      <c r="AA203" s="1"/>
     </row>
     <row r="204" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A204" s="7" t="s">
@@ -42827,6 +43086,9 @@
       </c>
       <c r="Z204" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA204" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="205" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -42911,7 +43173,9 @@
       <c r="Z206" s="17">
         <v>53.761134307204259</v>
       </c>
-      <c r="AA206" s="10"/>
+      <c r="AA206" s="17">
+        <v>56.842129928269571</v>
+      </c>
       <c r="AB206" s="10"/>
       <c r="AC206" s="10"/>
       <c r="AD206" s="10"/>
@@ -43061,7 +43325,9 @@
       <c r="Z207" s="17">
         <v>4.936210804531159</v>
       </c>
-      <c r="AA207" s="10"/>
+      <c r="AA207" s="17">
+        <v>4.5559159820706832</v>
+      </c>
       <c r="AB207" s="10"/>
       <c r="AC207" s="10"/>
       <c r="AD207" s="10"/>
@@ -43211,7 +43477,9 @@
       <c r="Z208" s="17">
         <v>0.34688721124673222</v>
       </c>
-      <c r="AA208" s="10"/>
+      <c r="AA208" s="17">
+        <v>0.37382286109101481</v>
+      </c>
       <c r="AB208" s="10"/>
       <c r="AC208" s="10"/>
       <c r="AD208" s="10"/>
@@ -43361,7 +43629,9 @@
       <c r="Z209" s="17">
         <v>0.90842948187684291</v>
       </c>
-      <c r="AA209" s="10"/>
+      <c r="AA209" s="17">
+        <v>0.9454448878597449</v>
+      </c>
       <c r="AB209" s="10"/>
       <c r="AC209" s="10"/>
       <c r="AD209" s="10"/>
@@ -43511,7 +43781,9 @@
       <c r="Z210" s="17">
         <v>1.0585598956121327</v>
       </c>
-      <c r="AA210" s="10"/>
+      <c r="AA210" s="17">
+        <v>0.97654969955103121</v>
+      </c>
       <c r="AB210" s="10"/>
       <c r="AC210" s="10"/>
       <c r="AD210" s="10"/>
@@ -43661,7 +43933,9 @@
       <c r="Z211" s="17">
         <v>0.2878942454632647</v>
       </c>
-      <c r="AA211" s="10"/>
+      <c r="AA211" s="17">
+        <v>0.32712847563672237</v>
+      </c>
       <c r="AB211" s="10"/>
       <c r="AC211" s="10"/>
       <c r="AD211" s="10"/>
@@ -43811,7 +44085,9 @@
       <c r="Z212" s="17">
         <v>0.63650605730018095</v>
       </c>
-      <c r="AA212" s="10"/>
+      <c r="AA212" s="17">
+        <v>0.67556198281851099</v>
+      </c>
       <c r="AB212" s="10"/>
       <c r="AC212" s="10"/>
       <c r="AD212" s="10"/>
@@ -43961,7 +44237,9 @@
       <c r="Z213" s="17">
         <v>0.67402491076530724</v>
       </c>
-      <c r="AA213" s="10"/>
+      <c r="AA213" s="17">
+        <v>0.67861967342640905</v>
+      </c>
       <c r="AB213" s="10"/>
       <c r="AC213" s="10"/>
       <c r="AD213" s="10"/>
@@ -44111,7 +44389,9 @@
       <c r="Z214" s="17">
         <v>0.89286209543463657</v>
       </c>
-      <c r="AA214" s="10"/>
+      <c r="AA214" s="17">
+        <v>0.8909303450708107</v>
+      </c>
       <c r="AB214" s="10"/>
       <c r="AC214" s="10"/>
       <c r="AD214" s="10"/>
@@ -44261,7 +44541,9 @@
       <c r="Z215" s="17">
         <v>3.5689353219623987</v>
       </c>
-      <c r="AA215" s="10"/>
+      <c r="AA215" s="17">
+        <v>3.2586098006194373</v>
+      </c>
       <c r="AB215" s="10"/>
       <c r="AC215" s="10"/>
       <c r="AD215" s="10"/>
@@ -44411,7 +44693,9 @@
       <c r="Z216" s="17">
         <v>11.120817153553912</v>
       </c>
-      <c r="AA216" s="10"/>
+      <c r="AA216" s="17">
+        <v>9.666782252720985</v>
+      </c>
       <c r="AB216" s="10"/>
       <c r="AC216" s="10"/>
       <c r="AD216" s="10"/>
@@ -44561,7 +44845,9 @@
       <c r="Z217" s="17">
         <v>1.007963385231184</v>
       </c>
-      <c r="AA217" s="10"/>
+      <c r="AA217" s="17">
+        <v>0.95899600212289404</v>
+      </c>
       <c r="AB217" s="10"/>
       <c r="AC217" s="10"/>
       <c r="AD217" s="10"/>
@@ -44711,7 +44997,9 @@
       <c r="Z218" s="17">
         <v>0.93127815857481544</v>
       </c>
-      <c r="AA218" s="10"/>
+      <c r="AA218" s="17">
+        <v>0.88609706625567153</v>
+      </c>
       <c r="AB218" s="10"/>
       <c r="AC218" s="10"/>
       <c r="AD218" s="10"/>
@@ -44861,7 +45149,9 @@
       <c r="Z219" s="17">
         <v>2.0095072677223356</v>
       </c>
-      <c r="AA219" s="10"/>
+      <c r="AA219" s="17">
+        <v>2.0076006484789621</v>
+      </c>
       <c r="AB219" s="10"/>
       <c r="AC219" s="10"/>
       <c r="AD219" s="10"/>
@@ -45011,7 +45301,9 @@
       <c r="Z220" s="17">
         <v>1.6205880025605288</v>
       </c>
-      <c r="AA220" s="10"/>
+      <c r="AA220" s="17">
+        <v>1.0439825698728606</v>
+      </c>
       <c r="AB220" s="10"/>
       <c r="AC220" s="10"/>
       <c r="AD220" s="10"/>
@@ -45161,7 +45453,9 @@
       <c r="Z221" s="17">
         <v>0.73440531301622258</v>
       </c>
-      <c r="AA221" s="10"/>
+      <c r="AA221" s="17">
+        <v>0.72258791269583678</v>
+      </c>
       <c r="AB221" s="10"/>
       <c r="AC221" s="10"/>
       <c r="AD221" s="10"/>
@@ -45311,7 +45605,9 @@
       <c r="Z222" s="17">
         <v>9.0906456543135707</v>
       </c>
-      <c r="AA222" s="10"/>
+      <c r="AA222" s="17">
+        <v>8.9075761539550129</v>
+      </c>
       <c r="AB222" s="10"/>
       <c r="AC222" s="10"/>
       <c r="AD222" s="10"/>
@@ -45461,7 +45757,9 @@
       <c r="Z223" s="17">
         <v>1.4225343027901669</v>
       </c>
-      <c r="AA223" s="10"/>
+      <c r="AA223" s="17">
+        <v>1.366404824906603</v>
+      </c>
       <c r="AB223" s="10"/>
       <c r="AC223" s="10"/>
       <c r="AD223" s="10"/>
@@ -45611,7 +45909,9 @@
       <c r="Z224" s="17">
         <v>1.2205366606084711</v>
       </c>
-      <c r="AA224" s="10"/>
+      <c r="AA224" s="17">
+        <v>1.049107683094697</v>
+      </c>
       <c r="AB224" s="10"/>
       <c r="AC224" s="10"/>
       <c r="AD224" s="10"/>
@@ -45761,7 +46061,9 @@
       <c r="Z225" s="17">
         <v>1.4463917411074176</v>
       </c>
-      <c r="AA225" s="10"/>
+      <c r="AA225" s="17">
+        <v>1.4889053570246471</v>
+      </c>
       <c r="AB225" s="10"/>
       <c r="AC225" s="10"/>
       <c r="AD225" s="10"/>
@@ -45911,7 +46213,9 @@
       <c r="Z226" s="17">
         <v>0.54324977857800572</v>
       </c>
-      <c r="AA226" s="10"/>
+      <c r="AA226" s="17">
+        <v>0.52610269781517227</v>
+      </c>
       <c r="AB226" s="10"/>
       <c r="AC226" s="10"/>
       <c r="AD226" s="10"/>
@@ -46061,7 +46365,9 @@
       <c r="Z227" s="17">
         <v>1.7806382505464406</v>
       </c>
-      <c r="AA227" s="10"/>
+      <c r="AA227" s="17">
+        <v>1.8511431946427082</v>
+      </c>
       <c r="AB227" s="10"/>
       <c r="AC227" s="10"/>
       <c r="AD227" s="10"/>
@@ -46309,7 +46615,9 @@
       <c r="Z229" s="17">
         <v>100</v>
       </c>
-      <c r="AA229" s="10"/>
+      <c r="AA229" s="17">
+        <v>100</v>
+      </c>
       <c r="AB229" s="10"/>
       <c r="AC229" s="10"/>
       <c r="AD229" s="10"/>
@@ -46407,6 +46715,7 @@
       <c r="X230" s="13"/>
       <c r="Y230" s="13"/>
       <c r="Z230" s="13"/>
+      <c r="AA230" s="13"/>
     </row>
     <row r="231" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A231" s="14" t="s">
@@ -46621,7 +46930,7 @@
     </row>
     <row r="236" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="238" spans="1:96" x14ac:dyDescent="0.2">
@@ -46631,7 +46940,7 @@
     </row>
     <row r="239" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="240" spans="1:96" x14ac:dyDescent="0.2">
@@ -46668,6 +46977,7 @@
       <c r="X242" s="1"/>
       <c r="Y242" s="1"/>
       <c r="Z242" s="1"/>
+      <c r="AA242" s="1"/>
     </row>
     <row r="243" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A243" s="7" t="s">
@@ -46747,6 +47057,9 @@
       </c>
       <c r="Z243" s="15">
         <v>2024</v>
+      </c>
+      <c r="AA243" s="15">
+        <v>2025</v>
       </c>
     </row>
     <row r="244" spans="1:96" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -46831,7 +47144,9 @@
       <c r="Z245" s="17">
         <v>48.554402796637767</v>
       </c>
-      <c r="AA245" s="10"/>
+      <c r="AA245" s="17">
+        <v>51.570252858361052</v>
+      </c>
       <c r="AB245" s="10"/>
       <c r="AC245" s="10"/>
       <c r="AD245" s="10"/>
@@ -46981,7 +47296,9 @@
       <c r="Z246" s="17">
         <v>4.1430946849781938</v>
       </c>
-      <c r="AA246" s="10"/>
+      <c r="AA246" s="17">
+        <v>3.9181330885618566</v>
+      </c>
       <c r="AB246" s="10"/>
       <c r="AC246" s="10"/>
       <c r="AD246" s="10"/>
@@ -47131,7 +47448,9 @@
       <c r="Z247" s="17">
         <v>0.34552134676805241</v>
       </c>
-      <c r="AA247" s="10"/>
+      <c r="AA247" s="17">
+        <v>0.37070744905535247</v>
+      </c>
       <c r="AB247" s="10"/>
       <c r="AC247" s="10"/>
       <c r="AD247" s="10"/>
@@ -47281,7 +47600,9 @@
       <c r="Z248" s="17">
         <v>0.96961059967852425</v>
       </c>
-      <c r="AA248" s="10"/>
+      <c r="AA248" s="17">
+        <v>1.0254766271018787</v>
+      </c>
       <c r="AB248" s="10"/>
       <c r="AC248" s="10"/>
       <c r="AD248" s="10"/>
@@ -47431,7 +47752,9 @@
       <c r="Z249" s="17">
         <v>1.3122687213920619</v>
       </c>
-      <c r="AA249" s="10"/>
+      <c r="AA249" s="17">
+        <v>1.2167622187055032</v>
+      </c>
       <c r="AB249" s="10"/>
       <c r="AC249" s="10"/>
       <c r="AD249" s="10"/>
@@ -47581,7 +47904,9 @@
       <c r="Z250" s="17">
         <v>0.30805094525257992</v>
       </c>
-      <c r="AA250" s="10"/>
+      <c r="AA250" s="17">
+        <v>0.35102583604660559</v>
+      </c>
       <c r="AB250" s="10"/>
       <c r="AC250" s="10"/>
       <c r="AD250" s="10"/>
@@ -47731,7 +48056,9 @@
       <c r="Z251" s="17">
         <v>0.99009698021091208</v>
       </c>
-      <c r="AA251" s="10"/>
+      <c r="AA251" s="17">
+        <v>1.06554600203338</v>
+      </c>
       <c r="AB251" s="10"/>
       <c r="AC251" s="10"/>
       <c r="AD251" s="10"/>
@@ -47881,7 +48208,9 @@
       <c r="Z252" s="17">
         <v>0.79650403129004843</v>
       </c>
-      <c r="AA252" s="10"/>
+      <c r="AA252" s="17">
+        <v>0.82966758041604427</v>
+      </c>
       <c r="AB252" s="10"/>
       <c r="AC252" s="10"/>
       <c r="AD252" s="10"/>
@@ -48031,7 +48360,9 @@
       <c r="Z253" s="17">
         <v>0.8775533395547982</v>
       </c>
-      <c r="AA253" s="10"/>
+      <c r="AA253" s="17">
+        <v>0.8873933519068582</v>
+      </c>
       <c r="AB253" s="10"/>
       <c r="AC253" s="10"/>
       <c r="AD253" s="10"/>
@@ -48181,7 +48512,9 @@
       <c r="Z254" s="17">
         <v>3.7714939459331616</v>
       </c>
-      <c r="AA254" s="10"/>
+      <c r="AA254" s="17">
+        <v>3.3600251816200362</v>
+      </c>
       <c r="AB254" s="10"/>
       <c r="AC254" s="10"/>
       <c r="AD254" s="10"/>
@@ -48331,7 +48664,9 @@
       <c r="Z255" s="17">
         <v>12.328843523083668</v>
       </c>
-      <c r="AA255" s="10"/>
+      <c r="AA255" s="17">
+        <v>10.866974297048451</v>
+      </c>
       <c r="AB255" s="10"/>
       <c r="AC255" s="10"/>
       <c r="AD255" s="10"/>
@@ -48481,7 +48816,9 @@
       <c r="Z256" s="17">
         <v>1.4982923170547839</v>
       </c>
-      <c r="AA256" s="10"/>
+      <c r="AA256" s="17">
+        <v>1.5109832476530045</v>
+      </c>
       <c r="AB256" s="10"/>
       <c r="AC256" s="10"/>
       <c r="AD256" s="10"/>
@@ -48631,7 +48968,9 @@
       <c r="Z257" s="17">
         <v>0.87603046445869615</v>
       </c>
-      <c r="AA257" s="10"/>
+      <c r="AA257" s="17">
+        <v>0.84653955967081673</v>
+      </c>
       <c r="AB257" s="10"/>
       <c r="AC257" s="10"/>
       <c r="AD257" s="10"/>
@@ -48781,7 +49120,9 @@
       <c r="Z258" s="17">
         <v>2.0720143371307915</v>
       </c>
-      <c r="AA258" s="10"/>
+      <c r="AA258" s="17">
+        <v>2.0808343571691785</v>
+      </c>
       <c r="AB258" s="10"/>
       <c r="AC258" s="10"/>
       <c r="AD258" s="10"/>
@@ -48931,7 +49272,9 @@
       <c r="Z259" s="17">
         <v>2.4122486149506068</v>
       </c>
-      <c r="AA259" s="10"/>
+      <c r="AA259" s="17">
+        <v>1.552054151340011</v>
+      </c>
       <c r="AB259" s="10"/>
       <c r="AC259" s="10"/>
       <c r="AD259" s="10"/>
@@ -49081,7 +49424,9 @@
       <c r="Z260" s="17">
         <v>0.79774631422967113</v>
       </c>
-      <c r="AA260" s="10"/>
+      <c r="AA260" s="17">
+        <v>0.79796041676140528</v>
+      </c>
       <c r="AB260" s="10"/>
       <c r="AC260" s="10"/>
       <c r="AD260" s="10"/>
@@ -49231,7 +49576,9 @@
       <c r="Z261" s="17">
         <v>10.52036490324992</v>
       </c>
-      <c r="AA261" s="10"/>
+      <c r="AA261" s="17">
+        <v>10.325154918553988</v>
+      </c>
       <c r="AB261" s="10"/>
       <c r="AC261" s="10"/>
       <c r="AD261" s="10"/>
@@ -49381,7 +49728,9 @@
       <c r="Z262" s="17">
         <v>1.6190450539939962</v>
       </c>
-      <c r="AA262" s="10"/>
+      <c r="AA262" s="17">
+        <v>1.5640425143902483</v>
+      </c>
       <c r="AB262" s="10"/>
       <c r="AC262" s="10"/>
       <c r="AD262" s="10"/>
@@ -49531,7 +49880,9 @@
       <c r="Z263" s="17">
         <v>1.3934855884496933</v>
       </c>
-      <c r="AA263" s="10"/>
+      <c r="AA263" s="17">
+        <v>1.2534280156730244</v>
+      </c>
       <c r="AB263" s="10"/>
       <c r="AC263" s="10"/>
       <c r="AD263" s="10"/>
@@ -49681,7 +50032,9 @@
       <c r="Z264" s="17">
         <v>1.789182934541611</v>
       </c>
-      <c r="AA264" s="10"/>
+      <c r="AA264" s="17">
+        <v>1.8840937394675432</v>
+      </c>
       <c r="AB264" s="10"/>
       <c r="AC264" s="10"/>
       <c r="AD264" s="10"/>
@@ -49831,7 +50184,9 @@
       <c r="Z265" s="17">
         <v>0.58745454535911534</v>
       </c>
-      <c r="AA265" s="10"/>
+      <c r="AA265" s="17">
+        <v>0.57243442152530399</v>
+      </c>
       <c r="AB265" s="10"/>
       <c r="AC265" s="10"/>
       <c r="AD265" s="10"/>
@@ -49981,7 +50336,9 @@
       <c r="Z266" s="17">
         <v>2.036694011801333</v>
       </c>
-      <c r="AA266" s="10"/>
+      <c r="AA266" s="17">
+        <v>2.1505101669384663</v>
+      </c>
       <c r="AB266" s="10"/>
       <c r="AC266" s="10"/>
       <c r="AD266" s="10"/>
@@ -50229,7 +50586,9 @@
       <c r="Z268" s="17">
         <v>100</v>
       </c>
-      <c r="AA268" s="10"/>
+      <c r="AA268" s="17">
+        <v>100</v>
+      </c>
       <c r="AB268" s="10"/>
       <c r="AC268" s="10"/>
       <c r="AD268" s="10"/>
@@ -50327,6 +50686,7 @@
       <c r="X269" s="13"/>
       <c r="Y269" s="13"/>
       <c r="Z269" s="13"/>
+      <c r="AA269" s="13"/>
     </row>
     <row r="270" spans="1:96" x14ac:dyDescent="0.2">
       <c r="A270" s="14" t="s">
@@ -50535,12 +50895,12 @@
   <pageSetup paperSize="9" scale="33" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="6" manualBreakCount="6">
-    <brk id="39" max="25" man="1"/>
-    <brk id="78" max="25" man="1"/>
-    <brk id="117" max="25" man="1"/>
-    <brk id="156" max="25" man="1"/>
-    <brk id="194" max="25" man="1"/>
-    <brk id="233" max="25" man="1"/>
+    <brk id="39" max="26" man="1"/>
+    <brk id="78" max="26" man="1"/>
+    <brk id="117" max="26" man="1"/>
+    <brk id="156" max="26" man="1"/>
+    <brk id="194" max="26" man="1"/>
+    <brk id="233" max="26" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>